--- a/FOF/data/基金公司-板块.xlsx
+++ b/FOF/data/基金公司-板块.xlsx
@@ -16,157 +16,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>建信公司</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>安信公司</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>长信公司</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>东方公司</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
     <t>汇丰晋信</t>
   </si>
   <si>
     <t>华安</t>
   </si>
   <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>安信公司</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>大成</t>
+    <t>海富通</t>
   </si>
   <si>
     <t>招商</t>
   </si>
   <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>建信公司</t>
-  </si>
-  <si>
-    <t>长信公司</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>东方公司</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
     <t>上投摩根</t>
   </si>
   <si>
     <t>名称</t>
   </si>
   <si>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
     <t>上证50</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中证1000</t>
-  </si>
-  <si>
-    <t>创业板综</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0.1464696025377085</v>
+        <v>0.9531781498865023</v>
       </c>
       <c r="C2">
-        <v>0.05515192750427162</v>
+        <v>0.9251087434513475</v>
       </c>
       <c r="D2">
-        <v>0.2773432205530087</v>
+        <v>0.9717071262961016</v>
       </c>
       <c r="E2">
-        <v>0.1396868591899168</v>
+        <v>0.9877615721473363</v>
       </c>
       <c r="F2">
-        <v>0.2275059587464582</v>
+        <v>0.8680657570060483</v>
       </c>
       <c r="G2">
-        <v>-0.2205795865590966</v>
+        <v>0.9624915753868933</v>
       </c>
       <c r="H2">
-        <v>-0.1695198486407696</v>
+        <v>0.986688057690434</v>
       </c>
       <c r="I2">
-        <v>-0.1942125323021761</v>
+        <v>0.9687405234540293</v>
       </c>
       <c r="J2">
-        <v>-0.4476251489854002</v>
+        <v>0.7870359541384897</v>
       </c>
       <c r="K2">
-        <v>-0.3021788394128754</v>
+        <v>0.9846544967879709</v>
       </c>
       <c r="L2">
-        <v>-0.1904527168312451</v>
+        <v>0.9604855727540862</v>
       </c>
       <c r="M2">
-        <v>-0.3817707711295585</v>
+        <v>0.9234125572708374</v>
       </c>
       <c r="N2">
-        <v>-0.3231834568552623</v>
+        <v>0.8690151562190228</v>
       </c>
       <c r="O2">
-        <v>-0.4227249860903023</v>
+        <v>0.9864529857740127</v>
       </c>
       <c r="P2">
-        <v>-0.5067923234032349</v>
+        <v>0.9812724837329596</v>
       </c>
       <c r="Q2">
-        <v>-0.6564241859852646</v>
+        <v>0.888280755991404</v>
       </c>
       <c r="R2">
-        <v>-0.7257404247882565</v>
+        <v>0.9683923703056956</v>
       </c>
       <c r="S2">
-        <v>-0.4094076666527039</v>
+        <v>0.9855263677926823</v>
       </c>
       <c r="T2">
-        <v>-0.4609433780758227</v>
+        <v>0.9964581133641016</v>
       </c>
       <c r="U2">
-        <v>-0.4815351620147691</v>
+        <v>0.8409767731397855</v>
       </c>
       <c r="V2">
-        <v>-0.53386522918085</v>
+        <v>0.9380878141276492</v>
       </c>
       <c r="W2">
-        <v>-0.3360962100442926</v>
+        <v>0.8505572140034724</v>
       </c>
       <c r="X2">
-        <v>-0.3095194573886749</v>
+        <v>0.9038470998386915</v>
       </c>
       <c r="Y2">
-        <v>-0.6072828062044298</v>
+        <v>0.9656936869589852</v>
       </c>
       <c r="Z2">
-        <v>-0.5546845086303895</v>
+        <v>0.9126648526048141</v>
       </c>
       <c r="AA2">
-        <v>-0.3880686303732333</v>
+        <v>0.964662543599524</v>
       </c>
       <c r="AB2">
-        <v>-0.4652021905040894</v>
+        <v>0.9710646917860661</v>
       </c>
       <c r="AC2">
-        <v>-0.5610615064767368</v>
+        <v>0.9519122727092497</v>
       </c>
       <c r="AD2">
-        <v>-0.6571830382653521</v>
+        <v>0.9134060109028075</v>
       </c>
       <c r="AE2">
-        <v>-0.6635823177108828</v>
+        <v>0.8490554151072138</v>
       </c>
       <c r="AF2">
-        <v>-0.5489649199264633</v>
+        <v>0.9352208493063001</v>
       </c>
       <c r="AG2">
-        <v>-0.6990538399589415</v>
+        <v>0.8653273164815909</v>
       </c>
       <c r="AH2">
-        <v>-0.4648410639061856</v>
+        <v>0.871740605182367</v>
       </c>
       <c r="AI2">
-        <v>-0.6258195760646992</v>
+        <v>0.7599995446169857</v>
       </c>
       <c r="AJ2">
-        <v>-0.4797014389455923</v>
+        <v>0.8633250622971781</v>
       </c>
       <c r="AK2">
-        <v>-0.8114495055454163</v>
+        <v>0.8495917134008977</v>
       </c>
       <c r="AL2">
-        <v>-0.570000601379705</v>
+        <v>0.6752874262384031</v>
       </c>
       <c r="AM2">
-        <v>-0.612035684449395</v>
+        <v>0.7369020173738801</v>
       </c>
       <c r="AN2">
-        <v>-0.5099253054356478</v>
+        <v>0.3880530692882348</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0.3102988358694347</v>
+        <v>0.8333563347747633</v>
       </c>
       <c r="C3">
-        <v>0.2116868908538172</v>
+        <v>0.7969080386946764</v>
       </c>
       <c r="D3">
-        <v>0.4298518596268506</v>
+        <v>0.7868822240841585</v>
       </c>
       <c r="E3">
-        <v>0.3094486281707993</v>
+        <v>0.8429664786705642</v>
       </c>
       <c r="F3">
-        <v>0.3888655895648763</v>
+        <v>0.5972672329242702</v>
       </c>
       <c r="G3">
-        <v>-0.05607355845030131</v>
+        <v>0.7709300095340642</v>
       </c>
       <c r="H3">
-        <v>-0.005046992776172818</v>
+        <v>0.8523775226386493</v>
       </c>
       <c r="I3">
-        <v>-0.04399406612865711</v>
+        <v>0.7944130460430443</v>
       </c>
       <c r="J3">
-        <v>-0.305988423483867</v>
+        <v>0.5043968222859369</v>
       </c>
       <c r="K3">
-        <v>-0.1444581340122721</v>
+        <v>0.8358327346339007</v>
       </c>
       <c r="L3">
-        <v>-0.02041711459703639</v>
+        <v>0.8140442724584918</v>
       </c>
       <c r="M3">
-        <v>-0.2302773067131779</v>
+        <v>0.7196669773318262</v>
       </c>
       <c r="N3">
-        <v>-0.1751366668845668</v>
+        <v>0.6369533965523391</v>
       </c>
       <c r="O3">
-        <v>-0.2586924245594956</v>
+        <v>0.8542519765119464</v>
       </c>
       <c r="P3">
-        <v>-0.3528582664376405</v>
+        <v>0.9552519239318491</v>
       </c>
       <c r="Q3">
-        <v>-0.5269729910341135</v>
+        <v>0.821956740422033</v>
       </c>
       <c r="R3">
-        <v>-0.621641619606863</v>
+        <v>0.7956981290510259</v>
       </c>
       <c r="S3">
-        <v>-0.2483583804783844</v>
+        <v>0.8673471547927654</v>
       </c>
       <c r="T3">
-        <v>-0.3125214371622509</v>
+        <v>0.9389615944207618</v>
       </c>
       <c r="U3">
-        <v>-0.3335769039035586</v>
+        <v>0.6317008321157572</v>
       </c>
       <c r="V3">
-        <v>-0.3902477713181612</v>
+        <v>0.8934527817653709</v>
       </c>
       <c r="W3">
-        <v>-0.1763105943760609</v>
+        <v>0.6408821795129195</v>
       </c>
       <c r="X3">
-        <v>-0.1446518205394551</v>
+        <v>0.7509265827124595</v>
       </c>
       <c r="Y3">
-        <v>-0.4836110533512657</v>
+        <v>0.8214935918831954</v>
       </c>
       <c r="Z3">
-        <v>-0.4197854440663085</v>
+        <v>0.7324496492146887</v>
       </c>
       <c r="AA3">
-        <v>-0.259192209108055</v>
+        <v>0.9224328185626681</v>
       </c>
       <c r="AB3">
-        <v>-0.312094714348527</v>
+        <v>0.8632087512362102</v>
       </c>
       <c r="AC3">
-        <v>-0.4235298096787786</v>
+        <v>0.8038820365682263</v>
       </c>
       <c r="AD3">
-        <v>-0.538243445331003</v>
+        <v>0.7781261772946227</v>
       </c>
       <c r="AE3">
-        <v>-0.5351975137381204</v>
+        <v>0.662848820785928</v>
       </c>
       <c r="AF3">
-        <v>-0.4091127098760264</v>
+        <v>0.7789927020026697</v>
       </c>
       <c r="AG3">
-        <v>-0.577493429685782</v>
+        <v>0.6896133635431186</v>
       </c>
       <c r="AH3">
-        <v>-0.3360824927021061</v>
+        <v>0.6939101484886905</v>
       </c>
       <c r="AI3">
-        <v>-0.4982006306366967</v>
+        <v>0.6377279805217824</v>
       </c>
       <c r="AJ3">
-        <v>-0.3419570196638804</v>
+        <v>0.7009937920716136</v>
       </c>
       <c r="AK3">
-        <v>-0.7141788941505616</v>
+        <v>0.714023225600108</v>
       </c>
       <c r="AL3">
-        <v>-0.4526222587164891</v>
+        <v>0.4241651345182791</v>
       </c>
       <c r="AM3">
-        <v>-0.4932422308779919</v>
+        <v>0.5742049821490578</v>
       </c>
       <c r="AN3">
-        <v>-0.3818877521510812</v>
+        <v>0.164661517199933</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>0.8454053246389226</v>
+        <v>0.9235302366899644</v>
       </c>
       <c r="C4">
-        <v>0.8042493912872486</v>
+        <v>0.8927562194617698</v>
       </c>
       <c r="D4">
-        <v>0.770608937179024</v>
+        <v>0.9573192786933716</v>
       </c>
       <c r="E4">
-        <v>0.7372824354531788</v>
+        <v>0.9862253876523998</v>
       </c>
       <c r="F4">
-        <v>0.880114207767257</v>
+        <v>0.852206603811365</v>
       </c>
       <c r="G4">
-        <v>0.5358578849902533</v>
+        <v>0.9518257867915643</v>
       </c>
       <c r="H4">
-        <v>0.6288138783476506</v>
+        <v>0.9675448439544773</v>
       </c>
       <c r="I4">
-        <v>0.624893564433157</v>
+        <v>0.9474606158181155</v>
       </c>
       <c r="J4">
-        <v>0.4063484421970915</v>
+        <v>0.7783280435374581</v>
       </c>
       <c r="K4">
-        <v>0.5476544216119151</v>
+        <v>0.9807491066972571</v>
       </c>
       <c r="L4">
-        <v>0.6269861252448057</v>
+        <v>0.9592615824814645</v>
       </c>
       <c r="M4">
-        <v>0.4753470700371936</v>
+        <v>0.9149776939373925</v>
       </c>
       <c r="N4">
-        <v>0.5153279757548532</v>
+        <v>0.8504270168321388</v>
       </c>
       <c r="O4">
-        <v>0.3984575145600111</v>
+        <v>0.9772914710667782</v>
       </c>
       <c r="P4">
-        <v>0.3354801268747267</v>
+        <v>0.9687185739980373</v>
       </c>
       <c r="Q4">
-        <v>0.1773690013317064</v>
+        <v>0.8879133478286766</v>
       </c>
       <c r="R4">
-        <v>0.07031674622979953</v>
+        <v>0.9634039991990878</v>
       </c>
       <c r="S4">
-        <v>0.4145674437647333</v>
+        <v>0.9757108986049482</v>
       </c>
       <c r="T4">
-        <v>0.402629882686313</v>
+        <v>0.995028362208162</v>
       </c>
       <c r="U4">
-        <v>0.3767790735745462</v>
+        <v>0.8279429221660114</v>
       </c>
       <c r="V4">
-        <v>0.3110878577813643</v>
+        <v>0.9401413512394974</v>
       </c>
       <c r="W4">
-        <v>0.5145366577056838</v>
+        <v>0.8407781303219785</v>
       </c>
       <c r="X4">
-        <v>0.5293490714386564</v>
+        <v>0.8968731191299034</v>
       </c>
       <c r="Y4">
-        <v>0.2280379399255574</v>
+        <v>0.9693416849408691</v>
       </c>
       <c r="Z4">
-        <v>0.2994559973591985</v>
+        <v>0.9059597007362055</v>
       </c>
       <c r="AA4">
-        <v>0.4641938150429666</v>
+        <v>0.956964947380638</v>
       </c>
       <c r="AB4">
-        <v>0.3819217511018863</v>
+        <v>0.9618161848448538</v>
       </c>
       <c r="AC4">
-        <v>0.2886652338420631</v>
+        <v>0.9558157013189995</v>
       </c>
       <c r="AD4">
-        <v>0.1748831573727407</v>
+        <v>0.90620098556644</v>
       </c>
       <c r="AE4">
-        <v>0.1601256154992613</v>
+        <v>0.8363076105275898</v>
       </c>
       <c r="AF4">
-        <v>0.3068771878855336</v>
+        <v>0.9246802989687772</v>
       </c>
       <c r="AG4">
-        <v>0.1202607721984552</v>
+        <v>0.861373373775064</v>
       </c>
       <c r="AH4">
-        <v>0.3882936403608092</v>
+        <v>0.8687875400213521</v>
       </c>
       <c r="AI4">
-        <v>0.216905420955831</v>
+        <v>0.7585112127461195</v>
       </c>
       <c r="AJ4">
-        <v>0.3838302315184895</v>
+        <v>0.8591585155800623</v>
       </c>
       <c r="AK4">
-        <v>-0.05772311521608196</v>
+        <v>0.8532303843029427</v>
       </c>
       <c r="AL4">
-        <v>0.2703496067137902</v>
+        <v>0.6782814555096756</v>
       </c>
       <c r="AM4">
-        <v>0.211675618463856</v>
+        <v>0.7274765120935354</v>
       </c>
       <c r="AN4">
-        <v>0.3439108134364447</v>
+        <v>0.3879890094644649</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>0.905198144237744</v>
+        <v>0.901770932141459</v>
       </c>
       <c r="C5">
-        <v>0.9506591866081877</v>
+        <v>0.8595350605697807</v>
       </c>
       <c r="D5">
-        <v>0.6911448614362876</v>
+        <v>0.9488940290795026</v>
       </c>
       <c r="E5">
-        <v>0.7812432014692399</v>
+        <v>0.9819265747097153</v>
       </c>
       <c r="F5">
-        <v>0.8662093257714519</v>
+        <v>0.8691102280723506</v>
       </c>
       <c r="G5">
-        <v>0.9009926721436078</v>
+        <v>0.9578127533035088</v>
       </c>
       <c r="H5">
-        <v>0.961569287429056</v>
+        <v>0.9613500380465715</v>
       </c>
       <c r="I5">
-        <v>0.9839283940891846</v>
+        <v>0.93535907555322</v>
       </c>
       <c r="J5">
-        <v>0.9656454437089959</v>
+        <v>0.8160845208133408</v>
       </c>
       <c r="K5">
-        <v>0.990342689467606</v>
+        <v>0.9530585211831785</v>
       </c>
       <c r="L5">
-        <v>0.9697789922368983</v>
+        <v>0.9813022238579536</v>
       </c>
       <c r="M5">
-        <v>0.9821245343827896</v>
+        <v>0.9418561881344312</v>
       </c>
       <c r="N5">
-        <v>0.9576309223221503</v>
+        <v>0.893074916361134</v>
       </c>
       <c r="O5">
-        <v>0.924854658939616</v>
+        <v>0.9889825192573951</v>
       </c>
       <c r="P5">
-        <v>0.9312563823171701</v>
+        <v>0.979881285298466</v>
       </c>
       <c r="Q5">
-        <v>0.8845113024608385</v>
+        <v>0.9499900676462587</v>
       </c>
       <c r="R5">
-        <v>0.8271407669899966</v>
+        <v>0.9721582094563589</v>
       </c>
       <c r="S5">
-        <v>0.9348956138825322</v>
+        <v>0.9452441874843535</v>
       </c>
       <c r="T5">
-        <v>0.9655414348746564</v>
+        <v>0.9874657645060332</v>
       </c>
       <c r="U5">
-        <v>0.9585978334814623</v>
+        <v>0.8862135216746374</v>
       </c>
       <c r="V5">
-        <v>0.9326096557455096</v>
+        <v>0.9817382602804179</v>
       </c>
       <c r="W5">
-        <v>0.982281866465753</v>
+        <v>0.8942115988081564</v>
       </c>
       <c r="X5">
-        <v>0.9732522491208511</v>
+        <v>0.9476672020818773</v>
       </c>
       <c r="Y5">
-        <v>0.9051050545136928</v>
+        <v>0.9823499491870381</v>
       </c>
       <c r="Z5">
-        <v>0.9371810125653139</v>
+        <v>0.9458104514105973</v>
       </c>
       <c r="AA5">
-        <v>0.973360731423513</v>
+        <v>0.990529580167277</v>
       </c>
       <c r="AB5">
-        <v>0.9498735854688057</v>
+        <v>0.9915409932752407</v>
       </c>
       <c r="AC5">
-        <v>0.9310879467421554</v>
+        <v>0.9763610326743941</v>
       </c>
       <c r="AD5">
-        <v>0.8824175693469682</v>
+        <v>0.9573758738786059</v>
       </c>
       <c r="AE5">
-        <v>0.8747062432732631</v>
+        <v>0.899133739117107</v>
       </c>
       <c r="AF5">
-        <v>0.9389258083878387</v>
+        <v>0.9643854398847996</v>
       </c>
       <c r="AG5">
-        <v>0.8577077783799073</v>
+        <v>0.916562815841077</v>
       </c>
       <c r="AH5">
-        <v>0.959673840752339</v>
+        <v>0.9206464016682816</v>
       </c>
       <c r="AI5">
-        <v>0.9040404916087731</v>
+        <v>0.8463403373851422</v>
       </c>
       <c r="AJ5">
-        <v>0.9642693050197619</v>
+        <v>0.918427188733443</v>
       </c>
       <c r="AK5">
-        <v>0.7529362698450089</v>
+        <v>0.9148849036240477</v>
       </c>
       <c r="AL5">
-        <v>0.9111692489243647</v>
+        <v>0.744075657220613</v>
       </c>
       <c r="AM5">
-        <v>0.8741727586605119</v>
+        <v>0.818016441766329</v>
       </c>
       <c r="AN5">
-        <v>0.9409531656059407</v>
+        <v>0.495739278180702</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.5981031530492746</v>
+        <v>0.74320110532957</v>
       </c>
       <c r="C6">
-        <v>0.6915404854154329</v>
+        <v>0.6789644985471326</v>
       </c>
       <c r="D6">
-        <v>0.2628247272183897</v>
+        <v>0.7820938420758562</v>
       </c>
       <c r="E6">
-        <v>0.3984369995040463</v>
+        <v>0.8447575991284622</v>
       </c>
       <c r="F6">
-        <v>0.5315776371872043</v>
+        <v>0.7052709608063303</v>
       </c>
       <c r="G6">
-        <v>0.6559464884381214</v>
+        <v>0.8125302909212108</v>
       </c>
       <c r="H6">
-        <v>0.736798484756881</v>
+        <v>0.8216591841186265</v>
       </c>
       <c r="I6">
-        <v>0.8124867595331531</v>
+        <v>0.7662003603272765</v>
       </c>
       <c r="J6">
-        <v>0.9039485750287024</v>
+        <v>0.6866559622294012</v>
       </c>
       <c r="K6">
-        <v>0.8567451996182416</v>
+        <v>0.7754054043768849</v>
       </c>
       <c r="L6">
-        <v>0.7819657192457798</v>
+        <v>0.8876878829932539</v>
       </c>
       <c r="M6">
-        <v>0.8850308108539837</v>
+        <v>0.8271341998750006</v>
       </c>
       <c r="N6">
-        <v>0.9127190052573324</v>
+        <v>0.789885385063122</v>
       </c>
       <c r="O6">
-        <v>0.7914159658581699</v>
+        <v>0.8821439297392317</v>
       </c>
       <c r="P6">
-        <v>0.8603493416119522</v>
+        <v>0.9254584077929793</v>
       </c>
       <c r="Q6">
-        <v>0.9316482174295925</v>
+        <v>0.9663813015995257</v>
       </c>
       <c r="R6">
-        <v>0.9369076062201768</v>
+        <v>0.8421672711592444</v>
       </c>
       <c r="S6">
-        <v>0.7957809078206398</v>
+        <v>0.7769721075939916</v>
       </c>
       <c r="T6">
-        <v>0.9239741984682998</v>
+        <v>0.8888553622295533</v>
       </c>
       <c r="U6">
-        <v>0.9030655227794951</v>
+        <v>0.8230697363320457</v>
       </c>
       <c r="V6">
-        <v>0.8862919469268288</v>
+        <v>0.9737277885528007</v>
       </c>
       <c r="W6">
-        <v>0.8540889140457443</v>
+        <v>0.8233610649513303</v>
       </c>
       <c r="X6">
-        <v>0.8194465826805135</v>
+        <v>0.8990816128531948</v>
       </c>
       <c r="Y6">
-        <v>0.9323647856826363</v>
+        <v>0.8762526359172298</v>
       </c>
       <c r="Z6">
-        <v>0.9370807415311193</v>
+        <v>0.8651766529908562</v>
       </c>
       <c r="AA6">
-        <v>0.9577838924268268</v>
+        <v>0.9665153991377158</v>
       </c>
       <c r="AB6">
-        <v>0.8629380211177816</v>
+        <v>0.9271855678780326</v>
       </c>
       <c r="AC6">
-        <v>0.9179954718821356</v>
+        <v>0.8814074324243506</v>
       </c>
       <c r="AD6">
-        <v>0.963871292194147</v>
+        <v>0.9177568857509545</v>
       </c>
       <c r="AE6">
-        <v>0.9049426365761581</v>
+        <v>0.854714801905087</v>
       </c>
       <c r="AF6">
-        <v>0.9283358088830054</v>
+        <v>0.8933571918620059</v>
       </c>
       <c r="AG6">
-        <v>0.9304181104439541</v>
+        <v>0.8665610020005573</v>
       </c>
       <c r="AH6">
-        <v>0.948991307825108</v>
+        <v>0.864073418129649</v>
       </c>
       <c r="AI6">
-        <v>0.949189875482754</v>
+        <v>0.8831237967306003</v>
       </c>
       <c r="AJ6">
-        <v>0.9503556581494563</v>
+        <v>0.8818965507066928</v>
       </c>
       <c r="AK6">
-        <v>0.8935838547700793</v>
+        <v>0.8987371165096072</v>
       </c>
       <c r="AL6">
-        <v>0.9898866985008506</v>
+        <v>0.6857299715880012</v>
       </c>
       <c r="AM6">
-        <v>0.9768118499588746</v>
+        <v>0.8378142063057996</v>
       </c>
       <c r="AN6">
-        <v>0.9798269227125936</v>
+        <v>0.5350916215276444</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0.5815592578580909</v>
+        <v>0.8043982489558815</v>
       </c>
       <c r="C7">
-        <v>0.6659114071492387</v>
+        <v>0.7468681757631144</v>
       </c>
       <c r="D7">
-        <v>0.3431375477349448</v>
+        <v>0.9007261875673237</v>
       </c>
       <c r="E7">
-        <v>0.4829892416362668</v>
+        <v>0.9416922365329347</v>
       </c>
       <c r="F7">
-        <v>0.5095430481301948</v>
+        <v>0.8842599211444312</v>
       </c>
       <c r="G7">
-        <v>0.7644728265001204</v>
+        <v>0.9364888061924721</v>
       </c>
       <c r="H7">
-        <v>0.7874854979828128</v>
+        <v>0.8982417005663468</v>
       </c>
       <c r="I7">
-        <v>0.8223248642768807</v>
+        <v>0.872606064682284</v>
       </c>
       <c r="J7">
-        <v>0.9436513205154574</v>
+        <v>0.877012222028924</v>
       </c>
       <c r="K7">
-        <v>0.8835209429510136</v>
+        <v>0.8778398710528058</v>
       </c>
       <c r="L7">
-        <v>0.8073107049698011</v>
+        <v>0.9817308144529069</v>
       </c>
       <c r="M7">
-        <v>0.9200825626425171</v>
+        <v>0.9586353333294952</v>
       </c>
       <c r="N7">
-        <v>0.8777755788659598</v>
+        <v>0.9331502561688184</v>
       </c>
       <c r="O7">
-        <v>0.8925724529220137</v>
+        <v>0.9612263196648636</v>
       </c>
       <c r="P7">
-        <v>0.9451132717332393</v>
+        <v>0.9223180367375692</v>
       </c>
       <c r="Q7">
-        <v>0.9952534433019331</v>
+        <v>0.994492419400735</v>
       </c>
       <c r="R7">
-        <v>0.992613862673523</v>
+        <v>0.9554960669448297</v>
       </c>
       <c r="S7">
-        <v>0.8932660937623598</v>
+        <v>0.8525282276602201</v>
       </c>
       <c r="T7">
-        <v>0.9517480843576649</v>
+        <v>0.9206451779573808</v>
       </c>
       <c r="U7">
-        <v>0.9552567334880901</v>
+        <v>0.9507833564230759</v>
       </c>
       <c r="V7">
-        <v>0.9622132717511227</v>
+        <v>0.9903277764337154</v>
       </c>
       <c r="W7">
-        <v>0.894463284745446</v>
+        <v>0.9544894939120475</v>
       </c>
       <c r="X7">
-        <v>0.8718797716366722</v>
+        <v>0.9893774130612603</v>
       </c>
       <c r="Y7">
-        <v>0.9851585755304048</v>
+        <v>0.9736972334232892</v>
       </c>
       <c r="Z7">
-        <v>0.980690183644375</v>
+        <v>0.9780498343965432</v>
       </c>
       <c r="AA7">
-        <v>0.9252167610328359</v>
+        <v>0.9753230728699706</v>
       </c>
       <c r="AB7">
-        <v>0.937380706715308</v>
+        <v>0.9848604981470072</v>
       </c>
       <c r="AC7">
-        <v>0.9778305907430627</v>
+        <v>0.9807440805913986</v>
       </c>
       <c r="AD7">
-        <v>0.9977425589450513</v>
+        <v>0.9944277911094265</v>
       </c>
       <c r="AE7">
-        <v>0.9897311850791557</v>
+        <v>0.9643699418854781</v>
       </c>
       <c r="AF7">
-        <v>0.9780038262806748</v>
+        <v>0.9851465411139447</v>
       </c>
       <c r="AG7">
-        <v>0.9985340600782706</v>
+        <v>0.9758827062673976</v>
       </c>
       <c r="AH7">
-        <v>0.9529581176827718</v>
+        <v>0.9762322004349016</v>
       </c>
       <c r="AI7">
-        <v>0.9949908134104872</v>
+        <v>0.9494655237349071</v>
       </c>
       <c r="AJ7">
-        <v>0.9630725347328682</v>
+        <v>0.9802908156549863</v>
       </c>
       <c r="AK7">
-        <v>0.9813977198818306</v>
+        <v>0.9824078837426483</v>
       </c>
       <c r="AL7">
-        <v>0.9766423697651033</v>
+        <v>0.8572212470871287</v>
       </c>
       <c r="AM7">
-        <v>0.9713197552367695</v>
+        <v>0.9285956528577124</v>
       </c>
       <c r="AN7">
-        <v>0.9655896459359263</v>
+        <v>0.6794297467221985</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.5205716385799204</v>
+        <v>0.7315523175797882</v>
       </c>
       <c r="C8">
-        <v>0.6098197524045346</v>
+        <v>0.6707684377514168</v>
       </c>
       <c r="D8">
-        <v>0.2977893656965011</v>
+        <v>0.867650812519687</v>
       </c>
       <c r="E8">
-        <v>0.4367510334244779</v>
+        <v>0.9013652831484509</v>
       </c>
       <c r="F8">
-        <v>0.4454701084794142</v>
+        <v>0.9095311096081744</v>
       </c>
       <c r="G8">
-        <v>0.7378374016380083</v>
+        <v>0.9183570400743635</v>
       </c>
       <c r="H8">
-        <v>0.7493993427618754</v>
+        <v>0.8436138160885276</v>
       </c>
       <c r="I8">
-        <v>0.7836526804439713</v>
+        <v>0.8297886393663656</v>
       </c>
       <c r="J8">
-        <v>0.9214642701244148</v>
+        <v>0.9318979159968889</v>
       </c>
       <c r="K8">
-        <v>0.8481598996205442</v>
+        <v>0.8225231019959494</v>
       </c>
       <c r="L8">
-        <v>0.7627477846629649</v>
+        <v>0.9622579896845687</v>
       </c>
       <c r="M8">
-        <v>0.8911554794634176</v>
+        <v>0.9638233706945912</v>
       </c>
       <c r="N8">
-        <v>0.8347429558970055</v>
+        <v>0.9593505242341686</v>
       </c>
       <c r="O8">
-        <v>0.8710862298554872</v>
+        <v>0.922919870603372</v>
       </c>
       <c r="P8">
-        <v>0.9273922049498202</v>
+        <v>0.8420716669133865</v>
       </c>
       <c r="Q8">
-        <v>0.9874887758302985</v>
+        <v>0.978407838542825</v>
       </c>
       <c r="R8">
-        <v>0.9951720819708463</v>
+        <v>0.93445080814668</v>
       </c>
       <c r="S8">
-        <v>0.8721496394990637</v>
+        <v>0.7805767351325967</v>
       </c>
       <c r="T8">
-        <v>0.9247551224485392</v>
+        <v>0.8442569377923334</v>
       </c>
       <c r="U8">
-        <v>0.9336174899007447</v>
+        <v>0.9842260814384748</v>
       </c>
       <c r="V8">
-        <v>0.9480359634713359</v>
+        <v>0.9490141448634797</v>
       </c>
       <c r="W8">
-        <v>0.8616684390524013</v>
+        <v>0.985667454625615</v>
       </c>
       <c r="X8">
-        <v>0.8382738487589095</v>
+        <v>0.9937709073306253</v>
       </c>
       <c r="Y8">
-        <v>0.976738792685994</v>
+        <v>0.949411059627951</v>
       </c>
       <c r="Z8">
-        <v>0.9647496690574717</v>
+        <v>0.9848397465542695</v>
       </c>
       <c r="AA8">
-        <v>0.8930443137781006</v>
+        <v>0.9202113176081281</v>
       </c>
       <c r="AB8">
-        <v>0.9171607627933052</v>
+        <v>0.9507021068834302</v>
       </c>
       <c r="AC8">
-        <v>0.9639463210540403</v>
+        <v>0.9643411626440013</v>
       </c>
       <c r="AD8">
-        <v>0.9887670122055618</v>
+        <v>0.9913718578330678</v>
       </c>
       <c r="AE8">
-        <v>0.9865125783709427</v>
+        <v>0.9914884116948366</v>
       </c>
       <c r="AF8">
-        <v>0.9609666607159073</v>
+        <v>0.9786471012268672</v>
       </c>
       <c r="AG8">
-        <v>0.9957698030450632</v>
+        <v>0.9969986644585264</v>
       </c>
       <c r="AH8">
-        <v>0.9298343888495134</v>
+        <v>0.995859761174644</v>
       </c>
       <c r="AI8">
-        <v>0.9840624564485696</v>
+        <v>0.9830800581543596</v>
       </c>
       <c r="AJ8">
-        <v>0.9382950592922986</v>
+        <v>0.9991180334468617</v>
       </c>
       <c r="AK8">
-        <v>0.9941785594697616</v>
+        <v>0.997998811183499</v>
       </c>
       <c r="AL8">
-        <v>0.9572822121034008</v>
+        <v>0.9352640396948302</v>
       </c>
       <c r="AM8">
-        <v>0.9533883029873605</v>
+        <v>0.9773737954597146</v>
       </c>
       <c r="AN8">
-        <v>0.940261045375401</v>
+        <v>0.79993451391387</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.484618552047162</v>
+        <v>0.6746027347349455</v>
       </c>
       <c r="C9">
-        <v>0.5711614900843194</v>
+        <v>0.6102724482470693</v>
       </c>
       <c r="D9">
-        <v>0.2645085530714796</v>
+        <v>0.8249650935813971</v>
       </c>
       <c r="E9">
-        <v>0.4101434535646447</v>
+        <v>0.8585155880516611</v>
       </c>
       <c r="F9">
-        <v>0.4082638090697317</v>
+        <v>0.8920374210579659</v>
       </c>
       <c r="G9">
-        <v>0.7149289610368524</v>
+        <v>0.8842425936068583</v>
       </c>
       <c r="H9">
-        <v>0.7211033031491343</v>
+        <v>0.7954930431149007</v>
       </c>
       <c r="I9">
-        <v>0.7505709167561599</v>
+        <v>0.7832171740360153</v>
       </c>
       <c r="J9">
-        <v>0.9002284487696403</v>
+        <v>0.9310545360163414</v>
       </c>
       <c r="K9">
-        <v>0.8239318655891513</v>
+        <v>0.7688706345139594</v>
       </c>
       <c r="L9">
-        <v>0.7404327620619614</v>
+        <v>0.9333696490226288</v>
       </c>
       <c r="M9">
-        <v>0.8691588751445561</v>
+        <v>0.9431437058722741</v>
       </c>
       <c r="N9">
-        <v>0.8172138728208428</v>
+        <v>0.9496272699452322</v>
       </c>
       <c r="O9">
-        <v>0.8593228176001403</v>
+        <v>0.8849022505265504</v>
       </c>
       <c r="P9">
-        <v>0.9166944162316372</v>
+        <v>0.7935109543886688</v>
       </c>
       <c r="Q9">
-        <v>0.9818303875075991</v>
+        <v>0.9647859625364353</v>
       </c>
       <c r="R9">
-        <v>0.9886404070820008</v>
+        <v>0.900657953948351</v>
       </c>
       <c r="S9">
-        <v>0.8569382173555962</v>
+        <v>0.7215600127051965</v>
       </c>
       <c r="T9">
-        <v>0.9093492219107239</v>
+        <v>0.7912841302449853</v>
       </c>
       <c r="U9">
-        <v>0.917756178316351</v>
+        <v>0.9822724031536603</v>
       </c>
       <c r="V9">
-        <v>0.9342936578263418</v>
+        <v>0.9215910258403444</v>
       </c>
       <c r="W9">
-        <v>0.8405166767187355</v>
+        <v>0.9816176706449813</v>
       </c>
       <c r="X9">
-        <v>0.8180140455390401</v>
+        <v>0.9808308389769819</v>
       </c>
       <c r="Y9">
-        <v>0.9630464417988622</v>
+        <v>0.9167864315805314</v>
       </c>
       <c r="Z9">
-        <v>0.9503931703837789</v>
+        <v>0.9689272192645535</v>
       </c>
       <c r="AA9">
-        <v>0.867218296181157</v>
+        <v>0.8854512319476713</v>
       </c>
       <c r="AB9">
-        <v>0.9018415770575823</v>
+        <v>0.9196262657445654</v>
       </c>
       <c r="AC9">
-        <v>0.9505818715738635</v>
+        <v>0.9363850170161808</v>
       </c>
       <c r="AD9">
-        <v>0.9807529393950499</v>
+        <v>0.9763933733755187</v>
       </c>
       <c r="AE9">
-        <v>0.9798586770693328</v>
+        <v>0.9891145255481086</v>
       </c>
       <c r="AF9">
-        <v>0.9480716541184941</v>
+        <v>0.9584372659646391</v>
       </c>
       <c r="AG9">
-        <v>0.9917114709465397</v>
+        <v>0.9909345972480179</v>
       </c>
       <c r="AH9">
-        <v>0.9071874640922862</v>
+        <v>0.9882900502409727</v>
       </c>
       <c r="AI9">
-        <v>0.9746293659359687</v>
+        <v>0.9934618389322455</v>
       </c>
       <c r="AJ9">
-        <v>0.9200581511094938</v>
+        <v>0.9937700059636299</v>
       </c>
       <c r="AK9">
-        <v>0.9960457785167116</v>
+        <v>0.9935517611580975</v>
       </c>
       <c r="AL9">
-        <v>0.943606543066677</v>
+        <v>0.9529437407268836</v>
       </c>
       <c r="AM9">
-        <v>0.947319485340322</v>
+        <v>0.9924909802222125</v>
       </c>
       <c r="AN9">
-        <v>0.9245622167667287</v>
+        <v>0.8496626367465997</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.4762325539278096</v>
+        <v>0.6876484244658949</v>
       </c>
       <c r="C10">
-        <v>0.566320832791365</v>
+        <v>0.6187400373763662</v>
       </c>
       <c r="D10">
-        <v>0.2646007780587564</v>
+        <v>0.8164448772358412</v>
       </c>
       <c r="E10">
-        <v>0.4049695213315185</v>
+        <v>0.8693772931696178</v>
       </c>
       <c r="F10">
-        <v>0.3994349427886542</v>
+        <v>0.8400366972112751</v>
       </c>
       <c r="G10">
-        <v>0.7158835545191335</v>
+        <v>0.8718490289011368</v>
       </c>
       <c r="H10">
-        <v>0.7189620861705096</v>
+        <v>0.8061318889388224</v>
       </c>
       <c r="I10">
-        <v>0.75035349987778</v>
+        <v>0.7772357106447904</v>
       </c>
       <c r="J10">
-        <v>0.9001754697032086</v>
+        <v>0.8684959162300595</v>
       </c>
       <c r="K10">
-        <v>0.8195953729788699</v>
+        <v>0.779917963207739</v>
       </c>
       <c r="L10">
-        <v>0.7307959642453231</v>
+        <v>0.9389504864535735</v>
       </c>
       <c r="M10">
-        <v>0.8664206525490994</v>
+        <v>0.9216609807947403</v>
       </c>
       <c r="N10">
-        <v>0.8037907970977228</v>
+        <v>0.9092131848173476</v>
       </c>
       <c r="O10">
-        <v>0.8548114134369202</v>
+        <v>0.8968981553227495</v>
       </c>
       <c r="P10">
-        <v>0.912750409527523</v>
+        <v>0.8455222751454493</v>
       </c>
       <c r="Q10">
-        <v>0.9787345801139782</v>
+        <v>0.9923804377350859</v>
       </c>
       <c r="R10">
-        <v>0.9908676631743395</v>
+        <v>0.8971017160164593</v>
       </c>
       <c r="S10">
-        <v>0.8547660928212468</v>
+        <v>0.7433636818743732</v>
       </c>
       <c r="T10">
-        <v>0.902987012183433</v>
+        <v>0.8369587493355958</v>
       </c>
       <c r="U10">
-        <v>0.9146597347192299</v>
+        <v>0.948482308647755</v>
       </c>
       <c r="V10">
-        <v>0.9337660986298517</v>
+        <v>0.9638091333039334</v>
       </c>
       <c r="W10">
-        <v>0.8356057178026188</v>
+        <v>0.9496668324566037</v>
       </c>
       <c r="X10">
-        <v>0.8124589906478793</v>
+        <v>0.975482754109456</v>
       </c>
       <c r="Y10">
-        <v>0.9646911480257133</v>
+        <v>0.9257976457047414</v>
       </c>
       <c r="Z10">
-        <v>0.948755116139633</v>
+        <v>0.9548570907537969</v>
       </c>
       <c r="AA10">
-        <v>0.8641588087818411</v>
+        <v>0.9288295219985917</v>
       </c>
       <c r="AB10">
-        <v>0.8995518294673205</v>
+        <v>0.9380278602538171</v>
       </c>
       <c r="AC10">
-        <v>0.9495857442844353</v>
+        <v>0.9422198564668477</v>
       </c>
       <c r="AD10">
-        <v>0.9780526727228487</v>
+        <v>0.9784315785533388</v>
       </c>
       <c r="AE10">
-        <v>0.9799751133326919</v>
+        <v>0.9643892599369831</v>
       </c>
       <c r="AF10">
-        <v>0.945089732654945</v>
+        <v>0.9542463040700777</v>
       </c>
       <c r="AG10">
-        <v>0.9900168770402884</v>
+        <v>0.974420337400676</v>
       </c>
       <c r="AH10">
-        <v>0.9069082894837271</v>
+        <v>0.9720044323600611</v>
       </c>
       <c r="AI10">
-        <v>0.9721545843777393</v>
+        <v>0.9875880820640449</v>
       </c>
       <c r="AJ10">
-        <v>0.9162550860252753</v>
+        <v>0.9818094648127137</v>
       </c>
       <c r="AK10">
-        <v>0.9983118589430823</v>
+        <v>0.9927351634364868</v>
       </c>
       <c r="AL10">
-        <v>0.9388788849328485</v>
+        <v>0.8949127118525099</v>
       </c>
       <c r="AM10">
-        <v>0.93850428324459</v>
+        <v>0.9670930100743329</v>
       </c>
       <c r="AN10">
-        <v>0.9183467834139576</v>
+        <v>0.7775798454144162</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0.3532509190527101</v>
+        <v>0.6903222592758339</v>
       </c>
       <c r="C11">
-        <v>0.4478358043135238</v>
+        <v>0.6270531083657105</v>
       </c>
       <c r="D11">
-        <v>0.1355444816971159</v>
+        <v>0.8386948364054555</v>
       </c>
       <c r="E11">
-        <v>0.2843862627120179</v>
+        <v>0.8728370974134028</v>
       </c>
       <c r="F11">
-        <v>0.2722339230040171</v>
+        <v>0.8992247682573321</v>
       </c>
       <c r="G11">
-        <v>0.6182083401618944</v>
+        <v>0.8957276898634605</v>
       </c>
       <c r="H11">
-        <v>0.6161640489182735</v>
+        <v>0.8096056945040018</v>
       </c>
       <c r="I11">
-        <v>0.6514265524314572</v>
+        <v>0.7973423599454907</v>
       </c>
       <c r="J11">
-        <v>0.8310540211888104</v>
+        <v>0.9339608945904635</v>
       </c>
       <c r="K11">
-        <v>0.7336673081473488</v>
+        <v>0.7864868777893816</v>
       </c>
       <c r="L11">
-        <v>0.6370806859821332</v>
+        <v>0.943336187729239</v>
       </c>
       <c r="M11">
-        <v>0.7893476382119119</v>
+        <v>0.9508296007855914</v>
       </c>
       <c r="N11">
-        <v>0.7372405348452268</v>
+        <v>0.9534016764763344</v>
       </c>
       <c r="O11">
-        <v>0.783208789536311</v>
+        <v>0.8967238477381231</v>
       </c>
       <c r="P11">
-        <v>0.8522551814457244</v>
+        <v>0.8065621391263711</v>
       </c>
       <c r="Q11">
-        <v>0.9443657513099289</v>
+        <v>0.9687114883707512</v>
       </c>
       <c r="R11">
-        <v>0.9697975367011821</v>
+        <v>0.9122603775040986</v>
       </c>
       <c r="S11">
-        <v>0.7792894655562752</v>
+        <v>0.7397883687193729</v>
       </c>
       <c r="T11">
-        <v>0.8407511004059653</v>
+        <v>0.8073412150528881</v>
       </c>
       <c r="U11">
-        <v>0.8509697949566473</v>
+        <v>0.9837638750076251</v>
       </c>
       <c r="V11">
-        <v>0.875383156248684</v>
+        <v>0.9297049264299393</v>
       </c>
       <c r="W11">
-        <v>0.7536022873103315</v>
+        <v>0.9840862675294052</v>
       </c>
       <c r="X11">
-        <v>0.7272901361493413</v>
+        <v>0.9853501836719175</v>
       </c>
       <c r="Y11">
-        <v>0.9201135982313615</v>
+        <v>0.9283739792288039</v>
       </c>
       <c r="Z11">
-        <v>0.8968182495741774</v>
+        <v>0.9748743727773584</v>
       </c>
       <c r="AA11">
-        <v>0.7970454724554944</v>
+        <v>0.8948723945691184</v>
       </c>
       <c r="AB11">
-        <v>0.8318421672814489</v>
+        <v>0.9288314057268392</v>
       </c>
       <c r="AC11">
-        <v>0.8968985335076179</v>
+        <v>0.9465951701022902</v>
       </c>
       <c r="AD11">
-        <v>0.9472717111347181</v>
+        <v>0.9812231299068389</v>
       </c>
       <c r="AE11">
-        <v>0.9432666087501405</v>
+        <v>0.9903594329010567</v>
       </c>
       <c r="AF11">
-        <v>0.8923441578682411</v>
+        <v>0.96493443495888</v>
       </c>
       <c r="AG11">
-        <v>0.9628221892695427</v>
+        <v>0.9940076381943266</v>
       </c>
       <c r="AH11">
-        <v>0.84495686557892</v>
+        <v>0.9919668300284423</v>
       </c>
       <c r="AI11">
-        <v>0.9333121706701972</v>
+        <v>0.990787227854787</v>
       </c>
       <c r="AJ11">
-        <v>0.8566833795838006</v>
+        <v>0.9963679830478606</v>
       </c>
       <c r="AK11">
-        <v>0.9931780332793764</v>
+        <v>0.9961878553945814</v>
       </c>
       <c r="AL11">
-        <v>0.9005713216143529</v>
+        <v>0.950724874689995</v>
       </c>
       <c r="AM11">
-        <v>0.9115224178014359</v>
+        <v>0.9882617529537843</v>
       </c>
       <c r="AN11">
-        <v>0.8699942603225066</v>
+        <v>0.8369257121215052</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.4077900896160895</v>
+        <v>0.5675064097871325</v>
       </c>
       <c r="C12">
-        <v>0.5029875846921389</v>
+        <v>0.4930140694535869</v>
       </c>
       <c r="D12">
-        <v>0.1786522300382729</v>
+        <v>0.725599720653417</v>
       </c>
       <c r="E12">
-        <v>0.3251905770647587</v>
+        <v>0.774993937135678</v>
       </c>
       <c r="F12">
-        <v>0.3281011722949876</v>
+        <v>0.8039906457329011</v>
       </c>
       <c r="G12">
-        <v>0.6513898776706581</v>
+        <v>0.7976715770315579</v>
       </c>
       <c r="H12">
-        <v>0.6581298186509345</v>
+        <v>0.7022560654207194</v>
       </c>
       <c r="I12">
-        <v>0.6972635133112017</v>
+        <v>0.6789144211029877</v>
       </c>
       <c r="J12">
-        <v>0.8636975579529395</v>
+        <v>0.8660647315266219</v>
       </c>
       <c r="K12">
-        <v>0.7731374633220023</v>
+        <v>0.6653415700500529</v>
       </c>
       <c r="L12">
-        <v>0.6783948606709214</v>
+        <v>0.8718369237138146</v>
       </c>
       <c r="M12">
-        <v>0.8250683126771465</v>
+        <v>0.8744238729169683</v>
       </c>
       <c r="N12">
-        <v>0.7760562416022431</v>
+        <v>0.886116039187138</v>
       </c>
       <c r="O12">
-        <v>0.8086968621364117</v>
+        <v>0.8115765662399175</v>
       </c>
       <c r="P12">
-        <v>0.8761693228345727</v>
+        <v>0.734835506130843</v>
       </c>
       <c r="Q12">
-        <v>0.9616236145089333</v>
+        <v>0.9516328471704926</v>
       </c>
       <c r="R12">
-        <v>0.9832880587509731</v>
+        <v>0.8220756160303361</v>
       </c>
       <c r="S12">
-        <v>0.80680985250328</v>
+        <v>0.6172944328086141</v>
       </c>
       <c r="T12">
-        <v>0.8719259066471677</v>
+        <v>0.7184984679159838</v>
       </c>
       <c r="U12">
-        <v>0.8800702982680146</v>
+        <v>0.9392492069218628</v>
       </c>
       <c r="V12">
-        <v>0.8999553228409597</v>
+        <v>0.8944145541154375</v>
       </c>
       <c r="W12">
-        <v>0.7901060561524592</v>
+        <v>0.9360556329795819</v>
       </c>
       <c r="X12">
-        <v>0.7632560330221784</v>
+        <v>0.9406636443567651</v>
       </c>
       <c r="Y12">
-        <v>0.9426297272270601</v>
+        <v>0.8510270752379659</v>
       </c>
       <c r="Z12">
-        <v>0.922914841226552</v>
+        <v>0.9155977472693767</v>
       </c>
       <c r="AA12">
-        <v>0.8369960369254495</v>
+        <v>0.8453674095731841</v>
       </c>
       <c r="AB12">
-        <v>0.8596760718342205</v>
+        <v>0.8649994162372506</v>
       </c>
       <c r="AC12">
-        <v>0.9213803290958078</v>
+        <v>0.876826126654077</v>
       </c>
       <c r="AD12">
-        <v>0.9667216756036615</v>
+        <v>0.9386162924914353</v>
       </c>
       <c r="AE12">
-        <v>0.9590485939338994</v>
+        <v>0.9529619014765774</v>
       </c>
       <c r="AF12">
-        <v>0.91792015577002</v>
+        <v>0.9053044721859593</v>
       </c>
       <c r="AG12">
-        <v>0.9769877826757201</v>
+        <v>0.9545207483759898</v>
       </c>
       <c r="AH12">
-        <v>0.8791975616780415</v>
+        <v>0.9491485681500348</v>
       </c>
       <c r="AI12">
-        <v>0.9543665073948732</v>
+        <v>0.9982832092133601</v>
       </c>
       <c r="AJ12">
-        <v>0.8889154495705583</v>
+        <v>0.9626295114935876</v>
       </c>
       <c r="AK12">
-        <v>0.9968023956330397</v>
+        <v>0.9736697956587749</v>
       </c>
       <c r="AL12">
-        <v>0.92798267041237</v>
+        <v>0.9277471746066902</v>
       </c>
       <c r="AM12">
-        <v>0.9334687341416412</v>
+        <v>0.989910206653928</v>
       </c>
       <c r="AN12">
-        <v>0.9010626598564478</v>
+        <v>0.8762110665677898</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块.xlsx
+++ b/FOF/data/基金公司-板块.xlsx
@@ -16,157 +16,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>安信公司</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
     <t>银华</t>
   </si>
   <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>建信公司</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>长信公司</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
     <t>交银施罗德</t>
   </si>
   <si>
-    <t>民生加银</t>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>天弘</t>
   </si>
   <si>
     <t>富国</t>
   </si>
   <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>建信公司</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>安信公司</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>东方公司</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
   </si>
   <si>
     <t>华商</t>
   </si>
   <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>长信公司</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>东方公司</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
     <t>中小板综</t>
   </si>
   <si>
+    <t>创业板综</t>
+  </si>
+  <si>
     <t>中证1000</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>创业板综</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>上证50</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0.9531781498865023</v>
+        <v>0.9742647040470107</v>
       </c>
       <c r="C2">
-        <v>0.9251087434513475</v>
+        <v>0.9831140153642145</v>
       </c>
       <c r="D2">
-        <v>0.9717071262961016</v>
+        <v>0.9635233564309232</v>
       </c>
       <c r="E2">
-        <v>0.9877615721473363</v>
+        <v>0.9988777906334431</v>
       </c>
       <c r="F2">
-        <v>0.8680657570060483</v>
+        <v>0.9756414477323566</v>
       </c>
       <c r="G2">
-        <v>0.9624915753868933</v>
+        <v>0.9749790872980094</v>
       </c>
       <c r="H2">
-        <v>0.986688057690434</v>
+        <v>0.9793067570837991</v>
       </c>
       <c r="I2">
-        <v>0.9687405234540293</v>
+        <v>0.9974024724886135</v>
       </c>
       <c r="J2">
-        <v>0.7870359541384897</v>
+        <v>0.9799697873596248</v>
       </c>
       <c r="K2">
-        <v>0.9846544967879709</v>
+        <v>0.9632632103964417</v>
       </c>
       <c r="L2">
-        <v>0.9604855727540862</v>
+        <v>0.9875244787932801</v>
       </c>
       <c r="M2">
-        <v>0.9234125572708374</v>
+        <v>0.9864164077190557</v>
       </c>
       <c r="N2">
-        <v>0.8690151562190228</v>
+        <v>0.9891905732608517</v>
       </c>
       <c r="O2">
-        <v>0.9864529857740127</v>
+        <v>0.9619393656609694</v>
       </c>
       <c r="P2">
-        <v>0.9812724837329596</v>
+        <v>0.9995712282062829</v>
       </c>
       <c r="Q2">
-        <v>0.888280755991404</v>
+        <v>0.9864308547540529</v>
       </c>
       <c r="R2">
-        <v>0.9683923703056956</v>
+        <v>0.9702360376496819</v>
       </c>
       <c r="S2">
-        <v>0.9855263677926823</v>
+        <v>0.9814747539911958</v>
       </c>
       <c r="T2">
-        <v>0.9964581133641016</v>
+        <v>0.9819449057492361</v>
       </c>
       <c r="U2">
-        <v>0.8409767731397855</v>
+        <v>0.9814673828627288</v>
       </c>
       <c r="V2">
-        <v>0.9380878141276492</v>
+        <v>0.9533336205591844</v>
       </c>
       <c r="W2">
-        <v>0.8505572140034724</v>
+        <v>0.9604779763156269</v>
       </c>
       <c r="X2">
-        <v>0.9038470998386915</v>
+        <v>0.8650537943818432</v>
       </c>
       <c r="Y2">
-        <v>0.9656936869589852</v>
+        <v>0.9509342121571041</v>
       </c>
       <c r="Z2">
-        <v>0.9126648526048141</v>
+        <v>0.9763459266283451</v>
       </c>
       <c r="AA2">
-        <v>0.964662543599524</v>
+        <v>0.9521119613988462</v>
       </c>
       <c r="AB2">
-        <v>0.9710646917860661</v>
+        <v>0.8811626329727528</v>
       </c>
       <c r="AC2">
-        <v>0.9519122727092497</v>
+        <v>0.9340008408034139</v>
       </c>
       <c r="AD2">
-        <v>0.9134060109028075</v>
+        <v>0.9631633141955066</v>
       </c>
       <c r="AE2">
-        <v>0.8490554151072138</v>
+        <v>0.9337276125966517</v>
       </c>
       <c r="AF2">
-        <v>0.9352208493063001</v>
+        <v>0.9824368555339069</v>
       </c>
       <c r="AG2">
-        <v>0.8653273164815909</v>
+        <v>0.9308808355817252</v>
       </c>
       <c r="AH2">
-        <v>0.871740605182367</v>
+        <v>0.9203702714145027</v>
       </c>
       <c r="AI2">
-        <v>0.7599995446169857</v>
+        <v>0.9420079274250457</v>
       </c>
       <c r="AJ2">
-        <v>0.8633250622971781</v>
+        <v>0.8530158349130654</v>
       </c>
       <c r="AK2">
-        <v>0.8495917134008977</v>
+        <v>0.8257301394451975</v>
       </c>
       <c r="AL2">
-        <v>0.6752874262384031</v>
+        <v>0.8160889405908756</v>
       </c>
       <c r="AM2">
-        <v>0.7369020173738801</v>
+        <v>-0.1983880881561174</v>
       </c>
       <c r="AN2">
-        <v>0.3880530692882348</v>
+        <v>0.3053264807253276</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0.8333563347747633</v>
+        <v>0.9009899693442087</v>
       </c>
       <c r="C3">
-        <v>0.7969080386946764</v>
+        <v>0.9205982758710168</v>
       </c>
       <c r="D3">
-        <v>0.7868822240841585</v>
+        <v>0.8848571952378934</v>
       </c>
       <c r="E3">
-        <v>0.8429664786705642</v>
+        <v>0.9673618438862441</v>
       </c>
       <c r="F3">
-        <v>0.5972672329242702</v>
+        <v>0.9115696623452331</v>
       </c>
       <c r="G3">
-        <v>0.7709300095340642</v>
+        <v>0.9047751354687296</v>
       </c>
       <c r="H3">
-        <v>0.8523775226386493</v>
+        <v>0.9116256342179636</v>
       </c>
       <c r="I3">
-        <v>0.7944130460430443</v>
+        <v>0.9643983348869365</v>
       </c>
       <c r="J3">
-        <v>0.5043968222859369</v>
+        <v>0.9159430204760146</v>
       </c>
       <c r="K3">
-        <v>0.8358327346339007</v>
+        <v>0.8900892654237444</v>
       </c>
       <c r="L3">
-        <v>0.8140442724584918</v>
+        <v>0.9665672870390102</v>
       </c>
       <c r="M3">
-        <v>0.7196669773318262</v>
+        <v>0.9394087504560885</v>
       </c>
       <c r="N3">
-        <v>0.6369533965523391</v>
+        <v>0.9490943720084463</v>
       </c>
       <c r="O3">
-        <v>0.8542519765119464</v>
+        <v>0.8784939662389387</v>
       </c>
       <c r="P3">
-        <v>0.9552519239318491</v>
+        <v>0.9698388332364106</v>
       </c>
       <c r="Q3">
-        <v>0.821956740422033</v>
+        <v>0.9363922868004269</v>
       </c>
       <c r="R3">
-        <v>0.7956981290510259</v>
+        <v>0.900834515035312</v>
       </c>
       <c r="S3">
-        <v>0.8673471547927654</v>
+        <v>0.945159329540422</v>
       </c>
       <c r="T3">
-        <v>0.9389615944207618</v>
+        <v>0.9183492854417681</v>
       </c>
       <c r="U3">
-        <v>0.6317008321157572</v>
+        <v>0.9301878201386333</v>
       </c>
       <c r="V3">
-        <v>0.8934527817653709</v>
+        <v>0.8755930658912483</v>
       </c>
       <c r="W3">
-        <v>0.6408821795129195</v>
+        <v>0.8810817811298256</v>
       </c>
       <c r="X3">
-        <v>0.7509265827124595</v>
+        <v>0.7370231805750173</v>
       </c>
       <c r="Y3">
-        <v>0.8214935918831954</v>
+        <v>0.8899639575771174</v>
       </c>
       <c r="Z3">
-        <v>0.7324496492146887</v>
+        <v>0.9504699669261732</v>
       </c>
       <c r="AA3">
-        <v>0.9224328185626681</v>
+        <v>0.9872366423068013</v>
       </c>
       <c r="AB3">
-        <v>0.8632087512362102</v>
+        <v>0.7670451744655595</v>
       </c>
       <c r="AC3">
-        <v>0.8038820365682263</v>
+        <v>0.8541662258278564</v>
       </c>
       <c r="AD3">
-        <v>0.7781261772946227</v>
+        <v>0.9069543009198777</v>
       </c>
       <c r="AE3">
-        <v>0.662848820785928</v>
+        <v>0.8552914448124334</v>
       </c>
       <c r="AF3">
-        <v>0.7789927020026697</v>
+        <v>0.9234587905436199</v>
       </c>
       <c r="AG3">
-        <v>0.6896133635431186</v>
+        <v>0.9016850805310822</v>
       </c>
       <c r="AH3">
-        <v>0.6939101484886905</v>
+        <v>0.9297338093260635</v>
       </c>
       <c r="AI3">
-        <v>0.6377279805217824</v>
+        <v>0.896504055274888</v>
       </c>
       <c r="AJ3">
-        <v>0.7009937920716136</v>
+        <v>0.8634504193311608</v>
       </c>
       <c r="AK3">
-        <v>0.714023225600108</v>
+        <v>0.7912551698211701</v>
       </c>
       <c r="AL3">
-        <v>0.4241651345182791</v>
+        <v>0.7932583123641512</v>
       </c>
       <c r="AM3">
-        <v>0.5742049821490578</v>
+        <v>-0.1870264995918848</v>
       </c>
       <c r="AN3">
-        <v>0.164661517199933</v>
+        <v>0.3243999557655198</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>0.9235302366899644</v>
+        <v>0.9779659823007845</v>
       </c>
       <c r="C4">
-        <v>0.8927562194617698</v>
+        <v>0.9802215295670139</v>
       </c>
       <c r="D4">
-        <v>0.9573192786933716</v>
+        <v>0.9722328506985138</v>
       </c>
       <c r="E4">
-        <v>0.9862253876523998</v>
+        <v>0.9943841784965892</v>
       </c>
       <c r="F4">
-        <v>0.852206603811365</v>
+        <v>0.9728080213181498</v>
       </c>
       <c r="G4">
-        <v>0.9518257867915643</v>
+        <v>0.9841111320508842</v>
       </c>
       <c r="H4">
-        <v>0.9675448439544773</v>
+        <v>0.9841878043346074</v>
       </c>
       <c r="I4">
-        <v>0.9474606158181155</v>
+        <v>0.9960644747863731</v>
       </c>
       <c r="J4">
-        <v>0.7783280435374581</v>
+        <v>0.9858831603693989</v>
       </c>
       <c r="K4">
-        <v>0.9807491066972571</v>
+        <v>0.9786292615243722</v>
       </c>
       <c r="L4">
-        <v>0.9592615824814645</v>
+        <v>0.9778252042034528</v>
       </c>
       <c r="M4">
-        <v>0.9149776939373925</v>
+        <v>0.9848510280967223</v>
       </c>
       <c r="N4">
-        <v>0.8504270168321388</v>
+        <v>0.9835466588024188</v>
       </c>
       <c r="O4">
-        <v>0.9772914710667782</v>
+        <v>0.9655020277320564</v>
       </c>
       <c r="P4">
-        <v>0.9687185739980373</v>
+        <v>0.9960347779811332</v>
       </c>
       <c r="Q4">
-        <v>0.8879133478286766</v>
+        <v>0.9735077390991186</v>
       </c>
       <c r="R4">
-        <v>0.9634039991990878</v>
+        <v>0.9822589320160934</v>
       </c>
       <c r="S4">
-        <v>0.9757108986049482</v>
+        <v>0.9953025377959045</v>
       </c>
       <c r="T4">
-        <v>0.995028362208162</v>
+        <v>0.9863259541981151</v>
       </c>
       <c r="U4">
-        <v>0.8279429221660114</v>
+        <v>0.9944101121805917</v>
       </c>
       <c r="V4">
-        <v>0.9401413512394974</v>
+        <v>0.9727532791851796</v>
       </c>
       <c r="W4">
-        <v>0.8407781303219785</v>
+        <v>0.9755436524809384</v>
       </c>
       <c r="X4">
-        <v>0.8968731191299034</v>
+        <v>0.8887114809193016</v>
       </c>
       <c r="Y4">
-        <v>0.9693416849408691</v>
+        <v>0.9743665973260385</v>
       </c>
       <c r="Z4">
-        <v>0.9059597007362055</v>
+        <v>0.99029191531641</v>
       </c>
       <c r="AA4">
-        <v>0.956964947380638</v>
+        <v>0.9520098287961672</v>
       </c>
       <c r="AB4">
-        <v>0.9618161848448538</v>
+        <v>0.9071798608466035</v>
       </c>
       <c r="AC4">
-        <v>0.9558157013189995</v>
+        <v>0.961242990265209</v>
       </c>
       <c r="AD4">
-        <v>0.90620098556644</v>
+        <v>0.9857194283183326</v>
       </c>
       <c r="AE4">
-        <v>0.8363076105275898</v>
+        <v>0.9632054315328097</v>
       </c>
       <c r="AF4">
-        <v>0.9246802989687772</v>
+        <v>0.9919019643064783</v>
       </c>
       <c r="AG4">
-        <v>0.861373373775064</v>
+        <v>0.95642402788331</v>
       </c>
       <c r="AH4">
-        <v>0.8687875400213521</v>
+        <v>0.9458360667432969</v>
       </c>
       <c r="AI4">
-        <v>0.7585112127461195</v>
+        <v>0.9726818998685688</v>
       </c>
       <c r="AJ4">
-        <v>0.8591585155800623</v>
+        <v>0.8902488595148957</v>
       </c>
       <c r="AK4">
-        <v>0.8532303843029427</v>
+        <v>0.8796672261507121</v>
       </c>
       <c r="AL4">
-        <v>0.6782814555096756</v>
+        <v>0.870436855394494</v>
       </c>
       <c r="AM4">
-        <v>0.7274765120935354</v>
+        <v>-0.1066597616503769</v>
       </c>
       <c r="AN4">
-        <v>0.3879890094644649</v>
+        <v>0.3883324230182818</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>0.901770932141459</v>
+        <v>0.9677466461646793</v>
       </c>
       <c r="C5">
-        <v>0.8595350605697807</v>
+        <v>0.9651975171556836</v>
       </c>
       <c r="D5">
-        <v>0.9488940290795026</v>
+        <v>0.9701381540651751</v>
       </c>
       <c r="E5">
-        <v>0.9819265747097153</v>
+        <v>0.9784177124566967</v>
       </c>
       <c r="F5">
-        <v>0.8691102280723506</v>
+        <v>0.9606385624274963</v>
       </c>
       <c r="G5">
-        <v>0.9578127533035088</v>
+        <v>0.9795635669073547</v>
       </c>
       <c r="H5">
-        <v>0.9613500380465715</v>
+        <v>0.9748807048277749</v>
       </c>
       <c r="I5">
-        <v>0.93535907555322</v>
+        <v>0.9839363261511298</v>
       </c>
       <c r="J5">
-        <v>0.8160845208133408</v>
+        <v>0.9760245147738696</v>
       </c>
       <c r="K5">
-        <v>0.9530585211831785</v>
+        <v>0.983347600888195</v>
       </c>
       <c r="L5">
-        <v>0.9813022238579536</v>
+        <v>0.9501333332014413</v>
       </c>
       <c r="M5">
-        <v>0.9418561881344312</v>
+        <v>0.9655397299009102</v>
       </c>
       <c r="N5">
-        <v>0.893074916361134</v>
+        <v>0.9603493994751756</v>
       </c>
       <c r="O5">
-        <v>0.9889825192573951</v>
+        <v>0.9556814713594746</v>
       </c>
       <c r="P5">
-        <v>0.979881285298466</v>
+        <v>0.9794989864050576</v>
       </c>
       <c r="Q5">
-        <v>0.9499900676462587</v>
+        <v>0.9465805920525723</v>
       </c>
       <c r="R5">
-        <v>0.9721582094563589</v>
+        <v>0.9836495209557011</v>
       </c>
       <c r="S5">
-        <v>0.9452441874843535</v>
+        <v>0.9990695293010612</v>
       </c>
       <c r="T5">
-        <v>0.9874657645060332</v>
+        <v>0.9789294609265752</v>
       </c>
       <c r="U5">
-        <v>0.8862135216746374</v>
+        <v>0.9961088790226139</v>
       </c>
       <c r="V5">
-        <v>0.9817382602804179</v>
+        <v>0.9761682059559427</v>
       </c>
       <c r="W5">
-        <v>0.8942115988081564</v>
+        <v>0.9764544749438401</v>
       </c>
       <c r="X5">
-        <v>0.9476672020818773</v>
+        <v>0.9006504785911277</v>
       </c>
       <c r="Y5">
-        <v>0.9823499491870381</v>
+        <v>0.9898589629992136</v>
       </c>
       <c r="Z5">
-        <v>0.9458104514105973</v>
+        <v>0.9960826655854801</v>
       </c>
       <c r="AA5">
-        <v>0.990529580167277</v>
+        <v>0.941343213887356</v>
       </c>
       <c r="AB5">
-        <v>0.9915409932752407</v>
+        <v>0.9141067930960104</v>
       </c>
       <c r="AC5">
-        <v>0.9763610326743941</v>
+        <v>0.9788117339019694</v>
       </c>
       <c r="AD5">
-        <v>0.9573758738786059</v>
+        <v>0.995190518226164</v>
       </c>
       <c r="AE5">
-        <v>0.899133739117107</v>
+        <v>0.9804622907211343</v>
       </c>
       <c r="AF5">
-        <v>0.9643854398847996</v>
+        <v>0.9893058512903372</v>
       </c>
       <c r="AG5">
-        <v>0.916562815841077</v>
+        <v>0.962803715398676</v>
       </c>
       <c r="AH5">
-        <v>0.9206464016682816</v>
+        <v>0.958833640051526</v>
       </c>
       <c r="AI5">
-        <v>0.8463403373851422</v>
+        <v>0.9908918931785544</v>
       </c>
       <c r="AJ5">
-        <v>0.918427188733443</v>
+        <v>0.9119178489793373</v>
       </c>
       <c r="AK5">
-        <v>0.9148849036240477</v>
+        <v>0.9267718866734665</v>
       </c>
       <c r="AL5">
-        <v>0.744075657220613</v>
+        <v>0.9146710339152652</v>
       </c>
       <c r="AM5">
-        <v>0.818016441766329</v>
+        <v>-0.02447138931050591</v>
       </c>
       <c r="AN5">
-        <v>0.495739278180702</v>
+        <v>0.4573140540188134</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.74320110532957</v>
+        <v>0.8924407011250957</v>
       </c>
       <c r="C6">
-        <v>0.6789644985471326</v>
+        <v>0.8984975976023617</v>
       </c>
       <c r="D6">
-        <v>0.7820938420758562</v>
+        <v>0.9039043197107345</v>
       </c>
       <c r="E6">
-        <v>0.8447575991284622</v>
+        <v>0.938077943841871</v>
       </c>
       <c r="F6">
-        <v>0.7052709608063303</v>
+        <v>0.9009224260452673</v>
       </c>
       <c r="G6">
-        <v>0.8125302909212108</v>
+        <v>0.9122862693936975</v>
       </c>
       <c r="H6">
-        <v>0.8216591841186265</v>
+        <v>0.9045148781614937</v>
       </c>
       <c r="I6">
-        <v>0.7662003603272765</v>
+        <v>0.9471615886872513</v>
       </c>
       <c r="J6">
-        <v>0.6866559622294012</v>
+        <v>0.9048259844866462</v>
       </c>
       <c r="K6">
-        <v>0.7754054043768849</v>
+        <v>0.9279276088567789</v>
       </c>
       <c r="L6">
-        <v>0.8876878829932539</v>
+        <v>0.8940469712944342</v>
       </c>
       <c r="M6">
-        <v>0.8271341998750006</v>
+        <v>0.8959560727454535</v>
       </c>
       <c r="N6">
-        <v>0.789885385063122</v>
+        <v>0.8934927377614295</v>
       </c>
       <c r="O6">
-        <v>0.8821439297392317</v>
+        <v>0.8732332918254857</v>
       </c>
       <c r="P6">
-        <v>0.9254584077929793</v>
+        <v>0.9368996270595393</v>
       </c>
       <c r="Q6">
-        <v>0.9663813015995257</v>
+        <v>0.8757594632441514</v>
       </c>
       <c r="R6">
-        <v>0.8421672711592444</v>
+        <v>0.9285979580074764</v>
       </c>
       <c r="S6">
-        <v>0.7769721075939916</v>
+        <v>0.9747112460891878</v>
       </c>
       <c r="T6">
-        <v>0.8888553622295533</v>
+        <v>0.9187682503249641</v>
       </c>
       <c r="U6">
-        <v>0.8230697363320457</v>
+        <v>0.9551556091494224</v>
       </c>
       <c r="V6">
-        <v>0.9737277885528007</v>
+        <v>0.904258120667311</v>
       </c>
       <c r="W6">
-        <v>0.8233610649513303</v>
+        <v>0.9050819903061399</v>
       </c>
       <c r="X6">
-        <v>0.8990816128531948</v>
+        <v>0.8019833833004761</v>
       </c>
       <c r="Y6">
-        <v>0.8762526359172298</v>
+        <v>0.9593585238559559</v>
       </c>
       <c r="Z6">
-        <v>0.8651766529908562</v>
+        <v>0.9859805934570177</v>
       </c>
       <c r="AA6">
-        <v>0.9665153991377158</v>
+        <v>0.9611026861428474</v>
       </c>
       <c r="AB6">
-        <v>0.9271855678780326</v>
+        <v>0.8071899720611122</v>
       </c>
       <c r="AC6">
-        <v>0.8814074324243506</v>
+        <v>0.9305884581562194</v>
       </c>
       <c r="AD6">
-        <v>0.9177568857509545</v>
+        <v>0.9526814624991616</v>
       </c>
       <c r="AE6">
-        <v>0.854714801905087</v>
+        <v>0.9277007696636081</v>
       </c>
       <c r="AF6">
-        <v>0.8933571918620059</v>
+        <v>0.9365574780504046</v>
       </c>
       <c r="AG6">
-        <v>0.8665610020005573</v>
+        <v>0.9260591530330373</v>
       </c>
       <c r="AH6">
-        <v>0.864073418129649</v>
+        <v>0.9734666238369953</v>
       </c>
       <c r="AI6">
-        <v>0.8831237967306003</v>
+        <v>0.9656486092442989</v>
       </c>
       <c r="AJ6">
-        <v>0.8818965507066928</v>
+        <v>0.9268707517575527</v>
       </c>
       <c r="AK6">
-        <v>0.8987371165096072</v>
+        <v>0.9451238340755538</v>
       </c>
       <c r="AL6">
-        <v>0.6857299715880012</v>
+        <v>0.9328563929819275</v>
       </c>
       <c r="AM6">
-        <v>0.8378142063057996</v>
+        <v>0.03207160834305643</v>
       </c>
       <c r="AN6">
-        <v>0.5350916215276444</v>
+        <v>0.5110974187061972</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0.8043982489558815</v>
+        <v>0.8476721380938546</v>
       </c>
       <c r="C7">
-        <v>0.7468681757631144</v>
+        <v>0.835967104846812</v>
       </c>
       <c r="D7">
-        <v>0.9007261875673237</v>
+        <v>0.8621391866819382</v>
       </c>
       <c r="E7">
-        <v>0.9416922365329347</v>
+        <v>0.8697738030774944</v>
       </c>
       <c r="F7">
-        <v>0.8842599211444312</v>
+        <v>0.8323565886462835</v>
       </c>
       <c r="G7">
-        <v>0.9364888061924721</v>
+        <v>0.8774002833560546</v>
       </c>
       <c r="H7">
-        <v>0.8982417005663468</v>
+        <v>0.8622905230897568</v>
       </c>
       <c r="I7">
-        <v>0.872606064682284</v>
+        <v>0.8834160201308687</v>
       </c>
       <c r="J7">
-        <v>0.877012222028924</v>
+        <v>0.8684200382638291</v>
       </c>
       <c r="K7">
-        <v>0.8778398710528058</v>
+        <v>0.8987286058541228</v>
       </c>
       <c r="L7">
-        <v>0.9817308144529069</v>
+        <v>0.8325975708491756</v>
       </c>
       <c r="M7">
-        <v>0.9586353333294952</v>
+        <v>0.8494822102335131</v>
       </c>
       <c r="N7">
-        <v>0.9331502561688184</v>
+        <v>0.8384894550634718</v>
       </c>
       <c r="O7">
-        <v>0.9612263196648636</v>
+        <v>0.8278702104898835</v>
       </c>
       <c r="P7">
-        <v>0.9223180367375692</v>
+        <v>0.8741086775178555</v>
       </c>
       <c r="Q7">
-        <v>0.994492419400735</v>
+        <v>0.7982103564343277</v>
       </c>
       <c r="R7">
-        <v>0.9554960669448297</v>
+        <v>0.8923250743790171</v>
       </c>
       <c r="S7">
-        <v>0.8525282276602201</v>
+        <v>0.939876841518821</v>
       </c>
       <c r="T7">
-        <v>0.9206451779573808</v>
+        <v>0.8695337220691711</v>
       </c>
       <c r="U7">
-        <v>0.9507833564230759</v>
+        <v>0.921339668184911</v>
       </c>
       <c r="V7">
-        <v>0.9903277764337154</v>
+        <v>0.8967251356900731</v>
       </c>
       <c r="W7">
-        <v>0.9544894939120475</v>
+        <v>0.8840000808702799</v>
       </c>
       <c r="X7">
-        <v>0.9893774130612603</v>
+        <v>0.7994614685219606</v>
       </c>
       <c r="Y7">
-        <v>0.9736972334232892</v>
+        <v>0.9403752985064904</v>
       </c>
       <c r="Z7">
-        <v>0.9780498343965432</v>
+        <v>0.9472961068786089</v>
       </c>
       <c r="AA7">
-        <v>0.9753230728699706</v>
+        <v>0.9038036137840735</v>
       </c>
       <c r="AB7">
-        <v>0.9848604981470072</v>
+        <v>0.8258541723626112</v>
       </c>
       <c r="AC7">
-        <v>0.9807440805913986</v>
+        <v>0.924476784260114</v>
       </c>
       <c r="AD7">
-        <v>0.9944277911094265</v>
+        <v>0.9434730863081356</v>
       </c>
       <c r="AE7">
-        <v>0.9643699418854781</v>
+        <v>0.9321338813985018</v>
       </c>
       <c r="AF7">
-        <v>0.9851465411139447</v>
+        <v>0.8978431779569053</v>
       </c>
       <c r="AG7">
-        <v>0.9758827062673976</v>
+        <v>0.9404592091137551</v>
       </c>
       <c r="AH7">
-        <v>0.9762322004349016</v>
+        <v>0.9727491405563112</v>
       </c>
       <c r="AI7">
-        <v>0.9494655237349071</v>
+        <v>0.972577347406676</v>
       </c>
       <c r="AJ7">
-        <v>0.9802908156549863</v>
+        <v>0.9623094212841421</v>
       </c>
       <c r="AK7">
-        <v>0.9824078837426483</v>
+        <v>0.9936133727999268</v>
       </c>
       <c r="AL7">
-        <v>0.8572212470871287</v>
+        <v>0.9910593048724604</v>
       </c>
       <c r="AM7">
-        <v>0.9285956528577124</v>
+        <v>0.250013579201043</v>
       </c>
       <c r="AN7">
-        <v>0.6794297467221985</v>
+        <v>0.6791785006395353</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.7315523175797882</v>
+        <v>0.6547209116464057</v>
       </c>
       <c r="C8">
-        <v>0.6707684377514168</v>
+        <v>0.626324961357274</v>
       </c>
       <c r="D8">
-        <v>0.867650812519687</v>
+        <v>0.7013297952368824</v>
       </c>
       <c r="E8">
-        <v>0.9013652831484509</v>
+        <v>0.6308270423697843</v>
       </c>
       <c r="F8">
-        <v>0.9095311096081744</v>
+        <v>0.638734983820924</v>
       </c>
       <c r="G8">
-        <v>0.9183570400743635</v>
+        <v>0.6947104518956329</v>
       </c>
       <c r="H8">
-        <v>0.8436138160885276</v>
+        <v>0.664996278276907</v>
       </c>
       <c r="I8">
-        <v>0.8297886393663656</v>
+        <v>0.65607022056707</v>
       </c>
       <c r="J8">
-        <v>0.9318979159968889</v>
+        <v>0.6627894171183052</v>
       </c>
       <c r="K8">
-        <v>0.8225231019959494</v>
+        <v>0.7486412126366753</v>
       </c>
       <c r="L8">
-        <v>0.9622579896845687</v>
+        <v>0.5453107199511075</v>
       </c>
       <c r="M8">
-        <v>0.9638233706945912</v>
+        <v>0.6029001688433029</v>
       </c>
       <c r="N8">
-        <v>0.9593505242341686</v>
+        <v>0.5776342384247666</v>
       </c>
       <c r="O8">
-        <v>0.922919870603372</v>
+        <v>0.6480605119585323</v>
       </c>
       <c r="P8">
-        <v>0.8420716669133865</v>
+        <v>0.6284768061459516</v>
       </c>
       <c r="Q8">
-        <v>0.978407838542825</v>
+        <v>0.5469355798369639</v>
       </c>
       <c r="R8">
-        <v>0.93445080814668</v>
+        <v>0.7304932242114014</v>
       </c>
       <c r="S8">
-        <v>0.7805767351325967</v>
+        <v>0.7549303872764963</v>
       </c>
       <c r="T8">
-        <v>0.8442569377923334</v>
+        <v>0.6785186213775365</v>
       </c>
       <c r="U8">
-        <v>0.9842260814384748</v>
+        <v>0.7413426761985815</v>
       </c>
       <c r="V8">
-        <v>0.9490141448634797</v>
+        <v>0.7361671204588769</v>
       </c>
       <c r="W8">
-        <v>0.985667454625615</v>
+        <v>0.7225578077694103</v>
       </c>
       <c r="X8">
-        <v>0.9937709073306253</v>
+        <v>0.7277486060734237</v>
       </c>
       <c r="Y8">
-        <v>0.949411059627951</v>
+        <v>0.8128949384600489</v>
       </c>
       <c r="Z8">
-        <v>0.9848397465542695</v>
+        <v>0.7639046492811356</v>
       </c>
       <c r="AA8">
-        <v>0.9202113176081281</v>
+        <v>0.6328156899130336</v>
       </c>
       <c r="AB8">
-        <v>0.9507021068834302</v>
+        <v>0.7099583955150387</v>
       </c>
       <c r="AC8">
-        <v>0.9643411626440013</v>
+        <v>0.8162432581946664</v>
       </c>
       <c r="AD8">
-        <v>0.9913718578330678</v>
+        <v>0.7835693822448297</v>
       </c>
       <c r="AE8">
-        <v>0.9914884116948366</v>
+        <v>0.8157314423802645</v>
       </c>
       <c r="AF8">
-        <v>0.9786471012268672</v>
+        <v>0.7126386376585602</v>
       </c>
       <c r="AG8">
-        <v>0.9969986644585264</v>
+        <v>0.7426912172200933</v>
       </c>
       <c r="AH8">
-        <v>0.995859761174644</v>
+        <v>0.7762967779826899</v>
       </c>
       <c r="AI8">
-        <v>0.9830800581543596</v>
+        <v>0.8286446053161836</v>
       </c>
       <c r="AJ8">
-        <v>0.9991180334468617</v>
+        <v>0.7896831201778626</v>
       </c>
       <c r="AK8">
-        <v>0.997998811183499</v>
+        <v>0.9410229419096857</v>
       </c>
       <c r="AL8">
-        <v>0.9352640396948302</v>
+        <v>0.9162790111122837</v>
       </c>
       <c r="AM8">
-        <v>0.9773737954597146</v>
+        <v>0.4356679250448808</v>
       </c>
       <c r="AN8">
-        <v>0.79993451391387</v>
+        <v>0.7167868874636689</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.6746027347349455</v>
+        <v>0.7379550907527751</v>
       </c>
       <c r="C9">
-        <v>0.6102724482470693</v>
+        <v>0.7100250890672357</v>
       </c>
       <c r="D9">
-        <v>0.8249650935813971</v>
+        <v>0.7624624290868915</v>
       </c>
       <c r="E9">
-        <v>0.8585155880516611</v>
+        <v>0.7328080343772509</v>
       </c>
       <c r="F9">
-        <v>0.8920374210579659</v>
+        <v>0.7063802355223709</v>
       </c>
       <c r="G9">
-        <v>0.8842425936068583</v>
+        <v>0.7768965730365652</v>
       </c>
       <c r="H9">
-        <v>0.7954930431149007</v>
+        <v>0.7531795912165384</v>
       </c>
       <c r="I9">
-        <v>0.7832171740360153</v>
+        <v>0.7523665822910149</v>
       </c>
       <c r="J9">
-        <v>0.9310545360163414</v>
+        <v>0.7612966573959126</v>
       </c>
       <c r="K9">
-        <v>0.7688706345139594</v>
+        <v>0.8102697195484074</v>
       </c>
       <c r="L9">
-        <v>0.9333696490226288</v>
+        <v>0.6892023761973748</v>
       </c>
       <c r="M9">
-        <v>0.9431437058722741</v>
+        <v>0.7257081755895751</v>
       </c>
       <c r="N9">
-        <v>0.9496272699452322</v>
+        <v>0.7054937844965663</v>
       </c>
       <c r="O9">
-        <v>0.8849022505265504</v>
+        <v>0.7211578710408867</v>
       </c>
       <c r="P9">
-        <v>0.7935109543886688</v>
+        <v>0.7392908055355892</v>
       </c>
       <c r="Q9">
-        <v>0.9647859625364353</v>
+        <v>0.6521197688859172</v>
       </c>
       <c r="R9">
-        <v>0.900657953948351</v>
+        <v>0.7960588933893766</v>
       </c>
       <c r="S9">
-        <v>0.7215600127051965</v>
+        <v>0.839160719457288</v>
       </c>
       <c r="T9">
-        <v>0.7912841302449853</v>
+        <v>0.7571379220461713</v>
       </c>
       <c r="U9">
-        <v>0.9822724031536603</v>
+        <v>0.8222827961739483</v>
       </c>
       <c r="V9">
-        <v>0.9215910258403444</v>
+        <v>0.8207454156126346</v>
       </c>
       <c r="W9">
-        <v>0.9816176706449813</v>
+        <v>0.7983317635628348</v>
       </c>
       <c r="X9">
-        <v>0.9808308389769819</v>
+        <v>0.7503772613425267</v>
       </c>
       <c r="Y9">
-        <v>0.9167864315805314</v>
+        <v>0.8648864419566042</v>
       </c>
       <c r="Z9">
-        <v>0.9689272192645535</v>
+        <v>0.8446577615217341</v>
       </c>
       <c r="AA9">
-        <v>0.8854512319476713</v>
+        <v>0.7691443135455617</v>
       </c>
       <c r="AB9">
-        <v>0.9196262657445654</v>
+        <v>0.7802450690859456</v>
       </c>
       <c r="AC9">
-        <v>0.9363850170161808</v>
+        <v>0.862642534597388</v>
       </c>
       <c r="AD9">
-        <v>0.9763933733755187</v>
+        <v>0.8665122370994461</v>
       </c>
       <c r="AE9">
-        <v>0.9891145255481086</v>
+        <v>0.875539908672476</v>
       </c>
       <c r="AF9">
-        <v>0.9584372659646391</v>
+        <v>0.7940549222989853</v>
       </c>
       <c r="AG9">
-        <v>0.9909345972480179</v>
+        <v>0.8719147606903677</v>
       </c>
       <c r="AH9">
-        <v>0.9882900502409727</v>
+        <v>0.8951550127874366</v>
       </c>
       <c r="AI9">
-        <v>0.9934618389322455</v>
+        <v>0.9112852960922113</v>
       </c>
       <c r="AJ9">
-        <v>0.9937700059636299</v>
+        <v>0.9172554758232611</v>
       </c>
       <c r="AK9">
-        <v>0.9935517611580975</v>
+        <v>0.9865146646075066</v>
       </c>
       <c r="AL9">
-        <v>0.9529437407268836</v>
+        <v>0.9857232252609608</v>
       </c>
       <c r="AM9">
-        <v>0.9924909802222125</v>
+        <v>0.4495672398171601</v>
       </c>
       <c r="AN9">
-        <v>0.8496626367465997</v>
+        <v>0.7929040023147145</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.6876484244658949</v>
+        <v>0.7280034787471682</v>
       </c>
       <c r="C10">
-        <v>0.6187400373763662</v>
+        <v>0.6916541352769158</v>
       </c>
       <c r="D10">
-        <v>0.8164448772358412</v>
+        <v>0.7477080942919598</v>
       </c>
       <c r="E10">
-        <v>0.8693772931696178</v>
+        <v>0.7049564271629448</v>
       </c>
       <c r="F10">
-        <v>0.8400366972112751</v>
+        <v>0.6820337791288013</v>
       </c>
       <c r="G10">
-        <v>0.8718490289011368</v>
+        <v>0.7666840551488767</v>
       </c>
       <c r="H10">
-        <v>0.8061318889388224</v>
+        <v>0.7425953171996984</v>
       </c>
       <c r="I10">
-        <v>0.7772357106447904</v>
+        <v>0.723861790371655</v>
       </c>
       <c r="J10">
-        <v>0.8684959162300595</v>
+        <v>0.7539273614648976</v>
       </c>
       <c r="K10">
-        <v>0.779917963207739</v>
+        <v>0.7952338869907976</v>
       </c>
       <c r="L10">
-        <v>0.9389504864535735</v>
+        <v>0.6746285987278969</v>
       </c>
       <c r="M10">
-        <v>0.9216609807947403</v>
+        <v>0.7176909977578901</v>
       </c>
       <c r="N10">
-        <v>0.9092131848173476</v>
+        <v>0.6945970221820574</v>
       </c>
       <c r="O10">
-        <v>0.8968981553227495</v>
+        <v>0.7128053477874926</v>
       </c>
       <c r="P10">
-        <v>0.8455222751454493</v>
+        <v>0.714897947534984</v>
       </c>
       <c r="Q10">
-        <v>0.9923804377350859</v>
+        <v>0.6335360626585594</v>
       </c>
       <c r="R10">
-        <v>0.8971017160164593</v>
+        <v>0.7791222248018969</v>
       </c>
       <c r="S10">
-        <v>0.7433636818743732</v>
+        <v>0.8134298705153005</v>
       </c>
       <c r="T10">
-        <v>0.8369587493355958</v>
+        <v>0.7395801854580357</v>
       </c>
       <c r="U10">
-        <v>0.948482308647755</v>
+        <v>0.8024459846156047</v>
       </c>
       <c r="V10">
-        <v>0.9638091333039334</v>
+        <v>0.8210487544805107</v>
       </c>
       <c r="W10">
-        <v>0.9496668324566037</v>
+        <v>0.7932424677146099</v>
       </c>
       <c r="X10">
-        <v>0.975482754109456</v>
+        <v>0.7572488919598164</v>
       </c>
       <c r="Y10">
-        <v>0.9257976457047414</v>
+        <v>0.8429604168076812</v>
       </c>
       <c r="Z10">
-        <v>0.9548570907537969</v>
+        <v>0.8124181391162714</v>
       </c>
       <c r="AA10">
-        <v>0.9288295219985917</v>
+        <v>0.7285871572264598</v>
       </c>
       <c r="AB10">
-        <v>0.9380278602538171</v>
+        <v>0.8014769916013685</v>
       </c>
       <c r="AC10">
-        <v>0.9422198564668477</v>
+        <v>0.8507032503065252</v>
       </c>
       <c r="AD10">
-        <v>0.9784315785533388</v>
+        <v>0.8551286833443954</v>
       </c>
       <c r="AE10">
-        <v>0.9643892599369831</v>
+        <v>0.8699177615602635</v>
       </c>
       <c r="AF10">
-        <v>0.9542463040700777</v>
+        <v>0.7771271912937042</v>
       </c>
       <c r="AG10">
-        <v>0.974420337400676</v>
+        <v>0.8720620058673884</v>
       </c>
       <c r="AH10">
-        <v>0.9720044323600611</v>
+        <v>0.8714769660296783</v>
       </c>
       <c r="AI10">
-        <v>0.9875880820640449</v>
+        <v>0.8989446399389035</v>
       </c>
       <c r="AJ10">
-        <v>0.9818094648127137</v>
+        <v>0.9072215524169757</v>
       </c>
       <c r="AK10">
-        <v>0.9927351634364868</v>
+        <v>0.9697100167385593</v>
       </c>
       <c r="AL10">
-        <v>0.8949127118525099</v>
+        <v>0.9750637751419428</v>
       </c>
       <c r="AM10">
-        <v>0.9670930100743329</v>
+        <v>0.4997704820665493</v>
       </c>
       <c r="AN10">
-        <v>0.7775798454144162</v>
+        <v>0.8196578062129495</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0.6903222592758339</v>
+        <v>-0.1401528813430103</v>
       </c>
       <c r="C11">
-        <v>0.6270531083657105</v>
+        <v>-0.1713050544400919</v>
       </c>
       <c r="D11">
-        <v>0.8386948364054555</v>
+        <v>-0.1223007776201624</v>
       </c>
       <c r="E11">
-        <v>0.8728370974134028</v>
+        <v>-0.08706984310019412</v>
       </c>
       <c r="F11">
-        <v>0.8992247682573321</v>
+        <v>-0.1851904533049269</v>
       </c>
       <c r="G11">
-        <v>0.8957276898634605</v>
+        <v>-0.08121471771435287</v>
       </c>
       <c r="H11">
-        <v>0.8096056945040018</v>
+        <v>-0.1101861119126152</v>
       </c>
       <c r="I11">
-        <v>0.7973423599454907</v>
+        <v>-0.06528852421858421</v>
       </c>
       <c r="J11">
-        <v>0.9339608945904635</v>
+        <v>-0.08361068645729197</v>
       </c>
       <c r="K11">
-        <v>0.7864868777893816</v>
+        <v>-0.04400351015101178</v>
       </c>
       <c r="L11">
-        <v>0.943336187729239</v>
+        <v>-0.07911003631933765</v>
       </c>
       <c r="M11">
-        <v>0.9508296007855914</v>
+        <v>-0.09013985827033384</v>
       </c>
       <c r="N11">
-        <v>0.9534016764763344</v>
+        <v>-0.10560798268853</v>
       </c>
       <c r="O11">
-        <v>0.8967238477381231</v>
+        <v>-0.176491016736804</v>
       </c>
       <c r="P11">
-        <v>0.8065621391263711</v>
+        <v>-0.06745354891371302</v>
       </c>
       <c r="Q11">
-        <v>0.9687114883707512</v>
+        <v>-0.2163642830027367</v>
       </c>
       <c r="R11">
-        <v>0.9122603775040986</v>
+        <v>-0.06227823698798324</v>
       </c>
       <c r="S11">
-        <v>0.7397883687193729</v>
+        <v>0.06013642167373707</v>
       </c>
       <c r="T11">
-        <v>0.8073412150528881</v>
+        <v>-0.1093917364143664</v>
       </c>
       <c r="U11">
-        <v>0.9837638750076251</v>
+        <v>0.007288593292496494</v>
       </c>
       <c r="V11">
-        <v>0.9297049264299393</v>
+        <v>-0.004226463729219295</v>
       </c>
       <c r="W11">
-        <v>0.9840862675294052</v>
+        <v>-0.05545757733676288</v>
       </c>
       <c r="X11">
-        <v>0.9853501836719175</v>
+        <v>-0.1447013736915882</v>
       </c>
       <c r="Y11">
-        <v>0.9283739792288039</v>
+        <v>0.06037659599017414</v>
       </c>
       <c r="Z11">
-        <v>0.9748743727773584</v>
+        <v>0.08877101003290082</v>
       </c>
       <c r="AA11">
-        <v>0.8948723945691184</v>
+        <v>0.1659219219805384</v>
       </c>
       <c r="AB11">
-        <v>0.9288314057268392</v>
+        <v>-0.05322572457966428</v>
       </c>
       <c r="AC11">
-        <v>0.9465951701022902</v>
+        <v>0.03934655217719903</v>
       </c>
       <c r="AD11">
-        <v>0.9812231299068389</v>
+        <v>0.08504222442686855</v>
       </c>
       <c r="AE11">
-        <v>0.9903594329010567</v>
+        <v>0.07277254380890162</v>
       </c>
       <c r="AF11">
-        <v>0.96493443495888</v>
+        <v>-0.04687254690822671</v>
       </c>
       <c r="AG11">
-        <v>0.9940076381943266</v>
+        <v>0.2196798089357316</v>
       </c>
       <c r="AH11">
-        <v>0.9919668300284423</v>
+        <v>0.3220274790263227</v>
       </c>
       <c r="AI11">
-        <v>0.990787227854787</v>
+        <v>0.1917456204620706</v>
       </c>
       <c r="AJ11">
-        <v>0.9963679830478606</v>
+        <v>0.4422395072369571</v>
       </c>
       <c r="AK11">
-        <v>0.9961878553945814</v>
+        <v>0.4198909798083083</v>
       </c>
       <c r="AL11">
-        <v>0.950724874689995</v>
+        <v>0.4721601797545004</v>
       </c>
       <c r="AM11">
-        <v>0.9882617529537843</v>
+        <v>0.9048092208090198</v>
       </c>
       <c r="AN11">
-        <v>0.8369257121215052</v>
+        <v>0.8742141177112528</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.5675064097871325</v>
+        <v>-0.4664760654764045</v>
       </c>
       <c r="C12">
-        <v>0.4930140694535869</v>
+        <v>-0.4955563062967162</v>
       </c>
       <c r="D12">
-        <v>0.725599720653417</v>
+        <v>-0.433129048393021</v>
       </c>
       <c r="E12">
-        <v>0.774993937135678</v>
+        <v>-0.4316286072682773</v>
       </c>
       <c r="F12">
-        <v>0.8039906457329011</v>
+        <v>-0.4952141346647159</v>
       </c>
       <c r="G12">
-        <v>0.7976715770315579</v>
+        <v>-0.412403123754963</v>
       </c>
       <c r="H12">
-        <v>0.7022560654207194</v>
+        <v>-0.4433919774935663</v>
       </c>
       <c r="I12">
-        <v>0.6789144211029877</v>
+        <v>-0.4079529090894137</v>
       </c>
       <c r="J12">
-        <v>0.8660647315266219</v>
+        <v>-0.4261427732641128</v>
       </c>
       <c r="K12">
-        <v>0.6653415700500529</v>
+        <v>-0.3620242155676431</v>
       </c>
       <c r="L12">
-        <v>0.8718369237138146</v>
+        <v>-0.4483367028189043</v>
       </c>
       <c r="M12">
-        <v>0.8744238729169683</v>
+        <v>-0.4477224921894311</v>
       </c>
       <c r="N12">
-        <v>0.886116039187138</v>
+        <v>-0.4647624561064725</v>
       </c>
       <c r="O12">
-        <v>0.8115765662399175</v>
+        <v>-0.4904514881358654</v>
       </c>
       <c r="P12">
-        <v>0.734835506130843</v>
+        <v>-0.4199332296139988</v>
       </c>
       <c r="Q12">
-        <v>0.9516328471704926</v>
+        <v>-0.5497531744414424</v>
       </c>
       <c r="R12">
-        <v>0.8220756160303361</v>
+        <v>-0.3825049708965521</v>
       </c>
       <c r="S12">
-        <v>0.6172944328086141</v>
+        <v>-0.2828735992105123</v>
       </c>
       <c r="T12">
-        <v>0.7184984679159838</v>
+        <v>-0.4361880341979663</v>
       </c>
       <c r="U12">
-        <v>0.9392492069218628</v>
+        <v>-0.3306155484718782</v>
       </c>
       <c r="V12">
-        <v>0.8944145541154375</v>
+        <v>-0.3399363492628464</v>
       </c>
       <c r="W12">
-        <v>0.9360556329795819</v>
+        <v>-0.3822722304583712</v>
       </c>
       <c r="X12">
-        <v>0.9406636443567651</v>
+        <v>-0.4074703151496608</v>
       </c>
       <c r="Y12">
-        <v>0.8510270752379659</v>
+        <v>-0.2560392098263769</v>
       </c>
       <c r="Z12">
-        <v>0.9155977472693767</v>
+        <v>-0.2515895807409781</v>
       </c>
       <c r="AA12">
-        <v>0.8453674095731841</v>
+        <v>-0.2036131004320314</v>
       </c>
       <c r="AB12">
-        <v>0.8649994162372506</v>
+        <v>-0.3600456933845873</v>
       </c>
       <c r="AC12">
-        <v>0.876826126654077</v>
+        <v>-0.2694797869459127</v>
       </c>
       <c r="AD12">
-        <v>0.9386162924914353</v>
+        <v>-0.2577000732333137</v>
       </c>
       <c r="AE12">
-        <v>0.9529619014765774</v>
+        <v>-0.248285635647039</v>
       </c>
       <c r="AF12">
-        <v>0.9053044721859593</v>
+        <v>-0.3812160828533148</v>
       </c>
       <c r="AG12">
-        <v>0.9545207483759898</v>
+        <v>-0.1548745736153001</v>
       </c>
       <c r="AH12">
-        <v>0.9491485681500348</v>
+        <v>-0.04644835650897818</v>
       </c>
       <c r="AI12">
-        <v>0.9982832092133601</v>
+        <v>-0.1538121128529042</v>
       </c>
       <c r="AJ12">
-        <v>0.9626295114935876</v>
+        <v>0.07471744591407899</v>
       </c>
       <c r="AK12">
-        <v>0.9736697956587749</v>
+        <v>0.1112134810334734</v>
       </c>
       <c r="AL12">
-        <v>0.9277471746066902</v>
+        <v>0.1464094148243346</v>
       </c>
       <c r="AM12">
-        <v>0.989910206653928</v>
+        <v>0.8620448346596</v>
       </c>
       <c r="AN12">
-        <v>0.8762110665677898</v>
+        <v>0.6527956646763947</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块.xlsx
+++ b/FOF/data/基金公司-板块.xlsx
@@ -16,123 +16,123 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>东方公司</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>长信公司</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>安信公司</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>建信公司</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
     <t>兴全</t>
   </si>
   <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>安信公司</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>建信公司</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>汇添富</t>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
   </si>
   <si>
     <t>海富通</t>
   </si>
   <si>
-    <t>长信公司</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>中金</t>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>华商</t>
   </si>
   <si>
     <t>上投摩根</t>
   </si>
   <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>东方公司</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
@@ -154,19 +154,19 @@
     <t>万得全A</t>
   </si>
   <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
     <t>中证500</t>
   </si>
   <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中小板综</t>
+    <t>中证1000</t>
   </si>
   <si>
     <t>创业板综</t>
-  </si>
-  <si>
-    <t>中证1000</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0.9742647040470107</v>
+        <v>0.87573532012066</v>
       </c>
       <c r="C2">
-        <v>0.9831140153642145</v>
+        <v>0.9850856109030858</v>
       </c>
       <c r="D2">
-        <v>0.9635233564309232</v>
+        <v>0.9264463618058298</v>
       </c>
       <c r="E2">
-        <v>0.9988777906334431</v>
+        <v>0.9069279967070547</v>
       </c>
       <c r="F2">
-        <v>0.9756414477323566</v>
+        <v>0.8287700992665503</v>
       </c>
       <c r="G2">
-        <v>0.9749790872980094</v>
+        <v>0.9287688403197062</v>
       </c>
       <c r="H2">
-        <v>0.9793067570837991</v>
+        <v>0.6817946429448478</v>
       </c>
       <c r="I2">
-        <v>0.9974024724886135</v>
+        <v>-0.3102292381141164</v>
       </c>
       <c r="J2">
-        <v>0.9799697873596248</v>
+        <v>0.954144777177757</v>
       </c>
       <c r="K2">
-        <v>0.9632632103964417</v>
+        <v>0.7944385761967049</v>
       </c>
       <c r="L2">
-        <v>0.9875244787932801</v>
+        <v>0.416813682044942</v>
       </c>
       <c r="M2">
-        <v>0.9864164077190557</v>
+        <v>0.8487183421701631</v>
       </c>
       <c r="N2">
-        <v>0.9891905732608517</v>
+        <v>0.7417995993309384</v>
       </c>
       <c r="O2">
-        <v>0.9619393656609694</v>
+        <v>0.5794978797243743</v>
       </c>
       <c r="P2">
-        <v>0.9995712282062829</v>
+        <v>0.7562610809994558</v>
       </c>
       <c r="Q2">
-        <v>0.9864308547540529</v>
+        <v>0.7501769042878444</v>
       </c>
       <c r="R2">
-        <v>0.9702360376496819</v>
+        <v>0.3396508552517604</v>
       </c>
       <c r="S2">
-        <v>0.9814747539911958</v>
+        <v>0.5188839212363087</v>
       </c>
       <c r="T2">
-        <v>0.9819449057492361</v>
+        <v>0.6381506318941869</v>
       </c>
       <c r="U2">
-        <v>0.9814673828627288</v>
+        <v>-0.3167565948851032</v>
       </c>
       <c r="V2">
-        <v>0.9533336205591844</v>
+        <v>0.03747332491448585</v>
       </c>
       <c r="W2">
-        <v>0.9604779763156269</v>
+        <v>-0.3700451250323382</v>
       </c>
       <c r="X2">
-        <v>0.8650537943818432</v>
+        <v>0.03522026368022268</v>
       </c>
       <c r="Y2">
-        <v>0.9509342121571041</v>
+        <v>0.7750942146184152</v>
       </c>
       <c r="Z2">
-        <v>0.9763459266283451</v>
+        <v>0.3348510971811873</v>
       </c>
       <c r="AA2">
-        <v>0.9521119613988462</v>
+        <v>-0.4103269507634529</v>
       </c>
       <c r="AB2">
-        <v>0.8811626329727528</v>
+        <v>0.5197798731251604</v>
       </c>
       <c r="AC2">
-        <v>0.9340008408034139</v>
+        <v>0.04123130338372199</v>
       </c>
       <c r="AD2">
-        <v>0.9631633141955066</v>
+        <v>0.1092228649592393</v>
       </c>
       <c r="AE2">
-        <v>0.9337276125966517</v>
+        <v>0.0867765432568836</v>
       </c>
       <c r="AF2">
-        <v>0.9824368555339069</v>
+        <v>0.4380186886786018</v>
       </c>
       <c r="AG2">
-        <v>0.9308808355817252</v>
+        <v>0.4467572008778249</v>
       </c>
       <c r="AH2">
-        <v>0.9203702714145027</v>
+        <v>-0.5765192770424321</v>
       </c>
       <c r="AI2">
-        <v>0.9420079274250457</v>
+        <v>-0.6731149424927407</v>
       </c>
       <c r="AJ2">
-        <v>0.8530158349130654</v>
+        <v>-0.3713915255385916</v>
       </c>
       <c r="AK2">
-        <v>0.8257301394451975</v>
+        <v>-0.8112642613749853</v>
       </c>
       <c r="AL2">
-        <v>0.8160889405908756</v>
+        <v>-0.7867253645963338</v>
       </c>
       <c r="AM2">
-        <v>-0.1983880881561174</v>
+        <v>-0.3102600708772696</v>
       </c>
       <c r="AN2">
-        <v>0.3053264807253276</v>
+        <v>-0.8053347286974415</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0.9009899693442087</v>
+        <v>0.8350746854081346</v>
       </c>
       <c r="C3">
-        <v>0.9205982758710168</v>
+        <v>0.9664570006007286</v>
       </c>
       <c r="D3">
-        <v>0.8848571952378934</v>
+        <v>0.8840786503181828</v>
       </c>
       <c r="E3">
-        <v>0.9673618438862441</v>
+        <v>0.874112179269244</v>
       </c>
       <c r="F3">
-        <v>0.9115696623452331</v>
+        <v>0.7736476860948386</v>
       </c>
       <c r="G3">
-        <v>0.9047751354687296</v>
+        <v>0.8969504990885282</v>
       </c>
       <c r="H3">
-        <v>0.9116256342179636</v>
+        <v>0.6203806022637154</v>
       </c>
       <c r="I3">
-        <v>0.9643983348869365</v>
+        <v>-0.4035045010703631</v>
       </c>
       <c r="J3">
-        <v>0.9159430204760146</v>
+        <v>0.9193590733819261</v>
       </c>
       <c r="K3">
-        <v>0.8900892654237444</v>
+        <v>0.7314738381392751</v>
       </c>
       <c r="L3">
-        <v>0.9665672870390102</v>
+        <v>0.3428886558684958</v>
       </c>
       <c r="M3">
-        <v>0.9394087504560885</v>
+        <v>0.7946785076233823</v>
       </c>
       <c r="N3">
-        <v>0.9490943720084463</v>
+        <v>0.6993444849197409</v>
       </c>
       <c r="O3">
-        <v>0.8784939662389387</v>
+        <v>0.526561902020846</v>
       </c>
       <c r="P3">
-        <v>0.9698388332364106</v>
+        <v>0.7423380310478817</v>
       </c>
       <c r="Q3">
-        <v>0.9363922868004269</v>
+        <v>0.6935906906913509</v>
       </c>
       <c r="R3">
-        <v>0.900834515035312</v>
+        <v>0.2686738579986525</v>
       </c>
       <c r="S3">
-        <v>0.945159329540422</v>
+        <v>0.4517863617126547</v>
       </c>
       <c r="T3">
-        <v>0.9183492854417681</v>
+        <v>0.5608358321362182</v>
       </c>
       <c r="U3">
-        <v>0.9301878201386333</v>
+        <v>-0.4067881927999367</v>
       </c>
       <c r="V3">
-        <v>0.8755930658912483</v>
+        <v>-0.05069464070838675</v>
       </c>
       <c r="W3">
-        <v>0.8810817811298256</v>
+        <v>-0.4560515751632119</v>
       </c>
       <c r="X3">
-        <v>0.7370231805750173</v>
+        <v>-0.03419261495558277</v>
       </c>
       <c r="Y3">
-        <v>0.8899639575771174</v>
+        <v>0.7575376981933659</v>
       </c>
       <c r="Z3">
-        <v>0.9504699669261732</v>
+        <v>0.339611456870053</v>
       </c>
       <c r="AA3">
-        <v>0.9872366423068013</v>
+        <v>-0.4961992409147519</v>
       </c>
       <c r="AB3">
-        <v>0.7670451744655595</v>
+        <v>0.4338792087289769</v>
       </c>
       <c r="AC3">
-        <v>0.8541662258278564</v>
+        <v>-0.05021717200908975</v>
       </c>
       <c r="AD3">
-        <v>0.9069543009198777</v>
+        <v>0.06107089176905961</v>
       </c>
       <c r="AE3">
-        <v>0.8552914448124334</v>
+        <v>-0.01046910886985337</v>
       </c>
       <c r="AF3">
-        <v>0.9234587905436199</v>
+        <v>0.3943639893000448</v>
       </c>
       <c r="AG3">
-        <v>0.9016850805310822</v>
+        <v>0.3631424943186382</v>
       </c>
       <c r="AH3">
-        <v>0.9297338093260635</v>
+        <v>-0.6282456731968215</v>
       </c>
       <c r="AI3">
-        <v>0.896504055274888</v>
+        <v>-0.6117272867374193</v>
       </c>
       <c r="AJ3">
-        <v>0.8634504193311608</v>
+        <v>-0.4618898745219316</v>
       </c>
       <c r="AK3">
-        <v>0.7912551698211701</v>
+        <v>-0.8449695563860562</v>
       </c>
       <c r="AL3">
-        <v>0.7932583123641512</v>
+        <v>-0.8331711892803438</v>
       </c>
       <c r="AM3">
-        <v>-0.1870264995918848</v>
+        <v>-0.3318885966994765</v>
       </c>
       <c r="AN3">
-        <v>0.3243999557655198</v>
+        <v>-0.8441808516478707</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>0.9779659823007845</v>
+        <v>0.9109788305076</v>
       </c>
       <c r="C4">
-        <v>0.9802215295670139</v>
+        <v>0.9952683705940768</v>
       </c>
       <c r="D4">
-        <v>0.9722328506985138</v>
+        <v>0.945338264445892</v>
       </c>
       <c r="E4">
-        <v>0.9943841784965892</v>
+        <v>0.9348520241001782</v>
       </c>
       <c r="F4">
-        <v>0.9728080213181498</v>
+        <v>0.8634496800926131</v>
       </c>
       <c r="G4">
-        <v>0.9841111320508842</v>
+        <v>0.949656362882308</v>
       </c>
       <c r="H4">
-        <v>0.9841878043346074</v>
+        <v>0.7293493312569935</v>
       </c>
       <c r="I4">
-        <v>0.9960644747863731</v>
+        <v>-0.2859142641439865</v>
       </c>
       <c r="J4">
-        <v>0.9858831603693989</v>
+        <v>0.9686278882251241</v>
       </c>
       <c r="K4">
-        <v>0.9786292615243722</v>
+        <v>0.8305438492124423</v>
       </c>
       <c r="L4">
-        <v>0.9778252042034528</v>
+        <v>0.4770936131871238</v>
       </c>
       <c r="M4">
-        <v>0.9848510280967223</v>
+        <v>0.8821228212930331</v>
       </c>
       <c r="N4">
-        <v>0.9835466588024188</v>
+        <v>0.78957822007088</v>
       </c>
       <c r="O4">
-        <v>0.9655020277320564</v>
+        <v>0.6450356388432917</v>
       </c>
       <c r="P4">
-        <v>0.9960347779811332</v>
+        <v>0.7811039934790714</v>
       </c>
       <c r="Q4">
-        <v>0.9735077390991186</v>
+        <v>0.7983908959191506</v>
       </c>
       <c r="R4">
-        <v>0.9822589320160934</v>
+        <v>0.4079661068915523</v>
       </c>
       <c r="S4">
-        <v>0.9953025377959045</v>
+        <v>0.5826007013463206</v>
       </c>
       <c r="T4">
-        <v>0.9863259541981151</v>
+        <v>0.6751607947865579</v>
       </c>
       <c r="U4">
-        <v>0.9944101121805917</v>
+        <v>-0.2660051716143732</v>
       </c>
       <c r="V4">
-        <v>0.9727532791851796</v>
+        <v>0.09520361315113651</v>
       </c>
       <c r="W4">
-        <v>0.9755436524809384</v>
+        <v>-0.329495873492028</v>
       </c>
       <c r="X4">
-        <v>0.8887114809193016</v>
+        <v>0.07877366007341922</v>
       </c>
       <c r="Y4">
-        <v>0.9743665973260385</v>
+        <v>0.8225150492277955</v>
       </c>
       <c r="Z4">
-        <v>0.99029191531641</v>
+        <v>0.3845991160511574</v>
       </c>
       <c r="AA4">
-        <v>0.9520098287961672</v>
+        <v>-0.351405432897375</v>
       </c>
       <c r="AB4">
-        <v>0.9071798608466035</v>
+        <v>0.5717868207628758</v>
       </c>
       <c r="AC4">
-        <v>0.961242990265209</v>
+        <v>0.1058182572323571</v>
       </c>
       <c r="AD4">
-        <v>0.9857194283183326</v>
+        <v>0.1816727027659012</v>
       </c>
       <c r="AE4">
-        <v>0.9632054315328097</v>
+        <v>0.1505317170718699</v>
       </c>
       <c r="AF4">
-        <v>0.9919019643064783</v>
+        <v>0.507677839475237</v>
       </c>
       <c r="AG4">
-        <v>0.95642402788331</v>
+        <v>0.507101908664772</v>
       </c>
       <c r="AH4">
-        <v>0.9458360667432969</v>
+        <v>-0.5251265170604471</v>
       </c>
       <c r="AI4">
-        <v>0.9726818998685688</v>
+        <v>-0.6583985078272835</v>
       </c>
       <c r="AJ4">
-        <v>0.8902488595148957</v>
+        <v>-0.328225495289945</v>
       </c>
       <c r="AK4">
-        <v>0.8796672261507121</v>
+        <v>-0.7615158636257588</v>
       </c>
       <c r="AL4">
-        <v>0.870436855394494</v>
+        <v>-0.7375175214101902</v>
       </c>
       <c r="AM4">
-        <v>-0.1066597616503769</v>
+        <v>-0.237398862833462</v>
       </c>
       <c r="AN4">
-        <v>0.3883324230182818</v>
+        <v>-0.7547713269333668</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>0.9677466461646793</v>
+        <v>0.9420643788301044</v>
       </c>
       <c r="C5">
-        <v>0.9651975171556836</v>
+        <v>0.9945641146708891</v>
       </c>
       <c r="D5">
-        <v>0.9701381540651751</v>
+        <v>0.9482881740458008</v>
       </c>
       <c r="E5">
-        <v>0.9784177124566967</v>
+        <v>0.958992358346849</v>
       </c>
       <c r="F5">
-        <v>0.9606385624274963</v>
+        <v>0.8878547177105349</v>
       </c>
       <c r="G5">
-        <v>0.9795635669073547</v>
+        <v>0.9628820833891475</v>
       </c>
       <c r="H5">
-        <v>0.9748807048277749</v>
+        <v>0.7750622281249883</v>
       </c>
       <c r="I5">
-        <v>0.9839363261511298</v>
+        <v>-0.2870217335477427</v>
       </c>
       <c r="J5">
-        <v>0.9760245147738696</v>
+        <v>0.9677130610149545</v>
       </c>
       <c r="K5">
-        <v>0.983347600888195</v>
+        <v>0.8527926144540373</v>
       </c>
       <c r="L5">
-        <v>0.9501333332014413</v>
+        <v>0.5308027876846947</v>
       </c>
       <c r="M5">
-        <v>0.9655397299009102</v>
+        <v>0.90303485373034</v>
       </c>
       <c r="N5">
-        <v>0.9603493994751756</v>
+        <v>0.8442121997108123</v>
       </c>
       <c r="O5">
-        <v>0.9556814713594746</v>
+        <v>0.7217816884458568</v>
       </c>
       <c r="P5">
-        <v>0.9794989864050576</v>
+        <v>0.8158309569679849</v>
       </c>
       <c r="Q5">
-        <v>0.9465805920525723</v>
+        <v>0.844459309685924</v>
       </c>
       <c r="R5">
-        <v>0.9836495209557011</v>
+        <v>0.4861178499459345</v>
       </c>
       <c r="S5">
-        <v>0.9990695293010612</v>
+        <v>0.6521286831485326</v>
       </c>
       <c r="T5">
-        <v>0.9789294609265752</v>
+        <v>0.6958224899091797</v>
       </c>
       <c r="U5">
-        <v>0.9961088790226139</v>
+        <v>-0.2207143638410039</v>
       </c>
       <c r="V5">
-        <v>0.9761682059559427</v>
+        <v>0.1515536860317367</v>
       </c>
       <c r="W5">
-        <v>0.9764544749438401</v>
+        <v>-0.2973353772551176</v>
       </c>
       <c r="X5">
-        <v>0.9006504785911277</v>
+        <v>0.1249400127034765</v>
       </c>
       <c r="Y5">
-        <v>0.9898589629992136</v>
+        <v>0.884058292461678</v>
       </c>
       <c r="Z5">
-        <v>0.9960826655854801</v>
+        <v>0.4728927574198818</v>
       </c>
       <c r="AA5">
-        <v>0.941343213887356</v>
+        <v>-0.2921634307937418</v>
       </c>
       <c r="AB5">
-        <v>0.9141067930960104</v>
+        <v>0.6114044862765626</v>
       </c>
       <c r="AC5">
-        <v>0.9788117339019694</v>
+        <v>0.1696549720374488</v>
       </c>
       <c r="AD5">
-        <v>0.995190518226164</v>
+        <v>0.2816183355322509</v>
       </c>
       <c r="AE5">
-        <v>0.9804622907211343</v>
+        <v>0.2062482494065955</v>
       </c>
       <c r="AF5">
-        <v>0.9893058512903372</v>
+        <v>0.5924365993461572</v>
       </c>
       <c r="AG5">
-        <v>0.962803715398676</v>
+        <v>0.5588884801792453</v>
       </c>
       <c r="AH5">
-        <v>0.958833640051526</v>
+        <v>-0.4552592609728907</v>
       </c>
       <c r="AI5">
-        <v>0.9908918931785544</v>
+        <v>-0.5993278537665587</v>
       </c>
       <c r="AJ5">
-        <v>0.9119178489793373</v>
+        <v>-0.3022600673857649</v>
       </c>
       <c r="AK5">
-        <v>0.9267718866734665</v>
+        <v>-0.6917675511184623</v>
       </c>
       <c r="AL5">
-        <v>0.9146710339152652</v>
+        <v>-0.6719586947352281</v>
       </c>
       <c r="AM5">
-        <v>-0.02447138931050591</v>
+        <v>-0.1310574837924311</v>
       </c>
       <c r="AN5">
-        <v>0.4573140540188134</v>
+        <v>-0.6840566702057562</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.8924407011250957</v>
+        <v>0.7662884397916349</v>
       </c>
       <c r="C6">
-        <v>0.8984975976023617</v>
+        <v>0.921608624254571</v>
       </c>
       <c r="D6">
-        <v>0.9039043197107345</v>
+        <v>0.8027524474030943</v>
       </c>
       <c r="E6">
-        <v>0.938077943841871</v>
+        <v>0.8067353400320983</v>
       </c>
       <c r="F6">
-        <v>0.9009224260452673</v>
+        <v>0.6766097644163273</v>
       </c>
       <c r="G6">
-        <v>0.9122862693936975</v>
+        <v>0.8254190277889873</v>
       </c>
       <c r="H6">
-        <v>0.9045148781614937</v>
+        <v>0.51277248222752</v>
       </c>
       <c r="I6">
-        <v>0.9471615886872513</v>
+        <v>-0.5512352799895255</v>
       </c>
       <c r="J6">
-        <v>0.9048259844866462</v>
+        <v>0.8483932109426757</v>
       </c>
       <c r="K6">
-        <v>0.9279276088567789</v>
+        <v>0.6272584568172201</v>
       </c>
       <c r="L6">
-        <v>0.8940469712944342</v>
+        <v>0.2698643567042099</v>
       </c>
       <c r="M6">
-        <v>0.8959560727454535</v>
+        <v>0.7069347493111441</v>
       </c>
       <c r="N6">
-        <v>0.8934927377614295</v>
+        <v>0.62369412981803</v>
       </c>
       <c r="O6">
-        <v>0.8732332918254857</v>
+        <v>0.4618907589754186</v>
       </c>
       <c r="P6">
-        <v>0.9368996270595393</v>
+        <v>0.6831411124762052</v>
       </c>
       <c r="Q6">
-        <v>0.8757594632441514</v>
+        <v>0.6053421849855599</v>
       </c>
       <c r="R6">
-        <v>0.9285979580074764</v>
+        <v>0.162017459399736</v>
       </c>
       <c r="S6">
-        <v>0.9747112460891878</v>
+        <v>0.3528216212282423</v>
       </c>
       <c r="T6">
-        <v>0.9187682503249641</v>
+        <v>0.4231810512609752</v>
       </c>
       <c r="U6">
-        <v>0.9551556091494224</v>
+        <v>-0.541234833818007</v>
       </c>
       <c r="V6">
-        <v>0.904258120667311</v>
+        <v>-0.1931885204403417</v>
       </c>
       <c r="W6">
-        <v>0.9050819903061399</v>
+        <v>-0.594017511171591</v>
       </c>
       <c r="X6">
-        <v>0.8019833833004761</v>
+        <v>-0.1715907407044773</v>
       </c>
       <c r="Y6">
-        <v>0.9593585238559559</v>
+        <v>0.744366965997189</v>
       </c>
       <c r="Z6">
-        <v>0.9859805934570177</v>
+        <v>0.3335164880291458</v>
       </c>
       <c r="AA6">
-        <v>0.9611026861428474</v>
+        <v>-0.6063408998560624</v>
       </c>
       <c r="AB6">
-        <v>0.8071899720611122</v>
+        <v>0.304071964531494</v>
       </c>
       <c r="AC6">
-        <v>0.9305884581562194</v>
+        <v>-0.1842623196058558</v>
       </c>
       <c r="AD6">
-        <v>0.9526814624991616</v>
+        <v>-0.009658108259300947</v>
       </c>
       <c r="AE6">
-        <v>0.9277007696636081</v>
+        <v>-0.1384638650015191</v>
       </c>
       <c r="AF6">
-        <v>0.9365574780504046</v>
+        <v>0.3720436959992599</v>
       </c>
       <c r="AG6">
-        <v>0.9260591530330373</v>
+        <v>0.258872974887936</v>
       </c>
       <c r="AH6">
-        <v>0.9734666238369953</v>
+        <v>-0.7053816563856764</v>
       </c>
       <c r="AI6">
-        <v>0.9656486092442989</v>
+        <v>-0.4835223616340205</v>
       </c>
       <c r="AJ6">
-        <v>0.9268707517575527</v>
+        <v>-0.5657033251593772</v>
       </c>
       <c r="AK6">
-        <v>0.9451238340755538</v>
+        <v>-0.8482612215770934</v>
       </c>
       <c r="AL6">
-        <v>0.9328563929819275</v>
+        <v>-0.873914731647864</v>
       </c>
       <c r="AM6">
-        <v>0.03207160834305643</v>
+        <v>-0.297279144160155</v>
       </c>
       <c r="AN6">
-        <v>0.5110974187061972</v>
+        <v>-0.866448006813805</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0.8476721380938546</v>
+        <v>0.8872093703243783</v>
       </c>
       <c r="C7">
-        <v>0.835967104846812</v>
+        <v>0.8552043368965333</v>
       </c>
       <c r="D7">
-        <v>0.8621391866819382</v>
+        <v>0.7906855639290969</v>
       </c>
       <c r="E7">
-        <v>0.8697738030774944</v>
+        <v>0.8855524234797192</v>
       </c>
       <c r="F7">
-        <v>0.8323565886462835</v>
+        <v>0.791632523180922</v>
       </c>
       <c r="G7">
-        <v>0.8774002833560546</v>
+        <v>0.8510157840417726</v>
       </c>
       <c r="H7">
-        <v>0.8622905230897568</v>
+        <v>0.752373635155673</v>
       </c>
       <c r="I7">
-        <v>0.8834160201308687</v>
+        <v>-0.4021946523377936</v>
       </c>
       <c r="J7">
-        <v>0.8684200382638291</v>
+        <v>0.8057526802683235</v>
       </c>
       <c r="K7">
-        <v>0.8987286058541228</v>
+        <v>0.7435676125483042</v>
       </c>
       <c r="L7">
-        <v>0.8325975708491756</v>
+        <v>0.5672344135112145</v>
       </c>
       <c r="M7">
-        <v>0.8494822102335131</v>
+        <v>0.7987650547783872</v>
       </c>
       <c r="N7">
-        <v>0.8384894550634718</v>
+        <v>0.8740612830134959</v>
       </c>
       <c r="O7">
-        <v>0.8278702104898835</v>
+        <v>0.8360702402548422</v>
       </c>
       <c r="P7">
-        <v>0.8741086775178555</v>
+        <v>0.8107446910852488</v>
       </c>
       <c r="Q7">
-        <v>0.7982103564343277</v>
+        <v>0.8287941739145411</v>
       </c>
       <c r="R7">
-        <v>0.8923250743790171</v>
+        <v>0.5955363698397812</v>
       </c>
       <c r="S7">
-        <v>0.939876841518821</v>
+        <v>0.7221383840778863</v>
       </c>
       <c r="T7">
-        <v>0.8695337220691711</v>
+        <v>0.5704756747471678</v>
       </c>
       <c r="U7">
-        <v>0.921339668184911</v>
+        <v>-0.1774925413325971</v>
       </c>
       <c r="V7">
-        <v>0.8967251356900731</v>
+        <v>0.1915785555077033</v>
       </c>
       <c r="W7">
-        <v>0.8840000808702799</v>
+        <v>-0.2892182955059699</v>
       </c>
       <c r="X7">
-        <v>0.7994614685219606</v>
+        <v>0.1498454271691992</v>
       </c>
       <c r="Y7">
-        <v>0.9403752985064904</v>
+        <v>0.9817565847267755</v>
       </c>
       <c r="Z7">
-        <v>0.9472961068786089</v>
+        <v>0.7228011828426772</v>
       </c>
       <c r="AA7">
-        <v>0.9038036137840735</v>
+        <v>-0.1798524152055887</v>
       </c>
       <c r="AB7">
-        <v>0.8258541723626112</v>
+        <v>0.5558960886131079</v>
       </c>
       <c r="AC7">
-        <v>0.924476784260114</v>
+        <v>0.2346631349005788</v>
       </c>
       <c r="AD7">
-        <v>0.9434730863081356</v>
+        <v>0.5196840179165549</v>
       </c>
       <c r="AE7">
-        <v>0.9321338813985018</v>
+        <v>0.238724237056818</v>
       </c>
       <c r="AF7">
-        <v>0.8978431779569053</v>
+        <v>0.7742094444099965</v>
       </c>
       <c r="AG7">
-        <v>0.9404592091137551</v>
+        <v>0.5637207347937414</v>
       </c>
       <c r="AH7">
-        <v>0.9727491405563112</v>
+        <v>-0.2490948988512117</v>
       </c>
       <c r="AI7">
-        <v>0.972577347406676</v>
+        <v>-0.2315978641020743</v>
       </c>
       <c r="AJ7">
-        <v>0.9623094212841421</v>
+        <v>-0.301479990576083</v>
       </c>
       <c r="AK7">
-        <v>0.9936133727999268</v>
+        <v>-0.4129216365990424</v>
       </c>
       <c r="AL7">
-        <v>0.9910593048724604</v>
+        <v>-0.4367697481390558</v>
       </c>
       <c r="AM7">
-        <v>0.250013579201043</v>
+        <v>0.2411090718138646</v>
       </c>
       <c r="AN7">
-        <v>0.6791785006395353</v>
+        <v>-0.415699629362756</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.6547209116464057</v>
+        <v>0.441285121913981</v>
       </c>
       <c r="C8">
-        <v>0.626324961357274</v>
+        <v>0.2776098867212908</v>
       </c>
       <c r="D8">
-        <v>0.7013297952368824</v>
+        <v>0.2240917890661439</v>
       </c>
       <c r="E8">
-        <v>0.6308270423697843</v>
+        <v>0.4057246610428972</v>
       </c>
       <c r="F8">
-        <v>0.638734983820924</v>
+        <v>0.3281274998958401</v>
       </c>
       <c r="G8">
-        <v>0.6947104518956329</v>
+        <v>0.324297326819248</v>
       </c>
       <c r="H8">
-        <v>0.664996278276907</v>
+        <v>0.4243418904173712</v>
       </c>
       <c r="I8">
-        <v>0.65607022056707</v>
+        <v>-0.3643163922183787</v>
       </c>
       <c r="J8">
-        <v>0.6627894171183052</v>
+        <v>0.2218348577782838</v>
       </c>
       <c r="K8">
-        <v>0.7486412126366753</v>
+        <v>0.2848171547036443</v>
       </c>
       <c r="L8">
-        <v>0.5453107199511075</v>
+        <v>0.4248111099141651</v>
       </c>
       <c r="M8">
-        <v>0.6029001688433029</v>
+        <v>0.3200142008106167</v>
       </c>
       <c r="N8">
-        <v>0.5776342384247666</v>
+        <v>0.5672894467226356</v>
       </c>
       <c r="O8">
-        <v>0.6480605119585323</v>
+        <v>0.6871992343378205</v>
       </c>
       <c r="P8">
-        <v>0.6284768061459516</v>
+        <v>0.4580084702328197</v>
       </c>
       <c r="Q8">
-        <v>0.5469355798369639</v>
+        <v>0.4782309413235993</v>
       </c>
       <c r="R8">
-        <v>0.7304932242114014</v>
+        <v>0.5492053328162048</v>
       </c>
       <c r="S8">
-        <v>0.7549303872764963</v>
+        <v>0.5579504534137436</v>
       </c>
       <c r="T8">
-        <v>0.6785186213775365</v>
+        <v>0.1662271992079941</v>
       </c>
       <c r="U8">
-        <v>0.7413426761985815</v>
+        <v>0.01270431402769386</v>
       </c>
       <c r="V8">
-        <v>0.7361671204588769</v>
+        <v>0.2164737576490639</v>
       </c>
       <c r="W8">
-        <v>0.7225578077694103</v>
+        <v>-0.1097398459530331</v>
       </c>
       <c r="X8">
-        <v>0.7277486060734237</v>
+        <v>0.1561521242720268</v>
       </c>
       <c r="Y8">
-        <v>0.8128949384600489</v>
+        <v>0.7261028147104576</v>
       </c>
       <c r="Z8">
-        <v>0.7639046492811356</v>
+        <v>0.802258715810199</v>
       </c>
       <c r="AA8">
-        <v>0.6328156899130336</v>
+        <v>0.1202122815790508</v>
       </c>
       <c r="AB8">
-        <v>0.7099583955150387</v>
+        <v>0.2748180121373354</v>
       </c>
       <c r="AC8">
-        <v>0.8162432581946664</v>
+        <v>0.2838508869240134</v>
       </c>
       <c r="AD8">
-        <v>0.7835693822448297</v>
+        <v>0.6965386440500945</v>
       </c>
       <c r="AE8">
-        <v>0.8157314423802645</v>
+        <v>0.2399573215720496</v>
       </c>
       <c r="AF8">
-        <v>0.7126386376585602</v>
+        <v>0.7568748880898357</v>
       </c>
       <c r="AG8">
-        <v>0.7426912172200933</v>
+        <v>0.3758965026936344</v>
       </c>
       <c r="AH8">
-        <v>0.7762967779826899</v>
+        <v>0.2081893647609861</v>
       </c>
       <c r="AI8">
-        <v>0.8286446053161836</v>
+        <v>0.4187981847328001</v>
       </c>
       <c r="AJ8">
-        <v>0.7896831201778626</v>
+        <v>-0.1205853087685148</v>
       </c>
       <c r="AK8">
-        <v>0.9410229419096857</v>
+        <v>0.2256278452748526</v>
       </c>
       <c r="AL8">
-        <v>0.9162790111122837</v>
+        <v>0.1474747260855752</v>
       </c>
       <c r="AM8">
-        <v>0.4356679250448808</v>
+        <v>0.7429773660247422</v>
       </c>
       <c r="AN8">
-        <v>0.7167868874636689</v>
+        <v>0.2087029980574006</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.7379550907527751</v>
+        <v>-0.01109781378800837</v>
       </c>
       <c r="C9">
-        <v>0.7100250890672357</v>
+        <v>-0.1316614158436093</v>
       </c>
       <c r="D9">
-        <v>0.7624624290868915</v>
+        <v>-0.2303567422848344</v>
       </c>
       <c r="E9">
-        <v>0.7328080343772509</v>
+        <v>-0.02348201114706754</v>
       </c>
       <c r="F9">
-        <v>0.7063802355223709</v>
+        <v>-0.1378150038809805</v>
       </c>
       <c r="G9">
-        <v>0.7768965730365652</v>
+        <v>-0.1001691186700049</v>
       </c>
       <c r="H9">
-        <v>0.7531795912165384</v>
+        <v>-0.01183432107192582</v>
       </c>
       <c r="I9">
-        <v>0.7523665822910149</v>
+        <v>-0.5005311726785705</v>
       </c>
       <c r="J9">
-        <v>0.7612966573959126</v>
+        <v>-0.2191610371064193</v>
       </c>
       <c r="K9">
-        <v>0.8102697195484074</v>
+        <v>-0.1935659078149278</v>
       </c>
       <c r="L9">
-        <v>0.6892023761973748</v>
+        <v>-0.000655548466440606</v>
       </c>
       <c r="M9">
-        <v>0.7257081755895751</v>
+        <v>-0.1562638925063052</v>
       </c>
       <c r="N9">
-        <v>0.7054937844965663</v>
+        <v>0.1542776201250809</v>
       </c>
       <c r="O9">
-        <v>0.7211578710408867</v>
+        <v>0.2709829659037825</v>
       </c>
       <c r="P9">
-        <v>0.7392908055355892</v>
+        <v>0.1536100585730115</v>
       </c>
       <c r="Q9">
-        <v>0.6521197688859172</v>
+        <v>0.01791179012788925</v>
       </c>
       <c r="R9">
-        <v>0.7960588933893766</v>
+        <v>0.1869666419534365</v>
       </c>
       <c r="S9">
-        <v>0.839160719457288</v>
+        <v>0.1406494025537505</v>
       </c>
       <c r="T9">
-        <v>0.7571379220461713</v>
+        <v>-0.2810646071312414</v>
       </c>
       <c r="U9">
-        <v>0.8222827961739483</v>
+        <v>-0.14043142467256</v>
       </c>
       <c r="V9">
-        <v>0.8207454156126346</v>
+        <v>-0.06021716028402467</v>
       </c>
       <c r="W9">
-        <v>0.7983317635628348</v>
+        <v>-0.2164334675690828</v>
       </c>
       <c r="X9">
-        <v>0.7503772613425267</v>
+        <v>-0.04048280457082352</v>
       </c>
       <c r="Y9">
-        <v>0.8648864419566042</v>
+        <v>0.3432325988423452</v>
       </c>
       <c r="Z9">
-        <v>0.8446577615217341</v>
+        <v>0.6624600051274141</v>
       </c>
       <c r="AA9">
-        <v>0.7691443135455617</v>
+        <v>-0.009226148901125495</v>
       </c>
       <c r="AB9">
-        <v>0.7802450690859456</v>
+        <v>-0.1799012090152985</v>
       </c>
       <c r="AC9">
-        <v>0.862642534597388</v>
+        <v>-0.01958018195937831</v>
       </c>
       <c r="AD9">
-        <v>0.8665122370994461</v>
+        <v>0.4745161518862577</v>
       </c>
       <c r="AE9">
-        <v>0.875539908672476</v>
+        <v>-0.1075671237056116</v>
       </c>
       <c r="AF9">
-        <v>0.7940549222989853</v>
+        <v>0.389583304069242</v>
       </c>
       <c r="AG9">
-        <v>0.8719147606903677</v>
+        <v>-0.0712629700851522</v>
       </c>
       <c r="AH9">
-        <v>0.8951550127874366</v>
+        <v>0.2503780913059639</v>
       </c>
       <c r="AI9">
-        <v>0.9112852960922113</v>
+        <v>0.7856892848881311</v>
       </c>
       <c r="AJ9">
-        <v>0.9172554758232611</v>
+        <v>-0.2758278091103344</v>
       </c>
       <c r="AK9">
-        <v>0.9865146646075066</v>
+        <v>0.3626011817852503</v>
       </c>
       <c r="AL9">
-        <v>0.9857232252609608</v>
+        <v>0.25880143741537</v>
       </c>
       <c r="AM9">
-        <v>0.4495672398171601</v>
+        <v>0.688821800582732</v>
       </c>
       <c r="AN9">
-        <v>0.7929040023147145</v>
+        <v>0.3393656692470547</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.7280034787471682</v>
+        <v>-0.639549463629449</v>
       </c>
       <c r="C10">
-        <v>0.6916541352769158</v>
+        <v>-0.8394760910929169</v>
       </c>
       <c r="D10">
-        <v>0.7477080942919598</v>
+        <v>-0.7825403888982048</v>
       </c>
       <c r="E10">
-        <v>0.7049564271629448</v>
+        <v>-0.6877592700688043</v>
       </c>
       <c r="F10">
-        <v>0.6820337791288013</v>
+        <v>-0.6265734329556238</v>
       </c>
       <c r="G10">
-        <v>0.7666840551488767</v>
+        <v>-0.7444625198671936</v>
       </c>
       <c r="H10">
-        <v>0.7425953171996984</v>
+        <v>-0.4272942865526274</v>
       </c>
       <c r="I10">
-        <v>0.723861790371655</v>
+        <v>0.2364268514294793</v>
       </c>
       <c r="J10">
-        <v>0.7539273614648976</v>
+        <v>-0.8178366344790607</v>
       </c>
       <c r="K10">
-        <v>0.7952338869907976</v>
+        <v>-0.6076591216533884</v>
       </c>
       <c r="L10">
-        <v>0.6746285987278969</v>
+        <v>-0.1831384153702497</v>
       </c>
       <c r="M10">
-        <v>0.7176909977578901</v>
+        <v>-0.6565235215760186</v>
       </c>
       <c r="N10">
-        <v>0.6945970221820574</v>
+        <v>-0.4418499228671783</v>
       </c>
       <c r="O10">
-        <v>0.7128053477874926</v>
+        <v>-0.2307484148607254</v>
       </c>
       <c r="P10">
-        <v>0.714897947534984</v>
+        <v>-0.5154299077053893</v>
       </c>
       <c r="Q10">
-        <v>0.6335360626585594</v>
+        <v>-0.4840322726398023</v>
       </c>
       <c r="R10">
-        <v>0.7791222248018969</v>
+        <v>-0.02549090391329709</v>
       </c>
       <c r="S10">
-        <v>0.8134298705153005</v>
+        <v>-0.2073659115376582</v>
       </c>
       <c r="T10">
-        <v>0.7395801854580357</v>
+        <v>-0.4832770117919648</v>
       </c>
       <c r="U10">
-        <v>0.8024459846156047</v>
+        <v>0.4079165974388205</v>
       </c>
       <c r="V10">
-        <v>0.8210487544805107</v>
+        <v>0.1491725224774776</v>
       </c>
       <c r="W10">
-        <v>0.7932424677146099</v>
+        <v>0.4080728505791219</v>
       </c>
       <c r="X10">
-        <v>0.7572488919598164</v>
+        <v>0.1217645153710008</v>
       </c>
       <c r="Y10">
-        <v>0.8429604168076812</v>
+        <v>-0.4418393923506326</v>
       </c>
       <c r="Z10">
-        <v>0.8124181391162714</v>
+        <v>0.0350700334159171</v>
       </c>
       <c r="AA10">
-        <v>0.7285871572264598</v>
+        <v>0.5361712026302592</v>
       </c>
       <c r="AB10">
-        <v>0.8014769916013685</v>
+        <v>-0.3195583648664767</v>
       </c>
       <c r="AC10">
-        <v>0.8507032503065252</v>
+        <v>0.1705332500148215</v>
       </c>
       <c r="AD10">
-        <v>0.8551286833443954</v>
+        <v>0.2531155265000099</v>
       </c>
       <c r="AE10">
-        <v>0.8699177615602635</v>
+        <v>0.09987858733463872</v>
       </c>
       <c r="AF10">
-        <v>0.7771271912937042</v>
+        <v>-0.08302369480023515</v>
       </c>
       <c r="AG10">
-        <v>0.8720620058673884</v>
+        <v>-0.2159819110125144</v>
       </c>
       <c r="AH10">
-        <v>0.8714769660296783</v>
+        <v>0.7253611841150402</v>
       </c>
       <c r="AI10">
-        <v>0.8989446399389035</v>
+        <v>0.7927468282742495</v>
       </c>
       <c r="AJ10">
-        <v>0.9072215524169757</v>
+        <v>0.3815265097816984</v>
       </c>
       <c r="AK10">
-        <v>0.9697100167385593</v>
+        <v>0.9231487598821662</v>
       </c>
       <c r="AL10">
-        <v>0.9750637751419428</v>
+        <v>0.8861867533173617</v>
       </c>
       <c r="AM10">
-        <v>0.4997704820665493</v>
+        <v>0.6307459685870447</v>
       </c>
       <c r="AN10">
-        <v>0.8196578062129495</v>
+        <v>0.9215224960957481</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>-0.1401528813430103</v>
+        <v>-0.6974043445574171</v>
       </c>
       <c r="C11">
-        <v>-0.1713050544400919</v>
+        <v>-0.831885186221718</v>
       </c>
       <c r="D11">
-        <v>-0.1223007776201624</v>
+        <v>-0.8412783094287158</v>
       </c>
       <c r="E11">
-        <v>-0.08706984310019412</v>
+        <v>-0.7470103231211843</v>
       </c>
       <c r="F11">
-        <v>-0.1851904533049269</v>
+        <v>-0.734590895106185</v>
       </c>
       <c r="G11">
-        <v>-0.08121471771435287</v>
+        <v>-0.8049927530880433</v>
       </c>
       <c r="H11">
-        <v>-0.1101861119126152</v>
+        <v>-0.5871512567590358</v>
       </c>
       <c r="I11">
-        <v>-0.06528852421858421</v>
+        <v>-0.03010975188928536</v>
       </c>
       <c r="J11">
-        <v>-0.08361068645729197</v>
+        <v>-0.8556246048818148</v>
       </c>
       <c r="K11">
-        <v>-0.04400351015101178</v>
+        <v>-0.7223297974078089</v>
       </c>
       <c r="L11">
-        <v>-0.07911003631933765</v>
+        <v>-0.2561379432447352</v>
       </c>
       <c r="M11">
-        <v>-0.09013985827033384</v>
+        <v>-0.7353984638617821</v>
       </c>
       <c r="N11">
-        <v>-0.10560798268853</v>
+        <v>-0.550457682131413</v>
       </c>
       <c r="O11">
-        <v>-0.176491016736804</v>
+        <v>-0.3252566889689368</v>
       </c>
       <c r="P11">
-        <v>-0.06745354891371302</v>
+        <v>-0.6121372457457314</v>
       </c>
       <c r="Q11">
-        <v>-0.2163642830027367</v>
+        <v>-0.5924432363386218</v>
       </c>
       <c r="R11">
-        <v>-0.06227823698798324</v>
+        <v>-0.2283032260463099</v>
       </c>
       <c r="S11">
-        <v>0.06013642167373707</v>
+        <v>-0.3703545479594603</v>
       </c>
       <c r="T11">
-        <v>-0.1093917364143664</v>
+        <v>-0.6783176575354209</v>
       </c>
       <c r="U11">
-        <v>0.007288593292496494</v>
+        <v>0.1289467556281782</v>
       </c>
       <c r="V11">
-        <v>-0.004226463729219295</v>
+        <v>-0.1310873197355786</v>
       </c>
       <c r="W11">
-        <v>-0.05545757733676288</v>
+        <v>0.1185121108332315</v>
       </c>
       <c r="X11">
-        <v>-0.1447013736915882</v>
+        <v>-0.1705092938582747</v>
       </c>
       <c r="Y11">
-        <v>0.06037659599017414</v>
+        <v>-0.4258276205074502</v>
       </c>
       <c r="Z11">
-        <v>0.08877101003290082</v>
+        <v>-0.03941805935721248</v>
       </c>
       <c r="AA11">
-        <v>0.1659219219805384</v>
+        <v>0.2952198087391107</v>
       </c>
       <c r="AB11">
-        <v>-0.05322572457966428</v>
+        <v>-0.5055938287133747</v>
       </c>
       <c r="AC11">
-        <v>0.03934655217719903</v>
+        <v>-0.08643302244903681</v>
       </c>
       <c r="AD11">
-        <v>0.08504222442686855</v>
+        <v>0.06481803590585614</v>
       </c>
       <c r="AE11">
-        <v>0.07277254380890162</v>
+        <v>-0.1172219475013456</v>
       </c>
       <c r="AF11">
-        <v>-0.04687254690822671</v>
+        <v>-0.097962631653051</v>
       </c>
       <c r="AG11">
-        <v>0.2196798089357316</v>
+        <v>-0.3533387311029666</v>
       </c>
       <c r="AH11">
-        <v>0.3220274790263227</v>
+        <v>0.4860020736099306</v>
       </c>
       <c r="AI11">
-        <v>0.1917456204620706</v>
+        <v>0.9144262505871132</v>
       </c>
       <c r="AJ11">
-        <v>0.4422395072369571</v>
+        <v>0.2015673431467896</v>
       </c>
       <c r="AK11">
-        <v>0.4198909798083083</v>
+        <v>0.8332367988417793</v>
       </c>
       <c r="AL11">
-        <v>0.4721601797545004</v>
+        <v>0.7218808127015957</v>
       </c>
       <c r="AM11">
-        <v>0.9048092208090198</v>
+        <v>0.6396840441484909</v>
       </c>
       <c r="AN11">
-        <v>0.8742141177112528</v>
+        <v>0.7879418875660383</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>-0.4664760654764045</v>
+        <v>-0.4782355258094333</v>
       </c>
       <c r="C12">
-        <v>-0.4955563062967162</v>
+        <v>-0.576218851269111</v>
       </c>
       <c r="D12">
-        <v>-0.433129048393021</v>
+        <v>-0.6529171587468212</v>
       </c>
       <c r="E12">
-        <v>-0.4316286072682773</v>
+        <v>-0.5340866408518568</v>
       </c>
       <c r="F12">
-        <v>-0.4952141346647159</v>
+        <v>-0.5823000297022524</v>
       </c>
       <c r="G12">
-        <v>-0.412403123754963</v>
+        <v>-0.6048199898285295</v>
       </c>
       <c r="H12">
-        <v>-0.4433919774935663</v>
+        <v>-0.4875491631725555</v>
       </c>
       <c r="I12">
-        <v>-0.4079529090894137</v>
+        <v>-0.3437574885766109</v>
       </c>
       <c r="J12">
-        <v>-0.4261427732641128</v>
+        <v>-0.6478890385552697</v>
       </c>
       <c r="K12">
-        <v>-0.3620242155676431</v>
+        <v>-0.5862985474761284</v>
       </c>
       <c r="L12">
-        <v>-0.4483367028189043</v>
+        <v>-0.1224809711818652</v>
       </c>
       <c r="M12">
-        <v>-0.4477224921894311</v>
+        <v>-0.5554526126444338</v>
       </c>
       <c r="N12">
-        <v>-0.4647624561064725</v>
+        <v>-0.3774215652031727</v>
       </c>
       <c r="O12">
-        <v>-0.4904514881358654</v>
+        <v>-0.1423329543184749</v>
       </c>
       <c r="P12">
-        <v>-0.4199332296139988</v>
+        <v>-0.4617151497023453</v>
       </c>
       <c r="Q12">
-        <v>-0.5497531744414424</v>
+        <v>-0.4265764637524303</v>
       </c>
       <c r="R12">
-        <v>-0.3825049708965521</v>
+        <v>-0.2033634368827087</v>
       </c>
       <c r="S12">
-        <v>-0.2828735992105123</v>
+        <v>-0.2763951179455228</v>
       </c>
       <c r="T12">
-        <v>-0.4361880341979663</v>
+        <v>-0.6579057939620124</v>
       </c>
       <c r="U12">
-        <v>-0.3306155484718782</v>
+        <v>-0.1283619164276745</v>
       </c>
       <c r="V12">
-        <v>-0.3399363492628464</v>
+        <v>-0.285293329585293</v>
       </c>
       <c r="W12">
-        <v>-0.3822722304583712</v>
+        <v>-0.1834130654505129</v>
       </c>
       <c r="X12">
-        <v>-0.4074703151496608</v>
+        <v>-0.3573418383253394</v>
       </c>
       <c r="Y12">
-        <v>-0.2560392098263769</v>
+        <v>-0.1193002681002452</v>
       </c>
       <c r="Z12">
-        <v>-0.2515895807409781</v>
+        <v>0.1049825727776959</v>
       </c>
       <c r="AA12">
-        <v>-0.2036131004320314</v>
+        <v>0.07186221003479432</v>
       </c>
       <c r="AB12">
-        <v>-0.3600456933845873</v>
+        <v>-0.4746478617825642</v>
       </c>
       <c r="AC12">
-        <v>-0.2694797869459127</v>
+        <v>-0.2047893404307817</v>
       </c>
       <c r="AD12">
-        <v>-0.2577000732333137</v>
+        <v>0.07406034422473703</v>
       </c>
       <c r="AE12">
-        <v>-0.248285635647039</v>
+        <v>-0.1964429545147925</v>
       </c>
       <c r="AF12">
-        <v>-0.3812160828533148</v>
+        <v>0.1370003744053928</v>
       </c>
       <c r="AG12">
-        <v>-0.1548745736153001</v>
+        <v>-0.2752214632066984</v>
       </c>
       <c r="AH12">
-        <v>-0.04644835650897818</v>
+        <v>0.2303570739966916</v>
       </c>
       <c r="AI12">
-        <v>-0.1538121128529042</v>
+        <v>0.9399548971810735</v>
       </c>
       <c r="AJ12">
-        <v>0.07471744591407899</v>
+        <v>-0.002498043193801825</v>
       </c>
       <c r="AK12">
-        <v>0.1112134810334734</v>
+        <v>0.6597005561203717</v>
       </c>
       <c r="AL12">
-        <v>0.1464094148243346</v>
+        <v>0.4790344323879411</v>
       </c>
       <c r="AM12">
-        <v>0.8620448346596</v>
+        <v>0.7393659685093131</v>
       </c>
       <c r="AN12">
-        <v>0.6527956646763947</v>
+        <v>0.5762471459973243</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块.xlsx
+++ b/FOF/data/基金公司-板块.xlsx
@@ -16,157 +16,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
     <t>诺德</t>
   </si>
   <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
     <t>华夏</t>
   </si>
   <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>易方达</t>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>招商</t>
   </si>
   <si>
     <t>中银</t>
   </si>
   <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>东方公司</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>长信公司</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>安信公司</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>建信公司</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
     <t>中证100</t>
   </si>
   <si>
     <t>上证50</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中证1000</t>
-  </si>
-  <si>
-    <t>创业板综</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0.87573532012066</v>
+        <v>0.4601848751206882</v>
       </c>
       <c r="C2">
-        <v>0.9850856109030858</v>
+        <v>0.888506757444917</v>
       </c>
       <c r="D2">
-        <v>0.9264463618058298</v>
+        <v>0.7476912093505268</v>
       </c>
       <c r="E2">
-        <v>0.9069279967070547</v>
+        <v>0.4311230537079596</v>
       </c>
       <c r="F2">
-        <v>0.8287700992665503</v>
+        <v>0.1790318350703203</v>
       </c>
       <c r="G2">
-        <v>0.9287688403197062</v>
+        <v>0.2844867343809684</v>
       </c>
       <c r="H2">
-        <v>0.6817946429448478</v>
+        <v>0.09385360869279745</v>
       </c>
       <c r="I2">
-        <v>-0.3102292381141164</v>
+        <v>0.165343111545041</v>
       </c>
       <c r="J2">
-        <v>0.954144777177757</v>
+        <v>0.228335149958586</v>
       </c>
       <c r="K2">
-        <v>0.7944385761967049</v>
+        <v>0.03429117194072241</v>
       </c>
       <c r="L2">
-        <v>0.416813682044942</v>
+        <v>0.05872037005477704</v>
       </c>
       <c r="M2">
-        <v>0.8487183421701631</v>
+        <v>0.1081387378048789</v>
       </c>
       <c r="N2">
-        <v>0.7417995993309384</v>
+        <v>-0.03238084309809736</v>
       </c>
       <c r="O2">
-        <v>0.5794978797243743</v>
+        <v>-0.174947676609268</v>
       </c>
       <c r="P2">
-        <v>0.7562610809994558</v>
+        <v>-0.1211261269719564</v>
       </c>
       <c r="Q2">
-        <v>0.7501769042878444</v>
+        <v>-0.1238033840354274</v>
       </c>
       <c r="R2">
-        <v>0.3396508552517604</v>
+        <v>-0.1252044694489212</v>
       </c>
       <c r="S2">
-        <v>0.5188839212363087</v>
+        <v>-0.352346560927957</v>
       </c>
       <c r="T2">
-        <v>0.6381506318941869</v>
+        <v>-0.4491859891409448</v>
       </c>
       <c r="U2">
-        <v>-0.3167565948851032</v>
+        <v>-0.3518980247016122</v>
       </c>
       <c r="V2">
-        <v>0.03747332491448585</v>
+        <v>-0.4133287397229777</v>
       </c>
       <c r="W2">
-        <v>-0.3700451250323382</v>
+        <v>-0.2547989727542402</v>
       </c>
       <c r="X2">
-        <v>0.03522026368022268</v>
+        <v>-0.1110780264487625</v>
       </c>
       <c r="Y2">
-        <v>0.7750942146184152</v>
+        <v>-0.3614150162072584</v>
       </c>
       <c r="Z2">
-        <v>0.3348510971811873</v>
+        <v>-0.5068132575897893</v>
       </c>
       <c r="AA2">
-        <v>-0.4103269507634529</v>
+        <v>-0.3691134670246192</v>
       </c>
       <c r="AB2">
-        <v>0.5197798731251604</v>
+        <v>-0.4345192210883339</v>
       </c>
       <c r="AC2">
-        <v>0.04123130338372199</v>
+        <v>-0.4491915542310613</v>
       </c>
       <c r="AD2">
-        <v>0.1092228649592393</v>
+        <v>-0.4971647841135443</v>
       </c>
       <c r="AE2">
-        <v>0.0867765432568836</v>
+        <v>-0.3328284854437457</v>
       </c>
       <c r="AF2">
-        <v>0.4380186886786018</v>
+        <v>-0.4678541608617184</v>
       </c>
       <c r="AG2">
-        <v>0.4467572008778249</v>
+        <v>-0.5096345433503618</v>
       </c>
       <c r="AH2">
-        <v>-0.5765192770424321</v>
+        <v>-0.5156802855788651</v>
       </c>
       <c r="AI2">
-        <v>-0.6731149424927407</v>
+        <v>-0.3720533246840534</v>
       </c>
       <c r="AJ2">
-        <v>-0.3713915255385916</v>
+        <v>-0.58493613115149</v>
       </c>
       <c r="AK2">
-        <v>-0.8112642613749853</v>
+        <v>-0.6008055061382607</v>
       </c>
       <c r="AL2">
-        <v>-0.7867253645963338</v>
+        <v>-0.633203607448437</v>
       </c>
       <c r="AM2">
-        <v>-0.3102600708772696</v>
+        <v>-0.6687025153783839</v>
       </c>
       <c r="AN2">
-        <v>-0.8053347286974415</v>
+        <v>-0.6819468883106463</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0.8350746854081346</v>
+        <v>0.4545060292656575</v>
       </c>
       <c r="C3">
-        <v>0.9664570006007286</v>
+        <v>0.8500741187014873</v>
       </c>
       <c r="D3">
-        <v>0.8840786503181828</v>
+        <v>0.7717705337957437</v>
       </c>
       <c r="E3">
-        <v>0.874112179269244</v>
+        <v>0.4392958915021001</v>
       </c>
       <c r="F3">
-        <v>0.7736476860948386</v>
+        <v>0.189505573149307</v>
       </c>
       <c r="G3">
-        <v>0.8969504990885282</v>
+        <v>0.3023744322097859</v>
       </c>
       <c r="H3">
-        <v>0.6203806022637154</v>
+        <v>0.1089830301344691</v>
       </c>
       <c r="I3">
-        <v>-0.4035045010703631</v>
+        <v>0.1610062017468886</v>
       </c>
       <c r="J3">
-        <v>0.9193590733819261</v>
+        <v>0.2172584463181334</v>
       </c>
       <c r="K3">
-        <v>0.7314738381392751</v>
+        <v>0.09735304838321428</v>
       </c>
       <c r="L3">
-        <v>0.3428886558684958</v>
+        <v>0.03355221834351809</v>
       </c>
       <c r="M3">
-        <v>0.7946785076233823</v>
+        <v>0.2006069793631091</v>
       </c>
       <c r="N3">
-        <v>0.6993444849197409</v>
+        <v>0.02076032981502156</v>
       </c>
       <c r="O3">
-        <v>0.526561902020846</v>
+        <v>-0.1732044964604139</v>
       </c>
       <c r="P3">
-        <v>0.7423380310478817</v>
+        <v>-0.08061036133215121</v>
       </c>
       <c r="Q3">
-        <v>0.6935906906913509</v>
+        <v>-0.1398118154769767</v>
       </c>
       <c r="R3">
-        <v>0.2686738579986525</v>
+        <v>-0.0850970377117677</v>
       </c>
       <c r="S3">
-        <v>0.4517863617126547</v>
+        <v>-0.3263357794696783</v>
       </c>
       <c r="T3">
-        <v>0.5608358321362182</v>
+        <v>-0.4311245722303175</v>
       </c>
       <c r="U3">
-        <v>-0.4067881927999367</v>
+        <v>-0.331614040700004</v>
       </c>
       <c r="V3">
-        <v>-0.05069464070838675</v>
+        <v>-0.4027748892724364</v>
       </c>
       <c r="W3">
-        <v>-0.4560515751632119</v>
+        <v>-0.2054726993285848</v>
       </c>
       <c r="X3">
-        <v>-0.03419261495558277</v>
+        <v>-0.05178212803375655</v>
       </c>
       <c r="Y3">
-        <v>0.7575376981933659</v>
+        <v>-0.3325743033872564</v>
       </c>
       <c r="Z3">
-        <v>0.339611456870053</v>
+        <v>-0.5059298306760345</v>
       </c>
       <c r="AA3">
-        <v>-0.4961992409147519</v>
+        <v>-0.3338403634949593</v>
       </c>
       <c r="AB3">
-        <v>0.4338792087289769</v>
+        <v>-0.3937727562624318</v>
       </c>
       <c r="AC3">
-        <v>-0.05021717200908975</v>
+        <v>-0.415585222091332</v>
       </c>
       <c r="AD3">
-        <v>0.06107089176905961</v>
+        <v>-0.4774480881029895</v>
       </c>
       <c r="AE3">
-        <v>-0.01046910886985337</v>
+        <v>-0.2815662024402396</v>
       </c>
       <c r="AF3">
-        <v>0.3943639893000448</v>
+        <v>-0.4462439529858979</v>
       </c>
       <c r="AG3">
-        <v>0.3631424943186382</v>
+        <v>-0.5011060753666479</v>
       </c>
       <c r="AH3">
-        <v>-0.6282456731968215</v>
+        <v>-0.4668645924006887</v>
       </c>
       <c r="AI3">
-        <v>-0.6117272867374193</v>
+        <v>-0.3260737018946021</v>
       </c>
       <c r="AJ3">
-        <v>-0.4618898745219316</v>
+        <v>-0.5661606548625269</v>
       </c>
       <c r="AK3">
-        <v>-0.8449695563860562</v>
+        <v>-0.572649980781717</v>
       </c>
       <c r="AL3">
-        <v>-0.8331711892803438</v>
+        <v>-0.5941233532263903</v>
       </c>
       <c r="AM3">
-        <v>-0.3318885966994765</v>
+        <v>-0.645646821841761</v>
       </c>
       <c r="AN3">
-        <v>-0.8441808516478707</v>
+        <v>-0.6448474706843573</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>0.9109788305076</v>
+        <v>0.8206023554995707</v>
       </c>
       <c r="C4">
-        <v>0.9952683705940768</v>
+        <v>0.8920159430472105</v>
       </c>
       <c r="D4">
-        <v>0.945338264445892</v>
+        <v>0.9203413430964085</v>
       </c>
       <c r="E4">
-        <v>0.9348520241001782</v>
+        <v>0.8028673910009637</v>
       </c>
       <c r="F4">
-        <v>0.8634496800926131</v>
+        <v>0.6477802659635907</v>
       </c>
       <c r="G4">
-        <v>0.949656362882308</v>
+        <v>0.7266698612911133</v>
       </c>
       <c r="H4">
-        <v>0.7293493312569935</v>
+        <v>0.5840066376309073</v>
       </c>
       <c r="I4">
-        <v>-0.2859142641439865</v>
+        <v>0.5959968172052199</v>
       </c>
       <c r="J4">
-        <v>0.9686278882251241</v>
+        <v>0.5995848767540912</v>
       </c>
       <c r="K4">
-        <v>0.8305438492124423</v>
+        <v>0.5133559921539114</v>
       </c>
       <c r="L4">
-        <v>0.4770936131871238</v>
+        <v>0.4348149864642872</v>
       </c>
       <c r="M4">
-        <v>0.8821228212930331</v>
+        <v>0.5768210487943589</v>
       </c>
       <c r="N4">
-        <v>0.78957822007088</v>
+        <v>0.4413526577867459</v>
       </c>
       <c r="O4">
-        <v>0.6450356388432917</v>
+        <v>0.3079540141513963</v>
       </c>
       <c r="P4">
-        <v>0.7811039934790714</v>
+        <v>0.3751397262169459</v>
       </c>
       <c r="Q4">
-        <v>0.7983908959191506</v>
+        <v>0.3464724426626441</v>
       </c>
       <c r="R4">
-        <v>0.4079661068915523</v>
+        <v>0.3385215092314739</v>
       </c>
       <c r="S4">
-        <v>0.5826007013463206</v>
+        <v>0.08892394442941552</v>
       </c>
       <c r="T4">
-        <v>0.6751607947865579</v>
+        <v>0.04355136606394037</v>
       </c>
       <c r="U4">
-        <v>-0.2660051716143732</v>
+        <v>0.1661573820929927</v>
       </c>
       <c r="V4">
-        <v>0.09520361315113651</v>
+        <v>0.102606269785444</v>
       </c>
       <c r="W4">
-        <v>-0.329495873492028</v>
+        <v>0.2763744915738429</v>
       </c>
       <c r="X4">
-        <v>0.07877366007341922</v>
+        <v>0.4072346489064266</v>
       </c>
       <c r="Y4">
-        <v>0.8225150492277955</v>
+        <v>0.1363667315031985</v>
       </c>
       <c r="Z4">
-        <v>0.3845991160511574</v>
+        <v>-0.03337099596533306</v>
       </c>
       <c r="AA4">
-        <v>-0.351405432897375</v>
+        <v>0.1389105077410209</v>
       </c>
       <c r="AB4">
-        <v>0.5717868207628758</v>
+        <v>0.06828647487938859</v>
       </c>
       <c r="AC4">
-        <v>0.1058182572323571</v>
+        <v>0.062895104777733</v>
       </c>
       <c r="AD4">
-        <v>0.1816727027659012</v>
+        <v>-0.01411333882448658</v>
       </c>
       <c r="AE4">
-        <v>0.1505317170718699</v>
+        <v>0.1650830046711129</v>
       </c>
       <c r="AF4">
-        <v>0.507677839475237</v>
+        <v>0.02468566589452522</v>
       </c>
       <c r="AG4">
-        <v>0.507101908664772</v>
+        <v>-0.04988585066522307</v>
       </c>
       <c r="AH4">
-        <v>-0.5251265170604471</v>
+        <v>-0.0474068658540701</v>
       </c>
       <c r="AI4">
-        <v>-0.6583985078272835</v>
+        <v>0.1459144289895653</v>
       </c>
       <c r="AJ4">
-        <v>-0.328225495289945</v>
+        <v>-0.1334518360826269</v>
       </c>
       <c r="AK4">
-        <v>-0.7615158636257588</v>
+        <v>-0.154290644974847</v>
       </c>
       <c r="AL4">
-        <v>-0.7375175214101902</v>
+        <v>-0.1564667563959761</v>
       </c>
       <c r="AM4">
-        <v>-0.237398862833462</v>
+        <v>-0.2393712827304981</v>
       </c>
       <c r="AN4">
-        <v>-0.7547713269333668</v>
+        <v>-0.2240169605766204</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>0.9420643788301044</v>
+        <v>0.7312626843925054</v>
       </c>
       <c r="C5">
-        <v>0.9945641146708891</v>
+        <v>0.8664643061495471</v>
       </c>
       <c r="D5">
-        <v>0.9482881740458008</v>
+        <v>0.9545233477774363</v>
       </c>
       <c r="E5">
-        <v>0.958992358346849</v>
+        <v>0.7785000632978799</v>
       </c>
       <c r="F5">
-        <v>0.8878547177105349</v>
+        <v>0.568078097537411</v>
       </c>
       <c r="G5">
-        <v>0.9628820833891475</v>
+        <v>0.6893786965411416</v>
       </c>
       <c r="H5">
-        <v>0.7750622281249883</v>
+        <v>0.5292506076664193</v>
       </c>
       <c r="I5">
-        <v>-0.2870217335477427</v>
+        <v>0.5573656573707326</v>
       </c>
       <c r="J5">
-        <v>0.9677130610149545</v>
+        <v>0.5827709927339023</v>
       </c>
       <c r="K5">
-        <v>0.8527926144540373</v>
+        <v>0.5425636498725083</v>
       </c>
       <c r="L5">
-        <v>0.5308027876846947</v>
+        <v>0.4077648764247721</v>
       </c>
       <c r="M5">
-        <v>0.90303485373034</v>
+        <v>0.6008537466842501</v>
       </c>
       <c r="N5">
-        <v>0.8442121997108123</v>
+        <v>0.472476143680877</v>
       </c>
       <c r="O5">
-        <v>0.7217816884458568</v>
+        <v>0.2718914095779369</v>
       </c>
       <c r="P5">
-        <v>0.8158309569679849</v>
+        <v>0.3841695098457031</v>
       </c>
       <c r="Q5">
-        <v>0.844459309685924</v>
+        <v>0.277581123706233</v>
       </c>
       <c r="R5">
-        <v>0.4861178499459345</v>
+        <v>0.3680100727066014</v>
       </c>
       <c r="S5">
-        <v>0.6521286831485326</v>
+        <v>0.1165163254402928</v>
       </c>
       <c r="T5">
-        <v>0.6958224899091797</v>
+        <v>0.02477151611325788</v>
       </c>
       <c r="U5">
-        <v>-0.2207143638410039</v>
+        <v>0.1316043026216007</v>
       </c>
       <c r="V5">
-        <v>0.1515536860317367</v>
+        <v>0.03675864612039083</v>
       </c>
       <c r="W5">
-        <v>-0.2973353772551176</v>
+        <v>0.2696747816437876</v>
       </c>
       <c r="X5">
-        <v>0.1249400127034765</v>
+        <v>0.4150649566384726</v>
       </c>
       <c r="Y5">
-        <v>0.884058292461678</v>
+        <v>0.1337263471935954</v>
       </c>
       <c r="Z5">
-        <v>0.4728927574198818</v>
+        <v>-0.07248051445159893</v>
       </c>
       <c r="AA5">
-        <v>-0.2921634307937418</v>
+        <v>0.1365201380086351</v>
       </c>
       <c r="AB5">
-        <v>0.6114044862765626</v>
+        <v>0.07350720562404893</v>
       </c>
       <c r="AC5">
-        <v>0.1696549720374488</v>
+        <v>0.05018827969920382</v>
       </c>
       <c r="AD5">
-        <v>0.2816183355322509</v>
+        <v>-0.02634477245723053</v>
       </c>
       <c r="AE5">
-        <v>0.2062482494065955</v>
+        <v>0.1882604550324643</v>
       </c>
       <c r="AF5">
-        <v>0.5924365993461572</v>
+        <v>0.01027893367153544</v>
       </c>
       <c r="AG5">
-        <v>0.5588884801792453</v>
+        <v>-0.06406867118129467</v>
       </c>
       <c r="AH5">
-        <v>-0.4552592609728907</v>
+        <v>-0.01678071555755608</v>
       </c>
       <c r="AI5">
-        <v>-0.5993278537665587</v>
+        <v>0.1474860574547229</v>
       </c>
       <c r="AJ5">
-        <v>-0.3022600673857649</v>
+        <v>-0.1339018223167543</v>
       </c>
       <c r="AK5">
-        <v>-0.6917675511184623</v>
+        <v>-0.1411077791629724</v>
       </c>
       <c r="AL5">
-        <v>-0.6719586947352281</v>
+        <v>-0.1556958138046263</v>
       </c>
       <c r="AM5">
-        <v>-0.1310574837924311</v>
+        <v>-0.2313027064707263</v>
       </c>
       <c r="AN5">
-        <v>-0.6840566702057562</v>
+        <v>-0.2201167395992752</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.7662884397916349</v>
+        <v>0.7568730025359763</v>
       </c>
       <c r="C6">
-        <v>0.921608624254571</v>
+        <v>0.8760354179865978</v>
       </c>
       <c r="D6">
-        <v>0.8027524474030943</v>
+        <v>0.9694785022084611</v>
       </c>
       <c r="E6">
-        <v>0.8067353400320983</v>
+        <v>0.816351030663419</v>
       </c>
       <c r="F6">
-        <v>0.6766097644163273</v>
+        <v>0.604236007992367</v>
       </c>
       <c r="G6">
-        <v>0.8254190277889873</v>
+        <v>0.7288261706355003</v>
       </c>
       <c r="H6">
-        <v>0.51277248222752</v>
+        <v>0.5734129620368996</v>
       </c>
       <c r="I6">
-        <v>-0.5512352799895255</v>
+        <v>0.6086026977168363</v>
       </c>
       <c r="J6">
-        <v>0.8483932109426757</v>
+        <v>0.6353428999638994</v>
       </c>
       <c r="K6">
-        <v>0.6272584568172201</v>
+        <v>0.5815143061020358</v>
       </c>
       <c r="L6">
-        <v>0.2698643567042099</v>
+        <v>0.4674967961925843</v>
       </c>
       <c r="M6">
-        <v>0.7069347493111441</v>
+        <v>0.6191746494050926</v>
       </c>
       <c r="N6">
-        <v>0.62369412981803</v>
+        <v>0.517472927419352</v>
       </c>
       <c r="O6">
-        <v>0.4618907589754186</v>
+        <v>0.3300245127357695</v>
       </c>
       <c r="P6">
-        <v>0.6831411124762052</v>
+        <v>0.4340325729118316</v>
       </c>
       <c r="Q6">
-        <v>0.6053421849855599</v>
+        <v>0.3345861802920743</v>
       </c>
       <c r="R6">
-        <v>0.162017459399736</v>
+        <v>0.4193773189065979</v>
       </c>
       <c r="S6">
-        <v>0.3528216212282423</v>
+        <v>0.1739620891889141</v>
       </c>
       <c r="T6">
-        <v>0.4231810512609752</v>
+        <v>0.08157038455669716</v>
       </c>
       <c r="U6">
-        <v>-0.541234833818007</v>
+        <v>0.1855162245971697</v>
       </c>
       <c r="V6">
-        <v>-0.1931885204403417</v>
+        <v>0.08754984042795821</v>
       </c>
       <c r="W6">
-        <v>-0.594017511171591</v>
+        <v>0.3157525848892379</v>
       </c>
       <c r="X6">
-        <v>-0.1715907407044773</v>
+        <v>0.45666042139969</v>
       </c>
       <c r="Y6">
-        <v>0.744366965997189</v>
+        <v>0.1889426207654066</v>
       </c>
       <c r="Z6">
-        <v>0.3335164880291458</v>
+        <v>-0.0137763545977448</v>
       </c>
       <c r="AA6">
-        <v>-0.6063408998560624</v>
+        <v>0.1895497983244565</v>
       </c>
       <c r="AB6">
-        <v>0.304071964531494</v>
+        <v>0.1252211053426489</v>
       </c>
       <c r="AC6">
-        <v>-0.1842623196058558</v>
+        <v>0.1023718972946035</v>
       </c>
       <c r="AD6">
-        <v>-0.009658108259300947</v>
+        <v>0.03031509381263929</v>
       </c>
       <c r="AE6">
-        <v>-0.1384638650015191</v>
+        <v>0.2375642279609592</v>
       </c>
       <c r="AF6">
-        <v>0.3720436959992599</v>
+        <v>0.06635195036599253</v>
       </c>
       <c r="AG6">
-        <v>0.258872974887936</v>
+        <v>-0.004636342565220773</v>
       </c>
       <c r="AH6">
-        <v>-0.7053816563856764</v>
+        <v>0.03314228664111694</v>
       </c>
       <c r="AI6">
-        <v>-0.4835223616340205</v>
+        <v>0.1968160652419127</v>
       </c>
       <c r="AJ6">
-        <v>-0.5657033251593772</v>
+        <v>-0.07719057823484161</v>
       </c>
       <c r="AK6">
-        <v>-0.8482612215770934</v>
+        <v>-0.0865813662954788</v>
       </c>
       <c r="AL6">
-        <v>-0.873914731647864</v>
+        <v>-0.1065997924177753</v>
       </c>
       <c r="AM6">
-        <v>-0.297279144160155</v>
+        <v>-0.1772185179068931</v>
       </c>
       <c r="AN6">
-        <v>-0.866448006813805</v>
+        <v>-0.1712943468165539</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0.8872093703243783</v>
+        <v>0.6505794396255371</v>
       </c>
       <c r="C7">
-        <v>0.8552043368965333</v>
+        <v>0.2930506131730932</v>
       </c>
       <c r="D7">
-        <v>0.7906855639290969</v>
+        <v>0.6163145892689459</v>
       </c>
       <c r="E7">
-        <v>0.8855524234797192</v>
+        <v>0.8516922223642653</v>
       </c>
       <c r="F7">
-        <v>0.791632523180922</v>
+        <v>0.8024809321881159</v>
       </c>
       <c r="G7">
-        <v>0.8510157840417726</v>
+        <v>0.8922511042297729</v>
       </c>
       <c r="H7">
-        <v>0.752373635155673</v>
+        <v>0.9037158209020957</v>
       </c>
       <c r="I7">
-        <v>-0.4021946523377936</v>
+        <v>0.9215112522677692</v>
       </c>
       <c r="J7">
-        <v>0.8057526802683235</v>
+        <v>0.9063166641241328</v>
       </c>
       <c r="K7">
-        <v>0.7435676125483042</v>
+        <v>0.9754377084076429</v>
       </c>
       <c r="L7">
-        <v>0.5672344135112145</v>
+        <v>0.8952863852158961</v>
       </c>
       <c r="M7">
-        <v>0.7987650547783872</v>
+        <v>0.8305161778539966</v>
       </c>
       <c r="N7">
-        <v>0.8740612830134959</v>
+        <v>0.993932565989272</v>
       </c>
       <c r="O7">
-        <v>0.8360702402548422</v>
+        <v>0.9430583694918729</v>
       </c>
       <c r="P7">
-        <v>0.8107446910852488</v>
+        <v>0.9948068859685777</v>
       </c>
       <c r="Q7">
-        <v>0.8287941739145411</v>
+        <v>0.8783669797772564</v>
       </c>
       <c r="R7">
-        <v>0.5955363698397812</v>
+        <v>0.9946787656049859</v>
       </c>
       <c r="S7">
-        <v>0.7221383840778863</v>
+        <v>0.9362666609183455</v>
       </c>
       <c r="T7">
-        <v>0.5704756747471678</v>
+        <v>0.894365636964588</v>
       </c>
       <c r="U7">
-        <v>-0.1774925413325971</v>
+        <v>0.9106958590679821</v>
       </c>
       <c r="V7">
-        <v>0.1915785555077033</v>
+        <v>0.8152824137160852</v>
       </c>
       <c r="W7">
-        <v>-0.2892182955059699</v>
+        <v>0.9491281432740705</v>
       </c>
       <c r="X7">
-        <v>0.1498454271691992</v>
+        <v>0.9676061970659906</v>
       </c>
       <c r="Y7">
-        <v>0.9817565847267755</v>
+        <v>0.9432446564733208</v>
       </c>
       <c r="Z7">
-        <v>0.7228011828426772</v>
+        <v>0.8305281530165978</v>
       </c>
       <c r="AA7">
-        <v>-0.1798524152055887</v>
+        <v>0.9398509270409233</v>
       </c>
       <c r="AB7">
-        <v>0.5558960886131079</v>
+        <v>0.9169459420326157</v>
       </c>
       <c r="AC7">
-        <v>0.2346631349005788</v>
+        <v>0.8982819100675384</v>
       </c>
       <c r="AD7">
-        <v>0.5196840179165549</v>
+        <v>0.8770853356875177</v>
       </c>
       <c r="AE7">
-        <v>0.238724237056818</v>
+        <v>0.9538670018780605</v>
       </c>
       <c r="AF7">
-        <v>0.7742094444099965</v>
+        <v>0.890804985501943</v>
       </c>
       <c r="AG7">
-        <v>0.5637207347937414</v>
+        <v>0.8581701471338253</v>
       </c>
       <c r="AH7">
-        <v>-0.2490948988512117</v>
+        <v>0.8764680254320695</v>
       </c>
       <c r="AI7">
-        <v>-0.2315978641020743</v>
+        <v>0.9331153579100465</v>
       </c>
       <c r="AJ7">
-        <v>-0.301479990576083</v>
+        <v>0.8286654714010023</v>
       </c>
       <c r="AK7">
-        <v>-0.4129216365990424</v>
+        <v>0.8248473534667501</v>
       </c>
       <c r="AL7">
-        <v>-0.4367697481390558</v>
+        <v>0.7970499427993797</v>
       </c>
       <c r="AM7">
-        <v>0.2411090718138646</v>
+        <v>0.7698903673266645</v>
       </c>
       <c r="AN7">
-        <v>-0.415699629362756</v>
+        <v>0.7606085614576067</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.441285121913981</v>
+        <v>0.3392712884806386</v>
       </c>
       <c r="C8">
-        <v>0.2776098867212908</v>
+        <v>-0.1723449342127778</v>
       </c>
       <c r="D8">
-        <v>0.2240917890661439</v>
+        <v>0.1538557840418855</v>
       </c>
       <c r="E8">
-        <v>0.4057246610428972</v>
+        <v>0.518991575041499</v>
       </c>
       <c r="F8">
-        <v>0.3281274998958401</v>
+        <v>0.6027545324769786</v>
       </c>
       <c r="G8">
-        <v>0.324297326819248</v>
+        <v>0.6237870479813515</v>
       </c>
       <c r="H8">
-        <v>0.4243418904173712</v>
+        <v>0.7289108701549339</v>
       </c>
       <c r="I8">
-        <v>-0.3643163922183787</v>
+        <v>0.7136855024027214</v>
       </c>
       <c r="J8">
-        <v>0.2218348577782838</v>
+        <v>0.6704377746146631</v>
       </c>
       <c r="K8">
-        <v>0.2848171547036443</v>
+        <v>0.801933639622439</v>
       </c>
       <c r="L8">
-        <v>0.4248111099141651</v>
+        <v>0.748701948223306</v>
       </c>
       <c r="M8">
-        <v>0.3200142008106167</v>
+        <v>0.6332549471669149</v>
       </c>
       <c r="N8">
-        <v>0.5672894467226356</v>
+        <v>0.8532187012247047</v>
       </c>
       <c r="O8">
-        <v>0.6871992343378205</v>
+        <v>0.897408679897939</v>
       </c>
       <c r="P8">
-        <v>0.4580084702328197</v>
+        <v>0.9022288252093693</v>
       </c>
       <c r="Q8">
-        <v>0.4782309413235993</v>
+        <v>0.8234247420046061</v>
       </c>
       <c r="R8">
-        <v>0.5492053328162048</v>
+        <v>0.9031521359372328</v>
       </c>
       <c r="S8">
-        <v>0.5579504534137436</v>
+        <v>0.9685143947174623</v>
       </c>
       <c r="T8">
-        <v>0.1662271992079941</v>
+        <v>0.984732249557955</v>
       </c>
       <c r="U8">
-        <v>0.01270431402769386</v>
+        <v>0.9512161313521306</v>
       </c>
       <c r="V8">
-        <v>0.2164737576490639</v>
+        <v>0.9037830598334077</v>
       </c>
       <c r="W8">
-        <v>-0.1097398459530331</v>
+        <v>0.9269817333128469</v>
       </c>
       <c r="X8">
-        <v>0.1561521242720268</v>
+        <v>0.8687501566184623</v>
       </c>
       <c r="Y8">
-        <v>0.7261028147104576</v>
+        <v>0.9797700739829682</v>
       </c>
       <c r="Z8">
-        <v>0.802258715810199</v>
+        <v>0.9640557276640277</v>
       </c>
       <c r="AA8">
-        <v>0.1202122815790508</v>
+        <v>0.978824697793056</v>
       </c>
       <c r="AB8">
-        <v>0.2748180121373354</v>
+        <v>0.9893252640164387</v>
       </c>
       <c r="AC8">
-        <v>0.2838508869240134</v>
+        <v>0.9834374213678223</v>
       </c>
       <c r="AD8">
-        <v>0.6965386440500945</v>
+        <v>0.9926320013919693</v>
       </c>
       <c r="AE8">
-        <v>0.2399573215720496</v>
+        <v>0.9672352063409915</v>
       </c>
       <c r="AF8">
-        <v>0.7568748880898357</v>
+        <v>0.98961541508037</v>
       </c>
       <c r="AG8">
-        <v>0.3758965026936344</v>
+        <v>0.9857319899642245</v>
       </c>
       <c r="AH8">
-        <v>0.2081893647609861</v>
+        <v>0.9907980714753741</v>
       </c>
       <c r="AI8">
-        <v>0.4187981847328001</v>
+        <v>0.971282813115026</v>
       </c>
       <c r="AJ8">
-        <v>-0.1205853087685148</v>
+        <v>0.9937642901850305</v>
       </c>
       <c r="AK8">
-        <v>0.2256278452748526</v>
+        <v>0.9949341828424207</v>
       </c>
       <c r="AL8">
-        <v>0.1474747260855752</v>
+        <v>0.984566273968178</v>
       </c>
       <c r="AM8">
-        <v>0.7429773660247422</v>
+        <v>0.9827499865861499</v>
       </c>
       <c r="AN8">
-        <v>0.2087029980574006</v>
+        <v>0.9775777502473185</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>-0.01109781378800837</v>
+        <v>0.09541707288381092</v>
       </c>
       <c r="C9">
-        <v>-0.1316614158436093</v>
+        <v>-0.3866483293696101</v>
       </c>
       <c r="D9">
-        <v>-0.2303567422848344</v>
+        <v>-0.1126469649585195</v>
       </c>
       <c r="E9">
-        <v>-0.02348201114706754</v>
+        <v>0.2717952544643312</v>
       </c>
       <c r="F9">
-        <v>-0.1378150038809805</v>
+        <v>0.3860869450900603</v>
       </c>
       <c r="G9">
-        <v>-0.1001691186700049</v>
+        <v>0.3854163689308012</v>
       </c>
       <c r="H9">
-        <v>-0.01183432107192582</v>
+        <v>0.5244249217209112</v>
       </c>
       <c r="I9">
-        <v>-0.5005311726785705</v>
+        <v>0.5203697962456397</v>
       </c>
       <c r="J9">
-        <v>-0.2191610371064193</v>
+        <v>0.4846687358666458</v>
       </c>
       <c r="K9">
-        <v>-0.1935659078149278</v>
+        <v>0.5944160931201533</v>
       </c>
       <c r="L9">
-        <v>-0.000655548466440606</v>
+        <v>0.6116984787518966</v>
       </c>
       <c r="M9">
-        <v>-0.1562638925063052</v>
+        <v>0.3970334059322982</v>
       </c>
       <c r="N9">
-        <v>0.1542776201250809</v>
+        <v>0.6693557883067498</v>
       </c>
       <c r="O9">
-        <v>0.2709829659037825</v>
+        <v>0.7711305973192315</v>
       </c>
       <c r="P9">
-        <v>0.1536100585730115</v>
+        <v>0.7393186317373913</v>
       </c>
       <c r="Q9">
-        <v>0.01791179012788925</v>
+        <v>0.6966695740866171</v>
       </c>
       <c r="R9">
-        <v>0.1869666419534365</v>
+        <v>0.7528289183923075</v>
       </c>
       <c r="S9">
-        <v>0.1406494025537505</v>
+        <v>0.8914939373673628</v>
       </c>
       <c r="T9">
-        <v>-0.2810646071312414</v>
+        <v>0.9186270883905802</v>
       </c>
       <c r="U9">
-        <v>-0.14043142467256</v>
+        <v>0.8500262821637686</v>
       </c>
       <c r="V9">
-        <v>-0.06021716028402467</v>
+        <v>0.8239798031279467</v>
       </c>
       <c r="W9">
-        <v>-0.2164334675690828</v>
+        <v>0.7825671314954409</v>
       </c>
       <c r="X9">
-        <v>-0.04048280457082352</v>
+        <v>0.6869526444647281</v>
       </c>
       <c r="Y9">
-        <v>0.3432325988423452</v>
+        <v>0.8840753601806323</v>
       </c>
       <c r="Z9">
-        <v>0.6624600051274141</v>
+        <v>0.9276956056647734</v>
       </c>
       <c r="AA9">
-        <v>-0.009226148901125495</v>
+        <v>0.8785920408533545</v>
       </c>
       <c r="AB9">
-        <v>-0.1799012090152985</v>
+        <v>0.9053794973885118</v>
       </c>
       <c r="AC9">
-        <v>-0.01958018195937831</v>
+        <v>0.9034013252010571</v>
       </c>
       <c r="AD9">
-        <v>0.4745161518862577</v>
+        <v>0.9416068978633887</v>
       </c>
       <c r="AE9">
-        <v>-0.1075671237056116</v>
+        <v>0.8537125515791117</v>
       </c>
       <c r="AF9">
-        <v>0.389583304069242</v>
+        <v>0.9267835381861287</v>
       </c>
       <c r="AG9">
-        <v>-0.0712629700851522</v>
+        <v>0.9512734417400778</v>
       </c>
       <c r="AH9">
-        <v>0.2503780913059639</v>
+        <v>0.9362835171651754</v>
       </c>
       <c r="AI9">
-        <v>0.7856892848881311</v>
+        <v>0.8634192105028528</v>
       </c>
       <c r="AJ9">
-        <v>-0.2758278091103344</v>
+        <v>0.9770297001902858</v>
       </c>
       <c r="AK9">
-        <v>0.3626011817852503</v>
+        <v>0.9797195745971925</v>
       </c>
       <c r="AL9">
-        <v>0.25880143741537</v>
+        <v>0.9622343125122984</v>
       </c>
       <c r="AM9">
-        <v>0.688821800582732</v>
+        <v>0.9936034796673918</v>
       </c>
       <c r="AN9">
-        <v>0.3393656692470547</v>
+        <v>0.9754318168326872</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>-0.639549463629449</v>
+        <v>0.1991581898333155</v>
       </c>
       <c r="C10">
-        <v>-0.8394760910929169</v>
+        <v>-0.3238612894330259</v>
       </c>
       <c r="D10">
-        <v>-0.7825403888982048</v>
+        <v>-0.02173790147186986</v>
       </c>
       <c r="E10">
-        <v>-0.6877592700688043</v>
+        <v>0.3658431850484883</v>
       </c>
       <c r="F10">
-        <v>-0.6265734329556238</v>
+        <v>0.4853438558564091</v>
       </c>
       <c r="G10">
-        <v>-0.7444625198671936</v>
+        <v>0.4840246204351953</v>
       </c>
       <c r="H10">
-        <v>-0.4272942865526274</v>
+        <v>0.6152995124445919</v>
       </c>
       <c r="I10">
-        <v>0.2364268514294793</v>
+        <v>0.5954010264215206</v>
       </c>
       <c r="J10">
-        <v>-0.8178366344790607</v>
+        <v>0.5486751572595534</v>
       </c>
       <c r="K10">
-        <v>-0.6076591216533884</v>
+        <v>0.6840836254681358</v>
       </c>
       <c r="L10">
-        <v>-0.1831384153702497</v>
+        <v>0.6564450250993634</v>
       </c>
       <c r="M10">
-        <v>-0.6565235215760186</v>
+        <v>0.5091781072407301</v>
       </c>
       <c r="N10">
-        <v>-0.4418499228671783</v>
+        <v>0.746681815163056</v>
       </c>
       <c r="O10">
-        <v>-0.2307484148607254</v>
+        <v>0.825839178780009</v>
       </c>
       <c r="P10">
-        <v>-0.5154299077053893</v>
+        <v>0.8103399186284768</v>
       </c>
       <c r="Q10">
-        <v>-0.4840322726398023</v>
+        <v>0.752699764471382</v>
       </c>
       <c r="R10">
-        <v>-0.02549090391329709</v>
+        <v>0.814146857514782</v>
       </c>
       <c r="S10">
-        <v>-0.2073659115376582</v>
+        <v>0.9230999222330271</v>
       </c>
       <c r="T10">
-        <v>-0.4832770117919648</v>
+        <v>0.9554121944787812</v>
       </c>
       <c r="U10">
-        <v>0.4079165974388205</v>
+        <v>0.9035241958731283</v>
       </c>
       <c r="V10">
-        <v>0.1491725224774776</v>
+        <v>0.8743505185160343</v>
       </c>
       <c r="W10">
-        <v>0.4080728505791219</v>
+        <v>0.8550642173048574</v>
       </c>
       <c r="X10">
-        <v>0.1217645153710008</v>
+        <v>0.7721487524286854</v>
       </c>
       <c r="Y10">
-        <v>-0.4418393923506326</v>
+        <v>0.9309754558846312</v>
       </c>
       <c r="Z10">
-        <v>0.0350700334159171</v>
+        <v>0.9527523911289089</v>
       </c>
       <c r="AA10">
-        <v>0.5361712026302592</v>
+        <v>0.9295513627784607</v>
       </c>
       <c r="AB10">
-        <v>-0.3195583648664767</v>
+        <v>0.951122171597115</v>
       </c>
       <c r="AC10">
-        <v>0.1705332500148215</v>
+        <v>0.9495778212649968</v>
       </c>
       <c r="AD10">
-        <v>0.2531155265000099</v>
+        <v>0.9723077806970368</v>
       </c>
       <c r="AE10">
-        <v>0.09987858733463872</v>
+        <v>0.9089469458543221</v>
       </c>
       <c r="AF10">
-        <v>-0.08302369480023515</v>
+        <v>0.9627791273747649</v>
       </c>
       <c r="AG10">
-        <v>-0.2159819110125144</v>
+        <v>0.9723681514738068</v>
       </c>
       <c r="AH10">
-        <v>0.7253611841150402</v>
+        <v>0.9687996718608956</v>
       </c>
       <c r="AI10">
-        <v>0.7927468282742495</v>
+        <v>0.9202272326423269</v>
       </c>
       <c r="AJ10">
-        <v>0.3815265097816984</v>
+        <v>0.9927599009385649</v>
       </c>
       <c r="AK10">
-        <v>0.9231487598821662</v>
+        <v>0.9951965287940118</v>
       </c>
       <c r="AL10">
-        <v>0.8861867533173617</v>
+        <v>0.9877146031421884</v>
       </c>
       <c r="AM10">
-        <v>0.6307459685870447</v>
+        <v>0.9995451183224606</v>
       </c>
       <c r="AN10">
-        <v>0.9215224960957481</v>
+        <v>0.9924912037759888</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>-0.6974043445574171</v>
+        <v>0.08572839172196813</v>
       </c>
       <c r="C11">
-        <v>-0.831885186221718</v>
+        <v>-0.4133099320383972</v>
       </c>
       <c r="D11">
-        <v>-0.8412783094287158</v>
+        <v>-0.1230680919133589</v>
       </c>
       <c r="E11">
-        <v>-0.7470103231211843</v>
+        <v>0.2583088927622327</v>
       </c>
       <c r="F11">
-        <v>-0.734590895106185</v>
+        <v>0.3818408992974532</v>
       </c>
       <c r="G11">
-        <v>-0.8049927530880433</v>
+        <v>0.3777668594708743</v>
       </c>
       <c r="H11">
-        <v>-0.5871512567590358</v>
+        <v>0.5185822530172026</v>
       </c>
       <c r="I11">
-        <v>-0.03010975188928536</v>
+        <v>0.5037068420038874</v>
       </c>
       <c r="J11">
-        <v>-0.8556246048818148</v>
+        <v>0.4627926509656899</v>
       </c>
       <c r="K11">
-        <v>-0.7223297974078089</v>
+        <v>0.6002590167169994</v>
       </c>
       <c r="L11">
-        <v>-0.2561379432447352</v>
+        <v>0.5863148157135046</v>
       </c>
       <c r="M11">
-        <v>-0.7353984638617821</v>
+        <v>0.4181217330440327</v>
       </c>
       <c r="N11">
-        <v>-0.550457682131413</v>
+        <v>0.6709409442222163</v>
       </c>
       <c r="O11">
-        <v>-0.3252566889689368</v>
+        <v>0.7591640137958089</v>
       </c>
       <c r="P11">
-        <v>-0.6121372457457314</v>
+        <v>0.7382933596293131</v>
       </c>
       <c r="Q11">
-        <v>-0.5924432363386218</v>
+        <v>0.6810189894570011</v>
       </c>
       <c r="R11">
-        <v>-0.2283032260463099</v>
+        <v>0.7496997751878149</v>
       </c>
       <c r="S11">
-        <v>-0.3703545479594603</v>
+        <v>0.8853995963668903</v>
       </c>
       <c r="T11">
-        <v>-0.6783176575354209</v>
+        <v>0.9151246965868504</v>
       </c>
       <c r="U11">
-        <v>0.1289467556281782</v>
+        <v>0.8479077434205655</v>
       </c>
       <c r="V11">
-        <v>-0.1310873197355786</v>
+        <v>0.8229541609440765</v>
       </c>
       <c r="W11">
-        <v>0.1185121108332315</v>
+        <v>0.7887629023627027</v>
       </c>
       <c r="X11">
-        <v>-0.1705092938582747</v>
+        <v>0.6945412018310031</v>
       </c>
       <c r="Y11">
-        <v>-0.4258276205074502</v>
+        <v>0.8820416157884182</v>
       </c>
       <c r="Z11">
-        <v>-0.03941805935721248</v>
+        <v>0.9204132888615034</v>
       </c>
       <c r="AA11">
-        <v>0.2952198087391107</v>
+        <v>0.8794241933603478</v>
       </c>
       <c r="AB11">
-        <v>-0.5055938287133747</v>
+        <v>0.9087857628654734</v>
       </c>
       <c r="AC11">
-        <v>-0.08643302244903681</v>
+        <v>0.9059248007944377</v>
       </c>
       <c r="AD11">
-        <v>0.06481803590585614</v>
+        <v>0.9388947533782021</v>
       </c>
       <c r="AE11">
-        <v>-0.1172219475013456</v>
+        <v>0.8584110144598797</v>
       </c>
       <c r="AF11">
-        <v>-0.097962631653051</v>
+        <v>0.9246030354534598</v>
       </c>
       <c r="AG11">
-        <v>-0.3533387311029666</v>
+        <v>0.944392246808393</v>
       </c>
       <c r="AH11">
-        <v>0.4860020736099306</v>
+        <v>0.9421259701979076</v>
       </c>
       <c r="AI11">
-        <v>0.9144262505871132</v>
+        <v>0.8686222696571242</v>
       </c>
       <c r="AJ11">
-        <v>0.2015673431467896</v>
+        <v>0.9743894173749929</v>
       </c>
       <c r="AK11">
-        <v>0.8332367988417793</v>
+        <v>0.9800012898365339</v>
       </c>
       <c r="AL11">
-        <v>0.7218808127015957</v>
+        <v>0.9691812492450258</v>
       </c>
       <c r="AM11">
-        <v>0.6396840441484909</v>
+        <v>0.9937534410502975</v>
       </c>
       <c r="AN11">
-        <v>0.7879418875660383</v>
+        <v>0.9822975780369049</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>-0.4782355258094333</v>
+        <v>0.04672485248940556</v>
       </c>
       <c r="C12">
-        <v>-0.576218851269111</v>
+        <v>-0.4359221699831657</v>
       </c>
       <c r="D12">
-        <v>-0.6529171587468212</v>
+        <v>-0.1971958813124286</v>
       </c>
       <c r="E12">
-        <v>-0.5340866408518568</v>
+        <v>0.2022444597236194</v>
       </c>
       <c r="F12">
-        <v>-0.5823000297022524</v>
+        <v>0.3381478774016024</v>
       </c>
       <c r="G12">
-        <v>-0.6048199898285295</v>
+        <v>0.3200222141218997</v>
       </c>
       <c r="H12">
-        <v>-0.4875491631725555</v>
+        <v>0.4712743102896306</v>
       </c>
       <c r="I12">
-        <v>-0.3437574885766109</v>
+        <v>0.4663176588187018</v>
       </c>
       <c r="J12">
-        <v>-0.6478890385552697</v>
+        <v>0.4276386097836438</v>
       </c>
       <c r="K12">
-        <v>-0.5862985474761284</v>
+        <v>0.5171038796713656</v>
       </c>
       <c r="L12">
-        <v>-0.1224809711818652</v>
+        <v>0.569535300577062</v>
       </c>
       <c r="M12">
-        <v>-0.5554526126444338</v>
+        <v>0.3158004109681077</v>
       </c>
       <c r="N12">
-        <v>-0.3774215652031727</v>
+        <v>0.5972416287280825</v>
       </c>
       <c r="O12">
-        <v>-0.1423329543184749</v>
+        <v>0.7318930899829659</v>
       </c>
       <c r="P12">
-        <v>-0.4617151497023453</v>
+        <v>0.6780191445099482</v>
       </c>
       <c r="Q12">
-        <v>-0.4265764637524303</v>
+        <v>0.6671342666534704</v>
       </c>
       <c r="R12">
-        <v>-0.2033634368827087</v>
+        <v>0.689585462349481</v>
       </c>
       <c r="S12">
-        <v>-0.2763951179455228</v>
+        <v>0.8478555992171865</v>
       </c>
       <c r="T12">
-        <v>-0.6579057939620124</v>
+        <v>0.8899435215718716</v>
       </c>
       <c r="U12">
-        <v>-0.1283619164276745</v>
+        <v>0.8163916161389989</v>
       </c>
       <c r="V12">
-        <v>-0.285293329585293</v>
+        <v>0.8052077595630314</v>
       </c>
       <c r="W12">
-        <v>-0.1834130654505129</v>
+        <v>0.7300728795048418</v>
       </c>
       <c r="X12">
-        <v>-0.3573418383253394</v>
+        <v>0.6212773033852389</v>
       </c>
       <c r="Y12">
-        <v>-0.1193002681002452</v>
+        <v>0.8430869461537573</v>
       </c>
       <c r="Z12">
-        <v>0.1049825727776959</v>
+        <v>0.9128769320252069</v>
       </c>
       <c r="AA12">
-        <v>0.07186221003479432</v>
+        <v>0.836295481939079</v>
       </c>
       <c r="AB12">
-        <v>-0.4746478617825642</v>
+        <v>0.8653719836012356</v>
       </c>
       <c r="AC12">
-        <v>-0.2047893404307817</v>
+        <v>0.8692890767785121</v>
       </c>
       <c r="AD12">
-        <v>0.07406034422473703</v>
+        <v>0.9152092603334421</v>
       </c>
       <c r="AE12">
-        <v>-0.1964429545147925</v>
+        <v>0.8011949527165069</v>
       </c>
       <c r="AF12">
-        <v>0.1370003744053928</v>
+        <v>0.8977636089674916</v>
       </c>
       <c r="AG12">
-        <v>-0.2752214632066984</v>
+        <v>0.9300631112528549</v>
       </c>
       <c r="AH12">
-        <v>0.2303570739966916</v>
+        <v>0.8976252683007974</v>
       </c>
       <c r="AI12">
-        <v>0.9399548971810735</v>
+        <v>0.8180847916581721</v>
       </c>
       <c r="AJ12">
-        <v>-0.002498043193801825</v>
+        <v>0.9569213965988816</v>
       </c>
       <c r="AK12">
-        <v>0.6597005561203717</v>
+        <v>0.9564047665244788</v>
       </c>
       <c r="AL12">
-        <v>0.4790344323879411</v>
+        <v>0.9403742573362722</v>
       </c>
       <c r="AM12">
-        <v>0.7393659685093131</v>
+        <v>0.978985127658451</v>
       </c>
       <c r="AN12">
-        <v>0.5762471459973243</v>
+        <v>0.9583984775857556</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块.xlsx
+++ b/FOF/data/基金公司-板块.xlsx
@@ -16,157 +16,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
     <t>中邮创业</t>
   </si>
   <si>
-    <t>华商</t>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>鹏华</t>
   </si>
   <si>
     <t>交银施罗德</t>
   </si>
   <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
+    <t>平安大华</t>
   </si>
   <si>
     <t>兴业</t>
   </si>
   <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
     <t>创业板综</t>
-  </si>
-  <si>
-    <t>中证1000</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>上证50</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0.4601848751206882</v>
+        <v>0.9241118845078304</v>
       </c>
       <c r="C2">
-        <v>0.888506757444917</v>
+        <v>0.8778636003096707</v>
       </c>
       <c r="D2">
-        <v>0.7476912093505268</v>
+        <v>0.8251748261034839</v>
       </c>
       <c r="E2">
-        <v>0.4311230537079596</v>
+        <v>0.6682002035907881</v>
       </c>
       <c r="F2">
-        <v>0.1790318350703203</v>
+        <v>0.9412965441763064</v>
       </c>
       <c r="G2">
-        <v>0.2844867343809684</v>
+        <v>0.7259489374280057</v>
       </c>
       <c r="H2">
-        <v>0.09385360869279745</v>
+        <v>0.769938969170646</v>
       </c>
       <c r="I2">
-        <v>0.165343111545041</v>
+        <v>0.8494106602629209</v>
       </c>
       <c r="J2">
-        <v>0.228335149958586</v>
+        <v>0.8787845258706698</v>
       </c>
       <c r="K2">
-        <v>0.03429117194072241</v>
+        <v>0.7390072194675926</v>
       </c>
       <c r="L2">
-        <v>0.05872037005477704</v>
+        <v>0.7895640548223429</v>
       </c>
       <c r="M2">
-        <v>0.1081387378048789</v>
+        <v>0.9709819042943503</v>
       </c>
       <c r="N2">
-        <v>-0.03238084309809736</v>
+        <v>0.5037883916987858</v>
       </c>
       <c r="O2">
-        <v>-0.174947676609268</v>
+        <v>0.7108910132608138</v>
       </c>
       <c r="P2">
-        <v>-0.1211261269719564</v>
+        <v>0.8385593991474147</v>
       </c>
       <c r="Q2">
-        <v>-0.1238033840354274</v>
+        <v>0.9451098013377413</v>
       </c>
       <c r="R2">
-        <v>-0.1252044694489212</v>
+        <v>0.8200133483746722</v>
       </c>
       <c r="S2">
-        <v>-0.352346560927957</v>
+        <v>0.9405237365122395</v>
       </c>
       <c r="T2">
-        <v>-0.4491859891409448</v>
+        <v>0.8582106954977444</v>
       </c>
       <c r="U2">
-        <v>-0.3518980247016122</v>
+        <v>0.876513204866126</v>
       </c>
       <c r="V2">
-        <v>-0.4133287397229777</v>
+        <v>0.9382069098382416</v>
       </c>
       <c r="W2">
-        <v>-0.2547989727542402</v>
+        <v>0.8778700318279683</v>
       </c>
       <c r="X2">
-        <v>-0.1110780264487625</v>
+        <v>0.9230018645774198</v>
       </c>
       <c r="Y2">
-        <v>-0.3614150162072584</v>
+        <v>0.7889241625576386</v>
       </c>
       <c r="Z2">
-        <v>-0.5068132575897893</v>
+        <v>0.8781250675325847</v>
       </c>
       <c r="AA2">
-        <v>-0.3691134670246192</v>
+        <v>0.8866142141599189</v>
       </c>
       <c r="AB2">
-        <v>-0.4345192210883339</v>
+        <v>0.9255351883693119</v>
       </c>
       <c r="AC2">
-        <v>-0.4491915542310613</v>
+        <v>0.6420340361376587</v>
       </c>
       <c r="AD2">
-        <v>-0.4971647841135443</v>
+        <v>0.9279525437875896</v>
       </c>
       <c r="AE2">
-        <v>-0.3328284854437457</v>
+        <v>0.9487713626859146</v>
       </c>
       <c r="AF2">
-        <v>-0.4678541608617184</v>
+        <v>0.8921804494318658</v>
       </c>
       <c r="AG2">
-        <v>-0.5096345433503618</v>
+        <v>0.9594172743753852</v>
       </c>
       <c r="AH2">
-        <v>-0.5156802855788651</v>
+        <v>0.8470874061018299</v>
       </c>
       <c r="AI2">
-        <v>-0.3720533246840534</v>
+        <v>0.9091121454695266</v>
       </c>
       <c r="AJ2">
-        <v>-0.58493613115149</v>
+        <v>0.9388543077890745</v>
       </c>
       <c r="AK2">
-        <v>-0.6008055061382607</v>
+        <v>0.9519157732321912</v>
       </c>
       <c r="AL2">
-        <v>-0.633203607448437</v>
+        <v>0.9529716223037729</v>
       </c>
       <c r="AM2">
-        <v>-0.6687025153783839</v>
+        <v>0.9545472140625813</v>
       </c>
       <c r="AN2">
-        <v>-0.6819468883106463</v>
+        <v>0.9738504572444341</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0.4545060292656575</v>
+        <v>0.9013142126177769</v>
       </c>
       <c r="C3">
-        <v>0.8500741187014873</v>
+        <v>0.9248888252163082</v>
       </c>
       <c r="D3">
-        <v>0.7717705337957437</v>
+        <v>0.8764329207173227</v>
       </c>
       <c r="E3">
-        <v>0.4392958915021001</v>
+        <v>0.7490888563698247</v>
       </c>
       <c r="F3">
-        <v>0.189505573149307</v>
+        <v>0.9796845466831456</v>
       </c>
       <c r="G3">
-        <v>0.3023744322097859</v>
+        <v>0.7862942585856026</v>
       </c>
       <c r="H3">
-        <v>0.1089830301344691</v>
+        <v>0.8304628611362903</v>
       </c>
       <c r="I3">
-        <v>0.1610062017468886</v>
+        <v>0.9086989328909921</v>
       </c>
       <c r="J3">
-        <v>0.2172584463181334</v>
+        <v>0.9281746910418649</v>
       </c>
       <c r="K3">
-        <v>0.09735304838321428</v>
+        <v>0.8044662314027931</v>
       </c>
       <c r="L3">
-        <v>0.03355221834351809</v>
+        <v>0.8442916539764462</v>
       </c>
       <c r="M3">
-        <v>0.2006069793631091</v>
+        <v>0.9803275392362728</v>
       </c>
       <c r="N3">
-        <v>0.02076032981502156</v>
+        <v>0.5890851206330778</v>
       </c>
       <c r="O3">
-        <v>-0.1732044964604139</v>
+        <v>0.7891751384655776</v>
       </c>
       <c r="P3">
-        <v>-0.08061036133215121</v>
+        <v>0.8927780502949503</v>
       </c>
       <c r="Q3">
-        <v>-0.1398118154769767</v>
+        <v>0.975050668566591</v>
       </c>
       <c r="R3">
-        <v>-0.0850970377117677</v>
+        <v>0.8895367726094733</v>
       </c>
       <c r="S3">
-        <v>-0.3263357794696783</v>
+        <v>0.9693515280239202</v>
       </c>
       <c r="T3">
-        <v>-0.4311245722303175</v>
+        <v>0.907926440961655</v>
       </c>
       <c r="U3">
-        <v>-0.331614040700004</v>
+        <v>0.9315214240486034</v>
       </c>
       <c r="V3">
-        <v>-0.4027748892724364</v>
+        <v>0.9750493349073673</v>
       </c>
       <c r="W3">
-        <v>-0.2054726993285848</v>
+        <v>0.9329869905012298</v>
       </c>
       <c r="X3">
-        <v>-0.05178212803375655</v>
+        <v>0.9649389591917114</v>
       </c>
       <c r="Y3">
-        <v>-0.3325743033872564</v>
+        <v>0.8531926431641355</v>
       </c>
       <c r="Z3">
-        <v>-0.5059298306760345</v>
+        <v>0.9329873687202306</v>
       </c>
       <c r="AA3">
-        <v>-0.3338403634949593</v>
+        <v>0.9321880597695487</v>
       </c>
       <c r="AB3">
-        <v>-0.3937727562624318</v>
+        <v>0.9687710040738911</v>
       </c>
       <c r="AC3">
-        <v>-0.415585222091332</v>
+        <v>0.7281355109231707</v>
       </c>
       <c r="AD3">
-        <v>-0.4774480881029895</v>
+        <v>0.9706508730980991</v>
       </c>
       <c r="AE3">
-        <v>-0.2815662024402396</v>
+        <v>0.9817654681462211</v>
       </c>
       <c r="AF3">
-        <v>-0.4462439529858979</v>
+        <v>0.9448008872706433</v>
       </c>
       <c r="AG3">
-        <v>-0.5011060753666479</v>
+        <v>0.9771766341375425</v>
       </c>
       <c r="AH3">
-        <v>-0.4668645924006887</v>
+        <v>0.9042333215816877</v>
       </c>
       <c r="AI3">
-        <v>-0.3260737018946021</v>
+        <v>0.9500188806458711</v>
       </c>
       <c r="AJ3">
-        <v>-0.5661606548625269</v>
+        <v>0.9778869557608798</v>
       </c>
       <c r="AK3">
-        <v>-0.572649980781717</v>
+        <v>0.9724290567133803</v>
       </c>
       <c r="AL3">
-        <v>-0.5941233532263903</v>
+        <v>0.9797001903512962</v>
       </c>
       <c r="AM3">
-        <v>-0.645646821841761</v>
+        <v>0.9826598853867746</v>
       </c>
       <c r="AN3">
-        <v>-0.6448474706843573</v>
+        <v>0.9969251779672011</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>0.8206023554995707</v>
+        <v>0.904240517106533</v>
       </c>
       <c r="C4">
-        <v>0.8920159430472105</v>
+        <v>0.916258625703453</v>
       </c>
       <c r="D4">
-        <v>0.9203413430964085</v>
+        <v>0.8624769009833816</v>
       </c>
       <c r="E4">
-        <v>0.8028673910009637</v>
+        <v>0.7274276616210865</v>
       </c>
       <c r="F4">
-        <v>0.6477802659635907</v>
+        <v>0.9716372540659333</v>
       </c>
       <c r="G4">
-        <v>0.7266698612911133</v>
+        <v>0.76788540244779</v>
       </c>
       <c r="H4">
-        <v>0.5840066376309073</v>
+        <v>0.8124031061704521</v>
       </c>
       <c r="I4">
-        <v>0.5959968172052199</v>
+        <v>0.8965239949288222</v>
       </c>
       <c r="J4">
-        <v>0.5995848767540912</v>
+        <v>0.9139128998296494</v>
       </c>
       <c r="K4">
-        <v>0.5133559921539114</v>
+        <v>0.7857274013111706</v>
       </c>
       <c r="L4">
-        <v>0.4348149864642872</v>
+        <v>0.8264673151957802</v>
       </c>
       <c r="M4">
-        <v>0.5768210487943589</v>
+        <v>0.9808940562638553</v>
       </c>
       <c r="N4">
-        <v>0.4413526577867459</v>
+        <v>0.5620055156439583</v>
       </c>
       <c r="O4">
-        <v>0.3079540141513963</v>
+        <v>0.7646283994977084</v>
       </c>
       <c r="P4">
-        <v>0.3751397262169459</v>
+        <v>0.8797866229882858</v>
       </c>
       <c r="Q4">
-        <v>0.3464724426626441</v>
+        <v>0.9687437668689772</v>
       </c>
       <c r="R4">
-        <v>0.3385215092314739</v>
+        <v>0.8711549160781159</v>
       </c>
       <c r="S4">
-        <v>0.08892394442941552</v>
+        <v>0.9635236534298747</v>
       </c>
       <c r="T4">
-        <v>0.04355136606394037</v>
+        <v>0.8937171608405148</v>
       </c>
       <c r="U4">
-        <v>0.1661573820929927</v>
+        <v>0.9167040872065413</v>
       </c>
       <c r="V4">
-        <v>0.102606269785444</v>
+        <v>0.9668592391820019</v>
       </c>
       <c r="W4">
-        <v>0.2763744915738429</v>
+        <v>0.9193635059556093</v>
       </c>
       <c r="X4">
-        <v>0.4072346489064266</v>
+        <v>0.9549718348166554</v>
       </c>
       <c r="Y4">
-        <v>0.1363667315031985</v>
+        <v>0.8364368088776463</v>
       </c>
       <c r="Z4">
-        <v>-0.03337099596533306</v>
+        <v>0.9191850534338158</v>
       </c>
       <c r="AA4">
-        <v>0.1389105077410209</v>
+        <v>0.9200373463596798</v>
       </c>
       <c r="AB4">
-        <v>0.06828647487938859</v>
+        <v>0.959536499274701</v>
       </c>
       <c r="AC4">
-        <v>0.062895104777733</v>
+        <v>0.7018017654332984</v>
       </c>
       <c r="AD4">
-        <v>-0.01411333882448658</v>
+        <v>0.9608688316777672</v>
       </c>
       <c r="AE4">
-        <v>0.1650830046711129</v>
+        <v>0.9750571638827946</v>
       </c>
       <c r="AF4">
-        <v>0.02468566589452522</v>
+        <v>0.9325496529022219</v>
       </c>
       <c r="AG4">
-        <v>-0.04988585066522307</v>
+        <v>0.9752845388660698</v>
       </c>
       <c r="AH4">
-        <v>-0.0474068658540701</v>
+        <v>0.8879499138560373</v>
       </c>
       <c r="AI4">
-        <v>0.1459144289895653</v>
+        <v>0.9378606572067757</v>
       </c>
       <c r="AJ4">
-        <v>-0.1334518360826269</v>
+        <v>0.967818171354995</v>
       </c>
       <c r="AK4">
-        <v>-0.154290644974847</v>
+        <v>0.9675074965817014</v>
       </c>
       <c r="AL4">
-        <v>-0.1564667563959761</v>
+        <v>0.9750996769885031</v>
       </c>
       <c r="AM4">
-        <v>-0.2393712827304981</v>
+        <v>0.9775812760160861</v>
       </c>
       <c r="AN4">
-        <v>-0.2240169605766204</v>
+        <v>0.9928004931371145</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>0.7312626843925054</v>
+        <v>0.9038211545360065</v>
       </c>
       <c r="C5">
-        <v>0.8664643061495471</v>
+        <v>0.951257635138067</v>
       </c>
       <c r="D5">
-        <v>0.9545233477774363</v>
+        <v>0.9189275790172644</v>
       </c>
       <c r="E5">
-        <v>0.7785000632978799</v>
+        <v>0.8090310464062284</v>
       </c>
       <c r="F5">
-        <v>0.568078097537411</v>
+        <v>0.992270302120201</v>
       </c>
       <c r="G5">
-        <v>0.6893786965411416</v>
+        <v>0.8421157105825107</v>
       </c>
       <c r="H5">
-        <v>0.5292506076664193</v>
+        <v>0.8804141447070107</v>
       </c>
       <c r="I5">
-        <v>0.5573656573707326</v>
+        <v>0.9380951016277822</v>
       </c>
       <c r="J5">
-        <v>0.5827709927339023</v>
+        <v>0.9590985994073115</v>
       </c>
       <c r="K5">
-        <v>0.5425636498725083</v>
+        <v>0.858455558116123</v>
       </c>
       <c r="L5">
-        <v>0.4077648764247721</v>
+        <v>0.8902502023144323</v>
       </c>
       <c r="M5">
-        <v>0.6008537466842501</v>
+        <v>0.9877628924721499</v>
       </c>
       <c r="N5">
-        <v>0.472476143680877</v>
+        <v>0.6643545724584949</v>
       </c>
       <c r="O5">
-        <v>0.2718914095779369</v>
+        <v>0.8425621299698794</v>
       </c>
       <c r="P5">
-        <v>0.3841695098457031</v>
+        <v>0.9312366217435137</v>
       </c>
       <c r="Q5">
-        <v>0.277581123706233</v>
+        <v>0.9915550297969473</v>
       </c>
       <c r="R5">
-        <v>0.3680100727066014</v>
+        <v>0.9277015761533572</v>
       </c>
       <c r="S5">
-        <v>0.1165163254402928</v>
+        <v>0.987581059650373</v>
       </c>
       <c r="T5">
-        <v>0.02477151611325788</v>
+        <v>0.9441059377633181</v>
       </c>
       <c r="U5">
-        <v>0.1316043026216007</v>
+        <v>0.9615811420447139</v>
       </c>
       <c r="V5">
-        <v>0.03675864612039083</v>
+        <v>0.9914985411411846</v>
       </c>
       <c r="W5">
-        <v>0.2696747816437876</v>
+        <v>0.9623403996209311</v>
       </c>
       <c r="X5">
-        <v>0.4150649566384726</v>
+        <v>0.9854434140560452</v>
       </c>
       <c r="Y5">
-        <v>0.1337263471935954</v>
+        <v>0.8994096346748384</v>
       </c>
       <c r="Z5">
-        <v>-0.07248051445159893</v>
+        <v>0.9625770606496954</v>
       </c>
       <c r="AA5">
-        <v>0.1365201380086351</v>
+        <v>0.9629727613783462</v>
       </c>
       <c r="AB5">
-        <v>0.07350720562404893</v>
+        <v>0.9857145100819705</v>
       </c>
       <c r="AC5">
-        <v>0.05018827969920382</v>
+        <v>0.7898764833308644</v>
       </c>
       <c r="AD5">
-        <v>-0.02634477245723053</v>
+        <v>0.9880389767393657</v>
       </c>
       <c r="AE5">
-        <v>0.1882604550324643</v>
+        <v>0.9946826651237267</v>
       </c>
       <c r="AF5">
-        <v>0.01027893367153544</v>
+        <v>0.9699935916915343</v>
       </c>
       <c r="AG5">
-        <v>-0.06406867118129467</v>
+        <v>0.9889767799732314</v>
       </c>
       <c r="AH5">
-        <v>-0.01678071555755608</v>
+        <v>0.9409067134809075</v>
       </c>
       <c r="AI5">
-        <v>0.1474860574547229</v>
+        <v>0.9739041850763922</v>
       </c>
       <c r="AJ5">
-        <v>-0.1339018223167543</v>
+        <v>0.9916966279151975</v>
       </c>
       <c r="AK5">
-        <v>-0.1411077791629724</v>
+        <v>0.9883886479158318</v>
       </c>
       <c r="AL5">
-        <v>-0.1556958138046263</v>
+        <v>0.9928046591079667</v>
       </c>
       <c r="AM5">
-        <v>-0.2313027064707263</v>
+        <v>0.9947256920312899</v>
       </c>
       <c r="AN5">
-        <v>-0.2201167395992752</v>
+        <v>0.9935831656563412</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.7568730025359763</v>
+        <v>0.8537346599493345</v>
       </c>
       <c r="C6">
-        <v>0.8760354179865978</v>
+        <v>0.9608762171752865</v>
       </c>
       <c r="D6">
-        <v>0.9694785022084611</v>
+        <v>0.9055648850205315</v>
       </c>
       <c r="E6">
-        <v>0.816351030663419</v>
+        <v>0.8082631087336007</v>
       </c>
       <c r="F6">
-        <v>0.604236007992367</v>
+        <v>0.9953228326920118</v>
       </c>
       <c r="G6">
-        <v>0.7288261706355003</v>
+        <v>0.8205474683205196</v>
       </c>
       <c r="H6">
-        <v>0.5734129620368996</v>
+        <v>0.8627745863978338</v>
       </c>
       <c r="I6">
-        <v>0.6086026977168363</v>
+        <v>0.9527891361353517</v>
       </c>
       <c r="J6">
-        <v>0.6353428999638994</v>
+        <v>0.9461347435171407</v>
       </c>
       <c r="K6">
-        <v>0.5815143061020358</v>
+        <v>0.8450165414056983</v>
       </c>
       <c r="L6">
-        <v>0.4674967961925843</v>
+        <v>0.8652504319336149</v>
       </c>
       <c r="M6">
-        <v>0.6191746494050926</v>
+        <v>0.9795396724312219</v>
       </c>
       <c r="N6">
-        <v>0.517472927419352</v>
+        <v>0.6435725488115462</v>
       </c>
       <c r="O6">
-        <v>0.3300245127357695</v>
+        <v>0.8273843824941921</v>
       </c>
       <c r="P6">
-        <v>0.4340325729118316</v>
+        <v>0.9290110626435988</v>
       </c>
       <c r="Q6">
-        <v>0.3345861802920743</v>
+        <v>0.9852415939964294</v>
       </c>
       <c r="R6">
-        <v>0.4193773189065979</v>
+        <v>0.9294429357746286</v>
       </c>
       <c r="S6">
-        <v>0.1739620891889141</v>
+        <v>0.9805775328017458</v>
       </c>
       <c r="T6">
-        <v>0.08157038455669716</v>
+        <v>0.9295934739712199</v>
       </c>
       <c r="U6">
-        <v>0.1855162245971697</v>
+        <v>0.9564926100880672</v>
       </c>
       <c r="V6">
-        <v>0.08754984042795821</v>
+        <v>0.989252580255665</v>
       </c>
       <c r="W6">
-        <v>0.3157525848892379</v>
+        <v>0.9629216407530404</v>
       </c>
       <c r="X6">
-        <v>0.45666042139969</v>
+        <v>0.9825737934961215</v>
       </c>
       <c r="Y6">
-        <v>0.1889426207654066</v>
+        <v>0.8954323644754231</v>
       </c>
       <c r="Z6">
-        <v>-0.0137763545977448</v>
+        <v>0.9618145728804464</v>
       </c>
       <c r="AA6">
-        <v>0.1895497983244565</v>
+        <v>0.9523562655197432</v>
       </c>
       <c r="AB6">
-        <v>0.1252211053426489</v>
+        <v>0.9901019126840551</v>
       </c>
       <c r="AC6">
-        <v>0.1023718972946035</v>
+        <v>0.7777097885044304</v>
       </c>
       <c r="AD6">
-        <v>0.03031509381263929</v>
+        <v>0.9888436747126244</v>
       </c>
       <c r="AE6">
-        <v>0.2375642279609592</v>
+        <v>0.9937812185504953</v>
       </c>
       <c r="AF6">
-        <v>0.06635195036599253</v>
+        <v>0.9740430021954191</v>
       </c>
       <c r="AG6">
-        <v>-0.004636342565220773</v>
+        <v>0.9827049481215583</v>
       </c>
       <c r="AH6">
-        <v>0.03314228664111694</v>
+        <v>0.9303621715386259</v>
       </c>
       <c r="AI6">
-        <v>0.1968160652419127</v>
+        <v>0.9583359577174742</v>
       </c>
       <c r="AJ6">
-        <v>-0.07719057823484161</v>
+        <v>0.986574961523819</v>
       </c>
       <c r="AK6">
-        <v>-0.0865813662954788</v>
+        <v>0.9718094046059046</v>
       </c>
       <c r="AL6">
-        <v>-0.1065997924177753</v>
+        <v>0.9898975739154275</v>
       </c>
       <c r="AM6">
-        <v>-0.1772185179068931</v>
+        <v>0.9926849358298916</v>
       </c>
       <c r="AN6">
-        <v>-0.1712943468165539</v>
+        <v>0.9947285818368961</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0.6505794396255371</v>
+        <v>0.888308567403798</v>
       </c>
       <c r="C7">
-        <v>0.2930506131730932</v>
+        <v>0.9204435286180508</v>
       </c>
       <c r="D7">
-        <v>0.6163145892689459</v>
+        <v>0.8645367266788165</v>
       </c>
       <c r="E7">
-        <v>0.8516922223642653</v>
+        <v>0.7372936802558151</v>
       </c>
       <c r="F7">
-        <v>0.8024809321881159</v>
+        <v>0.9777432146655549</v>
       </c>
       <c r="G7">
-        <v>0.8922511042297729</v>
+        <v>0.7704647690603551</v>
       </c>
       <c r="H7">
-        <v>0.9037158209020957</v>
+        <v>0.8169614900942072</v>
       </c>
       <c r="I7">
-        <v>0.9215112522677692</v>
+        <v>0.9055726651150159</v>
       </c>
       <c r="J7">
-        <v>0.9063166641241328</v>
+        <v>0.9198051710210449</v>
       </c>
       <c r="K7">
-        <v>0.9754377084076429</v>
+        <v>0.7908665459028165</v>
       </c>
       <c r="L7">
-        <v>0.8952863852158961</v>
+        <v>0.8304189237161664</v>
       </c>
       <c r="M7">
-        <v>0.8305161778539966</v>
+        <v>0.9747964927142438</v>
       </c>
       <c r="N7">
-        <v>0.993932565989272</v>
+        <v>0.5708648531757541</v>
       </c>
       <c r="O7">
-        <v>0.9430583694918729</v>
+        <v>0.7773809767627591</v>
       </c>
       <c r="P7">
-        <v>0.9948068859685777</v>
+        <v>0.8839268568983144</v>
       </c>
       <c r="Q7">
-        <v>0.8783669797772564</v>
+        <v>0.9695239580737911</v>
       </c>
       <c r="R7">
-        <v>0.9946787656049859</v>
+        <v>0.8833676111237865</v>
       </c>
       <c r="S7">
-        <v>0.9362666609183455</v>
+        <v>0.9630260913644263</v>
       </c>
       <c r="T7">
-        <v>0.894365636964588</v>
+        <v>0.8977090096964174</v>
       </c>
       <c r="U7">
-        <v>0.9106958590679821</v>
+        <v>0.9251435731242926</v>
       </c>
       <c r="V7">
-        <v>0.8152824137160852</v>
+        <v>0.9709732257509244</v>
       </c>
       <c r="W7">
-        <v>0.9491281432740705</v>
+        <v>0.9275351466515053</v>
       </c>
       <c r="X7">
-        <v>0.9676061970659906</v>
+        <v>0.9601504850744769</v>
       </c>
       <c r="Y7">
-        <v>0.9432446564733208</v>
+        <v>0.8430218362032603</v>
       </c>
       <c r="Z7">
-        <v>0.8305281530165978</v>
+        <v>0.9272602322481438</v>
       </c>
       <c r="AA7">
-        <v>0.9398509270409233</v>
+        <v>0.9236093342613747</v>
       </c>
       <c r="AB7">
-        <v>0.9169459420326157</v>
+        <v>0.9662179507429385</v>
       </c>
       <c r="AC7">
-        <v>0.8982819100675384</v>
+        <v>0.715156070803413</v>
       </c>
       <c r="AD7">
-        <v>0.8770853356875177</v>
+        <v>0.9674395098403583</v>
       </c>
       <c r="AE7">
-        <v>0.9538670018780605</v>
+        <v>0.9784933501270898</v>
       </c>
       <c r="AF7">
-        <v>0.890804985501943</v>
+        <v>0.9407872528484835</v>
       </c>
       <c r="AG7">
-        <v>0.8581701471338253</v>
+        <v>0.9715676644558926</v>
       </c>
       <c r="AH7">
-        <v>0.8764680254320695</v>
+        <v>0.895354005188001</v>
       </c>
       <c r="AI7">
-        <v>0.9331153579100465</v>
+        <v>0.9424800352916644</v>
       </c>
       <c r="AJ7">
-        <v>0.8286654714010023</v>
+        <v>0.9746498844382571</v>
       </c>
       <c r="AK7">
-        <v>0.8248473534667501</v>
+        <v>0.9645765828121072</v>
       </c>
       <c r="AL7">
-        <v>0.7970499427993797</v>
+        <v>0.9752733280371881</v>
       </c>
       <c r="AM7">
-        <v>0.7698903673266645</v>
+        <v>0.9788672303278311</v>
       </c>
       <c r="AN7">
-        <v>0.7606085614576067</v>
+        <v>0.9979811570296634</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.3392712884806386</v>
+        <v>0.8750920369932562</v>
       </c>
       <c r="C8">
-        <v>-0.1723449342127778</v>
+        <v>0.978135039050006</v>
       </c>
       <c r="D8">
-        <v>0.1538557840418855</v>
+        <v>0.980959682503264</v>
       </c>
       <c r="E8">
-        <v>0.518991575041499</v>
+        <v>0.914398796046145</v>
       </c>
       <c r="F8">
-        <v>0.6027545324769786</v>
+        <v>0.9874621210783504</v>
       </c>
       <c r="G8">
-        <v>0.6237870479813515</v>
+        <v>0.9356130544334802</v>
       </c>
       <c r="H8">
-        <v>0.7289108701549339</v>
+        <v>0.9601518841072115</v>
       </c>
       <c r="I8">
-        <v>0.7136855024027214</v>
+        <v>0.9728004032127755</v>
       </c>
       <c r="J8">
-        <v>0.6704377746146631</v>
+        <v>0.9948463038040025</v>
       </c>
       <c r="K8">
-        <v>0.801933639622439</v>
+        <v>0.9480350312757723</v>
       </c>
       <c r="L8">
-        <v>0.748701948223306</v>
+        <v>0.960503364373908</v>
       </c>
       <c r="M8">
-        <v>0.6332549471669149</v>
+        <v>0.9699975945305324</v>
       </c>
       <c r="N8">
-        <v>0.8532187012247047</v>
+        <v>0.8071392833036258</v>
       </c>
       <c r="O8">
-        <v>0.897408679897939</v>
+        <v>0.9320836029085667</v>
       </c>
       <c r="P8">
-        <v>0.9022288252093693</v>
+        <v>0.9847407327823523</v>
       </c>
       <c r="Q8">
-        <v>0.8234247420046061</v>
+        <v>0.9943651525005935</v>
       </c>
       <c r="R8">
-        <v>0.9031521359372328</v>
+        <v>0.9817213129179967</v>
       </c>
       <c r="S8">
-        <v>0.9685143947174623</v>
+        <v>0.994138581070984</v>
       </c>
       <c r="T8">
-        <v>0.984732249557955</v>
+        <v>0.9916038290063388</v>
       </c>
       <c r="U8">
-        <v>0.9512161313521306</v>
+        <v>0.9959835558972038</v>
       </c>
       <c r="V8">
-        <v>0.9037830598334077</v>
+        <v>0.994731120308644</v>
       </c>
       <c r="W8">
-        <v>0.9269817333128469</v>
+        <v>0.9954004241424468</v>
       </c>
       <c r="X8">
-        <v>0.8687501566184623</v>
+        <v>0.9978537911488594</v>
       </c>
       <c r="Y8">
-        <v>0.9797700739829682</v>
+        <v>0.9711674344634675</v>
       </c>
       <c r="Z8">
-        <v>0.9640557276640277</v>
+        <v>0.9960752923382458</v>
       </c>
       <c r="AA8">
-        <v>0.978824697793056</v>
+        <v>0.9981462806878847</v>
       </c>
       <c r="AB8">
-        <v>0.9893252640164387</v>
+        <v>0.9908017895426998</v>
       </c>
       <c r="AC8">
-        <v>0.9834374213678223</v>
+        <v>0.8996771889279832</v>
       </c>
       <c r="AD8">
-        <v>0.9926320013919693</v>
+        <v>0.9938471296726843</v>
       </c>
       <c r="AE8">
-        <v>0.9672352063409915</v>
+        <v>0.9900548466596069</v>
       </c>
       <c r="AF8">
-        <v>0.98961541508037</v>
+        <v>0.9938419911013074</v>
       </c>
       <c r="AG8">
-        <v>0.9857319899642245</v>
+        <v>0.9810829710547109</v>
       </c>
       <c r="AH8">
-        <v>0.9907980714753741</v>
+        <v>0.9901396769216734</v>
       </c>
       <c r="AI8">
-        <v>0.971282813115026</v>
+        <v>0.9934706578372233</v>
       </c>
       <c r="AJ8">
-        <v>0.9937642901850305</v>
+        <v>0.9892933134545806</v>
       </c>
       <c r="AK8">
-        <v>0.9949341828424207</v>
+        <v>0.989244465022995</v>
       </c>
       <c r="AL8">
-        <v>0.984566273968178</v>
+        <v>0.9882108733677913</v>
       </c>
       <c r="AM8">
-        <v>0.9827499865861499</v>
+        <v>0.987948704139184</v>
       </c>
       <c r="AN8">
-        <v>0.9775777502473185</v>
+        <v>0.9536259552466015</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.09541707288381092</v>
+        <v>0.8192516162470527</v>
       </c>
       <c r="C9">
-        <v>-0.3866483293696101</v>
+        <v>0.9648065223800739</v>
       </c>
       <c r="D9">
-        <v>-0.1126469649585195</v>
+        <v>0.9969159286113083</v>
       </c>
       <c r="E9">
-        <v>0.2717952544643312</v>
+        <v>0.969041441975166</v>
       </c>
       <c r="F9">
-        <v>0.3860869450900603</v>
+        <v>0.9497682370786504</v>
       </c>
       <c r="G9">
-        <v>0.3854163689308012</v>
+        <v>0.9792687490099727</v>
       </c>
       <c r="H9">
-        <v>0.5244249217209112</v>
+        <v>0.9922841746578347</v>
       </c>
       <c r="I9">
-        <v>0.5203697962456397</v>
+        <v>0.9672031735034897</v>
       </c>
       <c r="J9">
-        <v>0.4846687358666458</v>
+        <v>0.9906435602831317</v>
       </c>
       <c r="K9">
-        <v>0.5944160931201533</v>
+        <v>0.9882965943031448</v>
       </c>
       <c r="L9">
-        <v>0.6116984787518966</v>
+        <v>0.9854931234339359</v>
       </c>
       <c r="M9">
-        <v>0.3970334059322982</v>
+        <v>0.9192296069394258</v>
       </c>
       <c r="N9">
-        <v>0.6693557883067498</v>
+        <v>0.8969944399281135</v>
       </c>
       <c r="O9">
-        <v>0.7711305973192315</v>
+        <v>0.9757617828931919</v>
       </c>
       <c r="P9">
-        <v>0.7393186317373913</v>
+        <v>0.9934909155938917</v>
       </c>
       <c r="Q9">
-        <v>0.6966695740866171</v>
+        <v>0.9614411244602261</v>
       </c>
       <c r="R9">
-        <v>0.7528289183923075</v>
+        <v>0.9935283617953965</v>
       </c>
       <c r="S9">
-        <v>0.8914939373673628</v>
+        <v>0.9638200797902029</v>
       </c>
       <c r="T9">
-        <v>0.9186270883905802</v>
+        <v>0.9963619288327706</v>
       </c>
       <c r="U9">
-        <v>0.8500262821637686</v>
+        <v>0.9908685354886527</v>
       </c>
       <c r="V9">
-        <v>0.8239798031279467</v>
+        <v>0.9629596033199658</v>
       </c>
       <c r="W9">
-        <v>0.7825671314954409</v>
+        <v>0.9886275802967135</v>
       </c>
       <c r="X9">
-        <v>0.6869526444647281</v>
+        <v>0.9737372895618075</v>
       </c>
       <c r="Y9">
-        <v>0.8840753601806323</v>
+        <v>0.9960226016219158</v>
       </c>
       <c r="Z9">
-        <v>0.9276956056647734</v>
+        <v>0.989714486744799</v>
       </c>
       <c r="AA9">
-        <v>0.8785920408533545</v>
+        <v>0.992322383407286</v>
       </c>
       <c r="AB9">
-        <v>0.9053794973885118</v>
+        <v>0.9609765128303943</v>
       </c>
       <c r="AC9">
-        <v>0.9034013252010571</v>
+        <v>0.9606707344075776</v>
       </c>
       <c r="AD9">
-        <v>0.9416068978633887</v>
+        <v>0.9647703734285532</v>
       </c>
       <c r="AE9">
-        <v>0.8537125515791117</v>
+        <v>0.9518105105561215</v>
       </c>
       <c r="AF9">
-        <v>0.9267835381861287</v>
+        <v>0.979479396769079</v>
       </c>
       <c r="AG9">
-        <v>0.9512734417400778</v>
+        <v>0.938475300074172</v>
       </c>
       <c r="AH9">
-        <v>0.9362835171651754</v>
+        <v>0.9972020557136213</v>
       </c>
       <c r="AI9">
-        <v>0.8634192105028528</v>
+        <v>0.9761721020756887</v>
       </c>
       <c r="AJ9">
-        <v>0.9770297001902858</v>
+        <v>0.9544503800365681</v>
       </c>
       <c r="AK9">
-        <v>0.9797195745971925</v>
+        <v>0.9545398184633238</v>
       </c>
       <c r="AL9">
-        <v>0.9622343125122984</v>
+        <v>0.9490719548995672</v>
       </c>
       <c r="AM9">
-        <v>0.9936034796673918</v>
+        <v>0.947396126319145</v>
       </c>
       <c r="AN9">
-        <v>0.9754318168326872</v>
+        <v>0.8889240389658262</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.1991581898333155</v>
+        <v>0.7780932371875082</v>
       </c>
       <c r="C10">
-        <v>-0.3238612894330259</v>
+        <v>0.8757766481843972</v>
       </c>
       <c r="D10">
-        <v>-0.02173790147186986</v>
+        <v>0.9704897388038628</v>
       </c>
       <c r="E10">
-        <v>0.3658431850484883</v>
+        <v>0.9680676360978796</v>
       </c>
       <c r="F10">
-        <v>0.4853438558564091</v>
+        <v>0.8337501411030853</v>
       </c>
       <c r="G10">
-        <v>0.4840246204351953</v>
+        <v>0.9968631764007655</v>
       </c>
       <c r="H10">
-        <v>0.6152995124445919</v>
+        <v>0.9870471556117399</v>
       </c>
       <c r="I10">
-        <v>0.5954010264215206</v>
+        <v>0.8746860129037867</v>
       </c>
       <c r="J10">
-        <v>0.5486751572595534</v>
+        <v>0.9318759150777884</v>
       </c>
       <c r="K10">
-        <v>0.6840836254681358</v>
+        <v>0.9884991500030049</v>
       </c>
       <c r="L10">
-        <v>0.6564450250993634</v>
+        <v>0.9799444097215412</v>
       </c>
       <c r="M10">
-        <v>0.5091781072407301</v>
+        <v>0.8200064856956946</v>
       </c>
       <c r="N10">
-        <v>0.746681815163056</v>
+        <v>0.9673151130510363</v>
       </c>
       <c r="O10">
-        <v>0.825839178780009</v>
+        <v>0.9700943367046364</v>
       </c>
       <c r="P10">
-        <v>0.8103399186284768</v>
+        <v>0.943244836781821</v>
       </c>
       <c r="Q10">
-        <v>0.752699764471382</v>
+        <v>0.8692774041677852</v>
       </c>
       <c r="R10">
-        <v>0.814146857514782</v>
+        <v>0.9296833441862349</v>
       </c>
       <c r="S10">
-        <v>0.9230999222330271</v>
+        <v>0.8777024512786595</v>
       </c>
       <c r="T10">
-        <v>0.9554121944787812</v>
+        <v>0.9535213339077423</v>
       </c>
       <c r="U10">
-        <v>0.9035241958731283</v>
+        <v>0.9186774797347554</v>
       </c>
       <c r="V10">
-        <v>0.8743505185160343</v>
+        <v>0.8624916883694</v>
       </c>
       <c r="W10">
-        <v>0.8550642173048574</v>
+        <v>0.9091400749915365</v>
       </c>
       <c r="X10">
-        <v>0.7721487524286854</v>
+        <v>0.8813334647400854</v>
       </c>
       <c r="Y10">
-        <v>0.9309754558846312</v>
+        <v>0.9639965934668366</v>
       </c>
       <c r="Z10">
-        <v>0.9527523911289089</v>
+        <v>0.9122165614037127</v>
       </c>
       <c r="AA10">
-        <v>0.9295513627784607</v>
+        <v>0.9328802922460088</v>
       </c>
       <c r="AB10">
-        <v>0.951122171597115</v>
+        <v>0.8521062802264144</v>
       </c>
       <c r="AC10">
-        <v>0.9495778212649968</v>
+        <v>0.9740432512146392</v>
       </c>
       <c r="AD10">
-        <v>0.9723077806970368</v>
+        <v>0.860459175109149</v>
       </c>
       <c r="AE10">
-        <v>0.9089469458543221</v>
+        <v>0.8434403504208163</v>
       </c>
       <c r="AF10">
-        <v>0.9627791273747649</v>
+        <v>0.8871454808898366</v>
       </c>
       <c r="AG10">
-        <v>0.9723681514738068</v>
+        <v>0.8426707863553161</v>
       </c>
       <c r="AH10">
-        <v>0.9687996718608956</v>
+        <v>0.9475446271739542</v>
       </c>
       <c r="AI10">
-        <v>0.9202272326423269</v>
+        <v>0.9061838237646119</v>
       </c>
       <c r="AJ10">
-        <v>0.9927599009385649</v>
+        <v>0.8488923821367165</v>
       </c>
       <c r="AK10">
-        <v>0.9951965287940118</v>
+        <v>0.8770920746371272</v>
       </c>
       <c r="AL10">
-        <v>0.9877146031421884</v>
+        <v>0.8471989638632214</v>
       </c>
       <c r="AM10">
-        <v>0.9995451183224606</v>
+        <v>0.8410654805705418</v>
       </c>
       <c r="AN10">
-        <v>0.9924912037759888</v>
+        <v>0.7451851111856728</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0.08572839172196813</v>
+        <v>0.7394607575559218</v>
       </c>
       <c r="C11">
-        <v>-0.4133099320383972</v>
+        <v>0.9110068944306934</v>
       </c>
       <c r="D11">
-        <v>-0.1230680919133589</v>
+        <v>0.9799280455976341</v>
       </c>
       <c r="E11">
-        <v>0.2583088927622327</v>
+        <v>0.9919946260048832</v>
       </c>
       <c r="F11">
-        <v>0.3818408992974532</v>
+        <v>0.8624958769952316</v>
       </c>
       <c r="G11">
-        <v>0.3777668594708743</v>
+        <v>0.9963540576410148</v>
       </c>
       <c r="H11">
-        <v>0.5185822530172026</v>
+        <v>0.9919956090098102</v>
       </c>
       <c r="I11">
-        <v>0.5037068420038874</v>
+        <v>0.9167459947574126</v>
       </c>
       <c r="J11">
-        <v>0.4627926509656899</v>
+        <v>0.9431441353402203</v>
       </c>
       <c r="K11">
-        <v>0.6002590167169994</v>
+        <v>0.9979496330393567</v>
       </c>
       <c r="L11">
-        <v>0.5863148157135046</v>
+        <v>0.9766249068104391</v>
       </c>
       <c r="M11">
-        <v>0.4181217330440327</v>
+        <v>0.8324865293772949</v>
       </c>
       <c r="N11">
-        <v>0.6709409442222163</v>
+        <v>0.9663919289048818</v>
       </c>
       <c r="O11">
-        <v>0.7591640137958089</v>
+        <v>0.9793890404005425</v>
       </c>
       <c r="P11">
-        <v>0.7382933596293131</v>
+        <v>0.9656073059602374</v>
       </c>
       <c r="Q11">
-        <v>0.6810189894570011</v>
+        <v>0.8863912164765788</v>
       </c>
       <c r="R11">
-        <v>0.7496997751878149</v>
+        <v>0.9586078310437194</v>
       </c>
       <c r="S11">
-        <v>0.8853995963668903</v>
+        <v>0.8936950544677004</v>
       </c>
       <c r="T11">
-        <v>0.9151246965868504</v>
+        <v>0.9624821488782238</v>
       </c>
       <c r="U11">
-        <v>0.8479077434205655</v>
+        <v>0.9393537053043612</v>
       </c>
       <c r="V11">
-        <v>0.8229541609440765</v>
+        <v>0.8850273472563954</v>
       </c>
       <c r="W11">
-        <v>0.7887629023627027</v>
+        <v>0.9359649026696988</v>
       </c>
       <c r="X11">
-        <v>0.6945412018310031</v>
+        <v>0.903563645892982</v>
       </c>
       <c r="Y11">
-        <v>0.8820416157884182</v>
+        <v>0.9848065399565561</v>
       </c>
       <c r="Z11">
-        <v>0.9204132888615034</v>
+        <v>0.9375521766844597</v>
       </c>
       <c r="AA11">
-        <v>0.8794241933603478</v>
+        <v>0.9461580018857157</v>
       </c>
       <c r="AB11">
-        <v>0.9087857628654734</v>
+        <v>0.8825698753204252</v>
       </c>
       <c r="AC11">
-        <v>0.9059248007944377</v>
+        <v>0.9860581437903746</v>
       </c>
       <c r="AD11">
-        <v>0.9388947533782021</v>
+        <v>0.887022872710997</v>
       </c>
       <c r="AE11">
-        <v>0.8584110144598797</v>
+        <v>0.8671471396220325</v>
       </c>
       <c r="AF11">
-        <v>0.9246030354534598</v>
+        <v>0.9177610623692175</v>
       </c>
       <c r="AG11">
-        <v>0.944392246808393</v>
+        <v>0.858240162253943</v>
       </c>
       <c r="AH11">
-        <v>0.9421259701979076</v>
+        <v>0.9617968695653566</v>
       </c>
       <c r="AI11">
-        <v>0.8686222696571242</v>
+        <v>0.9141837685880925</v>
       </c>
       <c r="AJ11">
-        <v>0.9743894173749929</v>
+        <v>0.8688931251067368</v>
       </c>
       <c r="AK11">
-        <v>0.9800012898365339</v>
+        <v>0.8817424314495804</v>
       </c>
       <c r="AL11">
-        <v>0.9691812492450258</v>
+        <v>0.8677376129527036</v>
       </c>
       <c r="AM11">
-        <v>0.9937534410502975</v>
+        <v>0.8628621800990507</v>
       </c>
       <c r="AN11">
-        <v>0.9822975780369049</v>
+        <v>0.7707355096665177</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.04672485248940556</v>
+        <v>0.8607525494395311</v>
       </c>
       <c r="C12">
-        <v>-0.4359221699831657</v>
+        <v>0.9266961177739399</v>
       </c>
       <c r="D12">
-        <v>-0.1971958813124286</v>
+        <v>0.8475186417817997</v>
       </c>
       <c r="E12">
-        <v>0.2022444597236194</v>
+        <v>0.7203083707804268</v>
       </c>
       <c r="F12">
-        <v>0.3381478774016024</v>
+        <v>0.9667156048552317</v>
       </c>
       <c r="G12">
-        <v>0.3200222141218997</v>
+        <v>0.7432390039599761</v>
       </c>
       <c r="H12">
-        <v>0.4712743102896306</v>
+        <v>0.7886444887360906</v>
       </c>
       <c r="I12">
-        <v>0.4663176588187018</v>
+        <v>0.9063141019392499</v>
       </c>
       <c r="J12">
-        <v>0.4276386097836438</v>
+        <v>0.8905321317633219</v>
       </c>
       <c r="K12">
-        <v>0.5171038796713656</v>
+        <v>0.7677065259137686</v>
       </c>
       <c r="L12">
-        <v>0.569535300577062</v>
+        <v>0.7925945118360074</v>
       </c>
       <c r="M12">
-        <v>0.3158004109681077</v>
+        <v>0.9801819539226974</v>
       </c>
       <c r="N12">
-        <v>0.5972416287280825</v>
+        <v>0.5317047829177121</v>
       </c>
       <c r="O12">
-        <v>0.7318930899829659</v>
+        <v>0.730899532700805</v>
       </c>
       <c r="P12">
-        <v>0.6780191445099482</v>
+        <v>0.8760783890675787</v>
       </c>
       <c r="Q12">
-        <v>0.6671342666534704</v>
+        <v>0.9606363853127536</v>
       </c>
       <c r="R12">
-        <v>0.689585462349481</v>
+        <v>0.8590185517963035</v>
       </c>
       <c r="S12">
-        <v>0.8478555992171865</v>
+        <v>0.9570035248129117</v>
       </c>
       <c r="T12">
-        <v>0.8899435215718716</v>
+        <v>0.8725105290915965</v>
       </c>
       <c r="U12">
-        <v>0.8163916161389989</v>
+        <v>0.8998231396779524</v>
       </c>
       <c r="V12">
-        <v>0.8052077595630314</v>
+        <v>0.9586999738980944</v>
       </c>
       <c r="W12">
-        <v>0.7300728795048418</v>
+        <v>0.910779437874758</v>
       </c>
       <c r="X12">
-        <v>0.6212773033852389</v>
+        <v>0.9449120716619659</v>
       </c>
       <c r="Y12">
-        <v>0.8430869461537573</v>
+        <v>0.8276257403906363</v>
       </c>
       <c r="Z12">
-        <v>0.9128769320252069</v>
+        <v>0.9089243761226405</v>
       </c>
       <c r="AA12">
-        <v>0.836295481939079</v>
+        <v>0.9039371336058227</v>
       </c>
       <c r="AB12">
-        <v>0.8653719836012356</v>
+        <v>0.9563760868944522</v>
       </c>
       <c r="AC12">
-        <v>0.8692890767785121</v>
+        <v>0.6729995896139863</v>
       </c>
       <c r="AD12">
-        <v>0.9152092603334421</v>
+        <v>0.9529460424277814</v>
       </c>
       <c r="AE12">
-        <v>0.8011949527165069</v>
+        <v>0.9692516326009447</v>
       </c>
       <c r="AF12">
-        <v>0.8977636089674916</v>
+        <v>0.9278902036306935</v>
       </c>
       <c r="AG12">
-        <v>0.9300631112528549</v>
+        <v>0.9740726924669657</v>
       </c>
       <c r="AH12">
-        <v>0.8976252683007974</v>
+        <v>0.866529143662078</v>
       </c>
       <c r="AI12">
-        <v>0.8180847916581721</v>
+        <v>0.9115930653291519</v>
       </c>
       <c r="AJ12">
-        <v>0.9569213965988816</v>
+        <v>0.9503882171782146</v>
       </c>
       <c r="AK12">
-        <v>0.9564047665244788</v>
+        <v>0.9512687882003408</v>
       </c>
       <c r="AL12">
-        <v>0.9403742573362722</v>
+        <v>0.9721519866817332</v>
       </c>
       <c r="AM12">
-        <v>0.978985127658451</v>
+        <v>0.973719809469888</v>
       </c>
       <c r="AN12">
-        <v>0.9583984775857556</v>
+        <v>0.9836123990833975</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块.xlsx
+++ b/FOF/data/基金公司-板块.xlsx
@@ -16,157 +16,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
     <t>汇丰晋信</t>
   </si>
   <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
     <t>海富通</t>
   </si>
   <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
     <t>长信</t>
   </si>
   <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
     <t>上投摩根</t>
   </si>
   <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
     <t>中证1000</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>上证50</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>创业板综</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0.9241118845078304</v>
+        <v>0.9809050623731147</v>
       </c>
       <c r="C2">
-        <v>0.8778636003096707</v>
+        <v>0.9839771428695749</v>
       </c>
       <c r="D2">
-        <v>0.8251748261034839</v>
+        <v>0.9966430598065994</v>
       </c>
       <c r="E2">
-        <v>0.6682002035907881</v>
+        <v>0.9990325611000029</v>
       </c>
       <c r="F2">
-        <v>0.9412965441763064</v>
+        <v>0.9980102831481232</v>
       </c>
       <c r="G2">
-        <v>0.7259489374280057</v>
+        <v>0.9979176627581567</v>
       </c>
       <c r="H2">
-        <v>0.769938969170646</v>
+        <v>0.9988414712945363</v>
       </c>
       <c r="I2">
-        <v>0.8494106602629209</v>
+        <v>0.9955557297178869</v>
       </c>
       <c r="J2">
-        <v>0.8787845258706698</v>
+        <v>0.998861173334235</v>
       </c>
       <c r="K2">
-        <v>0.7390072194675926</v>
+        <v>0.997677742144193</v>
       </c>
       <c r="L2">
-        <v>0.7895640548223429</v>
+        <v>0.9963423603747297</v>
       </c>
       <c r="M2">
-        <v>0.9709819042943503</v>
+        <v>0.9977050440890206</v>
       </c>
       <c r="N2">
-        <v>0.5037883916987858</v>
+        <v>0.9979308097541327</v>
       </c>
       <c r="O2">
-        <v>0.7108910132608138</v>
+        <v>0.9953381975539247</v>
       </c>
       <c r="P2">
-        <v>0.8385593991474147</v>
+        <v>0.9899312681960381</v>
       </c>
       <c r="Q2">
-        <v>0.9451098013377413</v>
+        <v>0.9977557980571511</v>
       </c>
       <c r="R2">
-        <v>0.8200133483746722</v>
+        <v>0.9936566911439877</v>
       </c>
       <c r="S2">
-        <v>0.9405237365122395</v>
+        <v>0.9981308245018683</v>
       </c>
       <c r="T2">
-        <v>0.8582106954977444</v>
+        <v>0.9892828047309014</v>
       </c>
       <c r="U2">
-        <v>0.876513204866126</v>
+        <v>0.9974249282356902</v>
       </c>
       <c r="V2">
-        <v>0.9382069098382416</v>
+        <v>0.997857732768427</v>
       </c>
       <c r="W2">
-        <v>0.8778700318279683</v>
+        <v>0.9962277691664345</v>
       </c>
       <c r="X2">
-        <v>0.9230018645774198</v>
+        <v>0.9921474074075144</v>
       </c>
       <c r="Y2">
-        <v>0.7889241625576386</v>
+        <v>0.9982311608062741</v>
       </c>
       <c r="Z2">
-        <v>0.8781250675325847</v>
+        <v>0.9981466906557777</v>
       </c>
       <c r="AA2">
-        <v>0.8866142141599189</v>
+        <v>0.9979408798473111</v>
       </c>
       <c r="AB2">
-        <v>0.9255351883693119</v>
+        <v>0.9966642958857199</v>
       </c>
       <c r="AC2">
-        <v>0.6420340361376587</v>
+        <v>0.9879639435383665</v>
       </c>
       <c r="AD2">
-        <v>0.9279525437875896</v>
+        <v>0.993971978340652</v>
       </c>
       <c r="AE2">
-        <v>0.9487713626859146</v>
+        <v>0.9932787781980807</v>
       </c>
       <c r="AF2">
-        <v>0.8921804494318658</v>
+        <v>0.9976282072162577</v>
       </c>
       <c r="AG2">
-        <v>0.9594172743753852</v>
+        <v>0.9895521111849993</v>
       </c>
       <c r="AH2">
-        <v>0.8470874061018299</v>
+        <v>0.998461893961395</v>
       </c>
       <c r="AI2">
-        <v>0.9091121454695266</v>
+        <v>0.9967492358824733</v>
       </c>
       <c r="AJ2">
-        <v>0.9388543077890745</v>
+        <v>0.9978808989899698</v>
       </c>
       <c r="AK2">
-        <v>0.9519157732321912</v>
+        <v>0.9932532826874303</v>
       </c>
       <c r="AL2">
-        <v>0.9529716223037729</v>
+        <v>0.9885857919324711</v>
       </c>
       <c r="AM2">
-        <v>0.9545472140625813</v>
+        <v>0.9940866598745894</v>
       </c>
       <c r="AN2">
-        <v>0.9738504572444341</v>
+        <v>0.993572085790083</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0.9013142126177769</v>
+        <v>0.9648935626846316</v>
       </c>
       <c r="C3">
-        <v>0.9248888252163082</v>
+        <v>0.9936150006503396</v>
       </c>
       <c r="D3">
-        <v>0.8764329207173227</v>
+        <v>0.9879855694139839</v>
       </c>
       <c r="E3">
-        <v>0.7490888563698247</v>
+        <v>0.9979896071219145</v>
       </c>
       <c r="F3">
-        <v>0.9796845466831456</v>
+        <v>0.9995856660508434</v>
       </c>
       <c r="G3">
-        <v>0.7862942585856026</v>
+        <v>0.9922095090181683</v>
       </c>
       <c r="H3">
-        <v>0.8304628611362903</v>
+        <v>0.9975515518981656</v>
       </c>
       <c r="I3">
-        <v>0.9086989328909921</v>
+        <v>0.9935530671500198</v>
       </c>
       <c r="J3">
-        <v>0.9281746910418649</v>
+        <v>0.9967217968740669</v>
       </c>
       <c r="K3">
-        <v>0.8044662314027931</v>
+        <v>0.9975468154653611</v>
       </c>
       <c r="L3">
-        <v>0.8442916539764462</v>
+        <v>0.9990375370678157</v>
       </c>
       <c r="M3">
-        <v>0.9803275392362728</v>
+        <v>0.9965583075953902</v>
       </c>
       <c r="N3">
-        <v>0.5890851206330778</v>
+        <v>0.9974561512015638</v>
       </c>
       <c r="O3">
-        <v>0.7891751384655776</v>
+        <v>0.9943278702808792</v>
       </c>
       <c r="P3">
-        <v>0.8927780502949503</v>
+        <v>0.9915648154185702</v>
       </c>
       <c r="Q3">
-        <v>0.975050668566591</v>
+        <v>0.9939392060590961</v>
       </c>
       <c r="R3">
-        <v>0.8895367726094733</v>
+        <v>0.9980632774497072</v>
       </c>
       <c r="S3">
-        <v>0.9693515280239202</v>
+        <v>0.99830465588552</v>
       </c>
       <c r="T3">
-        <v>0.907926440961655</v>
+        <v>0.996117000294797</v>
       </c>
       <c r="U3">
-        <v>0.9315214240486034</v>
+        <v>0.9949803183796778</v>
       </c>
       <c r="V3">
-        <v>0.9750493349073673</v>
+        <v>0.9961426532266163</v>
       </c>
       <c r="W3">
-        <v>0.9329869905012298</v>
+        <v>0.999385108240466</v>
       </c>
       <c r="X3">
-        <v>0.9649389591917114</v>
+        <v>0.9981673047895414</v>
       </c>
       <c r="Y3">
-        <v>0.8531926431641355</v>
+        <v>0.998937136398184</v>
       </c>
       <c r="Z3">
-        <v>0.9329873687202306</v>
+        <v>0.9961577140757634</v>
       </c>
       <c r="AA3">
-        <v>0.9321880597695487</v>
+        <v>0.9940157871884299</v>
       </c>
       <c r="AB3">
-        <v>0.9687710040738911</v>
+        <v>0.9978515914822417</v>
       </c>
       <c r="AC3">
-        <v>0.7281355109231707</v>
+        <v>0.9862619364264438</v>
       </c>
       <c r="AD3">
-        <v>0.9706508730980991</v>
+        <v>0.9903660550371457</v>
       </c>
       <c r="AE3">
-        <v>0.9817654681462211</v>
+        <v>0.9969135091470005</v>
       </c>
       <c r="AF3">
-        <v>0.9448008872706433</v>
+        <v>0.9931309657764772</v>
       </c>
       <c r="AG3">
-        <v>0.9771766341375425</v>
+        <v>0.9972699537778671</v>
       </c>
       <c r="AH3">
-        <v>0.9042333215816877</v>
+        <v>0.9988320821801925</v>
       </c>
       <c r="AI3">
-        <v>0.9500188806458711</v>
+        <v>0.9961965404767995</v>
       </c>
       <c r="AJ3">
-        <v>0.9778869557608798</v>
+        <v>0.9964387681803566</v>
       </c>
       <c r="AK3">
-        <v>0.9724290567133803</v>
+        <v>0.9941451571357303</v>
       </c>
       <c r="AL3">
-        <v>0.9797001903512962</v>
+        <v>0.9869942696697347</v>
       </c>
       <c r="AM3">
-        <v>0.9826598853867746</v>
+        <v>0.9946032564219347</v>
       </c>
       <c r="AN3">
-        <v>0.9969251779672011</v>
+        <v>0.9915622366331153</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>0.904240517106533</v>
+        <v>0.9965349940444421</v>
       </c>
       <c r="C4">
-        <v>0.916258625703453</v>
+        <v>0.9458279233766115</v>
       </c>
       <c r="D4">
-        <v>0.8624769009833816</v>
+        <v>0.9969012191315927</v>
       </c>
       <c r="E4">
-        <v>0.7274276616210865</v>
+        <v>0.9852944984108365</v>
       </c>
       <c r="F4">
-        <v>0.9716372540659333</v>
+        <v>0.9797748689705952</v>
       </c>
       <c r="G4">
-        <v>0.76788540244779</v>
+        <v>0.99010170926257</v>
       </c>
       <c r="H4">
-        <v>0.8124031061704521</v>
+        <v>0.9877877333924777</v>
       </c>
       <c r="I4">
-        <v>0.8965239949288222</v>
+        <v>0.9843777362694028</v>
       </c>
       <c r="J4">
-        <v>0.9139128998296494</v>
+        <v>0.9889052959383215</v>
       </c>
       <c r="K4">
-        <v>0.7857274013111706</v>
+        <v>0.9843121033218989</v>
       </c>
       <c r="L4">
-        <v>0.8264673151957802</v>
+        <v>0.9757268082674556</v>
       </c>
       <c r="M4">
-        <v>0.9808940562638553</v>
+        <v>0.9799551143702715</v>
       </c>
       <c r="N4">
-        <v>0.5620055156439583</v>
+        <v>0.9814917104615951</v>
       </c>
       <c r="O4">
-        <v>0.7646283994977084</v>
+        <v>0.984294379464533</v>
       </c>
       <c r="P4">
-        <v>0.8797866229882858</v>
+        <v>0.9726783749598656</v>
       </c>
       <c r="Q4">
-        <v>0.9687437668689772</v>
+        <v>0.9870029216560166</v>
       </c>
       <c r="R4">
-        <v>0.8711549160781159</v>
+        <v>0.9700853384007273</v>
       </c>
       <c r="S4">
-        <v>0.9635236534298747</v>
+        <v>0.9838711411762736</v>
       </c>
       <c r="T4">
-        <v>0.8937171608405148</v>
+        <v>0.9653421044694561</v>
       </c>
       <c r="U4">
-        <v>0.9167040872065413</v>
+        <v>0.9895728654718614</v>
       </c>
       <c r="V4">
-        <v>0.9668592391820019</v>
+        <v>0.9881329267945396</v>
       </c>
       <c r="W4">
-        <v>0.9193635059556093</v>
+        <v>0.9733464764523416</v>
       </c>
       <c r="X4">
-        <v>0.9549718348166554</v>
+        <v>0.9643332426705207</v>
       </c>
       <c r="Y4">
-        <v>0.8364368088776463</v>
+        <v>0.9802594808839445</v>
       </c>
       <c r="Z4">
-        <v>0.9191850534338158</v>
+        <v>0.9864890327128005</v>
       </c>
       <c r="AA4">
-        <v>0.9200373463596798</v>
+        <v>0.9897259824559097</v>
       </c>
       <c r="AB4">
-        <v>0.959536499274701</v>
+        <v>0.9814739907323007</v>
       </c>
       <c r="AC4">
-        <v>0.7018017654332984</v>
+        <v>0.9801202579967206</v>
       </c>
       <c r="AD4">
-        <v>0.9608688316777672</v>
+        <v>0.9863603628951241</v>
       </c>
       <c r="AE4">
-        <v>0.9750571638827946</v>
+        <v>0.9721183501662441</v>
       </c>
       <c r="AF4">
-        <v>0.9325496529022219</v>
+        <v>0.9926032586504883</v>
       </c>
       <c r="AG4">
-        <v>0.9752845388660698</v>
+        <v>0.9603172430347281</v>
       </c>
       <c r="AH4">
-        <v>0.8879499138560373</v>
+        <v>0.9806494372679587</v>
       </c>
       <c r="AI4">
-        <v>0.9378606572067757</v>
+        <v>0.9864460174116756</v>
       </c>
       <c r="AJ4">
-        <v>0.967818171354995</v>
+        <v>0.9844042436871003</v>
       </c>
       <c r="AK4">
-        <v>0.9675074965817014</v>
+        <v>0.9804504651267727</v>
       </c>
       <c r="AL4">
-        <v>0.9750996769885031</v>
+        <v>0.9824878233430151</v>
       </c>
       <c r="AM4">
-        <v>0.9775812760160861</v>
+        <v>0.9817064280558595</v>
       </c>
       <c r="AN4">
-        <v>0.9928004931371145</v>
+        <v>0.9875300610197602</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>0.9038211545360065</v>
+        <v>0.9753105253715676</v>
       </c>
       <c r="C5">
-        <v>0.951257635138067</v>
+        <v>0.986678456092053</v>
       </c>
       <c r="D5">
-        <v>0.9189275790172644</v>
+        <v>0.9934668231789578</v>
       </c>
       <c r="E5">
-        <v>0.8090310464062284</v>
+        <v>0.9992323645969348</v>
       </c>
       <c r="F5">
-        <v>0.992270302120201</v>
+        <v>0.9994427879470503</v>
       </c>
       <c r="G5">
-        <v>0.8421157105825107</v>
+        <v>0.9950235878566793</v>
       </c>
       <c r="H5">
-        <v>0.8804141447070107</v>
+        <v>0.9998050571800418</v>
       </c>
       <c r="I5">
-        <v>0.9380951016277822</v>
+        <v>0.9957160510094067</v>
       </c>
       <c r="J5">
-        <v>0.9590985994073115</v>
+        <v>0.9993005763643025</v>
       </c>
       <c r="K5">
-        <v>0.858455558116123</v>
+        <v>0.9991122892837446</v>
       </c>
       <c r="L5">
-        <v>0.8902502023144323</v>
+        <v>0.998147225074964</v>
       </c>
       <c r="M5">
-        <v>0.9877628924721499</v>
+        <v>0.9961417222961838</v>
       </c>
       <c r="N5">
-        <v>0.6643545724584949</v>
+        <v>0.9977161873954015</v>
       </c>
       <c r="O5">
-        <v>0.8425621299698794</v>
+        <v>0.9967139223902732</v>
       </c>
       <c r="P5">
-        <v>0.9312366217435137</v>
+        <v>0.9919197488337691</v>
       </c>
       <c r="Q5">
-        <v>0.9915550297969473</v>
+        <v>0.9959203750784734</v>
       </c>
       <c r="R5">
-        <v>0.9277015761533572</v>
+        <v>0.996279866135512</v>
       </c>
       <c r="S5">
-        <v>0.987581059650373</v>
+        <v>0.9995478998789166</v>
       </c>
       <c r="T5">
-        <v>0.9441059377633181</v>
+        <v>0.9945723206650836</v>
       </c>
       <c r="U5">
-        <v>0.9615811420447139</v>
+        <v>0.9983719724493189</v>
       </c>
       <c r="V5">
-        <v>0.9914985411411846</v>
+        <v>0.9989020225088264</v>
       </c>
       <c r="W5">
-        <v>0.9623403996209311</v>
+        <v>0.9976373387144103</v>
       </c>
       <c r="X5">
-        <v>0.9854434140560452</v>
+        <v>0.9949121231253214</v>
       </c>
       <c r="Y5">
-        <v>0.8994096346748384</v>
+        <v>0.9987654979062687</v>
       </c>
       <c r="Z5">
-        <v>0.9625770606496954</v>
+        <v>0.9981007264502715</v>
       </c>
       <c r="AA5">
-        <v>0.9629727613783462</v>
+        <v>0.9970126100273193</v>
       </c>
       <c r="AB5">
-        <v>0.9857145100819705</v>
+        <v>0.9989052224083688</v>
       </c>
       <c r="AC5">
-        <v>0.7898764833308644</v>
+        <v>0.9898525578484921</v>
       </c>
       <c r="AD5">
-        <v>0.9880389767393657</v>
+        <v>0.9936998116226601</v>
       </c>
       <c r="AE5">
-        <v>0.9946826651237267</v>
+        <v>0.9959941326490882</v>
       </c>
       <c r="AF5">
-        <v>0.9699935916915343</v>
+        <v>0.9973061646525253</v>
       </c>
       <c r="AG5">
-        <v>0.9889767799732314</v>
+        <v>0.9937190548503153</v>
       </c>
       <c r="AH5">
-        <v>0.9409067134809075</v>
+        <v>0.9986624557916102</v>
       </c>
       <c r="AI5">
-        <v>0.9739041850763922</v>
+        <v>0.9988465611239423</v>
       </c>
       <c r="AJ5">
-        <v>0.9916966279151975</v>
+        <v>0.9977424239375601</v>
       </c>
       <c r="AK5">
-        <v>0.9883886479158318</v>
+        <v>0.9961466440837652</v>
       </c>
       <c r="AL5">
-        <v>0.9928046591079667</v>
+        <v>0.9912933666566558</v>
       </c>
       <c r="AM5">
-        <v>0.9947256920312899</v>
+        <v>0.9967073855860371</v>
       </c>
       <c r="AN5">
-        <v>0.9935831656563412</v>
+        <v>0.9957796221217168</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.8537346599493345</v>
+        <v>0.9850136820024818</v>
       </c>
       <c r="C6">
-        <v>0.9608762171752865</v>
+        <v>0.9758261567480162</v>
       </c>
       <c r="D6">
-        <v>0.9055648850205315</v>
+        <v>0.9965760102364529</v>
       </c>
       <c r="E6">
-        <v>0.8082631087336007</v>
+        <v>0.9979665813653944</v>
       </c>
       <c r="F6">
-        <v>0.9953228326920118</v>
+        <v>0.9963832925588506</v>
       </c>
       <c r="G6">
-        <v>0.8205474683205196</v>
+        <v>0.9958757772067651</v>
       </c>
       <c r="H6">
-        <v>0.8627745863978338</v>
+        <v>0.999246797199929</v>
       </c>
       <c r="I6">
-        <v>0.9527891361353517</v>
+        <v>0.9960879106844897</v>
       </c>
       <c r="J6">
-        <v>0.9461347435171407</v>
+        <v>0.9994126938149213</v>
       </c>
       <c r="K6">
-        <v>0.8450165414056983</v>
+        <v>0.9981987294208778</v>
       </c>
       <c r="L6">
-        <v>0.8652504319336149</v>
+        <v>0.9945050545648453</v>
       </c>
       <c r="M6">
-        <v>0.9795396724312219</v>
+        <v>0.9932951490503292</v>
       </c>
       <c r="N6">
-        <v>0.6435725488115462</v>
+        <v>0.9956213666528925</v>
       </c>
       <c r="O6">
-        <v>0.8273843824941921</v>
+        <v>0.9971198342320177</v>
       </c>
       <c r="P6">
-        <v>0.9290110626435988</v>
+        <v>0.9905607321773982</v>
       </c>
       <c r="Q6">
-        <v>0.9852415939964294</v>
+        <v>0.9959472318617834</v>
       </c>
       <c r="R6">
-        <v>0.9294429357746286</v>
+        <v>0.9917611302091377</v>
       </c>
       <c r="S6">
-        <v>0.9805775328017458</v>
+        <v>0.9981500556651244</v>
       </c>
       <c r="T6">
-        <v>0.9295934739712199</v>
+        <v>0.9898822397772656</v>
       </c>
       <c r="U6">
-        <v>0.9564926100880672</v>
+        <v>0.9994904520588288</v>
       </c>
       <c r="V6">
-        <v>0.989252580255665</v>
+        <v>0.9992881562226459</v>
       </c>
       <c r="W6">
-        <v>0.9629216407530404</v>
+        <v>0.9929652646164937</v>
       </c>
       <c r="X6">
-        <v>0.9825737934961215</v>
+        <v>0.9885844578248969</v>
       </c>
       <c r="Y6">
-        <v>0.8954323644754231</v>
+        <v>0.9959317381853597</v>
       </c>
       <c r="Z6">
-        <v>0.9618145728804464</v>
+        <v>0.9978721383015061</v>
       </c>
       <c r="AA6">
-        <v>0.9523562655197432</v>
+        <v>0.9980432299122498</v>
       </c>
       <c r="AB6">
-        <v>0.9901019126840551</v>
+        <v>0.9973564822238701</v>
       </c>
       <c r="AC6">
-        <v>0.7777097885044304</v>
+        <v>0.9921768173864468</v>
       </c>
       <c r="AD6">
-        <v>0.9888436747126244</v>
+        <v>0.9955477021225121</v>
       </c>
       <c r="AE6">
-        <v>0.9937812185504953</v>
+        <v>0.9926033475244872</v>
       </c>
       <c r="AF6">
-        <v>0.9740430021954191</v>
+        <v>0.9994204844779665</v>
       </c>
       <c r="AG6">
-        <v>0.9827049481215583</v>
+        <v>0.9868813762672597</v>
       </c>
       <c r="AH6">
-        <v>0.9303621715386259</v>
+        <v>0.9958343633030607</v>
       </c>
       <c r="AI6">
-        <v>0.9583359577174742</v>
+        <v>0.9983710118833943</v>
       </c>
       <c r="AJ6">
-        <v>0.986574961523819</v>
+        <v>0.9968706415253844</v>
       </c>
       <c r="AK6">
-        <v>0.9718094046059046</v>
+        <v>0.9960031223574114</v>
       </c>
       <c r="AL6">
-        <v>0.9898975739154275</v>
+        <v>0.9940710196792608</v>
       </c>
       <c r="AM6">
-        <v>0.9926849358298916</v>
+        <v>0.9966391553592153</v>
       </c>
       <c r="AN6">
-        <v>0.9947285818368961</v>
+        <v>0.9979759011907077</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0.888308567403798</v>
+        <v>0.9919684266479709</v>
       </c>
       <c r="C7">
-        <v>0.9204435286180508</v>
+        <v>0.9579051425457126</v>
       </c>
       <c r="D7">
-        <v>0.8645367266788165</v>
+        <v>0.9955967911957759</v>
       </c>
       <c r="E7">
-        <v>0.7372936802558151</v>
+        <v>0.9916861929455071</v>
       </c>
       <c r="F7">
-        <v>0.9777432146655549</v>
+        <v>0.9880075727248023</v>
       </c>
       <c r="G7">
-        <v>0.7704647690603551</v>
+        <v>0.9919395952429099</v>
       </c>
       <c r="H7">
-        <v>0.8169614900942072</v>
+        <v>0.9939979574633127</v>
       </c>
       <c r="I7">
-        <v>0.9055726651150159</v>
+        <v>0.9917504609414539</v>
       </c>
       <c r="J7">
-        <v>0.9198051710210449</v>
+        <v>0.9949004999036621</v>
       </c>
       <c r="K7">
-        <v>0.7908665459028165</v>
+        <v>0.992464299106637</v>
       </c>
       <c r="L7">
-        <v>0.8304189237161664</v>
+        <v>0.9853864774277021</v>
       </c>
       <c r="M7">
-        <v>0.9747964927142438</v>
+        <v>0.9848498547752768</v>
       </c>
       <c r="N7">
-        <v>0.5708648531757541</v>
+        <v>0.988222078722171</v>
       </c>
       <c r="O7">
-        <v>0.7773809767627591</v>
+        <v>0.9929641723075382</v>
       </c>
       <c r="P7">
-        <v>0.8839268568983144</v>
+        <v>0.984169226646839</v>
       </c>
       <c r="Q7">
-        <v>0.9695239580737911</v>
+        <v>0.9910395169965359</v>
       </c>
       <c r="R7">
-        <v>0.8833676111237865</v>
+        <v>0.9815981824404408</v>
       </c>
       <c r="S7">
-        <v>0.9630260913644263</v>
+        <v>0.9918305151048671</v>
       </c>
       <c r="T7">
-        <v>0.8977090096964174</v>
+        <v>0.9798235883254193</v>
       </c>
       <c r="U7">
-        <v>0.9251435731242926</v>
+        <v>0.9962657188057065</v>
       </c>
       <c r="V7">
-        <v>0.9709732257509244</v>
+        <v>0.9951568627376721</v>
       </c>
       <c r="W7">
-        <v>0.9275351466515053</v>
+        <v>0.9825413328250817</v>
       </c>
       <c r="X7">
-        <v>0.9601504850744769</v>
+        <v>0.9762084176565028</v>
       </c>
       <c r="Y7">
-        <v>0.8430218362032603</v>
+        <v>0.9877156054253122</v>
       </c>
       <c r="Z7">
-        <v>0.9272602322481438</v>
+        <v>0.9928246878678625</v>
       </c>
       <c r="AA7">
-        <v>0.9236093342613747</v>
+        <v>0.9944885394381167</v>
       </c>
       <c r="AB7">
-        <v>0.9662179507429385</v>
+        <v>0.9909074945088818</v>
       </c>
       <c r="AC7">
-        <v>0.715156070803413</v>
+        <v>0.9903865240057345</v>
       </c>
       <c r="AD7">
-        <v>0.9674395098403583</v>
+        <v>0.9929993871698048</v>
       </c>
       <c r="AE7">
-        <v>0.9784933501270898</v>
+        <v>0.983829230104361</v>
       </c>
       <c r="AF7">
-        <v>0.9407872528484835</v>
+        <v>0.9973186723050248</v>
       </c>
       <c r="AG7">
-        <v>0.9715676644558926</v>
+        <v>0.9740256651187812</v>
       </c>
       <c r="AH7">
-        <v>0.895354005188001</v>
+        <v>0.9875974514832128</v>
       </c>
       <c r="AI7">
-        <v>0.9424800352916644</v>
+        <v>0.9933976692955683</v>
       </c>
       <c r="AJ7">
-        <v>0.9746498844382571</v>
+        <v>0.9909975886337576</v>
       </c>
       <c r="AK7">
-        <v>0.9645765828121072</v>
+        <v>0.9913126491059766</v>
       </c>
       <c r="AL7">
-        <v>0.9752733280371881</v>
+        <v>0.9929771962742509</v>
       </c>
       <c r="AM7">
-        <v>0.9788672303278311</v>
+        <v>0.9920253216481212</v>
       </c>
       <c r="AN7">
-        <v>0.9979811570296634</v>
+        <v>0.9961878466366858</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.8750920369932562</v>
+        <v>0.9899385355836557</v>
       </c>
       <c r="C8">
-        <v>0.978135039050006</v>
+        <v>0.949187001010741</v>
       </c>
       <c r="D8">
-        <v>0.980959682503264</v>
+        <v>0.9919858247562348</v>
       </c>
       <c r="E8">
-        <v>0.914398796046145</v>
+        <v>0.9868030927324611</v>
       </c>
       <c r="F8">
-        <v>0.9874621210783504</v>
+        <v>0.9829835223569914</v>
       </c>
       <c r="G8">
-        <v>0.9356130544334802</v>
+        <v>0.9862876194433577</v>
       </c>
       <c r="H8">
-        <v>0.9601518841072115</v>
+        <v>0.9904271634586909</v>
       </c>
       <c r="I8">
-        <v>0.9728004032127755</v>
+        <v>0.9871673377175861</v>
       </c>
       <c r="J8">
-        <v>0.9948463038040025</v>
+        <v>0.991107077192827</v>
       </c>
       <c r="K8">
-        <v>0.9480350312757723</v>
+        <v>0.9884685250108082</v>
       </c>
       <c r="L8">
-        <v>0.960503364373908</v>
+        <v>0.9799343746910626</v>
       </c>
       <c r="M8">
-        <v>0.9699975945305324</v>
+        <v>0.9777768747951351</v>
       </c>
       <c r="N8">
-        <v>0.8071392833036258</v>
+        <v>0.9823217321763894</v>
       </c>
       <c r="O8">
-        <v>0.9320836029085667</v>
+        <v>0.9892927630629037</v>
       </c>
       <c r="P8">
-        <v>0.9847407327823523</v>
+        <v>0.9792255844800581</v>
       </c>
       <c r="Q8">
-        <v>0.9943651525005935</v>
+        <v>0.9853336929702534</v>
       </c>
       <c r="R8">
-        <v>0.9817213129179967</v>
+        <v>0.9759338248741033</v>
       </c>
       <c r="S8">
-        <v>0.994138581070984</v>
+        <v>0.987671188314073</v>
       </c>
       <c r="T8">
-        <v>0.9916038290063388</v>
+        <v>0.9760006355367944</v>
       </c>
       <c r="U8">
-        <v>0.9959835558972038</v>
+        <v>0.9932477080092302</v>
       </c>
       <c r="V8">
-        <v>0.994731120308644</v>
+        <v>0.9917751396962821</v>
       </c>
       <c r="W8">
-        <v>0.9954004241424468</v>
+        <v>0.9763406974988398</v>
       </c>
       <c r="X8">
-        <v>0.9978537911488594</v>
+        <v>0.969726101507563</v>
       </c>
       <c r="Y8">
-        <v>0.9711674344634675</v>
+        <v>0.9820564697440434</v>
       </c>
       <c r="Z8">
-        <v>0.9960752923382458</v>
+        <v>0.9881537357574711</v>
       </c>
       <c r="AA8">
-        <v>0.9981462806878847</v>
+        <v>0.9900170507478486</v>
       </c>
       <c r="AB8">
-        <v>0.9908017895426998</v>
+        <v>0.9870360789611952</v>
       </c>
       <c r="AC8">
-        <v>0.8996771889279832</v>
+        <v>0.9875478878004103</v>
       </c>
       <c r="AD8">
-        <v>0.9938471296726843</v>
+        <v>0.9888975381558653</v>
       </c>
       <c r="AE8">
-        <v>0.9900548466596069</v>
+        <v>0.978712200804515</v>
       </c>
       <c r="AF8">
-        <v>0.9938419911013074</v>
+        <v>0.9940891604775632</v>
       </c>
       <c r="AG8">
-        <v>0.9810829710547109</v>
+        <v>0.9682030486354869</v>
       </c>
       <c r="AH8">
-        <v>0.9901396769216734</v>
+        <v>0.9817589469664414</v>
       </c>
       <c r="AI8">
-        <v>0.9934706578372233</v>
+        <v>0.9909028750429715</v>
       </c>
       <c r="AJ8">
-        <v>0.9892933134545806</v>
+        <v>0.9858108303197882</v>
       </c>
       <c r="AK8">
-        <v>0.989244465022995</v>
+        <v>0.9882668245173154</v>
       </c>
       <c r="AL8">
-        <v>0.9882108733677913</v>
+        <v>0.9912261520828859</v>
       </c>
       <c r="AM8">
-        <v>0.987948704139184</v>
+        <v>0.988918798439526</v>
       </c>
       <c r="AN8">
-        <v>0.9536259552466015</v>
+        <v>0.9943408192679978</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.8192516162470527</v>
+        <v>0.9919944135188843</v>
       </c>
       <c r="C9">
-        <v>0.9648065223800739</v>
+        <v>0.954166573135615</v>
       </c>
       <c r="D9">
-        <v>0.9969159286113083</v>
+        <v>0.9933135586892836</v>
       </c>
       <c r="E9">
-        <v>0.969041441975166</v>
+        <v>0.9900761381570111</v>
       </c>
       <c r="F9">
-        <v>0.9497682370786504</v>
+        <v>0.9860267781314338</v>
       </c>
       <c r="G9">
-        <v>0.9792687490099727</v>
+        <v>0.9903017957784432</v>
       </c>
       <c r="H9">
-        <v>0.9922841746578347</v>
+        <v>0.9921893689913731</v>
       </c>
       <c r="I9">
-        <v>0.9672031735034897</v>
+        <v>0.9914207057303999</v>
       </c>
       <c r="J9">
-        <v>0.9906435602831317</v>
+        <v>0.9935296948411386</v>
       </c>
       <c r="K9">
-        <v>0.9882965943031448</v>
+        <v>0.991350201726212</v>
       </c>
       <c r="L9">
-        <v>0.9854931234339359</v>
+        <v>0.9837694095261724</v>
       </c>
       <c r="M9">
-        <v>0.9192296069394258</v>
+        <v>0.9826572831722381</v>
       </c>
       <c r="N9">
-        <v>0.8969944399281135</v>
+        <v>0.9866704996836606</v>
       </c>
       <c r="O9">
-        <v>0.9757617828931919</v>
+        <v>0.9927410824879973</v>
       </c>
       <c r="P9">
-        <v>0.9934909155938917</v>
+        <v>0.9844788522063087</v>
       </c>
       <c r="Q9">
-        <v>0.9614411244602261</v>
+        <v>0.9897290542926046</v>
       </c>
       <c r="R9">
-        <v>0.9935283617953965</v>
+        <v>0.9802303482787503</v>
       </c>
       <c r="S9">
-        <v>0.9638200797902029</v>
+        <v>0.99041001784703</v>
       </c>
       <c r="T9">
-        <v>0.9963619288327706</v>
+        <v>0.978671835734592</v>
       </c>
       <c r="U9">
-        <v>0.9908685354886527</v>
+        <v>0.9954540501261219</v>
       </c>
       <c r="V9">
-        <v>0.9629596033199658</v>
+        <v>0.99416661963296</v>
       </c>
       <c r="W9">
-        <v>0.9886275802967135</v>
+        <v>0.980433758216851</v>
       </c>
       <c r="X9">
-        <v>0.9737372895618075</v>
+        <v>0.9742080380810211</v>
       </c>
       <c r="Y9">
-        <v>0.9960226016219158</v>
+        <v>0.9858639755743086</v>
       </c>
       <c r="Z9">
-        <v>0.989714486744799</v>
+        <v>0.9917559628300111</v>
       </c>
       <c r="AA9">
-        <v>0.992322383407286</v>
+        <v>0.9935361809307778</v>
       </c>
       <c r="AB9">
-        <v>0.9609765128303943</v>
+        <v>0.9898240312976754</v>
       </c>
       <c r="AC9">
-        <v>0.9606707344075776</v>
+        <v>0.9916366201049472</v>
       </c>
       <c r="AD9">
-        <v>0.9647703734285532</v>
+        <v>0.9931190062143425</v>
       </c>
       <c r="AE9">
-        <v>0.9518105105561215</v>
+        <v>0.9830047314415974</v>
       </c>
       <c r="AF9">
-        <v>0.979479396769079</v>
+        <v>0.9964853563704449</v>
       </c>
       <c r="AG9">
-        <v>0.938475300074172</v>
+        <v>0.9721140486052682</v>
       </c>
       <c r="AH9">
-        <v>0.9972020557136213</v>
+        <v>0.9856371993433668</v>
       </c>
       <c r="AI9">
-        <v>0.9761721020756887</v>
+        <v>0.9914568765198456</v>
       </c>
       <c r="AJ9">
-        <v>0.9544503800365681</v>
+        <v>0.9898492674687818</v>
       </c>
       <c r="AK9">
-        <v>0.9545398184633238</v>
+        <v>0.9912998577919261</v>
       </c>
       <c r="AL9">
-        <v>0.9490719548995672</v>
+        <v>0.9941145608964379</v>
       </c>
       <c r="AM9">
-        <v>0.947396126319145</v>
+        <v>0.9918791745970326</v>
       </c>
       <c r="AN9">
-        <v>0.8889240389658262</v>
+        <v>0.9962924688542077</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.7780932371875082</v>
+        <v>0.994131000952386</v>
       </c>
       <c r="C10">
-        <v>0.8757766481843972</v>
+        <v>0.9432536044228169</v>
       </c>
       <c r="D10">
-        <v>0.9704897388038628</v>
+        <v>0.9859909988214383</v>
       </c>
       <c r="E10">
-        <v>0.9680676360978796</v>
+        <v>0.9843973019752209</v>
       </c>
       <c r="F10">
-        <v>0.8337501411030853</v>
+        <v>0.9779259301410611</v>
       </c>
       <c r="G10">
-        <v>0.9968631764007655</v>
+        <v>0.9884345519413685</v>
       </c>
       <c r="H10">
-        <v>0.9870471556117399</v>
+        <v>0.9830477558150381</v>
       </c>
       <c r="I10">
-        <v>0.8746860129037867</v>
+        <v>0.9906484427942648</v>
       </c>
       <c r="J10">
-        <v>0.9318759150777884</v>
+        <v>0.987001255511644</v>
       </c>
       <c r="K10">
-        <v>0.9884991500030049</v>
+        <v>0.9853014010817958</v>
       </c>
       <c r="L10">
-        <v>0.9799444097215412</v>
+        <v>0.977488803956391</v>
       </c>
       <c r="M10">
-        <v>0.8200064856956946</v>
+        <v>0.9794236903504554</v>
       </c>
       <c r="N10">
-        <v>0.9673151130510363</v>
+        <v>0.983129547141623</v>
       </c>
       <c r="O10">
-        <v>0.9700943367046364</v>
+        <v>0.9899620577294042</v>
       </c>
       <c r="P10">
-        <v>0.943244836781821</v>
+        <v>0.9852863925450488</v>
       </c>
       <c r="Q10">
-        <v>0.8692774041677852</v>
+        <v>0.9883489405951206</v>
       </c>
       <c r="R10">
-        <v>0.9296833441862349</v>
+        <v>0.9745808970656652</v>
       </c>
       <c r="S10">
-        <v>0.8777024512786595</v>
+        <v>0.9833503452366493</v>
       </c>
       <c r="T10">
-        <v>0.9535213339077423</v>
+        <v>0.968806509752408</v>
       </c>
       <c r="U10">
-        <v>0.9186774797347554</v>
+        <v>0.9896360794096624</v>
       </c>
       <c r="V10">
-        <v>0.8624916883694</v>
+        <v>0.988062663866379</v>
       </c>
       <c r="W10">
-        <v>0.9091400749915365</v>
+        <v>0.973595382257189</v>
       </c>
       <c r="X10">
-        <v>0.8813334647400854</v>
+        <v>0.9670442027290226</v>
       </c>
       <c r="Y10">
-        <v>0.9639965934668366</v>
+        <v>0.9800486397975767</v>
       </c>
       <c r="Z10">
-        <v>0.9122165614037127</v>
+        <v>0.9882260888347641</v>
       </c>
       <c r="AA10">
-        <v>0.9328802922460088</v>
+        <v>0.9909820452179595</v>
       </c>
       <c r="AB10">
-        <v>0.8521062802264144</v>
+        <v>0.9830000724782072</v>
       </c>
       <c r="AC10">
-        <v>0.9740432512146392</v>
+        <v>0.9932962200073646</v>
       </c>
       <c r="AD10">
-        <v>0.860459175109149</v>
+        <v>0.9938852546561843</v>
       </c>
       <c r="AE10">
-        <v>0.8434403504208163</v>
+        <v>0.9787064855126035</v>
       </c>
       <c r="AF10">
-        <v>0.8871454808898366</v>
+        <v>0.9920293367649284</v>
       </c>
       <c r="AG10">
-        <v>0.8426707863553161</v>
+        <v>0.9630925729858594</v>
       </c>
       <c r="AH10">
-        <v>0.9475446271739542</v>
+        <v>0.9799377242328317</v>
       </c>
       <c r="AI10">
-        <v>0.9061838237646119</v>
+        <v>0.9791596736662423</v>
       </c>
       <c r="AJ10">
-        <v>0.8488923821367165</v>
+        <v>0.9868442039621188</v>
       </c>
       <c r="AK10">
-        <v>0.8770920746371272</v>
+        <v>0.9871104280446217</v>
       </c>
       <c r="AL10">
-        <v>0.8471989638632214</v>
+        <v>0.9929472732955974</v>
       </c>
       <c r="AM10">
-        <v>0.8410654805705418</v>
+        <v>0.9874677204528378</v>
       </c>
       <c r="AN10">
-        <v>0.7451851111856728</v>
+        <v>0.9914127387717037</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0.7394607575559218</v>
+        <v>0.9945071796524751</v>
       </c>
       <c r="C11">
-        <v>0.9110068944306934</v>
+        <v>0.944936621405277</v>
       </c>
       <c r="D11">
-        <v>0.9799280455976341</v>
+        <v>0.992973519906068</v>
       </c>
       <c r="E11">
-        <v>0.9919946260048832</v>
+        <v>0.9857363741851144</v>
       </c>
       <c r="F11">
-        <v>0.8624958769952316</v>
+        <v>0.9806368067316077</v>
       </c>
       <c r="G11">
-        <v>0.9963540576410148</v>
+        <v>0.9878361632786132</v>
       </c>
       <c r="H11">
-        <v>0.9919956090098102</v>
+        <v>0.9883971910523143</v>
       </c>
       <c r="I11">
-        <v>0.9167459947574126</v>
+        <v>0.9871004415726294</v>
       </c>
       <c r="J11">
-        <v>0.9431441353402203</v>
+        <v>0.9898813973918155</v>
       </c>
       <c r="K11">
-        <v>0.9979496330393567</v>
+        <v>0.9866597567477049</v>
       </c>
       <c r="L11">
-        <v>0.9766249068104391</v>
+        <v>0.9776296216494625</v>
       </c>
       <c r="M11">
-        <v>0.8324865293772949</v>
+        <v>0.9779980297966728</v>
       </c>
       <c r="N11">
-        <v>0.9663919289048818</v>
+        <v>0.9817816999259859</v>
       </c>
       <c r="O11">
-        <v>0.9793890404005425</v>
+        <v>0.9881893431250074</v>
       </c>
       <c r="P11">
-        <v>0.9656073059602374</v>
+        <v>0.9782191561070498</v>
       </c>
       <c r="Q11">
-        <v>0.8863912164765788</v>
+        <v>0.9862818670147585</v>
       </c>
       <c r="R11">
-        <v>0.9586078310437194</v>
+        <v>0.9731865449856694</v>
       </c>
       <c r="S11">
-        <v>0.8936950544677004</v>
+        <v>0.9856580327452427</v>
       </c>
       <c r="T11">
-        <v>0.9624821488782238</v>
+        <v>0.9709886180365154</v>
       </c>
       <c r="U11">
-        <v>0.9393537053043612</v>
+        <v>0.9919398643455343</v>
       </c>
       <c r="V11">
-        <v>0.8850273472563954</v>
+        <v>0.9902975903090465</v>
       </c>
       <c r="W11">
-        <v>0.9359649026696988</v>
+        <v>0.974077035115135</v>
       </c>
       <c r="X11">
-        <v>0.903563645892982</v>
+        <v>0.966479185586084</v>
       </c>
       <c r="Y11">
-        <v>0.9848065399565561</v>
+        <v>0.9806341154565426</v>
       </c>
       <c r="Z11">
-        <v>0.9375521766844597</v>
+        <v>0.9876850271882366</v>
       </c>
       <c r="AA11">
-        <v>0.9461580018857157</v>
+        <v>0.9903337709092863</v>
       </c>
       <c r="AB11">
-        <v>0.8825698753204252</v>
+        <v>0.9845750857866786</v>
       </c>
       <c r="AC11">
-        <v>0.9860581437903746</v>
+        <v>0.9870716567998802</v>
       </c>
       <c r="AD11">
-        <v>0.887022872710997</v>
+        <v>0.9894717307620483</v>
       </c>
       <c r="AE11">
-        <v>0.8671471396220325</v>
+        <v>0.976241413809097</v>
       </c>
       <c r="AF11">
-        <v>0.9177610623692175</v>
+        <v>0.993831344391101</v>
       </c>
       <c r="AG11">
-        <v>0.858240162253943</v>
+        <v>0.9637885286605962</v>
       </c>
       <c r="AH11">
-        <v>0.9617968695653566</v>
+        <v>0.9805488520322669</v>
       </c>
       <c r="AI11">
-        <v>0.9141837685880925</v>
+        <v>0.9876928135967232</v>
       </c>
       <c r="AJ11">
-        <v>0.8688931251067368</v>
+        <v>0.9854268825207196</v>
       </c>
       <c r="AK11">
-        <v>0.8817424314495804</v>
+        <v>0.9860017134145148</v>
       </c>
       <c r="AL11">
-        <v>0.8677376129527036</v>
+        <v>0.9898400951765256</v>
       </c>
       <c r="AM11">
-        <v>0.8628621800990507</v>
+        <v>0.9867797897437605</v>
       </c>
       <c r="AN11">
-        <v>0.7707355096665177</v>
+        <v>0.9925622066626945</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.8607525494395311</v>
+        <v>0.9881314261802593</v>
       </c>
       <c r="C12">
-        <v>0.9266961177739399</v>
+        <v>0.9313118052480902</v>
       </c>
       <c r="D12">
-        <v>0.8475186417817997</v>
+        <v>0.984210736734772</v>
       </c>
       <c r="E12">
-        <v>0.7203083707804268</v>
+        <v>0.9769832367771548</v>
       </c>
       <c r="F12">
-        <v>0.9667156048552317</v>
+        <v>0.9719295158548295</v>
       </c>
       <c r="G12">
-        <v>0.7432390039599761</v>
+        <v>0.9771028672191869</v>
       </c>
       <c r="H12">
-        <v>0.7886444887360906</v>
+        <v>0.9813529552160559</v>
       </c>
       <c r="I12">
-        <v>0.9063141019392499</v>
+        <v>0.9794169987978153</v>
       </c>
       <c r="J12">
-        <v>0.8905321317633219</v>
+        <v>0.9826399797537223</v>
       </c>
       <c r="K12">
-        <v>0.7677065259137686</v>
+        <v>0.9796631350472358</v>
       </c>
       <c r="L12">
-        <v>0.7925945118360074</v>
+        <v>0.9687480078679356</v>
       </c>
       <c r="M12">
-        <v>0.9801819539226974</v>
+        <v>0.9657171106370185</v>
       </c>
       <c r="N12">
-        <v>0.5317047829177121</v>
+        <v>0.9717133830984291</v>
       </c>
       <c r="O12">
-        <v>0.730899532700805</v>
+        <v>0.9820637521389616</v>
       </c>
       <c r="P12">
-        <v>0.8760783890675787</v>
+        <v>0.9711002998986268</v>
       </c>
       <c r="Q12">
-        <v>0.9606363853127536</v>
+        <v>0.9760290367609248</v>
       </c>
       <c r="R12">
-        <v>0.8590185517963035</v>
+        <v>0.9644767524824074</v>
       </c>
       <c r="S12">
-        <v>0.9570035248129117</v>
+        <v>0.9782879635827545</v>
       </c>
       <c r="T12">
-        <v>0.8725105290915965</v>
+        <v>0.9655059252396302</v>
       </c>
       <c r="U12">
-        <v>0.8998231396779524</v>
+        <v>0.986110137394912</v>
       </c>
       <c r="V12">
-        <v>0.9586999738980944</v>
+        <v>0.9839673461745094</v>
       </c>
       <c r="W12">
-        <v>0.910779437874758</v>
+        <v>0.9638957460078731</v>
       </c>
       <c r="X12">
-        <v>0.9449120716619659</v>
+        <v>0.956493035871344</v>
       </c>
       <c r="Y12">
-        <v>0.8276257403906363</v>
+        <v>0.9709382548975418</v>
       </c>
       <c r="Z12">
-        <v>0.9089243761226405</v>
+        <v>0.9794064038830299</v>
       </c>
       <c r="AA12">
-        <v>0.9039371336058227</v>
+        <v>0.9820578162406832</v>
       </c>
       <c r="AB12">
-        <v>0.9563760868944522</v>
+        <v>0.9780200723345189</v>
       </c>
       <c r="AC12">
-        <v>0.6729995896139863</v>
+        <v>0.9829537209267641</v>
       </c>
       <c r="AD12">
-        <v>0.9529460424277814</v>
+        <v>0.9824690238848016</v>
       </c>
       <c r="AE12">
-        <v>0.9692516326009447</v>
+        <v>0.9685196636370712</v>
       </c>
       <c r="AF12">
-        <v>0.9278902036306935</v>
+        <v>0.9873057092690135</v>
       </c>
       <c r="AG12">
-        <v>0.9740726924669657</v>
+        <v>0.9551191792663076</v>
       </c>
       <c r="AH12">
-        <v>0.866529143662078</v>
+        <v>0.9704646649787148</v>
       </c>
       <c r="AI12">
-        <v>0.9115930653291519</v>
+        <v>0.9822437302550364</v>
       </c>
       <c r="AJ12">
-        <v>0.9503882171782146</v>
+        <v>0.9764594281246426</v>
       </c>
       <c r="AK12">
-        <v>0.9512687882003408</v>
+        <v>0.9812588303638489</v>
       </c>
       <c r="AL12">
-        <v>0.9721519866817332</v>
+        <v>0.9872291721095732</v>
       </c>
       <c r="AM12">
-        <v>0.973719809469888</v>
+        <v>0.9817952970556065</v>
       </c>
       <c r="AN12">
-        <v>0.9836123990833975</v>
+        <v>0.9890763627210239</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块.xlsx
+++ b/FOF/data/基金公司-板块.xlsx
@@ -16,157 +16,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
     <t>华商</t>
   </si>
   <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>鹏华</t>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>中金</t>
   </si>
   <si>
     <t>华安</t>
   </si>
   <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
     <t>华夏</t>
   </si>
   <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
     <t>大成</t>
   </si>
   <si>
     <t>兴业</t>
   </si>
   <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>民生加银</t>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>银华</t>
   </si>
   <si>
     <t>安信</t>
   </si>
   <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
     <t>上投摩根</t>
   </si>
   <si>
     <t>名称</t>
   </si>
   <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
     <t>上证50</t>
   </si>
   <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
     <t>中小板综</t>
   </si>
   <si>
     <t>深证综指</t>
-  </si>
-  <si>
-    <t>创业板综</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中证1000</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0.9809050623731147</v>
+        <v>0.7748138526057787</v>
       </c>
       <c r="C2">
-        <v>0.9839771428695749</v>
+        <v>0.7457970655732253</v>
       </c>
       <c r="D2">
-        <v>0.9966430598065994</v>
+        <v>0.9216012279037684</v>
       </c>
       <c r="E2">
-        <v>0.9990325611000029</v>
+        <v>0.9431913431217768</v>
       </c>
       <c r="F2">
-        <v>0.9980102831481232</v>
+        <v>0.9006541092264601</v>
       </c>
       <c r="G2">
-        <v>0.9979176627581567</v>
+        <v>0.9417511164341058</v>
       </c>
       <c r="H2">
-        <v>0.9988414712945363</v>
+        <v>0.9696930094544355</v>
       </c>
       <c r="I2">
-        <v>0.9955557297178869</v>
+        <v>0.9228566332900588</v>
       </c>
       <c r="J2">
-        <v>0.998861173334235</v>
+        <v>0.8323409410043304</v>
       </c>
       <c r="K2">
-        <v>0.997677742144193</v>
+        <v>0.953660659932582</v>
       </c>
       <c r="L2">
-        <v>0.9963423603747297</v>
+        <v>0.9388283122697995</v>
       </c>
       <c r="M2">
-        <v>0.9977050440890206</v>
+        <v>0.9599122466144967</v>
       </c>
       <c r="N2">
-        <v>0.9979308097541327</v>
+        <v>0.9537153193925838</v>
       </c>
       <c r="O2">
-        <v>0.9953381975539247</v>
+        <v>0.8894527372769141</v>
       </c>
       <c r="P2">
-        <v>0.9899312681960381</v>
+        <v>0.9673621154506092</v>
       </c>
       <c r="Q2">
-        <v>0.9977557980571511</v>
+        <v>0.9339782621602279</v>
       </c>
       <c r="R2">
-        <v>0.9936566911439877</v>
+        <v>0.9579933411021937</v>
       </c>
       <c r="S2">
-        <v>0.9981308245018683</v>
+        <v>0.9684724976717053</v>
       </c>
       <c r="T2">
-        <v>0.9892828047309014</v>
+        <v>0.9721219234650708</v>
       </c>
       <c r="U2">
-        <v>0.9974249282356902</v>
+        <v>0.9053530330708423</v>
       </c>
       <c r="V2">
-        <v>0.997857732768427</v>
+        <v>0.955501851078464</v>
       </c>
       <c r="W2">
-        <v>0.9962277691664345</v>
+        <v>0.965793844695115</v>
       </c>
       <c r="X2">
-        <v>0.9921474074075144</v>
+        <v>0.9847120949201842</v>
       </c>
       <c r="Y2">
-        <v>0.9982311608062741</v>
+        <v>0.8925755983145277</v>
       </c>
       <c r="Z2">
-        <v>0.9981466906557777</v>
+        <v>0.8778705343887913</v>
       </c>
       <c r="AA2">
-        <v>0.9979408798473111</v>
+        <v>0.991258825366173</v>
       </c>
       <c r="AB2">
-        <v>0.9966642958857199</v>
+        <v>0.9097591474885088</v>
       </c>
       <c r="AC2">
-        <v>0.9879639435383665</v>
+        <v>0.8891106953756632</v>
       </c>
       <c r="AD2">
-        <v>0.993971978340652</v>
+        <v>0.8953041105200673</v>
       </c>
       <c r="AE2">
-        <v>0.9932787781980807</v>
+        <v>0.9695588693613777</v>
       </c>
       <c r="AF2">
-        <v>0.9976282072162577</v>
+        <v>0.9201518605940227</v>
       </c>
       <c r="AG2">
-        <v>0.9895521111849993</v>
+        <v>0.9529106937360252</v>
       </c>
       <c r="AH2">
-        <v>0.998461893961395</v>
+        <v>0.9415662219110827</v>
       </c>
       <c r="AI2">
-        <v>0.9967492358824733</v>
+        <v>0.9461333335379846</v>
       </c>
       <c r="AJ2">
-        <v>0.9978808989899698</v>
+        <v>0.976113443870314</v>
       </c>
       <c r="AK2">
-        <v>0.9932532826874303</v>
+        <v>0.942014782611049</v>
       </c>
       <c r="AL2">
-        <v>0.9885857919324711</v>
+        <v>0.8869041622547983</v>
       </c>
       <c r="AM2">
-        <v>0.9940866598745894</v>
+        <v>0.9632156525472565</v>
       </c>
       <c r="AN2">
-        <v>0.993572085790083</v>
+        <v>0.8394907248866378</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0.9648935626846316</v>
+        <v>0.6939076221610059</v>
       </c>
       <c r="C3">
-        <v>0.9936150006503396</v>
+        <v>0.6587177179083737</v>
       </c>
       <c r="D3">
-        <v>0.9879855694139839</v>
+        <v>0.8914857139254729</v>
       </c>
       <c r="E3">
-        <v>0.9979896071219145</v>
+        <v>0.9367709341701209</v>
       </c>
       <c r="F3">
-        <v>0.9995856660508434</v>
+        <v>0.8826434582471866</v>
       </c>
       <c r="G3">
-        <v>0.9922095090181683</v>
+        <v>0.8900420139467585</v>
       </c>
       <c r="H3">
-        <v>0.9975515518981656</v>
+        <v>0.9172051583087248</v>
       </c>
       <c r="I3">
-        <v>0.9935530671500198</v>
+        <v>0.8533902690814631</v>
       </c>
       <c r="J3">
-        <v>0.9967217968740669</v>
+        <v>0.7743486450442632</v>
       </c>
       <c r="K3">
-        <v>0.9975468154653611</v>
+        <v>0.9047559932817891</v>
       </c>
       <c r="L3">
-        <v>0.9990375370678157</v>
+        <v>0.8533065278751495</v>
       </c>
       <c r="M3">
-        <v>0.9965583075953902</v>
+        <v>0.9258088864037816</v>
       </c>
       <c r="N3">
-        <v>0.9974561512015638</v>
+        <v>0.8967767928513902</v>
       </c>
       <c r="O3">
-        <v>0.9943278702808792</v>
+        <v>0.8594940616028458</v>
       </c>
       <c r="P3">
-        <v>0.9915648154185702</v>
+        <v>0.966555355563425</v>
       </c>
       <c r="Q3">
-        <v>0.9939392060590961</v>
+        <v>0.9114848284024546</v>
       </c>
       <c r="R3">
-        <v>0.9980632774497072</v>
+        <v>0.9313140995299825</v>
       </c>
       <c r="S3">
-        <v>0.99830465588552</v>
+        <v>0.981530179288803</v>
       </c>
       <c r="T3">
-        <v>0.996117000294797</v>
+        <v>0.9435950991348813</v>
       </c>
       <c r="U3">
-        <v>0.9949803183796778</v>
+        <v>0.846594464044083</v>
       </c>
       <c r="V3">
-        <v>0.9961426532266163</v>
+        <v>0.9209201029198574</v>
       </c>
       <c r="W3">
-        <v>0.999385108240466</v>
+        <v>0.929945426257633</v>
       </c>
       <c r="X3">
-        <v>0.9981673047895414</v>
+        <v>0.9640387874981857</v>
       </c>
       <c r="Y3">
-        <v>0.998937136398184</v>
+        <v>0.8734356469727685</v>
       </c>
       <c r="Z3">
-        <v>0.9961577140757634</v>
+        <v>0.8166218220954473</v>
       </c>
       <c r="AA3">
-        <v>0.9940157871884299</v>
+        <v>0.9502747821973868</v>
       </c>
       <c r="AB3">
-        <v>0.9978515914822417</v>
+        <v>0.8646756508109688</v>
       </c>
       <c r="AC3">
-        <v>0.9862619364264438</v>
+        <v>0.8582695761376783</v>
       </c>
       <c r="AD3">
-        <v>0.9903660550371457</v>
+        <v>0.8728466193209372</v>
       </c>
       <c r="AE3">
-        <v>0.9969135091470005</v>
+        <v>0.9689703367946133</v>
       </c>
       <c r="AF3">
-        <v>0.9931309657764772</v>
+        <v>0.9025031240808361</v>
       </c>
       <c r="AG3">
-        <v>0.9972699537778671</v>
+        <v>0.9258506019035414</v>
       </c>
       <c r="AH3">
-        <v>0.9988320821801925</v>
+        <v>0.9143567646965051</v>
       </c>
       <c r="AI3">
-        <v>0.9961965404767995</v>
+        <v>0.9287660089899857</v>
       </c>
       <c r="AJ3">
-        <v>0.9964387681803566</v>
+        <v>0.9526308741012954</v>
       </c>
       <c r="AK3">
-        <v>0.9941451571357303</v>
+        <v>0.9442192309909867</v>
       </c>
       <c r="AL3">
-        <v>0.9869942696697347</v>
+        <v>0.8149781774320198</v>
       </c>
       <c r="AM3">
-        <v>0.9946032564219347</v>
+        <v>0.940741557724588</v>
       </c>
       <c r="AN3">
-        <v>0.9915622366331153</v>
+        <v>0.8572941064559935</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>0.9965349940444421</v>
+        <v>0.8563103081537549</v>
       </c>
       <c r="C4">
-        <v>0.9458279233766115</v>
+        <v>0.9131268430112489</v>
       </c>
       <c r="D4">
-        <v>0.9969012191315927</v>
+        <v>0.9381412952722142</v>
       </c>
       <c r="E4">
-        <v>0.9852944984108365</v>
+        <v>0.9523958431132385</v>
       </c>
       <c r="F4">
-        <v>0.9797748689705952</v>
+        <v>0.9601803701809306</v>
       </c>
       <c r="G4">
-        <v>0.99010170926257</v>
+        <v>0.9971093731562534</v>
       </c>
       <c r="H4">
-        <v>0.9877877333924777</v>
+        <v>0.9096557411696483</v>
       </c>
       <c r="I4">
-        <v>0.9843777362694028</v>
+        <v>0.973575389955632</v>
       </c>
       <c r="J4">
-        <v>0.9889052959383215</v>
+        <v>0.9530941600056637</v>
       </c>
       <c r="K4">
-        <v>0.9843121033218989</v>
+        <v>0.9964129239320568</v>
       </c>
       <c r="L4">
-        <v>0.9757268082674556</v>
+        <v>0.956634207120886</v>
       </c>
       <c r="M4">
-        <v>0.9799551143702715</v>
+        <v>0.9912792729303117</v>
       </c>
       <c r="N4">
-        <v>0.9814917104615951</v>
+        <v>0.9882775873959931</v>
       </c>
       <c r="O4">
-        <v>0.984294379464533</v>
+        <v>0.9684684745116602</v>
       </c>
       <c r="P4">
-        <v>0.9726783749598656</v>
+        <v>0.9585910388149509</v>
       </c>
       <c r="Q4">
-        <v>0.9870029216560166</v>
+        <v>0.9485770014788207</v>
       </c>
       <c r="R4">
-        <v>0.9700853384007273</v>
+        <v>0.9746469868513875</v>
       </c>
       <c r="S4">
-        <v>0.9838711411762736</v>
+        <v>0.8931586679973123</v>
       </c>
       <c r="T4">
-        <v>0.9653421044694561</v>
+        <v>0.9728413727836113</v>
       </c>
       <c r="U4">
-        <v>0.9895728654718614</v>
+        <v>0.9900306113363931</v>
       </c>
       <c r="V4">
-        <v>0.9881329267945396</v>
+        <v>0.9909630361822707</v>
       </c>
       <c r="W4">
-        <v>0.9733464764523416</v>
+        <v>0.9919792795061803</v>
       </c>
       <c r="X4">
-        <v>0.9643332426705207</v>
+        <v>0.9679558987226402</v>
       </c>
       <c r="Y4">
-        <v>0.9802594808839445</v>
+        <v>0.9607968253596587</v>
       </c>
       <c r="Z4">
-        <v>0.9864890327128005</v>
+        <v>0.9780633466033714</v>
       </c>
       <c r="AA4">
-        <v>0.9897259824559097</v>
+        <v>0.9797119480145221</v>
       </c>
       <c r="AB4">
-        <v>0.9814739907323007</v>
+        <v>0.9826984711586778</v>
       </c>
       <c r="AC4">
-        <v>0.9801202579967206</v>
+        <v>0.9570359640672911</v>
       </c>
       <c r="AD4">
-        <v>0.9863603628951241</v>
+        <v>0.8962832561793599</v>
       </c>
       <c r="AE4">
-        <v>0.9721183501662441</v>
+        <v>0.9278124496246797</v>
       </c>
       <c r="AF4">
-        <v>0.9926032586504883</v>
+        <v>0.9302991033082895</v>
       </c>
       <c r="AG4">
-        <v>0.9603172430347281</v>
+        <v>0.9725474993179619</v>
       </c>
       <c r="AH4">
-        <v>0.9806494372679587</v>
+        <v>0.962168193705229</v>
       </c>
       <c r="AI4">
-        <v>0.9864460174116756</v>
+        <v>0.9392172331459898</v>
       </c>
       <c r="AJ4">
-        <v>0.9844042436871003</v>
+        <v>0.9587934512536953</v>
       </c>
       <c r="AK4">
-        <v>0.9804504651267727</v>
+        <v>0.9389577250097726</v>
       </c>
       <c r="AL4">
-        <v>0.9824878233430151</v>
+        <v>0.9794053322057868</v>
       </c>
       <c r="AM4">
-        <v>0.9817064280558595</v>
+        <v>0.9724775639602622</v>
       </c>
       <c r="AN4">
-        <v>0.9875300610197602</v>
+        <v>0.8205178873155227</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>0.9753105253715676</v>
+        <v>0.9324820554982344</v>
       </c>
       <c r="C5">
-        <v>0.986678456092053</v>
+        <v>0.9736832217057761</v>
       </c>
       <c r="D5">
-        <v>0.9934668231789578</v>
+        <v>0.889875146031846</v>
       </c>
       <c r="E5">
-        <v>0.9992323645969348</v>
+        <v>0.8529943795532765</v>
       </c>
       <c r="F5">
-        <v>0.9994427879470503</v>
+        <v>0.8893070102312387</v>
       </c>
       <c r="G5">
-        <v>0.9950235878566793</v>
+        <v>0.9173068467766038</v>
       </c>
       <c r="H5">
-        <v>0.9998050571800418</v>
+        <v>0.8029828009956668</v>
       </c>
       <c r="I5">
-        <v>0.9957160510094067</v>
+        <v>0.9544042128843514</v>
       </c>
       <c r="J5">
-        <v>0.9993005763643025</v>
+        <v>0.9569174189364341</v>
       </c>
       <c r="K5">
-        <v>0.9991122892837446</v>
+        <v>0.9231329928673427</v>
       </c>
       <c r="L5">
-        <v>0.998147225074964</v>
+        <v>0.9224916384488225</v>
       </c>
       <c r="M5">
-        <v>0.9961417222961838</v>
+        <v>0.8906138077316316</v>
       </c>
       <c r="N5">
-        <v>0.9977161873954015</v>
+        <v>0.9327433093977153</v>
       </c>
       <c r="O5">
-        <v>0.9967139223902732</v>
+        <v>0.8921005843681453</v>
       </c>
       <c r="P5">
-        <v>0.9919197488337691</v>
+        <v>0.8160398959560322</v>
       </c>
       <c r="Q5">
-        <v>0.9959203750784734</v>
+        <v>0.786239215654249</v>
       </c>
       <c r="R5">
-        <v>0.996279866135512</v>
+        <v>0.8330684645307257</v>
       </c>
       <c r="S5">
-        <v>0.9995478998789166</v>
+        <v>0.7359775589003102</v>
       </c>
       <c r="T5">
-        <v>0.9945723206650836</v>
+        <v>0.8231032553454103</v>
       </c>
       <c r="U5">
-        <v>0.9983719724493189</v>
+        <v>0.9486041378617585</v>
       </c>
       <c r="V5">
-        <v>0.9989020225088264</v>
+        <v>0.8876186156963577</v>
       </c>
       <c r="W5">
-        <v>0.9976373387144103</v>
+        <v>0.8842487094187763</v>
       </c>
       <c r="X5">
-        <v>0.9949121231253214</v>
+        <v>0.8103373889033356</v>
       </c>
       <c r="Y5">
-        <v>0.9987654979062687</v>
+        <v>0.8678853206615785</v>
       </c>
       <c r="Z5">
-        <v>0.9981007264502715</v>
+        <v>0.9261949635511002</v>
       </c>
       <c r="AA5">
-        <v>0.9970126100273193</v>
+        <v>0.8655607993531311</v>
       </c>
       <c r="AB5">
-        <v>0.9989052224083688</v>
+        <v>0.8986287718352866</v>
       </c>
       <c r="AC5">
-        <v>0.9898525578484921</v>
+        <v>0.8451636896992358</v>
       </c>
       <c r="AD5">
-        <v>0.9936998116226601</v>
+        <v>0.7066191516570328</v>
       </c>
       <c r="AE5">
-        <v>0.9959941326490882</v>
+        <v>0.7282052876319458</v>
       </c>
       <c r="AF5">
-        <v>0.9973061646525253</v>
+        <v>0.7554107333381963</v>
       </c>
       <c r="AG5">
-        <v>0.9937190548503153</v>
+        <v>0.8305311232674081</v>
       </c>
       <c r="AH5">
-        <v>0.9986624557916102</v>
+        <v>0.8125372988840248</v>
       </c>
       <c r="AI5">
-        <v>0.9988465611239423</v>
+        <v>0.7595267181492997</v>
       </c>
       <c r="AJ5">
-        <v>0.9977424239375601</v>
+        <v>0.7908880606407513</v>
       </c>
       <c r="AK5">
-        <v>0.9961466440837652</v>
+        <v>0.7623322670791554</v>
       </c>
       <c r="AL5">
-        <v>0.9912933666566558</v>
+        <v>0.9203906950627063</v>
       </c>
       <c r="AM5">
-        <v>0.9967073855860371</v>
+        <v>0.8253925867759246</v>
       </c>
       <c r="AN5">
-        <v>0.9957796221217168</v>
+        <v>0.5884198761316858</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.9850136820024818</v>
+        <v>0.6662546487220361</v>
       </c>
       <c r="C6">
-        <v>0.9758261567480162</v>
+        <v>0.6612859870677976</v>
       </c>
       <c r="D6">
-        <v>0.9965760102364529</v>
+        <v>0.8638565797903258</v>
       </c>
       <c r="E6">
-        <v>0.9979665813653944</v>
+        <v>0.9131237520669894</v>
       </c>
       <c r="F6">
-        <v>0.9963832925588506</v>
+        <v>0.8652174389076293</v>
       </c>
       <c r="G6">
-        <v>0.9958757772067651</v>
+        <v>0.9037727126509167</v>
       </c>
       <c r="H6">
-        <v>0.999246797199929</v>
+        <v>0.9263182853071819</v>
       </c>
       <c r="I6">
-        <v>0.9960879106844897</v>
+        <v>0.8503494775267483</v>
       </c>
       <c r="J6">
-        <v>0.9994126938149213</v>
+        <v>0.7671336636120929</v>
       </c>
       <c r="K6">
-        <v>0.9981987294208778</v>
+        <v>0.9092606146319608</v>
       </c>
       <c r="L6">
-        <v>0.9945050545648453</v>
+        <v>0.866666233513554</v>
       </c>
       <c r="M6">
-        <v>0.9932951490503292</v>
+        <v>0.9298679829302168</v>
       </c>
       <c r="N6">
-        <v>0.9956213666528925</v>
+        <v>0.8973813585605035</v>
       </c>
       <c r="O6">
-        <v>0.9971198342320177</v>
+        <v>0.8600112613292884</v>
       </c>
       <c r="P6">
-        <v>0.9905607321773982</v>
+        <v>0.9569538996082826</v>
       </c>
       <c r="Q6">
-        <v>0.9959472318617834</v>
+        <v>0.9392849179752011</v>
       </c>
       <c r="R6">
-        <v>0.9917611302091377</v>
+        <v>0.9494203669027899</v>
       </c>
       <c r="S6">
-        <v>0.9981500556651244</v>
+        <v>0.9571712734041425</v>
       </c>
       <c r="T6">
-        <v>0.9898822397772656</v>
+        <v>0.9641885731162371</v>
       </c>
       <c r="U6">
-        <v>0.9994904520588288</v>
+        <v>0.8531204915304771</v>
       </c>
       <c r="V6">
-        <v>0.9992881562226459</v>
+        <v>0.9279464292335596</v>
       </c>
       <c r="W6">
-        <v>0.9929652646164937</v>
+        <v>0.938200126703322</v>
       </c>
       <c r="X6">
-        <v>0.9885844578248969</v>
+        <v>0.9780650817754123</v>
       </c>
       <c r="Y6">
-        <v>0.9959317381853597</v>
+        <v>0.8714367404245704</v>
       </c>
       <c r="Z6">
-        <v>0.9978721383015061</v>
+        <v>0.836156159599612</v>
       </c>
       <c r="AA6">
-        <v>0.9980432299122498</v>
+        <v>0.9586285641789398</v>
       </c>
       <c r="AB6">
-        <v>0.9973564822238701</v>
+        <v>0.8804234742954311</v>
       </c>
       <c r="AC6">
-        <v>0.9921768173864468</v>
+        <v>0.8777602268127574</v>
       </c>
       <c r="AD6">
-        <v>0.9955477021225121</v>
+        <v>0.9173387717117659</v>
       </c>
       <c r="AE6">
-        <v>0.9926033475244872</v>
+        <v>0.9857875439712548</v>
       </c>
       <c r="AF6">
-        <v>0.9994204844779665</v>
+        <v>0.933506238152281</v>
       </c>
       <c r="AG6">
-        <v>0.9868813762672597</v>
+        <v>0.9454729714725373</v>
       </c>
       <c r="AH6">
-        <v>0.9958343633030607</v>
+        <v>0.9395607746417267</v>
       </c>
       <c r="AI6">
-        <v>0.9983710118833943</v>
+        <v>0.9571868720342035</v>
       </c>
       <c r="AJ6">
-        <v>0.9968706415253844</v>
+        <v>0.975658870768051</v>
       </c>
       <c r="AK6">
-        <v>0.9960031223574114</v>
+        <v>0.9541414459200203</v>
       </c>
       <c r="AL6">
-        <v>0.9940710196792608</v>
+        <v>0.8461817763109353</v>
       </c>
       <c r="AM6">
-        <v>0.9966391553592153</v>
+        <v>0.9564931874579804</v>
       </c>
       <c r="AN6">
-        <v>0.9979759011907077</v>
+        <v>0.8910245897544632</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0.9919684266479709</v>
+        <v>0.8879106227264612</v>
       </c>
       <c r="C7">
-        <v>0.9579051425457126</v>
+        <v>0.8769292142970763</v>
       </c>
       <c r="D7">
-        <v>0.9955967911957759</v>
+        <v>0.9577590255735968</v>
       </c>
       <c r="E7">
-        <v>0.9916861929455071</v>
+        <v>0.9514299098055405</v>
       </c>
       <c r="F7">
-        <v>0.9880075727248023</v>
+        <v>0.9371854433651473</v>
       </c>
       <c r="G7">
-        <v>0.9919395952429099</v>
+        <v>0.9770293530746252</v>
       </c>
       <c r="H7">
-        <v>0.9939979574633127</v>
+        <v>0.9569291904918527</v>
       </c>
       <c r="I7">
-        <v>0.9917504609414539</v>
+        <v>0.9867679852060565</v>
       </c>
       <c r="J7">
-        <v>0.9949004999036621</v>
+        <v>0.9238025136623309</v>
       </c>
       <c r="K7">
-        <v>0.992464299106637</v>
+        <v>0.9887069178498977</v>
       </c>
       <c r="L7">
-        <v>0.9853864774277021</v>
+        <v>0.9868727810824461</v>
       </c>
       <c r="M7">
-        <v>0.9848498547752768</v>
+        <v>0.977217411478317</v>
       </c>
       <c r="N7">
-        <v>0.988222078722171</v>
+        <v>0.9954882947082341</v>
       </c>
       <c r="O7">
-        <v>0.9929641723075382</v>
+        <v>0.9295130196550104</v>
       </c>
       <c r="P7">
-        <v>0.984169226646839</v>
+        <v>0.9495757330100757</v>
       </c>
       <c r="Q7">
-        <v>0.9910395169965359</v>
+        <v>0.913197000898387</v>
       </c>
       <c r="R7">
-        <v>0.9815981824404408</v>
+        <v>0.949796917913477</v>
       </c>
       <c r="S7">
-        <v>0.9918305151048671</v>
+        <v>0.9216462926838156</v>
       </c>
       <c r="T7">
-        <v>0.9798235883254193</v>
+        <v>0.9557858285279988</v>
       </c>
       <c r="U7">
-        <v>0.9962657188057065</v>
+        <v>0.9672528770933163</v>
       </c>
       <c r="V7">
-        <v>0.9951568627376721</v>
+        <v>0.9725459733178143</v>
       </c>
       <c r="W7">
-        <v>0.9825413328250817</v>
+        <v>0.9784108900966154</v>
       </c>
       <c r="X7">
-        <v>0.9762084176565028</v>
+        <v>0.9591885294927935</v>
       </c>
       <c r="Y7">
-        <v>0.9877156054253122</v>
+        <v>0.9205278829898937</v>
       </c>
       <c r="Z7">
-        <v>0.9928246878678625</v>
+        <v>0.9380611821781661</v>
       </c>
       <c r="AA7">
-        <v>0.9944885394381167</v>
+        <v>0.9905863000857578</v>
       </c>
       <c r="AB7">
-        <v>0.9909074945088818</v>
+        <v>0.9462066700160565</v>
       </c>
       <c r="AC7">
-        <v>0.9903865240057345</v>
+        <v>0.9081076537303451</v>
       </c>
       <c r="AD7">
-        <v>0.9929993871698048</v>
+        <v>0.8544557347928114</v>
       </c>
       <c r="AE7">
-        <v>0.983829230104361</v>
+        <v>0.9132016646773281</v>
       </c>
       <c r="AF7">
-        <v>0.9973186723050248</v>
+        <v>0.8906443582939335</v>
       </c>
       <c r="AG7">
-        <v>0.9740256651187812</v>
+        <v>0.94516938619726</v>
       </c>
       <c r="AH7">
-        <v>0.9875974514832128</v>
+        <v>0.9297111215754336</v>
       </c>
       <c r="AI7">
-        <v>0.9933976692955683</v>
+        <v>0.910341925212063</v>
       </c>
       <c r="AJ7">
-        <v>0.9909975886337576</v>
+        <v>0.944994757615822</v>
       </c>
       <c r="AK7">
-        <v>0.9913126491059766</v>
+        <v>0.9074882451314821</v>
       </c>
       <c r="AL7">
-        <v>0.9929771962742509</v>
+        <v>0.9423198368739917</v>
       </c>
       <c r="AM7">
-        <v>0.9920253216481212</v>
+        <v>0.9499940145092601</v>
       </c>
       <c r="AN7">
-        <v>0.9961878466366858</v>
+        <v>0.7655662420689702</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.9899385355836557</v>
+        <v>0.8643973420290945</v>
       </c>
       <c r="C8">
-        <v>0.949187001010741</v>
+        <v>0.9613967177997074</v>
       </c>
       <c r="D8">
-        <v>0.9919858247562348</v>
+        <v>0.9111416839731244</v>
       </c>
       <c r="E8">
-        <v>0.9868030927324611</v>
+        <v>0.9212460423482186</v>
       </c>
       <c r="F8">
-        <v>0.9829835223569914</v>
+        <v>0.9535451110417452</v>
       </c>
       <c r="G8">
-        <v>0.9862876194433577</v>
+        <v>0.9870357878504398</v>
       </c>
       <c r="H8">
-        <v>0.9904271634586909</v>
+        <v>0.8459746243282444</v>
       </c>
       <c r="I8">
-        <v>0.9871673377175861</v>
+        <v>0.9620965355179301</v>
       </c>
       <c r="J8">
-        <v>0.991107077192827</v>
+        <v>0.9769063967006391</v>
       </c>
       <c r="K8">
-        <v>0.9884685250108082</v>
+        <v>0.98015125960507</v>
       </c>
       <c r="L8">
-        <v>0.9799343746910626</v>
+        <v>0.9295657188718414</v>
       </c>
       <c r="M8">
-        <v>0.9777768747951351</v>
+        <v>0.9695976005092546</v>
       </c>
       <c r="N8">
-        <v>0.9823217321763894</v>
+        <v>0.9682834688751195</v>
       </c>
       <c r="O8">
-        <v>0.9892927630629037</v>
+        <v>0.9711300749211828</v>
       </c>
       <c r="P8">
-        <v>0.9792255844800581</v>
+        <v>0.9183480391005151</v>
       </c>
       <c r="Q8">
-        <v>0.9853336929702534</v>
+        <v>0.9202295273238835</v>
       </c>
       <c r="R8">
-        <v>0.9759338248741033</v>
+        <v>0.9463355893517044</v>
       </c>
       <c r="S8">
-        <v>0.987671188314073</v>
+        <v>0.8225650460809306</v>
       </c>
       <c r="T8">
-        <v>0.9760006355367944</v>
+        <v>0.9367428408741703</v>
       </c>
       <c r="U8">
-        <v>0.9932477080092302</v>
+        <v>0.9946752750902171</v>
       </c>
       <c r="V8">
-        <v>0.9917751396962821</v>
+        <v>0.9713114459126738</v>
       </c>
       <c r="W8">
-        <v>0.9763406974988398</v>
+        <v>0.967717110287823</v>
       </c>
       <c r="X8">
-        <v>0.969726101507563</v>
+        <v>0.9234257582646523</v>
       </c>
       <c r="Y8">
-        <v>0.9820564697440434</v>
+        <v>0.9584247110940531</v>
       </c>
       <c r="Z8">
-        <v>0.9881537357574711</v>
+        <v>0.9908047373034177</v>
       </c>
       <c r="AA8">
-        <v>0.9900170507478486</v>
+        <v>0.9373092155611616</v>
       </c>
       <c r="AB8">
-        <v>0.9870360789611952</v>
+        <v>0.9818315110525145</v>
       </c>
       <c r="AC8">
-        <v>0.9875478878004103</v>
+        <v>0.9546589299860857</v>
       </c>
       <c r="AD8">
-        <v>0.9888975381558653</v>
+        <v>0.8631815105353056</v>
       </c>
       <c r="AE8">
-        <v>0.978712200804515</v>
+        <v>0.8724675527393384</v>
       </c>
       <c r="AF8">
-        <v>0.9940891604775632</v>
+        <v>0.9004421545056883</v>
       </c>
       <c r="AG8">
-        <v>0.9682030486354869</v>
+        <v>0.9457853306631071</v>
       </c>
       <c r="AH8">
-        <v>0.9817589469664414</v>
+        <v>0.9362707426028414</v>
       </c>
       <c r="AI8">
-        <v>0.9909028750429715</v>
+        <v>0.9006146940455201</v>
       </c>
       <c r="AJ8">
-        <v>0.9858108303197882</v>
+        <v>0.9143287336163326</v>
       </c>
       <c r="AK8">
-        <v>0.9882668245173154</v>
+        <v>0.9022671959369838</v>
       </c>
       <c r="AL8">
-        <v>0.9912261520828859</v>
+        <v>0.9883048500579769</v>
       </c>
       <c r="AM8">
-        <v>0.988918798439526</v>
+        <v>0.9406036808550515</v>
       </c>
       <c r="AN8">
-        <v>0.9943408192679978</v>
+        <v>0.7804197577985341</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.9919944135188843</v>
+        <v>0.7855366299848445</v>
       </c>
       <c r="C9">
-        <v>0.954166573135615</v>
+        <v>0.8220450005065311</v>
       </c>
       <c r="D9">
-        <v>0.9933135586892836</v>
+        <v>0.9205132305941266</v>
       </c>
       <c r="E9">
-        <v>0.9900761381570111</v>
+        <v>0.9513876119104799</v>
       </c>
       <c r="F9">
-        <v>0.9860267781314338</v>
+        <v>0.9358623055612068</v>
       </c>
       <c r="G9">
-        <v>0.9903017957784432</v>
+        <v>0.9802569437306823</v>
       </c>
       <c r="H9">
-        <v>0.9921893689913731</v>
+        <v>0.9386955271272902</v>
       </c>
       <c r="I9">
-        <v>0.9914207057303999</v>
+        <v>0.9397188879163643</v>
       </c>
       <c r="J9">
-        <v>0.9935296948411386</v>
+        <v>0.890227327630271</v>
       </c>
       <c r="K9">
-        <v>0.991350201726212</v>
+        <v>0.9805145326311562</v>
       </c>
       <c r="L9">
-        <v>0.9837694095261724</v>
+        <v>0.9402568945829868</v>
       </c>
       <c r="M9">
-        <v>0.9826572831722381</v>
+        <v>0.9866037832578122</v>
       </c>
       <c r="N9">
-        <v>0.9866704996836606</v>
+        <v>0.9697798705366382</v>
       </c>
       <c r="O9">
-        <v>0.9927410824879973</v>
+        <v>0.9417873364047419</v>
       </c>
       <c r="P9">
-        <v>0.9844788522063087</v>
+        <v>0.9770914081884698</v>
       </c>
       <c r="Q9">
-        <v>0.9897290542926046</v>
+        <v>0.9706217600789815</v>
       </c>
       <c r="R9">
-        <v>0.9802303482787503</v>
+        <v>0.9883394057366752</v>
       </c>
       <c r="S9">
-        <v>0.99041001784703</v>
+        <v>0.9364739338882666</v>
       </c>
       <c r="T9">
-        <v>0.978671835734592</v>
+        <v>0.9943074340586507</v>
       </c>
       <c r="U9">
-        <v>0.9954540501261219</v>
+        <v>0.9523334511536447</v>
       </c>
       <c r="V9">
-        <v>0.99416661963296</v>
+        <v>0.9861394002873988</v>
       </c>
       <c r="W9">
-        <v>0.980433758216851</v>
+        <v>0.9915020267339394</v>
       </c>
       <c r="X9">
-        <v>0.9742080380810211</v>
+        <v>0.9963721782475807</v>
       </c>
       <c r="Y9">
-        <v>0.9858639755743086</v>
+        <v>0.9419366029515479</v>
       </c>
       <c r="Z9">
-        <v>0.9917559628300111</v>
+        <v>0.9403869917943427</v>
       </c>
       <c r="AA9">
-        <v>0.9935361809307778</v>
+        <v>0.9934521284662644</v>
       </c>
       <c r="AB9">
-        <v>0.9898240312976754</v>
+        <v>0.9619702750365262</v>
       </c>
       <c r="AC9">
-        <v>0.9916366201049472</v>
+        <v>0.9466696198175395</v>
       </c>
       <c r="AD9">
-        <v>0.9931190062143425</v>
+        <v>0.9338238690264336</v>
       </c>
       <c r="AE9">
-        <v>0.9830047314415974</v>
+        <v>0.9771088636799745</v>
       </c>
       <c r="AF9">
-        <v>0.9964853563704449</v>
+        <v>0.9580998738748095</v>
       </c>
       <c r="AG9">
-        <v>0.9721140486052682</v>
+        <v>0.9856663846409279</v>
       </c>
       <c r="AH9">
-        <v>0.9856371993433668</v>
+        <v>0.9781094470686968</v>
       </c>
       <c r="AI9">
-        <v>0.9914568765198456</v>
+        <v>0.973254428122785</v>
       </c>
       <c r="AJ9">
-        <v>0.9898492674687818</v>
+        <v>0.9917254400901411</v>
       </c>
       <c r="AK9">
-        <v>0.9912998577919261</v>
+        <v>0.9682319354278011</v>
       </c>
       <c r="AL9">
-        <v>0.9941145608964379</v>
+        <v>0.9478288564086459</v>
       </c>
       <c r="AM9">
-        <v>0.9918791745970326</v>
+        <v>0.9897686872553136</v>
       </c>
       <c r="AN9">
-        <v>0.9962924688542077</v>
+        <v>0.8762854247825443</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.994131000952386</v>
+        <v>0.966254493829284</v>
       </c>
       <c r="C10">
-        <v>0.9432536044228169</v>
+        <v>0.9113073957085835</v>
       </c>
       <c r="D10">
-        <v>0.9859909988214383</v>
+        <v>0.9263507386377814</v>
       </c>
       <c r="E10">
-        <v>0.9843973019752209</v>
+        <v>0.8679419678478303</v>
       </c>
       <c r="F10">
-        <v>0.9779259301410611</v>
+        <v>0.8677826345520947</v>
       </c>
       <c r="G10">
-        <v>0.9884345519413685</v>
+        <v>0.9000621501539766</v>
       </c>
       <c r="H10">
-        <v>0.9830477558150381</v>
+        <v>0.8870027648411786</v>
       </c>
       <c r="I10">
-        <v>0.9906484427942648</v>
+        <v>0.9759280658709726</v>
       </c>
       <c r="J10">
-        <v>0.987001255511644</v>
+        <v>0.9139444626984744</v>
       </c>
       <c r="K10">
-        <v>0.9853014010817958</v>
+        <v>0.9229978401201309</v>
       </c>
       <c r="L10">
-        <v>0.977488803956391</v>
+        <v>0.9702100936378933</v>
       </c>
       <c r="M10">
-        <v>0.9794236903504554</v>
+        <v>0.8857679911249272</v>
       </c>
       <c r="N10">
-        <v>0.983129547141623</v>
+        <v>0.9513482769835728</v>
       </c>
       <c r="O10">
-        <v>0.9899620577294042</v>
+        <v>0.8477798266896333</v>
       </c>
       <c r="P10">
-        <v>0.9852863925450488</v>
+        <v>0.8257555205832249</v>
       </c>
       <c r="Q10">
-        <v>0.9883489405951206</v>
+        <v>0.7597039598521712</v>
       </c>
       <c r="R10">
-        <v>0.9745808970656652</v>
+        <v>0.8187140878252926</v>
       </c>
       <c r="S10">
-        <v>0.9833503452366493</v>
+        <v>0.8025496162759421</v>
       </c>
       <c r="T10">
-        <v>0.968806509752408</v>
+        <v>0.8211450939301563</v>
       </c>
       <c r="U10">
-        <v>0.9896360794096624</v>
+        <v>0.9216388133089768</v>
       </c>
       <c r="V10">
-        <v>0.988062663866379</v>
+        <v>0.876824506836668</v>
       </c>
       <c r="W10">
-        <v>0.973595382257189</v>
+        <v>0.8810672722783891</v>
       </c>
       <c r="X10">
-        <v>0.9670442027290226</v>
+        <v>0.8218233005593919</v>
       </c>
       <c r="Y10">
-        <v>0.9800486397975767</v>
+        <v>0.8244434157398909</v>
       </c>
       <c r="Z10">
-        <v>0.9882260888347641</v>
+        <v>0.8756332506738339</v>
       </c>
       <c r="AA10">
-        <v>0.9909820452179595</v>
+        <v>0.8985070040824314</v>
       </c>
       <c r="AB10">
-        <v>0.9830000724782072</v>
+        <v>0.8584291623335341</v>
       </c>
       <c r="AC10">
-        <v>0.9932962200073646</v>
+        <v>0.7914263387453434</v>
       </c>
       <c r="AD10">
-        <v>0.9938852546561843</v>
+        <v>0.6745393493799106</v>
       </c>
       <c r="AE10">
-        <v>0.9787064855126035</v>
+        <v>0.7379445274283915</v>
       </c>
       <c r="AF10">
-        <v>0.9920293367649284</v>
+        <v>0.7246276826353839</v>
       </c>
       <c r="AG10">
-        <v>0.9630925729858594</v>
+        <v>0.8125546874293716</v>
       </c>
       <c r="AH10">
-        <v>0.9799377242328317</v>
+        <v>0.7882612608607715</v>
       </c>
       <c r="AI10">
-        <v>0.9791596736662423</v>
+        <v>0.7450939559429525</v>
       </c>
       <c r="AJ10">
-        <v>0.9868442039621188</v>
+        <v>0.79642639130384</v>
       </c>
       <c r="AK10">
-        <v>0.9871104280446217</v>
+        <v>0.7444636572506117</v>
       </c>
       <c r="AL10">
-        <v>0.9929472732955974</v>
+        <v>0.8746698799047532</v>
       </c>
       <c r="AM10">
-        <v>0.9874677204528378</v>
+        <v>0.8154199517578009</v>
       </c>
       <c r="AN10">
-        <v>0.9914127387717037</v>
+        <v>0.5448057871589606</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0.9945071796524751</v>
+        <v>0.6787016148142743</v>
       </c>
       <c r="C11">
-        <v>0.944936621405277</v>
+        <v>0.7439476260462778</v>
       </c>
       <c r="D11">
-        <v>0.992973519906068</v>
+        <v>0.8691480660227607</v>
       </c>
       <c r="E11">
-        <v>0.9857363741851144</v>
+        <v>0.9311054531124316</v>
       </c>
       <c r="F11">
-        <v>0.9806368067316077</v>
+        <v>0.9116934911712551</v>
       </c>
       <c r="G11">
-        <v>0.9878361632786132</v>
+        <v>0.9473452389652106</v>
       </c>
       <c r="H11">
-        <v>0.9883971910523143</v>
+        <v>0.8915781211945472</v>
       </c>
       <c r="I11">
-        <v>0.9871004415726294</v>
+        <v>0.8692500202358509</v>
       </c>
       <c r="J11">
-        <v>0.9898813973918155</v>
+        <v>0.8336349318849768</v>
       </c>
       <c r="K11">
-        <v>0.9866597567477049</v>
+        <v>0.9410004637793445</v>
       </c>
       <c r="L11">
-        <v>0.9776296216494625</v>
+        <v>0.8646690335346322</v>
       </c>
       <c r="M11">
-        <v>0.9779980297966728</v>
+        <v>0.9630390021940336</v>
       </c>
       <c r="N11">
-        <v>0.9817816999259859</v>
+        <v>0.9164757915166333</v>
       </c>
       <c r="O11">
-        <v>0.9881893431250074</v>
+        <v>0.9226305745605438</v>
       </c>
       <c r="P11">
-        <v>0.9782191561070498</v>
+        <v>0.9758580915656877</v>
       </c>
       <c r="Q11">
-        <v>0.9862818670147585</v>
+        <v>0.9821201048303032</v>
       </c>
       <c r="R11">
-        <v>0.9731865449856694</v>
+        <v>0.9859244215350905</v>
       </c>
       <c r="S11">
-        <v>0.9856580327452427</v>
+        <v>0.9317582209435513</v>
       </c>
       <c r="T11">
-        <v>0.9709886180365154</v>
+        <v>0.9910561484728158</v>
       </c>
       <c r="U11">
-        <v>0.9919398643455343</v>
+        <v>0.9061400385492104</v>
       </c>
       <c r="V11">
-        <v>0.9902975903090465</v>
+        <v>0.9651879868203161</v>
       </c>
       <c r="W11">
-        <v>0.974077035115135</v>
+        <v>0.969648352889516</v>
       </c>
       <c r="X11">
-        <v>0.966479185586084</v>
+        <v>0.9946066942771247</v>
       </c>
       <c r="Y11">
-        <v>0.9806341154565426</v>
+        <v>0.9320934930794819</v>
       </c>
       <c r="Z11">
-        <v>0.9876850271882366</v>
+        <v>0.9049199048275059</v>
       </c>
       <c r="AA11">
-        <v>0.9903337709092863</v>
+        <v>0.9630088581932086</v>
       </c>
       <c r="AB11">
-        <v>0.9845750857866786</v>
+        <v>0.9397922946420224</v>
       </c>
       <c r="AC11">
-        <v>0.9870716567998802</v>
+        <v>0.944103245639748</v>
       </c>
       <c r="AD11">
-        <v>0.9894717307620483</v>
+        <v>0.9601717003338864</v>
       </c>
       <c r="AE11">
-        <v>0.976241413809097</v>
+        <v>0.9993062799511686</v>
       </c>
       <c r="AF11">
-        <v>0.993831344391101</v>
+        <v>0.9778656359932267</v>
       </c>
       <c r="AG11">
-        <v>0.9637885286605962</v>
+        <v>0.9844696300247998</v>
       </c>
       <c r="AH11">
-        <v>0.9805488520322669</v>
+        <v>0.9821408326639691</v>
       </c>
       <c r="AI11">
-        <v>0.9876928135967232</v>
+        <v>0.9897498318965493</v>
       </c>
       <c r="AJ11">
-        <v>0.9854268825207196</v>
+        <v>0.9953350088264915</v>
       </c>
       <c r="AK11">
-        <v>0.9860017134145148</v>
+        <v>0.9897245721375154</v>
       </c>
       <c r="AL11">
-        <v>0.9898400951765256</v>
+        <v>0.9108018555215915</v>
       </c>
       <c r="AM11">
-        <v>0.9867797897437605</v>
+        <v>0.9894209602421326</v>
       </c>
       <c r="AN11">
-        <v>0.9925622066626945</v>
+        <v>0.9368415063924643</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.9881314261802593</v>
+        <v>0.693823927354377</v>
       </c>
       <c r="C12">
-        <v>0.9313118052480902</v>
+        <v>0.7424373036219011</v>
       </c>
       <c r="D12">
-        <v>0.984210736734772</v>
+        <v>0.8742654292011199</v>
       </c>
       <c r="E12">
-        <v>0.9769832367771548</v>
+        <v>0.9272753534881164</v>
       </c>
       <c r="F12">
-        <v>0.9719295158548295</v>
+        <v>0.9029996135629312</v>
       </c>
       <c r="G12">
-        <v>0.9771028672191869</v>
+        <v>0.9487932398626971</v>
       </c>
       <c r="H12">
-        <v>0.9813529552160559</v>
+        <v>0.9146164711402733</v>
       </c>
       <c r="I12">
-        <v>0.9794169987978153</v>
+        <v>0.8810012356618613</v>
       </c>
       <c r="J12">
-        <v>0.9826399797537223</v>
+        <v>0.8293094992944888</v>
       </c>
       <c r="K12">
-        <v>0.9796631350472358</v>
+        <v>0.9446631132111921</v>
       </c>
       <c r="L12">
-        <v>0.9687480078679356</v>
+        <v>0.8866931403955464</v>
       </c>
       <c r="M12">
-        <v>0.9657171106370185</v>
+        <v>0.9627750557668431</v>
       </c>
       <c r="N12">
-        <v>0.9717133830984291</v>
+        <v>0.9253688099851557</v>
       </c>
       <c r="O12">
-        <v>0.9820637521389616</v>
+        <v>0.913073362634517</v>
       </c>
       <c r="P12">
-        <v>0.9711002998986268</v>
+        <v>0.9710444462297008</v>
       </c>
       <c r="Q12">
-        <v>0.9760290367609248</v>
+        <v>0.9774140816681948</v>
       </c>
       <c r="R12">
-        <v>0.9644767524824074</v>
+        <v>0.9835660650485313</v>
       </c>
       <c r="S12">
-        <v>0.9782879635827545</v>
+        <v>0.9352441090410746</v>
       </c>
       <c r="T12">
-        <v>0.9655059252396302</v>
+        <v>0.9919057600754626</v>
       </c>
       <c r="U12">
-        <v>0.986110137394912</v>
+        <v>0.9063346107414406</v>
       </c>
       <c r="V12">
-        <v>0.9839673461745094</v>
+        <v>0.9640377340348649</v>
       </c>
       <c r="W12">
-        <v>0.9638957460078731</v>
+        <v>0.9704536713469025</v>
       </c>
       <c r="X12">
-        <v>0.956493035871344</v>
+        <v>0.9961678856454417</v>
       </c>
       <c r="Y12">
-        <v>0.9709382548975418</v>
+        <v>0.9204024929264703</v>
       </c>
       <c r="Z12">
-        <v>0.9794064038830299</v>
+        <v>0.9018961705785585</v>
       </c>
       <c r="AA12">
-        <v>0.9820578162406832</v>
+        <v>0.9725141946682252</v>
       </c>
       <c r="AB12">
-        <v>0.9780200723345189</v>
+        <v>0.9353771803845511</v>
       </c>
       <c r="AC12">
-        <v>0.9829537209267641</v>
+        <v>0.9345257132942032</v>
       </c>
       <c r="AD12">
-        <v>0.9824690238848016</v>
+        <v>0.9561340965022821</v>
       </c>
       <c r="AE12">
-        <v>0.9685196636370712</v>
+        <v>0.9970351603738621</v>
       </c>
       <c r="AF12">
-        <v>0.9873057092690135</v>
+        <v>0.9717140240006447</v>
       </c>
       <c r="AG12">
-        <v>0.9551191792663076</v>
+        <v>0.9815753078994343</v>
       </c>
       <c r="AH12">
-        <v>0.9704646649787148</v>
+        <v>0.9785216429499679</v>
       </c>
       <c r="AI12">
-        <v>0.9822437302550364</v>
+        <v>0.9866901545857626</v>
       </c>
       <c r="AJ12">
-        <v>0.9764594281246426</v>
+        <v>0.9970724123478207</v>
       </c>
       <c r="AK12">
-        <v>0.9812588303638489</v>
+        <v>0.9804024806274517</v>
       </c>
       <c r="AL12">
-        <v>0.9872291721095732</v>
+        <v>0.9119528776354141</v>
       </c>
       <c r="AM12">
-        <v>0.9817952970556065</v>
+        <v>0.9869532886956242</v>
       </c>
       <c r="AN12">
-        <v>0.9890763627210239</v>
+        <v>0.9219271459589038</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块.xlsx
+++ b/FOF/data/基金公司-板块.xlsx
@@ -16,157 +16,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
     <t>鹏华</t>
   </si>
   <si>
-    <t>诺德</t>
-  </si>
-  <si>
     <t>华商</t>
   </si>
   <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
     <t>东方</t>
   </si>
   <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>平安大华</t>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
   </si>
   <si>
     <t>中邮创业</t>
   </si>
   <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
     <t>中证500</t>
   </si>
   <si>
-    <t>创业板综</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>中证1000</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>上证50</t>
-  </si>
-  <si>
     <t>中小板综</t>
-  </si>
-  <si>
-    <t>深证综指</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0.7748138526057787</v>
+        <v>0.9972642725025692</v>
       </c>
       <c r="C2">
-        <v>0.7457970655732253</v>
+        <v>0.9805981765485923</v>
       </c>
       <c r="D2">
-        <v>0.9216012279037684</v>
+        <v>0.9962452753831406</v>
       </c>
       <c r="E2">
-        <v>0.9431913431217768</v>
+        <v>0.9662865424965306</v>
       </c>
       <c r="F2">
-        <v>0.9006541092264601</v>
+        <v>0.8058161832065797</v>
       </c>
       <c r="G2">
-        <v>0.9417511164341058</v>
+        <v>0.9492276546868091</v>
       </c>
       <c r="H2">
-        <v>0.9696930094544355</v>
+        <v>0.9166917434974765</v>
       </c>
       <c r="I2">
-        <v>0.9228566332900588</v>
+        <v>0.9423652979579514</v>
       </c>
       <c r="J2">
-        <v>0.8323409410043304</v>
+        <v>0.9119643627526466</v>
       </c>
       <c r="K2">
-        <v>0.953660659932582</v>
+        <v>0.935656326446215</v>
       </c>
       <c r="L2">
-        <v>0.9388283122697995</v>
+        <v>0.8790507554922715</v>
       </c>
       <c r="M2">
-        <v>0.9599122466144967</v>
+        <v>0.9139010029767974</v>
       </c>
       <c r="N2">
-        <v>0.9537153193925838</v>
+        <v>0.8808961256884336</v>
       </c>
       <c r="O2">
-        <v>0.8894527372769141</v>
+        <v>0.9050956545630368</v>
       </c>
       <c r="P2">
-        <v>0.9673621154506092</v>
+        <v>0.9363557952135593</v>
       </c>
       <c r="Q2">
-        <v>0.9339782621602279</v>
+        <v>0.9000189296176325</v>
       </c>
       <c r="R2">
-        <v>0.9579933411021937</v>
+        <v>0.9315739117224058</v>
       </c>
       <c r="S2">
-        <v>0.9684724976717053</v>
+        <v>0.9217473444937618</v>
       </c>
       <c r="T2">
-        <v>0.9721219234650708</v>
+        <v>0.8886432580616428</v>
       </c>
       <c r="U2">
-        <v>0.9053530330708423</v>
+        <v>0.9094463144820809</v>
       </c>
       <c r="V2">
-        <v>0.955501851078464</v>
+        <v>0.9536727952143931</v>
       </c>
       <c r="W2">
-        <v>0.965793844695115</v>
+        <v>0.792352483240272</v>
       </c>
       <c r="X2">
-        <v>0.9847120949201842</v>
+        <v>0.7741324718941383</v>
       </c>
       <c r="Y2">
-        <v>0.8925755983145277</v>
+        <v>0.7304062745379175</v>
       </c>
       <c r="Z2">
-        <v>0.8778705343887913</v>
+        <v>0.8409191512962267</v>
       </c>
       <c r="AA2">
-        <v>0.991258825366173</v>
+        <v>0.9285157452393055</v>
       </c>
       <c r="AB2">
-        <v>0.9097591474885088</v>
+        <v>0.8458522087847218</v>
       </c>
       <c r="AC2">
-        <v>0.8891106953756632</v>
+        <v>0.8351928718341324</v>
       </c>
       <c r="AD2">
-        <v>0.8953041105200673</v>
+        <v>0.7948564108354796</v>
       </c>
       <c r="AE2">
-        <v>0.9695588693613777</v>
+        <v>0.8644479426653922</v>
       </c>
       <c r="AF2">
-        <v>0.9201518605940227</v>
+        <v>0.9194335087417975</v>
       </c>
       <c r="AG2">
-        <v>0.9529106937360252</v>
+        <v>0.9315674931351248</v>
       </c>
       <c r="AH2">
-        <v>0.9415662219110827</v>
+        <v>0.9385402439080824</v>
       </c>
       <c r="AI2">
-        <v>0.9461333335379846</v>
+        <v>0.9589279581112343</v>
       </c>
       <c r="AJ2">
-        <v>0.976113443870314</v>
+        <v>0.8122728279126268</v>
       </c>
       <c r="AK2">
-        <v>0.942014782611049</v>
+        <v>0.8319328164722546</v>
       </c>
       <c r="AL2">
-        <v>0.8869041622547983</v>
+        <v>0.8157098673901888</v>
       </c>
       <c r="AM2">
-        <v>0.9632156525472565</v>
+        <v>0.841365674302239</v>
       </c>
       <c r="AN2">
-        <v>0.8394907248866378</v>
+        <v>0.7200984217015644</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0.6939076221610059</v>
+        <v>0.8028508558589331</v>
       </c>
       <c r="C3">
-        <v>0.6587177179083737</v>
+        <v>0.8846802928318567</v>
       </c>
       <c r="D3">
-        <v>0.8914857139254729</v>
+        <v>0.833713504565148</v>
       </c>
       <c r="E3">
-        <v>0.9367709341701209</v>
+        <v>0.9057225167375231</v>
       </c>
       <c r="F3">
-        <v>0.8826434582471866</v>
+        <v>0.9820213579888826</v>
       </c>
       <c r="G3">
-        <v>0.8900420139467585</v>
+        <v>0.9233811791383</v>
       </c>
       <c r="H3">
-        <v>0.9172051583087248</v>
+        <v>0.9676790546298479</v>
       </c>
       <c r="I3">
-        <v>0.8533902690814631</v>
+        <v>0.9466270466054512</v>
       </c>
       <c r="J3">
-        <v>0.7743486450442632</v>
+        <v>0.9666389711629133</v>
       </c>
       <c r="K3">
-        <v>0.9047559932817891</v>
+        <v>0.9359152591927432</v>
       </c>
       <c r="L3">
-        <v>0.8533065278751495</v>
+        <v>0.9704572539292678</v>
       </c>
       <c r="M3">
-        <v>0.9258088864037816</v>
+        <v>0.9517078051843538</v>
       </c>
       <c r="N3">
-        <v>0.8967767928513902</v>
+        <v>0.9722038320174821</v>
       </c>
       <c r="O3">
-        <v>0.8594940616028458</v>
+        <v>0.9614864293825508</v>
       </c>
       <c r="P3">
-        <v>0.966555355563425</v>
+        <v>0.9371812082668354</v>
       </c>
       <c r="Q3">
-        <v>0.9114848284024546</v>
+        <v>0.9770563687353971</v>
       </c>
       <c r="R3">
-        <v>0.9313140995299825</v>
+        <v>0.9486466959025104</v>
       </c>
       <c r="S3">
-        <v>0.981530179288803</v>
+        <v>0.9454523350013391</v>
       </c>
       <c r="T3">
-        <v>0.9435950991348813</v>
+        <v>0.9754935356076337</v>
       </c>
       <c r="U3">
-        <v>0.846594464044083</v>
+        <v>0.9702145342773266</v>
       </c>
       <c r="V3">
-        <v>0.9209201029198574</v>
+        <v>0.9247737022500474</v>
       </c>
       <c r="W3">
-        <v>0.929945426257633</v>
+        <v>0.9931380243798932</v>
       </c>
       <c r="X3">
-        <v>0.9640387874981857</v>
+        <v>0.9904369945113265</v>
       </c>
       <c r="Y3">
-        <v>0.8734356469727685</v>
+        <v>0.9861614613418335</v>
       </c>
       <c r="Z3">
-        <v>0.8166218220954473</v>
+        <v>0.9829579184003963</v>
       </c>
       <c r="AA3">
-        <v>0.9502747821973868</v>
+        <v>0.9509488881598323</v>
       </c>
       <c r="AB3">
-        <v>0.8646756508109688</v>
+        <v>0.9788372590016577</v>
       </c>
       <c r="AC3">
-        <v>0.8582695761376783</v>
+        <v>0.9740935922773687</v>
       </c>
       <c r="AD3">
-        <v>0.8728466193209372</v>
+        <v>0.9851496846791911</v>
       </c>
       <c r="AE3">
-        <v>0.9689703367946133</v>
+        <v>0.9820099052198209</v>
       </c>
       <c r="AF3">
-        <v>0.9025031240808361</v>
+        <v>0.9361311485598606</v>
       </c>
       <c r="AG3">
-        <v>0.9258506019035414</v>
+        <v>0.9387142425362351</v>
       </c>
       <c r="AH3">
-        <v>0.9143567646965051</v>
+        <v>0.930962056256064</v>
       </c>
       <c r="AI3">
-        <v>0.9287660089899857</v>
+        <v>0.8614444429563052</v>
       </c>
       <c r="AJ3">
-        <v>0.9526308741012954</v>
+        <v>0.9816980229815314</v>
       </c>
       <c r="AK3">
-        <v>0.9442192309909867</v>
+        <v>0.9794566319606109</v>
       </c>
       <c r="AL3">
-        <v>0.8149781774320198</v>
+        <v>0.989559722977882</v>
       </c>
       <c r="AM3">
-        <v>0.940741557724588</v>
+        <v>0.9508431849198005</v>
       </c>
       <c r="AN3">
-        <v>0.8572941064559935</v>
+        <v>0.9752769056952505</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>0.8563103081537549</v>
+        <v>0.5738415314374585</v>
       </c>
       <c r="C4">
-        <v>0.9131268430112489</v>
+        <v>0.7090301896336049</v>
       </c>
       <c r="D4">
-        <v>0.9381412952722142</v>
+        <v>0.6295623316936392</v>
       </c>
       <c r="E4">
-        <v>0.9523958431132385</v>
+        <v>0.7236405208795142</v>
       </c>
       <c r="F4">
-        <v>0.9601803701809306</v>
+        <v>0.8761200007243513</v>
       </c>
       <c r="G4">
-        <v>0.9971093731562534</v>
+        <v>0.7882414825697164</v>
       </c>
       <c r="H4">
-        <v>0.9096557411696483</v>
+        <v>0.8320101861372219</v>
       </c>
       <c r="I4">
-        <v>0.973575389955632</v>
+        <v>0.8017869867825215</v>
       </c>
       <c r="J4">
-        <v>0.9530941600056637</v>
+        <v>0.8350826699543072</v>
       </c>
       <c r="K4">
-        <v>0.9964129239320568</v>
+        <v>0.8111022460443315</v>
       </c>
       <c r="L4">
-        <v>0.956634207120886</v>
+        <v>0.8844788292599702</v>
       </c>
       <c r="M4">
-        <v>0.9912792729303117</v>
+        <v>0.844587623081698</v>
       </c>
       <c r="N4">
-        <v>0.9882775873959931</v>
+        <v>0.865373383257536</v>
       </c>
       <c r="O4">
-        <v>0.9684684745116602</v>
+        <v>0.8580191140157265</v>
       </c>
       <c r="P4">
-        <v>0.9585910388149509</v>
+        <v>0.8064280583058734</v>
       </c>
       <c r="Q4">
-        <v>0.9485770014788207</v>
+        <v>0.8603037180667433</v>
       </c>
       <c r="R4">
-        <v>0.9746469868513875</v>
+        <v>0.8237303177208243</v>
       </c>
       <c r="S4">
-        <v>0.8931586679973123</v>
+        <v>0.8314587827073032</v>
       </c>
       <c r="T4">
-        <v>0.9728413727836113</v>
+        <v>0.8638300235468128</v>
       </c>
       <c r="U4">
-        <v>0.9900306113363931</v>
+        <v>0.8517064196527856</v>
       </c>
       <c r="V4">
-        <v>0.9909630361822707</v>
+        <v>0.7786651120138334</v>
       </c>
       <c r="W4">
-        <v>0.9919792795061803</v>
+        <v>0.9495194822809246</v>
       </c>
       <c r="X4">
-        <v>0.9679558987226402</v>
+        <v>0.9549565184180554</v>
       </c>
       <c r="Y4">
-        <v>0.9607968253596587</v>
+        <v>0.9535590141350321</v>
       </c>
       <c r="Z4">
-        <v>0.9780633466033714</v>
+        <v>0.9144005295497377</v>
       </c>
       <c r="AA4">
-        <v>0.9797119480145221</v>
+        <v>0.8280153536513755</v>
       </c>
       <c r="AB4">
-        <v>0.9826984711586778</v>
+        <v>0.9071431513700764</v>
       </c>
       <c r="AC4">
-        <v>0.9570359640672911</v>
+        <v>0.9120549133161622</v>
       </c>
       <c r="AD4">
-        <v>0.8962832561793599</v>
+        <v>0.9394883513616528</v>
       </c>
       <c r="AE4">
-        <v>0.9278124496246797</v>
+        <v>0.8991264788539102</v>
       </c>
       <c r="AF4">
-        <v>0.9302991033082895</v>
+        <v>0.8223736146220029</v>
       </c>
       <c r="AG4">
-        <v>0.9725474993179619</v>
+        <v>0.819155686513365</v>
       </c>
       <c r="AH4">
-        <v>0.962168193705229</v>
+        <v>0.8062577102838833</v>
       </c>
       <c r="AI4">
-        <v>0.9392172331459898</v>
+        <v>0.719778320666639</v>
       </c>
       <c r="AJ4">
-        <v>0.9587934512536953</v>
+        <v>0.9335532322538709</v>
       </c>
       <c r="AK4">
-        <v>0.9389577250097726</v>
+        <v>0.9140491280765241</v>
       </c>
       <c r="AL4">
-        <v>0.9794053322057868</v>
+        <v>0.9268724443546748</v>
       </c>
       <c r="AM4">
-        <v>0.9724775639602622</v>
+        <v>0.8336806992413597</v>
       </c>
       <c r="AN4">
-        <v>0.8205178873155227</v>
+        <v>0.9450697121511517</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>0.9324820554982344</v>
+        <v>0.8015793454597183</v>
       </c>
       <c r="C5">
-        <v>0.9736832217057761</v>
+        <v>0.8901860146509419</v>
       </c>
       <c r="D5">
-        <v>0.889875146031846</v>
+        <v>0.8352937600593536</v>
       </c>
       <c r="E5">
-        <v>0.8529943795532765</v>
+        <v>0.8841501056732531</v>
       </c>
       <c r="F5">
-        <v>0.8893070102312387</v>
+        <v>0.9468607141929301</v>
       </c>
       <c r="G5">
-        <v>0.9173068467766038</v>
+        <v>0.9280798589486988</v>
       </c>
       <c r="H5">
-        <v>0.8029828009956668</v>
+        <v>0.9576392769002168</v>
       </c>
       <c r="I5">
-        <v>0.9544042128843514</v>
+        <v>0.9374464307659478</v>
       </c>
       <c r="J5">
-        <v>0.9569174189364341</v>
+        <v>0.9664102495084219</v>
       </c>
       <c r="K5">
-        <v>0.9231329928673427</v>
+        <v>0.934452649074007</v>
       </c>
       <c r="L5">
-        <v>0.9224916384488225</v>
+        <v>0.9809069009798569</v>
       </c>
       <c r="M5">
-        <v>0.8906138077316316</v>
+        <v>0.9523088572718394</v>
       </c>
       <c r="N5">
-        <v>0.9327433093977153</v>
+        <v>0.9829326003182177</v>
       </c>
       <c r="O5">
-        <v>0.8921005843681453</v>
+        <v>0.9689597119896884</v>
       </c>
       <c r="P5">
-        <v>0.8160398959560322</v>
+        <v>0.9279943747669777</v>
       </c>
       <c r="Q5">
-        <v>0.786239215654249</v>
+        <v>0.9701620629660004</v>
       </c>
       <c r="R5">
-        <v>0.8330684645307257</v>
+        <v>0.9512461513262378</v>
       </c>
       <c r="S5">
-        <v>0.7359775589003102</v>
+        <v>0.9578328952099157</v>
       </c>
       <c r="T5">
-        <v>0.8231032553454103</v>
+        <v>0.9804953180064028</v>
       </c>
       <c r="U5">
-        <v>0.9486041378617585</v>
+        <v>0.9693985369600246</v>
       </c>
       <c r="V5">
-        <v>0.8876186156963577</v>
+        <v>0.9176517139371678</v>
       </c>
       <c r="W5">
-        <v>0.8842487094187763</v>
+        <v>0.9925168929885408</v>
       </c>
       <c r="X5">
-        <v>0.8103373889033356</v>
+        <v>0.9979174584681251</v>
       </c>
       <c r="Y5">
-        <v>0.8678853206615785</v>
+        <v>0.9943600414858295</v>
       </c>
       <c r="Z5">
-        <v>0.9261949635511002</v>
+        <v>0.9941649355259701</v>
       </c>
       <c r="AA5">
-        <v>0.8655607993531311</v>
+        <v>0.9551196095824652</v>
       </c>
       <c r="AB5">
-        <v>0.8986287718352866</v>
+        <v>0.9932855293705648</v>
       </c>
       <c r="AC5">
-        <v>0.8451636896992358</v>
+        <v>0.9928836129927359</v>
       </c>
       <c r="AD5">
-        <v>0.7066191516570328</v>
+        <v>0.9991649849235218</v>
       </c>
       <c r="AE5">
-        <v>0.7282052876319458</v>
+        <v>0.9882131127314505</v>
       </c>
       <c r="AF5">
-        <v>0.7554107333381963</v>
+        <v>0.9277843454233428</v>
       </c>
       <c r="AG5">
-        <v>0.8305311232674081</v>
+        <v>0.9441445311422719</v>
       </c>
       <c r="AH5">
-        <v>0.8125372988840248</v>
+        <v>0.9380930473844582</v>
       </c>
       <c r="AI5">
-        <v>0.7595267181492997</v>
+        <v>0.8724803080591224</v>
       </c>
       <c r="AJ5">
-        <v>0.7908880606407513</v>
+        <v>0.9952694426948133</v>
       </c>
       <c r="AK5">
-        <v>0.7623322670791554</v>
+        <v>0.995747228138766</v>
       </c>
       <c r="AL5">
-        <v>0.9203906950627063</v>
+        <v>0.9986571111121264</v>
       </c>
       <c r="AM5">
-        <v>0.8253925867759246</v>
+        <v>0.9657884850367078</v>
       </c>
       <c r="AN5">
-        <v>0.5884198761316858</v>
+        <v>0.9913536682219758</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.6662546487220361</v>
+        <v>0.6514630856477044</v>
       </c>
       <c r="C6">
-        <v>0.6612859870677976</v>
+        <v>0.7657857714239014</v>
       </c>
       <c r="D6">
-        <v>0.8638565797903258</v>
+        <v>0.6918356179705685</v>
       </c>
       <c r="E6">
-        <v>0.9131237520669894</v>
+        <v>0.7686462721107258</v>
       </c>
       <c r="F6">
-        <v>0.8652174389076293</v>
+        <v>0.9112487341581097</v>
       </c>
       <c r="G6">
-        <v>0.9037727126509167</v>
+        <v>0.8229633399972318</v>
       </c>
       <c r="H6">
-        <v>0.9263182853071819</v>
+        <v>0.8781526681954682</v>
       </c>
       <c r="I6">
-        <v>0.8503494775267483</v>
+        <v>0.8416513804997601</v>
       </c>
       <c r="J6">
-        <v>0.7671336636120929</v>
+        <v>0.8898597893512682</v>
       </c>
       <c r="K6">
-        <v>0.9092606146319608</v>
+        <v>0.8364316543413864</v>
       </c>
       <c r="L6">
-        <v>0.866666233513554</v>
+        <v>0.9146667834545988</v>
       </c>
       <c r="M6">
-        <v>0.9298679829302168</v>
+        <v>0.8663704792610402</v>
       </c>
       <c r="N6">
-        <v>0.8973813585605035</v>
+        <v>0.9198810308470708</v>
       </c>
       <c r="O6">
-        <v>0.8600112613292884</v>
+        <v>0.8906878906341485</v>
       </c>
       <c r="P6">
-        <v>0.9569538996082826</v>
+        <v>0.8295773688339861</v>
       </c>
       <c r="Q6">
-        <v>0.9392849179752011</v>
+        <v>0.8984974925528141</v>
       </c>
       <c r="R6">
-        <v>0.9494203669027899</v>
+        <v>0.8598206567702102</v>
       </c>
       <c r="S6">
-        <v>0.9571712734041425</v>
+        <v>0.8697993952754888</v>
       </c>
       <c r="T6">
-        <v>0.9641885731162371</v>
+        <v>0.9147701978001108</v>
       </c>
       <c r="U6">
-        <v>0.8531204915304771</v>
+        <v>0.8928479090799644</v>
       </c>
       <c r="V6">
-        <v>0.9279464292335596</v>
+        <v>0.8105742028362847</v>
       </c>
       <c r="W6">
-        <v>0.938200126703322</v>
+        <v>0.9626997548854239</v>
       </c>
       <c r="X6">
-        <v>0.9780650817754123</v>
+        <v>0.9754904146939991</v>
       </c>
       <c r="Y6">
-        <v>0.8714367404245704</v>
+        <v>0.9895525642975141</v>
       </c>
       <c r="Z6">
-        <v>0.836156159599612</v>
+        <v>0.9459969900216383</v>
       </c>
       <c r="AA6">
-        <v>0.9586285641789398</v>
+        <v>0.865742007443325</v>
       </c>
       <c r="AB6">
-        <v>0.8804234742954311</v>
+        <v>0.9427636615779172</v>
       </c>
       <c r="AC6">
-        <v>0.8777602268127574</v>
+        <v>0.9448153684523229</v>
       </c>
       <c r="AD6">
-        <v>0.9173387717117659</v>
+        <v>0.968815239512169</v>
       </c>
       <c r="AE6">
-        <v>0.9857875439712548</v>
+        <v>0.9307544353844812</v>
       </c>
       <c r="AF6">
-        <v>0.933506238152281</v>
+        <v>0.8338928539263477</v>
       </c>
       <c r="AG6">
-        <v>0.9454729714725373</v>
+        <v>0.8492516971328331</v>
       </c>
       <c r="AH6">
-        <v>0.9395607746417267</v>
+        <v>0.8388391491455985</v>
       </c>
       <c r="AI6">
-        <v>0.9571868720342035</v>
+        <v>0.7458238508374417</v>
       </c>
       <c r="AJ6">
-        <v>0.975658870768051</v>
+        <v>0.9564658192491642</v>
       </c>
       <c r="AK6">
-        <v>0.9541414459200203</v>
+        <v>0.9508864357032768</v>
       </c>
       <c r="AL6">
-        <v>0.8461817763109353</v>
+        <v>0.9623422596639213</v>
       </c>
       <c r="AM6">
-        <v>0.9564931874579804</v>
+        <v>0.9159339955295159</v>
       </c>
       <c r="AN6">
-        <v>0.8910245897544632</v>
+        <v>0.9887596176985819</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0.8879106227264612</v>
+        <v>0.872344400021838</v>
       </c>
       <c r="C7">
-        <v>0.8769292142970763</v>
+        <v>0.9397012678792644</v>
       </c>
       <c r="D7">
-        <v>0.9577590255735968</v>
+        <v>0.8974683293892711</v>
       </c>
       <c r="E7">
-        <v>0.9514299098055405</v>
+        <v>0.9243981558487556</v>
       </c>
       <c r="F7">
-        <v>0.9371854433651473</v>
+        <v>0.9413833640816311</v>
       </c>
       <c r="G7">
-        <v>0.9770293530746252</v>
+        <v>0.9604268282484311</v>
       </c>
       <c r="H7">
-        <v>0.9569291904918527</v>
+        <v>0.9784720486739142</v>
       </c>
       <c r="I7">
-        <v>0.9867679852060565</v>
+        <v>0.965397020013542</v>
       </c>
       <c r="J7">
-        <v>0.9238025136623309</v>
+        <v>0.9885325566347839</v>
       </c>
       <c r="K7">
-        <v>0.9887069178498977</v>
+        <v>0.9600013859166155</v>
       </c>
       <c r="L7">
-        <v>0.9868727810824461</v>
+        <v>0.9911223495495936</v>
       </c>
       <c r="M7">
-        <v>0.977217411478317</v>
+        <v>0.9703467175694025</v>
       </c>
       <c r="N7">
-        <v>0.9954882947082341</v>
+        <v>0.998358367415258</v>
       </c>
       <c r="O7">
-        <v>0.9295130196550104</v>
+        <v>0.9861093020398956</v>
       </c>
       <c r="P7">
-        <v>0.9495757330100757</v>
+        <v>0.9528553136487615</v>
       </c>
       <c r="Q7">
-        <v>0.913197000898387</v>
+        <v>0.9846202568526605</v>
       </c>
       <c r="R7">
-        <v>0.949796917913477</v>
+        <v>0.9762276393419944</v>
       </c>
       <c r="S7">
-        <v>0.9216462926838156</v>
+        <v>0.9821450770792761</v>
       </c>
       <c r="T7">
-        <v>0.9557858285279988</v>
+        <v>0.9959766012468092</v>
       </c>
       <c r="U7">
-        <v>0.9672528770933163</v>
+        <v>0.9875416147773844</v>
       </c>
       <c r="V7">
-        <v>0.9725459733178143</v>
+        <v>0.949790582261216</v>
       </c>
       <c r="W7">
-        <v>0.9784108900966154</v>
+        <v>0.978611609302945</v>
       </c>
       <c r="X7">
-        <v>0.9591885294927935</v>
+        <v>0.9827120669941635</v>
       </c>
       <c r="Y7">
-        <v>0.9205278829898937</v>
+        <v>0.9748455606784705</v>
       </c>
       <c r="Z7">
-        <v>0.9380611821781661</v>
+        <v>0.9953340916841295</v>
       </c>
       <c r="AA7">
-        <v>0.9905863000857578</v>
+        <v>0.979507583458721</v>
       </c>
       <c r="AB7">
-        <v>0.9462066700160565</v>
+        <v>0.9970004669851839</v>
       </c>
       <c r="AC7">
-        <v>0.9081076537303451</v>
+        <v>0.9948473495396325</v>
       </c>
       <c r="AD7">
-        <v>0.8544557347928114</v>
+        <v>0.9907769714611734</v>
       </c>
       <c r="AE7">
-        <v>0.9132016646773281</v>
+        <v>0.9939289540566574</v>
       </c>
       <c r="AF7">
-        <v>0.8906443582939335</v>
+        <v>0.9471577151935558</v>
       </c>
       <c r="AG7">
-        <v>0.94516938619726</v>
+        <v>0.9695832408376699</v>
       </c>
       <c r="AH7">
-        <v>0.9297111215754336</v>
+        <v>0.9667226540104487</v>
       </c>
       <c r="AI7">
-        <v>0.910341925212063</v>
+        <v>0.9153934631879982</v>
       </c>
       <c r="AJ7">
-        <v>0.944994757615822</v>
+        <v>0.9894091814895544</v>
       </c>
       <c r="AK7">
-        <v>0.9074882451314821</v>
+        <v>0.9970029442032878</v>
       </c>
       <c r="AL7">
-        <v>0.9423198368739917</v>
+        <v>0.9946993737900113</v>
       </c>
       <c r="AM7">
-        <v>0.9499940145092601</v>
+        <v>0.9832495551136466</v>
       </c>
       <c r="AN7">
-        <v>0.7655662420689702</v>
+        <v>0.9734913700103437</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.8643973420290945</v>
+        <v>0.7121626394255347</v>
       </c>
       <c r="C8">
-        <v>0.9613967177997074</v>
+        <v>0.8170904453250525</v>
       </c>
       <c r="D8">
-        <v>0.9111416839731244</v>
+        <v>0.750021274906863</v>
       </c>
       <c r="E8">
-        <v>0.9212460423482186</v>
+        <v>0.8180988828590305</v>
       </c>
       <c r="F8">
-        <v>0.9535451110417452</v>
+        <v>0.932611507261682</v>
       </c>
       <c r="G8">
-        <v>0.9870357878504398</v>
+        <v>0.8673189753723264</v>
       </c>
       <c r="H8">
-        <v>0.8459746243282444</v>
+        <v>0.9142761644649818</v>
       </c>
       <c r="I8">
-        <v>0.9620965355179301</v>
+        <v>0.8834971849354497</v>
       </c>
       <c r="J8">
-        <v>0.9769063967006391</v>
+        <v>0.9244857065514762</v>
       </c>
       <c r="K8">
-        <v>0.98015125960507</v>
+        <v>0.8785039956388786</v>
       </c>
       <c r="L8">
-        <v>0.9295657188718414</v>
+        <v>0.9447957001761251</v>
       </c>
       <c r="M8">
-        <v>0.9695976005092546</v>
+        <v>0.9039958004436501</v>
       </c>
       <c r="N8">
-        <v>0.9682834688751195</v>
+        <v>0.9490576124560562</v>
       </c>
       <c r="O8">
-        <v>0.9711300749211828</v>
+        <v>0.9253254407242303</v>
       </c>
       <c r="P8">
-        <v>0.9183480391005151</v>
+        <v>0.8721728760144772</v>
       </c>
       <c r="Q8">
-        <v>0.9202295273238835</v>
+        <v>0.9315953959495294</v>
       </c>
       <c r="R8">
-        <v>0.9463355893517044</v>
+        <v>0.8994559110715642</v>
       </c>
       <c r="S8">
-        <v>0.8225650460809306</v>
+        <v>0.9077019070901573</v>
       </c>
       <c r="T8">
-        <v>0.9367428408741703</v>
+        <v>0.9452015634068159</v>
       </c>
       <c r="U8">
-        <v>0.9946752750902171</v>
+        <v>0.9274058074923065</v>
       </c>
       <c r="V8">
-        <v>0.9713114459126738</v>
+        <v>0.8562264219121439</v>
       </c>
       <c r="W8">
-        <v>0.967717110287823</v>
+        <v>0.9800805579910749</v>
       </c>
       <c r="X8">
-        <v>0.9234257582646523</v>
+        <v>0.9898114303083767</v>
       </c>
       <c r="Y8">
-        <v>0.9584247110940531</v>
+        <v>0.9975122652522106</v>
       </c>
       <c r="Z8">
-        <v>0.9908047373034177</v>
+        <v>0.9695802648729973</v>
       </c>
       <c r="AA8">
-        <v>0.9373092155611616</v>
+        <v>0.9045792894957672</v>
       </c>
       <c r="AB8">
-        <v>0.9818315110525145</v>
+        <v>0.9670522724854325</v>
       </c>
       <c r="AC8">
-        <v>0.9546589299860857</v>
+        <v>0.9679332905038346</v>
       </c>
       <c r="AD8">
-        <v>0.8631815105353056</v>
+        <v>0.9857437684507149</v>
       </c>
       <c r="AE8">
-        <v>0.8724675527393384</v>
+        <v>0.9579772663685162</v>
       </c>
       <c r="AF8">
-        <v>0.9004421545056883</v>
+        <v>0.874683785719205</v>
       </c>
       <c r="AG8">
-        <v>0.9457853306631071</v>
+        <v>0.8898939044774624</v>
       </c>
       <c r="AH8">
-        <v>0.9362707426028414</v>
+        <v>0.8809606054684218</v>
       </c>
       <c r="AI8">
-        <v>0.9006146940455201</v>
+        <v>0.7972535009296414</v>
       </c>
       <c r="AJ8">
-        <v>0.9143287336163326</v>
+        <v>0.9764252388316145</v>
       </c>
       <c r="AK8">
-        <v>0.9022671959369838</v>
+        <v>0.973029449347208</v>
       </c>
       <c r="AL8">
-        <v>0.9883048500579769</v>
+        <v>0.9817797910310757</v>
       </c>
       <c r="AM8">
-        <v>0.9406036808550515</v>
+        <v>0.9401872648785565</v>
       </c>
       <c r="AN8">
-        <v>0.7804197577985341</v>
+        <v>0.9955120130914746</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.7855366299848445</v>
+        <v>0.5156759078995663</v>
       </c>
       <c r="C9">
-        <v>0.8220450005065311</v>
+        <v>0.6529533737087819</v>
       </c>
       <c r="D9">
-        <v>0.9205132305941266</v>
+        <v>0.5661883944159248</v>
       </c>
       <c r="E9">
-        <v>0.9513876119104799</v>
+        <v>0.6560635655960287</v>
       </c>
       <c r="F9">
-        <v>0.9358623055612068</v>
+        <v>0.8405040386285175</v>
       </c>
       <c r="G9">
-        <v>0.9802569437306823</v>
+        <v>0.7285921758095336</v>
       </c>
       <c r="H9">
-        <v>0.9386955271272902</v>
+        <v>0.7872801395470118</v>
       </c>
       <c r="I9">
-        <v>0.9397188879163643</v>
+        <v>0.7451467267467535</v>
       </c>
       <c r="J9">
-        <v>0.890227327630271</v>
+        <v>0.8003431539912238</v>
       </c>
       <c r="K9">
-        <v>0.9805145326311562</v>
+        <v>0.7474835857500548</v>
       </c>
       <c r="L9">
-        <v>0.9402568945829868</v>
+        <v>0.8443803090970687</v>
       </c>
       <c r="M9">
-        <v>0.9866037832578122</v>
+        <v>0.7858465010431845</v>
       </c>
       <c r="N9">
-        <v>0.9697798705366382</v>
+        <v>0.8414311167469</v>
       </c>
       <c r="O9">
-        <v>0.9417873364047419</v>
+        <v>0.8119671201807013</v>
       </c>
       <c r="P9">
-        <v>0.9770914081884698</v>
+        <v>0.7387164533829423</v>
       </c>
       <c r="Q9">
-        <v>0.9706217600789815</v>
+        <v>0.8160176521649518</v>
       </c>
       <c r="R9">
-        <v>0.9883394057366752</v>
+        <v>0.771129248132571</v>
       </c>
       <c r="S9">
-        <v>0.9364739338882666</v>
+        <v>0.7853800926013906</v>
       </c>
       <c r="T9">
-        <v>0.9943074340586507</v>
+        <v>0.8343251795406208</v>
       </c>
       <c r="U9">
-        <v>0.9523334511536447</v>
+        <v>0.8086394553587829</v>
       </c>
       <c r="V9">
-        <v>0.9861394002873988</v>
+        <v>0.7123248122354039</v>
       </c>
       <c r="W9">
-        <v>0.9915020267339394</v>
+        <v>0.9153117294193959</v>
       </c>
       <c r="X9">
-        <v>0.9963721782475807</v>
+        <v>0.931925882819993</v>
       </c>
       <c r="Y9">
-        <v>0.9419366029515479</v>
+        <v>0.9497458320668786</v>
       </c>
       <c r="Z9">
-        <v>0.9403869917943427</v>
+        <v>0.8850689883115243</v>
       </c>
       <c r="AA9">
-        <v>0.9934521284662644</v>
+        <v>0.7779742643429236</v>
       </c>
       <c r="AB9">
-        <v>0.9619702750365262</v>
+        <v>0.8800592192376165</v>
       </c>
       <c r="AC9">
-        <v>0.9466696198175395</v>
+        <v>0.8861996321151974</v>
       </c>
       <c r="AD9">
-        <v>0.9338238690264336</v>
+        <v>0.9195548408023441</v>
       </c>
       <c r="AE9">
-        <v>0.9771088636799745</v>
+        <v>0.8630391743586847</v>
       </c>
       <c r="AF9">
-        <v>0.9580998738748095</v>
+        <v>0.7506125300848644</v>
       </c>
       <c r="AG9">
-        <v>0.9856663846409279</v>
+        <v>0.7622893176270572</v>
       </c>
       <c r="AH9">
-        <v>0.9781094470686968</v>
+        <v>0.7492031333112781</v>
       </c>
       <c r="AI9">
-        <v>0.973254428122785</v>
+        <v>0.6467613448783021</v>
       </c>
       <c r="AJ9">
-        <v>0.9917254400901411</v>
+        <v>0.9050980377243429</v>
       </c>
       <c r="AK9">
-        <v>0.9682319354278011</v>
+        <v>0.8914103164490501</v>
       </c>
       <c r="AL9">
-        <v>0.9478288564086459</v>
+        <v>0.9055205546776981</v>
       </c>
       <c r="AM9">
-        <v>0.9897686872553136</v>
+        <v>0.8353461776553051</v>
       </c>
       <c r="AN9">
-        <v>0.8762854247825443</v>
+        <v>0.9499045780225526</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.966254493829284</v>
+        <v>0.9036521174626641</v>
       </c>
       <c r="C10">
-        <v>0.9113073957085835</v>
+        <v>0.9660046785753783</v>
       </c>
       <c r="D10">
-        <v>0.9263507386377814</v>
+        <v>0.9317071885720918</v>
       </c>
       <c r="E10">
-        <v>0.8679419678478303</v>
+        <v>0.9437768063777328</v>
       </c>
       <c r="F10">
-        <v>0.8677826345520947</v>
+        <v>0.917342687842245</v>
       </c>
       <c r="G10">
-        <v>0.9000621501539766</v>
+        <v>0.9846522856324029</v>
       </c>
       <c r="H10">
-        <v>0.8870027648411786</v>
+        <v>0.9797284670146511</v>
       </c>
       <c r="I10">
-        <v>0.9759280658709726</v>
+        <v>0.9786186915915041</v>
       </c>
       <c r="J10">
-        <v>0.9139444626984744</v>
+        <v>0.9870485998962316</v>
       </c>
       <c r="K10">
-        <v>0.9229978401201309</v>
+        <v>0.9825917211055009</v>
       </c>
       <c r="L10">
-        <v>0.9702100936378933</v>
+        <v>0.9969440975748098</v>
       </c>
       <c r="M10">
-        <v>0.8857679911249272</v>
+        <v>0.9881540524544562</v>
       </c>
       <c r="N10">
-        <v>0.9513482769835728</v>
+        <v>0.9923586146385904</v>
       </c>
       <c r="O10">
-        <v>0.8477798266896333</v>
+        <v>0.9967701974913529</v>
       </c>
       <c r="P10">
-        <v>0.8257555205832249</v>
+        <v>0.9746433542512482</v>
       </c>
       <c r="Q10">
-        <v>0.7597039598521712</v>
+        <v>0.9856016990107894</v>
       </c>
       <c r="R10">
-        <v>0.8187140878252926</v>
+        <v>0.9915456758734864</v>
       </c>
       <c r="S10">
-        <v>0.8025496162759421</v>
+        <v>0.9971803577639009</v>
       </c>
       <c r="T10">
-        <v>0.8211450939301563</v>
+        <v>0.9914202250839409</v>
       </c>
       <c r="U10">
-        <v>0.9216388133089768</v>
+        <v>0.9915335661041607</v>
       </c>
       <c r="V10">
-        <v>0.876824506836668</v>
+        <v>0.9733043256662517</v>
       </c>
       <c r="W10">
-        <v>0.8810672722783891</v>
+        <v>0.9689034638497894</v>
       </c>
       <c r="X10">
-        <v>0.8218233005593919</v>
+        <v>0.9680328439502538</v>
       </c>
       <c r="Y10">
-        <v>0.8244434157398909</v>
+        <v>0.944565220327271</v>
       </c>
       <c r="Z10">
-        <v>0.8756332506738339</v>
+        <v>0.9908507100917209</v>
       </c>
       <c r="AA10">
-        <v>0.8985070040824314</v>
+        <v>0.9933886933733068</v>
       </c>
       <c r="AB10">
-        <v>0.8584291623335341</v>
+        <v>0.992973940380249</v>
       </c>
       <c r="AC10">
-        <v>0.7914263387453434</v>
+        <v>0.9918668185946193</v>
       </c>
       <c r="AD10">
-        <v>0.6745393493799106</v>
+        <v>0.9783709118404089</v>
       </c>
       <c r="AE10">
-        <v>0.7379445274283915</v>
+        <v>0.9931836206146215</v>
       </c>
       <c r="AF10">
-        <v>0.7246276826353839</v>
+        <v>0.9716112607993479</v>
       </c>
       <c r="AG10">
-        <v>0.8125546874293716</v>
+        <v>0.9901509061742676</v>
       </c>
       <c r="AH10">
-        <v>0.7882612608607715</v>
+        <v>0.989155845892514</v>
       </c>
       <c r="AI10">
-        <v>0.7450939559429525</v>
+        <v>0.9575480710145966</v>
       </c>
       <c r="AJ10">
-        <v>0.79642639130384</v>
+        <v>0.9841560364700883</v>
       </c>
       <c r="AK10">
-        <v>0.7444636572506117</v>
+        <v>0.9898853863600839</v>
       </c>
       <c r="AL10">
-        <v>0.8746698799047532</v>
+        <v>0.98161740206169</v>
       </c>
       <c r="AM10">
-        <v>0.8154199517578009</v>
+        <v>0.9600854180585001</v>
       </c>
       <c r="AN10">
-        <v>0.5448057871589606</v>
+        <v>0.9409713050402498</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0.6787016148142743</v>
+        <v>0.8591406516890698</v>
       </c>
       <c r="C11">
-        <v>0.7439476260462778</v>
+        <v>0.9326465158282944</v>
       </c>
       <c r="D11">
-        <v>0.8691480660227607</v>
+        <v>0.8881968928507664</v>
       </c>
       <c r="E11">
-        <v>0.9311054531124316</v>
+        <v>0.9282542054207745</v>
       </c>
       <c r="F11">
-        <v>0.9116934911712551</v>
+        <v>0.9568497361582011</v>
       </c>
       <c r="G11">
-        <v>0.9473452389652106</v>
+        <v>0.9607372473309866</v>
       </c>
       <c r="H11">
-        <v>0.8915781211945472</v>
+        <v>0.9819755159888338</v>
       </c>
       <c r="I11">
-        <v>0.8692500202358509</v>
+        <v>0.9689993797271809</v>
       </c>
       <c r="J11">
-        <v>0.8336349318849768</v>
+        <v>0.9874389447495594</v>
       </c>
       <c r="K11">
-        <v>0.9410004637793445</v>
+        <v>0.9648627918375529</v>
       </c>
       <c r="L11">
-        <v>0.8646690335346322</v>
+        <v>0.993913903531049</v>
       </c>
       <c r="M11">
-        <v>0.9630390021940336</v>
+        <v>0.9764557931999492</v>
       </c>
       <c r="N11">
-        <v>0.9164757915166333</v>
+        <v>0.9952479663114291</v>
       </c>
       <c r="O11">
-        <v>0.9226305745605438</v>
+        <v>0.9882780503308733</v>
       </c>
       <c r="P11">
-        <v>0.9758580915656877</v>
+        <v>0.9603012189576757</v>
       </c>
       <c r="Q11">
-        <v>0.9821201048303032</v>
+        <v>0.9898393786796748</v>
       </c>
       <c r="R11">
-        <v>0.9859244215350905</v>
+        <v>0.9779164646901221</v>
       </c>
       <c r="S11">
-        <v>0.9317582209435513</v>
+        <v>0.9808147737285856</v>
       </c>
       <c r="T11">
-        <v>0.9910561484728158</v>
+        <v>0.9951791777872907</v>
       </c>
       <c r="U11">
-        <v>0.9061400385492104</v>
+        <v>0.9900442965487426</v>
       </c>
       <c r="V11">
-        <v>0.9651879868203161</v>
+        <v>0.9538447727515832</v>
       </c>
       <c r="W11">
-        <v>0.969648352889516</v>
+        <v>0.990879192450998</v>
       </c>
       <c r="X11">
-        <v>0.9946066942771247</v>
+        <v>0.9913617202613556</v>
       </c>
       <c r="Y11">
-        <v>0.9320934930794819</v>
+        <v>0.9803405948606323</v>
       </c>
       <c r="Z11">
-        <v>0.9049199048275059</v>
+        <v>0.9987541665898559</v>
       </c>
       <c r="AA11">
-        <v>0.9630088581932086</v>
+        <v>0.9805237158336371</v>
       </c>
       <c r="AB11">
-        <v>0.9397922946420224</v>
+        <v>0.9983695414175644</v>
       </c>
       <c r="AC11">
-        <v>0.944103245639748</v>
+        <v>0.9958265637135755</v>
       </c>
       <c r="AD11">
-        <v>0.9601717003338864</v>
+        <v>0.9950050130075728</v>
       </c>
       <c r="AE11">
-        <v>0.9993062799511686</v>
+        <v>0.9981530561498572</v>
       </c>
       <c r="AF11">
-        <v>0.9778656359932267</v>
+        <v>0.9574877085196923</v>
       </c>
       <c r="AG11">
-        <v>0.9844696300247998</v>
+        <v>0.9716542209825147</v>
       </c>
       <c r="AH11">
-        <v>0.9821408326639691</v>
+        <v>0.9673624564364418</v>
       </c>
       <c r="AI11">
-        <v>0.9897498318965493</v>
+        <v>0.913970405875522</v>
       </c>
       <c r="AJ11">
-        <v>0.9953350088264915</v>
+        <v>0.9948344299157141</v>
       </c>
       <c r="AK11">
-        <v>0.9897245721375154</v>
+        <v>0.9978956946210581</v>
       </c>
       <c r="AL11">
-        <v>0.9108018555215915</v>
+        <v>0.998462879661731</v>
       </c>
       <c r="AM11">
-        <v>0.9894209602421326</v>
+        <v>0.9724857919798211</v>
       </c>
       <c r="AN11">
-        <v>0.9368415063924643</v>
+        <v>0.9749265817815996</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.693823927354377</v>
+        <v>0.8638645298524666</v>
       </c>
       <c r="C12">
-        <v>0.7424373036219011</v>
+        <v>0.9267549062237859</v>
       </c>
       <c r="D12">
-        <v>0.8742654292011199</v>
+        <v>0.8838568494477632</v>
       </c>
       <c r="E12">
-        <v>0.9272753534881164</v>
+        <v>0.9197881864253196</v>
       </c>
       <c r="F12">
-        <v>0.9029996135629312</v>
+        <v>0.9563826087767735</v>
       </c>
       <c r="G12">
-        <v>0.9487932398626971</v>
+        <v>0.9442373628641395</v>
       </c>
       <c r="H12">
-        <v>0.9146164711402733</v>
+        <v>0.9777141644322931</v>
       </c>
       <c r="I12">
-        <v>0.8810012356618613</v>
+        <v>0.95846584163729</v>
       </c>
       <c r="J12">
-        <v>0.8293094992944888</v>
+        <v>0.9876731996398522</v>
       </c>
       <c r="K12">
-        <v>0.9446631132111921</v>
+        <v>0.9444538747759724</v>
       </c>
       <c r="L12">
-        <v>0.8866931403955464</v>
+        <v>0.979724176980913</v>
       </c>
       <c r="M12">
-        <v>0.9627750557668431</v>
+        <v>0.9554211160398494</v>
       </c>
       <c r="N12">
-        <v>0.9253688099851557</v>
+        <v>0.9961673833068933</v>
       </c>
       <c r="O12">
-        <v>0.913073362634517</v>
+        <v>0.9740579750673863</v>
       </c>
       <c r="P12">
-        <v>0.9710444462297008</v>
+        <v>0.9394522536439476</v>
       </c>
       <c r="Q12">
-        <v>0.9774140816681948</v>
+        <v>0.9815635722776617</v>
       </c>
       <c r="R12">
-        <v>0.9835660650485313</v>
+        <v>0.9643536647635829</v>
       </c>
       <c r="S12">
-        <v>0.9352441090410746</v>
+        <v>0.9680330863268822</v>
       </c>
       <c r="T12">
-        <v>0.9919057600754626</v>
+        <v>0.994140538506658</v>
       </c>
       <c r="U12">
-        <v>0.9063346107414406</v>
+        <v>0.9820773170753818</v>
       </c>
       <c r="V12">
-        <v>0.9640377340348649</v>
+        <v>0.9367636118935005</v>
       </c>
       <c r="W12">
-        <v>0.9704536713469025</v>
+        <v>0.9736681080525018</v>
       </c>
       <c r="X12">
-        <v>0.9961678856454417</v>
+        <v>0.9788913318361342</v>
       </c>
       <c r="Y12">
-        <v>0.9204024929264703</v>
+        <v>0.9802064506814131</v>
       </c>
       <c r="Z12">
-        <v>0.9018961705785585</v>
+        <v>0.9881825240970852</v>
       </c>
       <c r="AA12">
-        <v>0.9725141946682252</v>
+        <v>0.9680556693339876</v>
       </c>
       <c r="AB12">
-        <v>0.9353771803845511</v>
+        <v>0.9894906071822273</v>
       </c>
       <c r="AC12">
-        <v>0.9345257132942032</v>
+        <v>0.9852038424692129</v>
       </c>
       <c r="AD12">
-        <v>0.9561340965022821</v>
+        <v>0.9857471958678167</v>
       </c>
       <c r="AE12">
-        <v>0.9970351603738621</v>
+        <v>0.9866418372611648</v>
       </c>
       <c r="AF12">
-        <v>0.9717140240006447</v>
+        <v>0.9303398962328659</v>
       </c>
       <c r="AG12">
-        <v>0.9815753078994343</v>
+        <v>0.9537343564044065</v>
       </c>
       <c r="AH12">
-        <v>0.9785216429499679</v>
+        <v>0.9501293728247379</v>
       </c>
       <c r="AI12">
-        <v>0.9866901545857626</v>
+        <v>0.8889948398607362</v>
       </c>
       <c r="AJ12">
-        <v>0.9970724123478207</v>
+        <v>0.980384803551805</v>
       </c>
       <c r="AK12">
-        <v>0.9804024806274517</v>
+        <v>0.9904827045679858</v>
       </c>
       <c r="AL12">
-        <v>0.9119528776354141</v>
+        <v>0.9923965007705664</v>
       </c>
       <c r="AM12">
-        <v>0.9869532886956242</v>
+        <v>0.9922770102432985</v>
       </c>
       <c r="AN12">
-        <v>0.9219271459589038</v>
+        <v>0.9790394515805348</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块.xlsx
+++ b/FOF/data/基金公司-板块.xlsx
@@ -16,157 +16,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
     <t>汇添富</t>
   </si>
   <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
     <t>中金</t>
   </si>
   <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
     <t>中欧</t>
   </si>
   <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
     <t>博时</t>
   </si>
   <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>建信</t>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>国泰</t>
   </si>
   <si>
     <t>平安大华</t>
   </si>
   <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>南方</t>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>华商</t>
   </si>
   <si>
     <t>海富通</t>
   </si>
   <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
     <t>创业板综</t>
   </si>
   <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>上证50</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
     <t>中证1000</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中小板综</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0.9972642725025692</v>
+        <v>0.4706509359048954</v>
       </c>
       <c r="C2">
-        <v>0.9805981765485923</v>
+        <v>0.671457099796582</v>
       </c>
       <c r="D2">
-        <v>0.9962452753831406</v>
+        <v>0.9713595607514426</v>
       </c>
       <c r="E2">
-        <v>0.9662865424965306</v>
+        <v>0.6002041424202137</v>
       </c>
       <c r="F2">
-        <v>0.8058161832065797</v>
+        <v>0.8254007968346262</v>
       </c>
       <c r="G2">
-        <v>0.9492276546868091</v>
+        <v>0.7652666897821857</v>
       </c>
       <c r="H2">
-        <v>0.9166917434974765</v>
+        <v>0.3338213491889545</v>
       </c>
       <c r="I2">
-        <v>0.9423652979579514</v>
+        <v>0.5717055744771335</v>
       </c>
       <c r="J2">
-        <v>0.9119643627526466</v>
+        <v>0.7483177143149881</v>
       </c>
       <c r="K2">
-        <v>0.935656326446215</v>
+        <v>0.7477939765853628</v>
       </c>
       <c r="L2">
-        <v>0.8790507554922715</v>
+        <v>0.6775697064926182</v>
       </c>
       <c r="M2">
-        <v>0.9139010029767974</v>
+        <v>0.2155468463112086</v>
       </c>
       <c r="N2">
-        <v>0.8808961256884336</v>
+        <v>0.5117527837898646</v>
       </c>
       <c r="O2">
-        <v>0.9050956545630368</v>
+        <v>0.5793756345935133</v>
       </c>
       <c r="P2">
-        <v>0.9363557952135593</v>
+        <v>0.7471709187263348</v>
       </c>
       <c r="Q2">
-        <v>0.9000189296176325</v>
+        <v>0.6176984368702227</v>
       </c>
       <c r="R2">
-        <v>0.9315739117224058</v>
+        <v>0.9217182183977587</v>
       </c>
       <c r="S2">
-        <v>0.9217473444937618</v>
+        <v>0.6872456949881508</v>
       </c>
       <c r="T2">
-        <v>0.8886432580616428</v>
+        <v>0.8436675502540949</v>
       </c>
       <c r="U2">
-        <v>0.9094463144820809</v>
+        <v>0.8699715998027004</v>
       </c>
       <c r="V2">
-        <v>0.9536727952143931</v>
+        <v>0.640117300933432</v>
       </c>
       <c r="W2">
-        <v>0.792352483240272</v>
+        <v>0.7767073908631515</v>
       </c>
       <c r="X2">
-        <v>0.7741324718941383</v>
+        <v>0.6631647114638899</v>
       </c>
       <c r="Y2">
-        <v>0.7304062745379175</v>
+        <v>0.5009545041599682</v>
       </c>
       <c r="Z2">
-        <v>0.8409191512962267</v>
+        <v>0.4066793917191142</v>
       </c>
       <c r="AA2">
-        <v>0.9285157452393055</v>
+        <v>0.588934903459944</v>
       </c>
       <c r="AB2">
-        <v>0.8458522087847218</v>
+        <v>0.6909581439099686</v>
       </c>
       <c r="AC2">
-        <v>0.8351928718341324</v>
+        <v>0.6923525837495382</v>
       </c>
       <c r="AD2">
-        <v>0.7948564108354796</v>
+        <v>0.5846941877858299</v>
       </c>
       <c r="AE2">
-        <v>0.8644479426653922</v>
+        <v>0.7018185316297532</v>
       </c>
       <c r="AF2">
-        <v>0.9194335087417975</v>
+        <v>0.8469600398425337</v>
       </c>
       <c r="AG2">
-        <v>0.9315674931351248</v>
+        <v>0.629467849874828</v>
       </c>
       <c r="AH2">
-        <v>0.9385402439080824</v>
+        <v>0.7541989346304786</v>
       </c>
       <c r="AI2">
-        <v>0.9589279581112343</v>
+        <v>0.7185285129452745</v>
       </c>
       <c r="AJ2">
-        <v>0.8122728279126268</v>
+        <v>0.4576169025377871</v>
       </c>
       <c r="AK2">
-        <v>0.8319328164722546</v>
+        <v>0.4198699247218329</v>
       </c>
       <c r="AL2">
-        <v>0.8157098673901888</v>
+        <v>0.6099542879299129</v>
       </c>
       <c r="AM2">
-        <v>0.841365674302239</v>
+        <v>0.503199912320252</v>
       </c>
       <c r="AN2">
-        <v>0.7200984217015644</v>
+        <v>0.4843285002997015</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0.8028508558589331</v>
+        <v>0.3451470112902332</v>
       </c>
       <c r="C3">
-        <v>0.8846802928318567</v>
+        <v>0.90031968630471</v>
       </c>
       <c r="D3">
-        <v>0.833713504565148</v>
+        <v>0.7173226648896487</v>
       </c>
       <c r="E3">
-        <v>0.9057225167375231</v>
+        <v>0.6460336188817027</v>
       </c>
       <c r="F3">
-        <v>0.9820213579888826</v>
+        <v>0.9777737411568037</v>
       </c>
       <c r="G3">
-        <v>0.9233811791383</v>
+        <v>0.6928229801584512</v>
       </c>
       <c r="H3">
-        <v>0.9676790546298479</v>
+        <v>0.4440071172136745</v>
       </c>
       <c r="I3">
-        <v>0.9466270466054512</v>
+        <v>0.4971172879863014</v>
       </c>
       <c r="J3">
-        <v>0.9666389711629133</v>
+        <v>0.849654348891509</v>
       </c>
       <c r="K3">
-        <v>0.9359152591927432</v>
+        <v>0.7330007090324477</v>
       </c>
       <c r="L3">
-        <v>0.9704572539292678</v>
+        <v>0.6024187351988253</v>
       </c>
       <c r="M3">
-        <v>0.9517078051843538</v>
+        <v>0.4926760743903841</v>
       </c>
       <c r="N3">
-        <v>0.9722038320174821</v>
+        <v>0.7788730211422094</v>
       </c>
       <c r="O3">
-        <v>0.9614864293825508</v>
+        <v>0.7889398146746669</v>
       </c>
       <c r="P3">
-        <v>0.9371812082668354</v>
+        <v>0.7922765606489927</v>
       </c>
       <c r="Q3">
-        <v>0.9770563687353971</v>
+        <v>0.6661599089920742</v>
       </c>
       <c r="R3">
-        <v>0.9486466959025104</v>
+        <v>0.9689657751628798</v>
       </c>
       <c r="S3">
-        <v>0.9454523350013391</v>
+        <v>0.7525086209674287</v>
       </c>
       <c r="T3">
-        <v>0.9754935356076337</v>
+        <v>0.6475249472399456</v>
       </c>
       <c r="U3">
-        <v>0.9702145342773266</v>
+        <v>0.9919980574371499</v>
       </c>
       <c r="V3">
-        <v>0.9247737022500474</v>
+        <v>0.8171259638053647</v>
       </c>
       <c r="W3">
-        <v>0.9931380243798932</v>
+        <v>0.8302470420833697</v>
       </c>
       <c r="X3">
-        <v>0.9904369945113265</v>
+        <v>0.8664118912694208</v>
       </c>
       <c r="Y3">
-        <v>0.9861614613418335</v>
+        <v>0.748735988952459</v>
       </c>
       <c r="Z3">
-        <v>0.9829579184003963</v>
+        <v>0.723639044535501</v>
       </c>
       <c r="AA3">
-        <v>0.9509488881598323</v>
+        <v>0.7818942432459266</v>
       </c>
       <c r="AB3">
-        <v>0.9788372590016577</v>
+        <v>0.7854410204761426</v>
       </c>
       <c r="AC3">
-        <v>0.9740935922773687</v>
+        <v>0.7286532741402512</v>
       </c>
       <c r="AD3">
-        <v>0.9851496846791911</v>
+        <v>0.7274654257590689</v>
       </c>
       <c r="AE3">
-        <v>0.9820099052198209</v>
+        <v>0.7949614013751917</v>
       </c>
       <c r="AF3">
-        <v>0.9361311485598606</v>
+        <v>0.858534411830729</v>
       </c>
       <c r="AG3">
-        <v>0.9387142425362351</v>
+        <v>0.591330098727849</v>
       </c>
       <c r="AH3">
-        <v>0.930962056256064</v>
+        <v>0.872958364862102</v>
       </c>
       <c r="AI3">
-        <v>0.8614444429563052</v>
+        <v>0.9562710631197323</v>
       </c>
       <c r="AJ3">
-        <v>0.9816980229815314</v>
+        <v>0.7144046065185192</v>
       </c>
       <c r="AK3">
-        <v>0.9794566319606109</v>
+        <v>0.6300918551940439</v>
       </c>
       <c r="AL3">
-        <v>0.989559722977882</v>
+        <v>0.7231944393956987</v>
       </c>
       <c r="AM3">
-        <v>0.9508431849198005</v>
+        <v>0.5834624784325144</v>
       </c>
       <c r="AN3">
-        <v>0.9752769056952505</v>
+        <v>0.6819472939117497</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>0.5738415314374585</v>
+        <v>0.1308181936214473</v>
       </c>
       <c r="C4">
-        <v>0.7090301896336049</v>
+        <v>0.8040755143615785</v>
       </c>
       <c r="D4">
-        <v>0.6295623316936392</v>
+        <v>0.6662756575842554</v>
       </c>
       <c r="E4">
-        <v>0.7236405208795142</v>
+        <v>0.4576470833627282</v>
       </c>
       <c r="F4">
-        <v>0.8761200007243513</v>
+        <v>0.9076625918171151</v>
       </c>
       <c r="G4">
-        <v>0.7882414825697164</v>
+        <v>0.5147994236767683</v>
       </c>
       <c r="H4">
-        <v>0.8320101861372219</v>
+        <v>0.248714968508106</v>
       </c>
       <c r="I4">
-        <v>0.8017869867825215</v>
+        <v>0.2940438516599747</v>
       </c>
       <c r="J4">
-        <v>0.8350826699543072</v>
+        <v>0.7097073191693936</v>
       </c>
       <c r="K4">
-        <v>0.8111022460443315</v>
+        <v>0.5648178055967008</v>
       </c>
       <c r="L4">
-        <v>0.8844788292599702</v>
+        <v>0.4071740586640621</v>
       </c>
       <c r="M4">
-        <v>0.844587623081698</v>
+        <v>0.3362666856456942</v>
       </c>
       <c r="N4">
-        <v>0.865373383257536</v>
+        <v>0.6547854231481823</v>
       </c>
       <c r="O4">
-        <v>0.8580191140157265</v>
+        <v>0.6508755268917212</v>
       </c>
       <c r="P4">
-        <v>0.8064280583058734</v>
+        <v>0.6332255633893943</v>
       </c>
       <c r="Q4">
-        <v>0.8603037180667433</v>
+        <v>0.4827946756957509</v>
       </c>
       <c r="R4">
-        <v>0.8237303177208243</v>
+        <v>0.8986106573748384</v>
       </c>
       <c r="S4">
-        <v>0.8314587827073032</v>
+        <v>0.5847229132530658</v>
       </c>
       <c r="T4">
-        <v>0.8638300235468128</v>
+        <v>0.4838694044439413</v>
       </c>
       <c r="U4">
-        <v>0.8517064196527856</v>
+        <v>0.9375648661392534</v>
       </c>
       <c r="V4">
-        <v>0.7786651120138334</v>
+        <v>0.6790778055071962</v>
       </c>
       <c r="W4">
-        <v>0.9495194822809246</v>
+        <v>0.6824497003903637</v>
       </c>
       <c r="X4">
-        <v>0.9549565184180554</v>
+        <v>0.7494058817221817</v>
       </c>
       <c r="Y4">
-        <v>0.9535590141350321</v>
+        <v>0.6130059386100906</v>
       </c>
       <c r="Z4">
-        <v>0.9144005295497377</v>
+        <v>0.6094459106003445</v>
       </c>
       <c r="AA4">
-        <v>0.8280153536513755</v>
+        <v>0.6378850494755488</v>
       </c>
       <c r="AB4">
-        <v>0.9071431513700764</v>
+        <v>0.6350133705984897</v>
       </c>
       <c r="AC4">
-        <v>0.9120549133161622</v>
+        <v>0.5544626527953166</v>
       </c>
       <c r="AD4">
-        <v>0.9394883513616528</v>
+        <v>0.576012949815819</v>
       </c>
       <c r="AE4">
-        <v>0.8991264788539102</v>
+        <v>0.6389872239385173</v>
       </c>
       <c r="AF4">
-        <v>0.8223736146220029</v>
+        <v>0.7308628838515251</v>
       </c>
       <c r="AG4">
-        <v>0.819155686513365</v>
+        <v>0.3949527705192859</v>
       </c>
       <c r="AH4">
-        <v>0.8062577102838833</v>
+        <v>0.7463425293015403</v>
       </c>
       <c r="AI4">
-        <v>0.719778320666639</v>
+        <v>0.8988927742548579</v>
       </c>
       <c r="AJ4">
-        <v>0.9335532322538709</v>
+        <v>0.5783669950223558</v>
       </c>
       <c r="AK4">
-        <v>0.9140491280765241</v>
+        <v>0.4643813926791679</v>
       </c>
       <c r="AL4">
-        <v>0.9268724443546748</v>
+        <v>0.5578906563604263</v>
       </c>
       <c r="AM4">
-        <v>0.8336806992413597</v>
+        <v>0.3896964092961587</v>
       </c>
       <c r="AN4">
-        <v>0.9450697121511517</v>
+        <v>0.5256597601378701</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>0.8015793454597183</v>
+        <v>0.4861541114840943</v>
       </c>
       <c r="C5">
-        <v>0.8901860146509419</v>
+        <v>0.93328173917109</v>
       </c>
       <c r="D5">
-        <v>0.8352937600593536</v>
+        <v>0.7413192627015822</v>
       </c>
       <c r="E5">
-        <v>0.8841501056732531</v>
+        <v>0.7594731627892706</v>
       </c>
       <c r="F5">
-        <v>0.9468607141929301</v>
+        <v>0.9946672210905266</v>
       </c>
       <c r="G5">
-        <v>0.9280798589486988</v>
+        <v>0.8019573587607133</v>
       </c>
       <c r="H5">
-        <v>0.9576392769002168</v>
+        <v>0.5602961147638599</v>
       </c>
       <c r="I5">
-        <v>0.9374464307659478</v>
+        <v>0.6333602210025946</v>
       </c>
       <c r="J5">
-        <v>0.9664102495084219</v>
+        <v>0.9209767607256768</v>
       </c>
       <c r="K5">
-        <v>0.934452649074007</v>
+        <v>0.8284015257971591</v>
       </c>
       <c r="L5">
-        <v>0.9809069009798569</v>
+        <v>0.7260664981362469</v>
       </c>
       <c r="M5">
-        <v>0.9523088572718394</v>
+        <v>0.5758685517086907</v>
       </c>
       <c r="N5">
-        <v>0.9829326003182177</v>
+        <v>0.8357140724869583</v>
       </c>
       <c r="O5">
-        <v>0.9689597119896884</v>
+        <v>0.8557519750202732</v>
       </c>
       <c r="P5">
-        <v>0.9279943747669777</v>
+        <v>0.8812730009268275</v>
       </c>
       <c r="Q5">
-        <v>0.9701620629660004</v>
+        <v>0.7728430349485385</v>
       </c>
       <c r="R5">
-        <v>0.9512461513262378</v>
+        <v>0.9917502862251477</v>
       </c>
       <c r="S5">
-        <v>0.9578328952099157</v>
+        <v>0.8479484723856675</v>
       </c>
       <c r="T5">
-        <v>0.9804953180064028</v>
+        <v>0.7515810061302456</v>
       </c>
       <c r="U5">
-        <v>0.9693985369600246</v>
+        <v>0.9989253219820237</v>
       </c>
       <c r="V5">
-        <v>0.9176517139371678</v>
+        <v>0.8841795223453488</v>
       </c>
       <c r="W5">
-        <v>0.9925168929885408</v>
+        <v>0.910505374256674</v>
       </c>
       <c r="X5">
-        <v>0.9979174584681251</v>
+        <v>0.9160283773317084</v>
       </c>
       <c r="Y5">
-        <v>0.9943600414858295</v>
+        <v>0.8130014963313577</v>
       </c>
       <c r="Z5">
-        <v>0.9941649355259701</v>
+        <v>0.7700213416667198</v>
       </c>
       <c r="AA5">
-        <v>0.9551196095824652</v>
+        <v>0.8546284146117001</v>
       </c>
       <c r="AB5">
-        <v>0.9932855293705648</v>
+        <v>0.8705197946343189</v>
       </c>
       <c r="AC5">
-        <v>0.9928836129927359</v>
+        <v>0.8297181334941978</v>
       </c>
       <c r="AD5">
-        <v>0.9991649849235218</v>
+        <v>0.8031915351200859</v>
       </c>
       <c r="AE5">
-        <v>0.9882131127314505</v>
+        <v>0.8793153341267226</v>
       </c>
       <c r="AF5">
-        <v>0.9277843454233428</v>
+        <v>0.9285182605228615</v>
       </c>
       <c r="AG5">
-        <v>0.9441445311422719</v>
+        <v>0.7121158788801873</v>
       </c>
       <c r="AH5">
-        <v>0.9380930473844582</v>
+        <v>0.9311981030698779</v>
       </c>
       <c r="AI5">
-        <v>0.8724803080591224</v>
+        <v>0.9598961889567089</v>
       </c>
       <c r="AJ5">
-        <v>0.9952694426948133</v>
+        <v>0.7778263117331007</v>
       </c>
       <c r="AK5">
-        <v>0.995747228138766</v>
+        <v>0.7218318806260826</v>
       </c>
       <c r="AL5">
-        <v>0.9986571111121264</v>
+        <v>0.818713309473294</v>
       </c>
       <c r="AM5">
-        <v>0.9657884850367078</v>
+        <v>0.7007786049404774</v>
       </c>
       <c r="AN5">
-        <v>0.9913536682219758</v>
+        <v>0.7696165988265011</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.6514630856477044</v>
+        <v>0.008081018327729202</v>
       </c>
       <c r="C6">
-        <v>0.7657857714239014</v>
+        <v>0.7022351785075622</v>
       </c>
       <c r="D6">
-        <v>0.6918356179705685</v>
+        <v>0.6720104594447037</v>
       </c>
       <c r="E6">
-        <v>0.7686462721107258</v>
+        <v>0.3274990407479145</v>
       </c>
       <c r="F6">
-        <v>0.9112487341581097</v>
+        <v>0.8362017211202363</v>
       </c>
       <c r="G6">
-        <v>0.8229633399972318</v>
+        <v>0.4103374300766964</v>
       </c>
       <c r="H6">
-        <v>0.8781526681954682</v>
+        <v>0.1001402144629197</v>
       </c>
       <c r="I6">
-        <v>0.8416513804997601</v>
+        <v>0.1769908561089118</v>
       </c>
       <c r="J6">
-        <v>0.8898597893512682</v>
+        <v>0.6013685289491285</v>
       </c>
       <c r="K6">
-        <v>0.8364316543413864</v>
+        <v>0.4546923344279905</v>
       </c>
       <c r="L6">
-        <v>0.9146667834545988</v>
+        <v>0.2919910712308857</v>
       </c>
       <c r="M6">
-        <v>0.8663704792610402</v>
+        <v>0.1871349867846712</v>
       </c>
       <c r="N6">
-        <v>0.9198810308470708</v>
+        <v>0.5306672113096724</v>
       </c>
       <c r="O6">
-        <v>0.8906878906341485</v>
+        <v>0.5257182513649735</v>
       </c>
       <c r="P6">
-        <v>0.8295773688339861</v>
+        <v>0.5221173847108299</v>
       </c>
       <c r="Q6">
-        <v>0.8984974925528141</v>
+        <v>0.3535298424450954</v>
       </c>
       <c r="R6">
-        <v>0.8598206567702102</v>
+        <v>0.8451814111012603</v>
       </c>
       <c r="S6">
-        <v>0.8697993952754888</v>
+        <v>0.4647211618836237</v>
       </c>
       <c r="T6">
-        <v>0.9147701978001108</v>
+        <v>0.4081923224563164</v>
       </c>
       <c r="U6">
-        <v>0.8928479090799644</v>
+        <v>0.881391330553534</v>
       </c>
       <c r="V6">
-        <v>0.8105742028362847</v>
+        <v>0.5590201567858475</v>
       </c>
       <c r="W6">
-        <v>0.9626997548854239</v>
+        <v>0.5776085225518636</v>
       </c>
       <c r="X6">
-        <v>0.9754904146939991</v>
+        <v>0.6384337999525198</v>
       </c>
       <c r="Y6">
-        <v>0.9895525642975141</v>
+        <v>0.4827997490962821</v>
       </c>
       <c r="Z6">
-        <v>0.9459969900216383</v>
+        <v>0.4814037463388202</v>
       </c>
       <c r="AA6">
-        <v>0.865742007443325</v>
+        <v>0.5122647135310003</v>
       </c>
       <c r="AB6">
-        <v>0.9427636615779172</v>
+        <v>0.5243358852582454</v>
       </c>
       <c r="AC6">
-        <v>0.9448153684523229</v>
+        <v>0.4345777607685775</v>
       </c>
       <c r="AD6">
-        <v>0.968815239512169</v>
+        <v>0.4496039118623598</v>
       </c>
       <c r="AE6">
-        <v>0.9307544353844812</v>
+        <v>0.5216358174269431</v>
       </c>
       <c r="AF6">
-        <v>0.8338928539263477</v>
+        <v>0.6481131878115138</v>
       </c>
       <c r="AG6">
-        <v>0.8492516971328331</v>
+        <v>0.2711395661283373</v>
       </c>
       <c r="AH6">
-        <v>0.8388391491455985</v>
+        <v>0.6419888581495964</v>
       </c>
       <c r="AI6">
-        <v>0.7458238508374417</v>
+        <v>0.8206144554550376</v>
       </c>
       <c r="AJ6">
-        <v>0.9564658192491642</v>
+        <v>0.4453147663157691</v>
       </c>
       <c r="AK6">
-        <v>0.9508864357032768</v>
+        <v>0.3222931544686541</v>
       </c>
       <c r="AL6">
-        <v>0.9623422596639213</v>
+        <v>0.4338625184996906</v>
       </c>
       <c r="AM6">
-        <v>0.9159339955295159</v>
+        <v>0.2503277451519501</v>
       </c>
       <c r="AN6">
-        <v>0.9887596176985819</v>
+        <v>0.3942510335141247</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0.872344400021838</v>
+        <v>0.6750703721225291</v>
       </c>
       <c r="C7">
-        <v>0.9397012678792644</v>
+        <v>0.8774051433256784</v>
       </c>
       <c r="D7">
-        <v>0.8974683293892711</v>
+        <v>0.801573559201478</v>
       </c>
       <c r="E7">
-        <v>0.9243981558487556</v>
+        <v>0.8700048450958929</v>
       </c>
       <c r="F7">
-        <v>0.9413833640816311</v>
+        <v>0.9375295433217126</v>
       </c>
       <c r="G7">
-        <v>0.9604268282484311</v>
+        <v>0.9340625902863309</v>
       </c>
       <c r="H7">
-        <v>0.9784720486739142</v>
+        <v>0.6542461665904989</v>
       </c>
       <c r="I7">
-        <v>0.965397020013542</v>
+        <v>0.8197852995489575</v>
       </c>
       <c r="J7">
-        <v>0.9885325566347839</v>
+        <v>0.9529509126466249</v>
       </c>
       <c r="K7">
-        <v>0.9600013859166155</v>
+        <v>0.9175988347133119</v>
       </c>
       <c r="L7">
-        <v>0.9911223495495936</v>
+        <v>0.8812155019246232</v>
       </c>
       <c r="M7">
-        <v>0.9703467175694025</v>
+        <v>0.5872590913926872</v>
       </c>
       <c r="N7">
-        <v>0.998358367415258</v>
+        <v>0.8125982987686703</v>
       </c>
       <c r="O7">
-        <v>0.9861093020398956</v>
+        <v>0.8553370774418412</v>
       </c>
       <c r="P7">
-        <v>0.9528553136487615</v>
+        <v>0.9542503725607506</v>
       </c>
       <c r="Q7">
-        <v>0.9846202568526605</v>
+        <v>0.8666337840874272</v>
       </c>
       <c r="R7">
-        <v>0.9762276393419944</v>
+        <v>0.9728184816367655</v>
       </c>
       <c r="S7">
-        <v>0.9821450770792761</v>
+        <v>0.9259063658537747</v>
       </c>
       <c r="T7">
-        <v>0.9959766012468092</v>
+        <v>0.9078016753806889</v>
       </c>
       <c r="U7">
-        <v>0.9875416147773844</v>
+        <v>0.9365200486075291</v>
       </c>
       <c r="V7">
-        <v>0.949790582261216</v>
+        <v>0.8905520656867508</v>
       </c>
       <c r="W7">
-        <v>0.978611609302945</v>
+        <v>0.9696609322008443</v>
       </c>
       <c r="X7">
-        <v>0.9827120669941635</v>
+        <v>0.8901867883742374</v>
       </c>
       <c r="Y7">
-        <v>0.9748455606784705</v>
+        <v>0.7999642244911935</v>
       </c>
       <c r="Z7">
-        <v>0.9953340916841295</v>
+        <v>0.7152752120819675</v>
       </c>
       <c r="AA7">
-        <v>0.979507583458721</v>
+        <v>0.8687116475792023</v>
       </c>
       <c r="AB7">
-        <v>0.9970004669851839</v>
+        <v>0.935766286174871</v>
       </c>
       <c r="AC7">
-        <v>0.9948473495396325</v>
+        <v>0.9217538621719191</v>
       </c>
       <c r="AD7">
-        <v>0.9907769714611734</v>
+        <v>0.8221048220672726</v>
       </c>
       <c r="AE7">
-        <v>0.9939289540566574</v>
+        <v>0.9325834000939096</v>
       </c>
       <c r="AF7">
-        <v>0.9471577151935558</v>
+        <v>0.991194152425635</v>
       </c>
       <c r="AG7">
-        <v>0.9695832408376699</v>
+        <v>0.8483323404001709</v>
       </c>
       <c r="AH7">
-        <v>0.9667226540104487</v>
+        <v>0.934716237180561</v>
       </c>
       <c r="AI7">
-        <v>0.9153934631879982</v>
+        <v>0.8607178835604407</v>
       </c>
       <c r="AJ7">
-        <v>0.9894091814895544</v>
+        <v>0.7587520511741114</v>
       </c>
       <c r="AK7">
-        <v>0.9970029442032878</v>
+        <v>0.7634448633565101</v>
       </c>
       <c r="AL7">
-        <v>0.9946993737900113</v>
+        <v>0.8930079276735654</v>
       </c>
       <c r="AM7">
-        <v>0.9832495551136466</v>
+        <v>0.8095868817196954</v>
       </c>
       <c r="AN7">
-        <v>0.9734913700103437</v>
+        <v>0.8155706339392081</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.7121626394255347</v>
+        <v>0.8280740943462978</v>
       </c>
       <c r="C8">
-        <v>0.8170904453250525</v>
+        <v>0.8156715458207472</v>
       </c>
       <c r="D8">
-        <v>0.750021274906863</v>
+        <v>0.3113972527841027</v>
       </c>
       <c r="E8">
-        <v>0.8180988828590305</v>
+        <v>0.9751516197258685</v>
       </c>
       <c r="F8">
-        <v>0.932611507261682</v>
+        <v>0.7162363819543927</v>
       </c>
       <c r="G8">
-        <v>0.8673189753723264</v>
+        <v>0.8883670938636457</v>
       </c>
       <c r="H8">
-        <v>0.9142761644649818</v>
+        <v>0.9250102014058691</v>
       </c>
       <c r="I8">
-        <v>0.8834971849354497</v>
+        <v>0.9336588067236433</v>
       </c>
       <c r="J8">
-        <v>0.9244857065514762</v>
+        <v>0.8994514646323956</v>
       </c>
       <c r="K8">
-        <v>0.8785039956388786</v>
+        <v>0.8745617772719366</v>
       </c>
       <c r="L8">
-        <v>0.9447957001761251</v>
+        <v>0.9156478382294161</v>
       </c>
       <c r="M8">
-        <v>0.9039958004436501</v>
+        <v>0.9022119778636423</v>
       </c>
       <c r="N8">
-        <v>0.9490576124560562</v>
+        <v>0.9105852961408687</v>
       </c>
       <c r="O8">
-        <v>0.9253254407242303</v>
+        <v>0.9233157789390338</v>
       </c>
       <c r="P8">
-        <v>0.8721728760144772</v>
+        <v>0.9219253070820648</v>
       </c>
       <c r="Q8">
-        <v>0.9315953959495294</v>
+        <v>0.9481690827549158</v>
       </c>
       <c r="R8">
-        <v>0.8994559110715642</v>
+        <v>0.6666080558468068</v>
       </c>
       <c r="S8">
-        <v>0.9077019070901573</v>
+        <v>0.9502317139916269</v>
       </c>
       <c r="T8">
-        <v>0.9452015634068159</v>
+        <v>0.7441618172302332</v>
       </c>
       <c r="U8">
-        <v>0.9274058074923065</v>
+        <v>0.6486446466383079</v>
       </c>
       <c r="V8">
-        <v>0.8562264219121439</v>
+        <v>0.9148082906867731</v>
       </c>
       <c r="W8">
-        <v>0.9800805579910749</v>
+        <v>0.9025531122040399</v>
       </c>
       <c r="X8">
-        <v>0.9898114303083767</v>
+        <v>0.8673295312915839</v>
       </c>
       <c r="Y8">
-        <v>0.9975122652522106</v>
+        <v>0.9164226782314561</v>
       </c>
       <c r="Z8">
-        <v>0.9695802648729973</v>
+        <v>0.8588553381105077</v>
       </c>
       <c r="AA8">
-        <v>0.9045792894957672</v>
+        <v>0.9399558439608806</v>
       </c>
       <c r="AB8">
-        <v>0.9670522724854325</v>
+        <v>0.9398417202694195</v>
       </c>
       <c r="AC8">
-        <v>0.9679332905038346</v>
+        <v>0.9450574391056292</v>
       </c>
       <c r="AD8">
-        <v>0.9857437684507149</v>
+        <v>0.8818195820287582</v>
       </c>
       <c r="AE8">
-        <v>0.9579772663685162</v>
+        <v>0.9336958172580879</v>
       </c>
       <c r="AF8">
-        <v>0.874683785719205</v>
+        <v>0.8359818186015809</v>
       </c>
       <c r="AG8">
-        <v>0.8898939044774624</v>
+        <v>0.9186012784290225</v>
       </c>
       <c r="AH8">
-        <v>0.8809606054684218</v>
+        <v>0.8518499828652026</v>
       </c>
       <c r="AI8">
-        <v>0.7972535009296414</v>
+        <v>0.6958669027435123</v>
       </c>
       <c r="AJ8">
-        <v>0.9764252388316145</v>
+        <v>0.8982904213393693</v>
       </c>
       <c r="AK8">
-        <v>0.973029449347208</v>
+        <v>0.9743418057611308</v>
       </c>
       <c r="AL8">
-        <v>0.9817797910310757</v>
+        <v>0.9750963225281618</v>
       </c>
       <c r="AM8">
-        <v>0.9401872648785565</v>
+        <v>0.9881147482034852</v>
       </c>
       <c r="AN8">
-        <v>0.9955120130914746</v>
+        <v>0.9755440649887505</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.5156759078995663</v>
+        <v>0.8475871059918149</v>
       </c>
       <c r="C9">
-        <v>0.6529533737087819</v>
+        <v>0.8144462327389247</v>
       </c>
       <c r="D9">
-        <v>0.5661883944159248</v>
+        <v>0.5335159405723066</v>
       </c>
       <c r="E9">
-        <v>0.6560635655960287</v>
+        <v>0.984337777828402</v>
       </c>
       <c r="F9">
-        <v>0.8405040386285175</v>
+        <v>0.7799767354339381</v>
       </c>
       <c r="G9">
-        <v>0.7285921758095336</v>
+        <v>0.9674891057429075</v>
       </c>
       <c r="H9">
-        <v>0.7872801395470118</v>
+        <v>0.8547607530751143</v>
       </c>
       <c r="I9">
-        <v>0.7451467267467535</v>
+        <v>0.9777453098130644</v>
       </c>
       <c r="J9">
-        <v>0.8003431539912238</v>
+        <v>0.9362525706792478</v>
       </c>
       <c r="K9">
-        <v>0.7474835857500548</v>
+        <v>0.929412862650392</v>
       </c>
       <c r="L9">
-        <v>0.8443803090970687</v>
+        <v>0.9728974219133524</v>
       </c>
       <c r="M9">
-        <v>0.7858465010431845</v>
+        <v>0.778915619293026</v>
       </c>
       <c r="N9">
-        <v>0.8414311167469</v>
+        <v>0.8628125791998488</v>
       </c>
       <c r="O9">
-        <v>0.8119671201807013</v>
+        <v>0.8959690776792806</v>
       </c>
       <c r="P9">
-        <v>0.7387164533829423</v>
+        <v>0.969380244485625</v>
       </c>
       <c r="Q9">
-        <v>0.8160176521649518</v>
+        <v>0.9564663498920309</v>
       </c>
       <c r="R9">
-        <v>0.771129248132571</v>
+        <v>0.7832407456989602</v>
       </c>
       <c r="S9">
-        <v>0.7853800926013906</v>
+        <v>0.9772215444467582</v>
       </c>
       <c r="T9">
-        <v>0.8343251795406208</v>
+        <v>0.8803875414818488</v>
       </c>
       <c r="U9">
-        <v>0.8086394553587829</v>
+        <v>0.736959512080789</v>
       </c>
       <c r="V9">
-        <v>0.7123248122354039</v>
+        <v>0.9078342776784792</v>
       </c>
       <c r="W9">
-        <v>0.9153117294193959</v>
+        <v>0.9582600917392744</v>
       </c>
       <c r="X9">
-        <v>0.931925882819993</v>
+        <v>0.864315291671</v>
       </c>
       <c r="Y9">
-        <v>0.9497458320668786</v>
+        <v>0.8633190853568224</v>
       </c>
       <c r="Z9">
-        <v>0.8850689883115243</v>
+        <v>0.7750908178191517</v>
       </c>
       <c r="AA9">
-        <v>0.7779742643429236</v>
+        <v>0.9188590823350661</v>
       </c>
       <c r="AB9">
-        <v>0.8800592192376165</v>
+        <v>0.9733241981236307</v>
       </c>
       <c r="AC9">
-        <v>0.8861996321151974</v>
+        <v>0.9781451057209823</v>
       </c>
       <c r="AD9">
-        <v>0.9195548408023441</v>
+        <v>0.8614360865933933</v>
       </c>
       <c r="AE9">
-        <v>0.8630391743586847</v>
+        <v>0.9582096444701215</v>
       </c>
       <c r="AF9">
-        <v>0.7506125300848644</v>
+        <v>0.9318339078902281</v>
       </c>
       <c r="AG9">
-        <v>0.7622893176270572</v>
+        <v>0.9501740252359173</v>
       </c>
       <c r="AH9">
-        <v>0.7492031333112781</v>
+        <v>0.8849279847654475</v>
       </c>
       <c r="AI9">
-        <v>0.6467613448783021</v>
+        <v>0.7161467330715191</v>
       </c>
       <c r="AJ9">
-        <v>0.9050980377243429</v>
+        <v>0.8314043474743015</v>
       </c>
       <c r="AK9">
-        <v>0.8914103164490501</v>
+        <v>0.9099838649275016</v>
       </c>
       <c r="AL9">
-        <v>0.9055205546776981</v>
+        <v>0.9803311353630785</v>
       </c>
       <c r="AM9">
-        <v>0.8353461776553051</v>
+        <v>0.9667670006806739</v>
       </c>
       <c r="AN9">
-        <v>0.9499045780225526</v>
+        <v>0.9373230136762205</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.9036521174626641</v>
+        <v>0.9248018257024603</v>
       </c>
       <c r="C10">
-        <v>0.9660046785753783</v>
+        <v>0.7107699004803409</v>
       </c>
       <c r="D10">
-        <v>0.9317071885720918</v>
+        <v>0.5547876711719202</v>
       </c>
       <c r="E10">
-        <v>0.9437768063777328</v>
+        <v>0.9662769452121867</v>
       </c>
       <c r="F10">
-        <v>0.917342687842245</v>
+        <v>0.6758541905760168</v>
       </c>
       <c r="G10">
-        <v>0.9846522856324029</v>
+        <v>0.9726339061516976</v>
       </c>
       <c r="H10">
-        <v>0.9797284670146511</v>
+        <v>0.858850156338489</v>
       </c>
       <c r="I10">
-        <v>0.9786186915915041</v>
+        <v>0.992293268244223</v>
       </c>
       <c r="J10">
-        <v>0.9870485998962316</v>
+        <v>0.8751265590768016</v>
       </c>
       <c r="K10">
-        <v>0.9825917211055009</v>
+        <v>0.9270909832900469</v>
       </c>
       <c r="L10">
-        <v>0.9969440975748098</v>
+        <v>0.9918322936903698</v>
       </c>
       <c r="M10">
-        <v>0.9881540524544562</v>
+        <v>0.7200366847195766</v>
       </c>
       <c r="N10">
-        <v>0.9923586146385904</v>
+        <v>0.7588278788776237</v>
       </c>
       <c r="O10">
-        <v>0.9967701974913529</v>
+        <v>0.8155711875858584</v>
       </c>
       <c r="P10">
-        <v>0.9746433542512482</v>
+        <v>0.9303146470898045</v>
       </c>
       <c r="Q10">
-        <v>0.9856016990107894</v>
+        <v>0.9440890140680196</v>
       </c>
       <c r="R10">
-        <v>0.9915456758734864</v>
+        <v>0.7004745628800877</v>
       </c>
       <c r="S10">
-        <v>0.9971803577639009</v>
+        <v>0.9390602097787046</v>
       </c>
       <c r="T10">
-        <v>0.9914202250839409</v>
+        <v>0.9194946643896779</v>
       </c>
       <c r="U10">
-        <v>0.9915335661041607</v>
+        <v>0.6337937857849247</v>
       </c>
       <c r="V10">
-        <v>0.9733043256662517</v>
+        <v>0.8338060316250032</v>
       </c>
       <c r="W10">
-        <v>0.9689034638497894</v>
+        <v>0.9088237955524037</v>
       </c>
       <c r="X10">
-        <v>0.9680328439502538</v>
+        <v>0.7749392202242767</v>
       </c>
       <c r="Y10">
-        <v>0.944565220327271</v>
+        <v>0.7783705090452236</v>
       </c>
       <c r="Z10">
-        <v>0.9908507100917209</v>
+        <v>0.6723524761447334</v>
       </c>
       <c r="AA10">
-        <v>0.9933886933733068</v>
+        <v>0.8414124928219392</v>
       </c>
       <c r="AB10">
-        <v>0.992973940380249</v>
+        <v>0.9062815986987589</v>
       </c>
       <c r="AC10">
-        <v>0.9918668185946193</v>
+        <v>0.9532491445490373</v>
       </c>
       <c r="AD10">
-        <v>0.9783709118404089</v>
+        <v>0.8237734733539153</v>
       </c>
       <c r="AE10">
-        <v>0.9931836206146215</v>
+        <v>0.9083437547393887</v>
       </c>
       <c r="AF10">
-        <v>0.9716112607993479</v>
+        <v>0.8736824572689247</v>
       </c>
       <c r="AG10">
-        <v>0.9901509061742676</v>
+        <v>0.9705982826819316</v>
       </c>
       <c r="AH10">
-        <v>0.989155845892514</v>
+        <v>0.8227090396605827</v>
       </c>
       <c r="AI10">
-        <v>0.9575480710145966</v>
+        <v>0.5954556696801796</v>
       </c>
       <c r="AJ10">
-        <v>0.9841560364700883</v>
+        <v>0.7533666560427073</v>
       </c>
       <c r="AK10">
-        <v>0.9898853863600839</v>
+        <v>0.8463904817442366</v>
       </c>
       <c r="AL10">
-        <v>0.98161740206169</v>
+        <v>0.9217724950384305</v>
       </c>
       <c r="AM10">
-        <v>0.9600854180585001</v>
+        <v>0.9482191873596766</v>
       </c>
       <c r="AN10">
-        <v>0.9409713050402498</v>
+        <v>0.8569951530031619</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0.8591406516890698</v>
+        <v>0.8065018580258053</v>
       </c>
       <c r="C11">
-        <v>0.9326465158282944</v>
+        <v>0.7570592382499314</v>
       </c>
       <c r="D11">
-        <v>0.8881968928507664</v>
+        <v>0.4912758084720137</v>
       </c>
       <c r="E11">
-        <v>0.9282542054207745</v>
+        <v>0.9561613719123389</v>
       </c>
       <c r="F11">
-        <v>0.9568497361582011</v>
+        <v>0.7287430569144021</v>
       </c>
       <c r="G11">
-        <v>0.9607372473309866</v>
+        <v>0.9377260559074203</v>
       </c>
       <c r="H11">
-        <v>0.9819755159888338</v>
+        <v>0.8053788185662051</v>
       </c>
       <c r="I11">
-        <v>0.9689993797271809</v>
+        <v>0.9828446251609871</v>
       </c>
       <c r="J11">
-        <v>0.9874389447495594</v>
+        <v>0.8932798971923605</v>
       </c>
       <c r="K11">
-        <v>0.9648627918375529</v>
+        <v>0.8751472392929888</v>
       </c>
       <c r="L11">
-        <v>0.993913903531049</v>
+        <v>0.9471455853301047</v>
       </c>
       <c r="M11">
-        <v>0.9764557931999492</v>
+        <v>0.7343475604846199</v>
       </c>
       <c r="N11">
-        <v>0.9952479663114291</v>
+        <v>0.8259716211273646</v>
       </c>
       <c r="O11">
-        <v>0.9882780503308733</v>
+        <v>0.8494825497241246</v>
       </c>
       <c r="P11">
-        <v>0.9603012189576757</v>
+        <v>0.9340711578537638</v>
       </c>
       <c r="Q11">
-        <v>0.9898393786796748</v>
+        <v>0.9117086072841525</v>
       </c>
       <c r="R11">
-        <v>0.9779164646901221</v>
+        <v>0.7434795038114154</v>
       </c>
       <c r="S11">
-        <v>0.9808147737285856</v>
+        <v>0.9435939156979536</v>
       </c>
       <c r="T11">
-        <v>0.9951791777872907</v>
+        <v>0.8497268082467915</v>
       </c>
       <c r="U11">
-        <v>0.9900442965487426</v>
+        <v>0.6870656868086028</v>
       </c>
       <c r="V11">
-        <v>0.9538447727515832</v>
+        <v>0.8592867001907066</v>
       </c>
       <c r="W11">
-        <v>0.990879192450998</v>
+        <v>0.9238019302797426</v>
       </c>
       <c r="X11">
-        <v>0.9913617202613556</v>
+        <v>0.8105215377875832</v>
       </c>
       <c r="Y11">
-        <v>0.9803405948606323</v>
+        <v>0.8147697780219778</v>
       </c>
       <c r="Z11">
-        <v>0.9987541665898559</v>
+        <v>0.7212375196779717</v>
       </c>
       <c r="AA11">
-        <v>0.9805237158336371</v>
+        <v>0.8786776980724385</v>
       </c>
       <c r="AB11">
-        <v>0.9983695414175644</v>
+        <v>0.9601217988886105</v>
       </c>
       <c r="AC11">
-        <v>0.9958265637135755</v>
+        <v>0.9426817324293574</v>
       </c>
       <c r="AD11">
-        <v>0.9950050130075728</v>
+        <v>0.7915141839591803</v>
       </c>
       <c r="AE11">
-        <v>0.9981530561498572</v>
+        <v>0.9182546016084268</v>
       </c>
       <c r="AF11">
-        <v>0.9574877085196923</v>
+        <v>0.9146588749941362</v>
       </c>
       <c r="AG11">
-        <v>0.9716542209825147</v>
+        <v>0.9089826219280299</v>
       </c>
       <c r="AH11">
-        <v>0.9673624564364418</v>
+        <v>0.8257394807274984</v>
       </c>
       <c r="AI11">
-        <v>0.913970405875522</v>
+        <v>0.6541101920808188</v>
       </c>
       <c r="AJ11">
-        <v>0.9948344299157141</v>
+        <v>0.774536129821655</v>
       </c>
       <c r="AK11">
-        <v>0.9978956946210581</v>
+        <v>0.8791703182337759</v>
       </c>
       <c r="AL11">
-        <v>0.998462879661731</v>
+        <v>0.9641959710392445</v>
       </c>
       <c r="AM11">
-        <v>0.9724857919798211</v>
+        <v>0.9393609576560138</v>
       </c>
       <c r="AN11">
-        <v>0.9749265817815996</v>
+        <v>0.9248108079757825</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.8638645298524666</v>
+        <v>0.81126112222654</v>
       </c>
       <c r="C12">
-        <v>0.9267549062237859</v>
+        <v>0.7766726969244518</v>
       </c>
       <c r="D12">
-        <v>0.8838568494477632</v>
+        <v>0.6222242744755673</v>
       </c>
       <c r="E12">
-        <v>0.9197881864253196</v>
+        <v>0.9509388539004234</v>
       </c>
       <c r="F12">
-        <v>0.9563826087767735</v>
+        <v>0.7812814894097178</v>
       </c>
       <c r="G12">
-        <v>0.9442373628641395</v>
+        <v>0.9705363448182894</v>
       </c>
       <c r="H12">
-        <v>0.9777141644322931</v>
+        <v>0.771850266154956</v>
       </c>
       <c r="I12">
-        <v>0.95846584163729</v>
+        <v>0.9733837051116527</v>
       </c>
       <c r="J12">
-        <v>0.9876731996398522</v>
+        <v>0.917560306216604</v>
       </c>
       <c r="K12">
-        <v>0.9444538747759724</v>
+        <v>0.9117763019983408</v>
       </c>
       <c r="L12">
-        <v>0.979724176980913</v>
+        <v>0.9640998721382374</v>
       </c>
       <c r="M12">
-        <v>0.9554211160398494</v>
+        <v>0.6761219362251872</v>
       </c>
       <c r="N12">
-        <v>0.9961673833068933</v>
+        <v>0.8056487261272401</v>
       </c>
       <c r="O12">
-        <v>0.9740579750673863</v>
+        <v>0.8435045207110519</v>
       </c>
       <c r="P12">
-        <v>0.9394522536439476</v>
+        <v>0.9565682367840238</v>
       </c>
       <c r="Q12">
-        <v>0.9815635722776617</v>
+        <v>0.9167850082414258</v>
       </c>
       <c r="R12">
-        <v>0.9643536647635829</v>
+        <v>0.8160195485749763</v>
       </c>
       <c r="S12">
-        <v>0.9680330863268822</v>
+        <v>0.9534703749746528</v>
       </c>
       <c r="T12">
-        <v>0.994140538506658</v>
+        <v>0.9142921036959855</v>
       </c>
       <c r="U12">
-        <v>0.9820773170753818</v>
+        <v>0.7534842352019631</v>
       </c>
       <c r="V12">
-        <v>0.9367636118935005</v>
+        <v>0.8649229448537697</v>
       </c>
       <c r="W12">
-        <v>0.9736681080525018</v>
+        <v>0.9514957726768088</v>
       </c>
       <c r="X12">
-        <v>0.9788913318361342</v>
+        <v>0.824211214046021</v>
       </c>
       <c r="Y12">
-        <v>0.9802064506814131</v>
+        <v>0.7972810330321094</v>
       </c>
       <c r="Z12">
-        <v>0.9881825240970852</v>
+        <v>0.6943430747470614</v>
       </c>
       <c r="AA12">
-        <v>0.9680556693339876</v>
+        <v>0.8712417310319326</v>
       </c>
       <c r="AB12">
-        <v>0.9894906071822273</v>
+        <v>0.9632415626891864</v>
       </c>
       <c r="AC12">
-        <v>0.9852038424692129</v>
+        <v>0.9559365743433764</v>
       </c>
       <c r="AD12">
-        <v>0.9857471958678167</v>
+        <v>0.8015857098278543</v>
       </c>
       <c r="AE12">
-        <v>0.9866418372611648</v>
+        <v>0.9322887072140957</v>
       </c>
       <c r="AF12">
-        <v>0.9303398962328659</v>
+        <v>0.9550773850322831</v>
       </c>
       <c r="AG12">
-        <v>0.9537343564044065</v>
+        <v>0.9220813402713842</v>
       </c>
       <c r="AH12">
-        <v>0.9501293728247379</v>
+        <v>0.8597956284328822</v>
       </c>
       <c r="AI12">
-        <v>0.8889948398607362</v>
+        <v>0.6928294051419743</v>
       </c>
       <c r="AJ12">
-        <v>0.980384803551805</v>
+        <v>0.7550809632530542</v>
       </c>
       <c r="AK12">
-        <v>0.9904827045679858</v>
+        <v>0.8411718858279276</v>
       </c>
       <c r="AL12">
-        <v>0.9923965007705664</v>
+        <v>0.9527122851851005</v>
       </c>
       <c r="AM12">
-        <v>0.9922770102432985</v>
+        <v>0.9174306536859922</v>
       </c>
       <c r="AN12">
-        <v>0.9790394515805348</v>
+        <v>0.8902490160502247</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块.xlsx
+++ b/FOF/data/基金公司-板块.xlsx
@@ -16,157 +16,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
     <t>安信</t>
   </si>
   <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
     <t>招商</t>
   </si>
   <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
     <t>汇丰晋信</t>
   </si>
   <si>
-    <t>汇添富</t>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>鹏华</t>
   </si>
   <si>
     <t>华夏</t>
   </si>
   <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>诺安</t>
   </si>
   <si>
     <t>中金</t>
   </si>
   <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>诺安</t>
+    <t>兴业</t>
   </si>
   <si>
     <t>长盛</t>
   </si>
   <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
     <t>中邮创业</t>
   </si>
   <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>上证50</t>
+  </si>
+  <si>
     <t>上证综指</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>上证50</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>创业板综</t>
-  </si>
-  <si>
-    <t>中证1000</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0.4706509359048954</v>
+        <v>0.9154269708718427</v>
       </c>
       <c r="C2">
-        <v>0.671457099796582</v>
+        <v>0.8980693229961814</v>
       </c>
       <c r="D2">
-        <v>0.9713595607514426</v>
+        <v>0.9289123574588481</v>
       </c>
       <c r="E2">
-        <v>0.6002041424202137</v>
+        <v>0.9562585464358655</v>
       </c>
       <c r="F2">
-        <v>0.8254007968346262</v>
+        <v>0.9109361151593733</v>
       </c>
       <c r="G2">
-        <v>0.7652666897821857</v>
+        <v>0.9325276550133641</v>
       </c>
       <c r="H2">
-        <v>0.3338213491889545</v>
+        <v>0.9474773355793964</v>
       </c>
       <c r="I2">
-        <v>0.5717055744771335</v>
+        <v>0.9574734875046187</v>
       </c>
       <c r="J2">
-        <v>0.7483177143149881</v>
+        <v>0.9330980065567837</v>
       </c>
       <c r="K2">
-        <v>0.7477939765853628</v>
+        <v>0.9590148134546548</v>
       </c>
       <c r="L2">
-        <v>0.6775697064926182</v>
+        <v>0.9195640539351415</v>
       </c>
       <c r="M2">
-        <v>0.2155468463112086</v>
+        <v>0.9712372984570224</v>
       </c>
       <c r="N2">
-        <v>0.5117527837898646</v>
+        <v>0.9747675785326643</v>
       </c>
       <c r="O2">
-        <v>0.5793756345935133</v>
+        <v>0.9707083916748321</v>
       </c>
       <c r="P2">
-        <v>0.7471709187263348</v>
+        <v>0.9527909287062816</v>
       </c>
       <c r="Q2">
-        <v>0.6176984368702227</v>
+        <v>0.9632295534101627</v>
       </c>
       <c r="R2">
-        <v>0.9217182183977587</v>
+        <v>0.9776973063599209</v>
       </c>
       <c r="S2">
-        <v>0.6872456949881508</v>
+        <v>0.966430224878123</v>
       </c>
       <c r="T2">
-        <v>0.8436675502540949</v>
+        <v>0.971689665413344</v>
       </c>
       <c r="U2">
-        <v>0.8699715998027004</v>
+        <v>0.9678699274108529</v>
       </c>
       <c r="V2">
-        <v>0.640117300933432</v>
+        <v>0.9758571705752054</v>
       </c>
       <c r="W2">
-        <v>0.7767073908631515</v>
+        <v>0.9778856759323958</v>
       </c>
       <c r="X2">
-        <v>0.6631647114638899</v>
+        <v>0.96392612473776</v>
       </c>
       <c r="Y2">
-        <v>0.5009545041599682</v>
+        <v>0.9899327482831368</v>
       </c>
       <c r="Z2">
-        <v>0.4066793917191142</v>
+        <v>0.9840680634889237</v>
       </c>
       <c r="AA2">
-        <v>0.588934903459944</v>
+        <v>0.986999200884653</v>
       </c>
       <c r="AB2">
-        <v>0.6909581439099686</v>
+        <v>0.9761711717814665</v>
       </c>
       <c r="AC2">
-        <v>0.6923525837495382</v>
+        <v>0.9896694812447936</v>
       </c>
       <c r="AD2">
-        <v>0.5846941877858299</v>
+        <v>0.9812754507142343</v>
       </c>
       <c r="AE2">
-        <v>0.7018185316297532</v>
+        <v>0.9900499750799771</v>
       </c>
       <c r="AF2">
-        <v>0.8469600398425337</v>
+        <v>0.9783706323804582</v>
       </c>
       <c r="AG2">
-        <v>0.629467849874828</v>
+        <v>0.980324042447583</v>
       </c>
       <c r="AH2">
-        <v>0.7541989346304786</v>
+        <v>0.9903328313117682</v>
       </c>
       <c r="AI2">
-        <v>0.7185285129452745</v>
+        <v>0.9806741115179365</v>
       </c>
       <c r="AJ2">
-        <v>0.4576169025377871</v>
+        <v>0.9912030365794932</v>
       </c>
       <c r="AK2">
-        <v>0.4198699247218329</v>
+        <v>0.9718904945168937</v>
       </c>
       <c r="AL2">
-        <v>0.6099542879299129</v>
+        <v>0.9737977854460685</v>
       </c>
       <c r="AM2">
-        <v>0.503199912320252</v>
+        <v>0.9850200342791144</v>
       </c>
       <c r="AN2">
-        <v>0.4843285002997015</v>
+        <v>0.9825030717900221</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0.3451470112902332</v>
+        <v>0.890134355487266</v>
       </c>
       <c r="C3">
-        <v>0.90031968630471</v>
+        <v>0.8968411622375831</v>
       </c>
       <c r="D3">
-        <v>0.7173226648896487</v>
+        <v>0.9120223860580727</v>
       </c>
       <c r="E3">
-        <v>0.6460336188817027</v>
+        <v>0.9387741398000606</v>
       </c>
       <c r="F3">
-        <v>0.9777737411568037</v>
+        <v>0.8892891886297929</v>
       </c>
       <c r="G3">
-        <v>0.6928229801584512</v>
+        <v>0.9202238408874952</v>
       </c>
       <c r="H3">
-        <v>0.4440071172136745</v>
+        <v>0.9494639695360816</v>
       </c>
       <c r="I3">
-        <v>0.4971172879863014</v>
+        <v>0.9520274528366007</v>
       </c>
       <c r="J3">
-        <v>0.849654348891509</v>
+        <v>0.9095086604848418</v>
       </c>
       <c r="K3">
-        <v>0.7330007090324477</v>
+        <v>0.9612855702465737</v>
       </c>
       <c r="L3">
-        <v>0.6024187351988253</v>
+        <v>0.894754652461351</v>
       </c>
       <c r="M3">
-        <v>0.4926760743903841</v>
+        <v>0.977721783131885</v>
       </c>
       <c r="N3">
-        <v>0.7788730211422094</v>
+        <v>0.973592701047702</v>
       </c>
       <c r="O3">
-        <v>0.7889398146746669</v>
+        <v>0.9688638427801205</v>
       </c>
       <c r="P3">
-        <v>0.7922765606489927</v>
+        <v>0.9638603379825583</v>
       </c>
       <c r="Q3">
-        <v>0.6661599089920742</v>
+        <v>0.964537469855279</v>
       </c>
       <c r="R3">
-        <v>0.9689657751628798</v>
+        <v>0.9665289927024198</v>
       </c>
       <c r="S3">
-        <v>0.7525086209674287</v>
+        <v>0.9731160467115125</v>
       </c>
       <c r="T3">
-        <v>0.6475249472399456</v>
+        <v>0.9735761206095256</v>
       </c>
       <c r="U3">
-        <v>0.9919980574371499</v>
+        <v>0.9622144366561087</v>
       </c>
       <c r="V3">
-        <v>0.8171259638053647</v>
+        <v>0.9791385793319799</v>
       </c>
       <c r="W3">
-        <v>0.8302470420833697</v>
+        <v>0.9791293386515868</v>
       </c>
       <c r="X3">
-        <v>0.8664118912694208</v>
+        <v>0.9620549204924481</v>
       </c>
       <c r="Y3">
-        <v>0.748735988952459</v>
+        <v>0.9953738060505823</v>
       </c>
       <c r="Z3">
-        <v>0.723639044535501</v>
+        <v>0.9937508246697497</v>
       </c>
       <c r="AA3">
-        <v>0.7818942432459266</v>
+        <v>0.9907665973239025</v>
       </c>
       <c r="AB3">
-        <v>0.7854410204761426</v>
+        <v>0.9830485073564272</v>
       </c>
       <c r="AC3">
-        <v>0.7286532741402512</v>
+        <v>0.9906494286435321</v>
       </c>
       <c r="AD3">
-        <v>0.7274654257590689</v>
+        <v>0.9909472760707024</v>
       </c>
       <c r="AE3">
-        <v>0.7949614013751917</v>
+        <v>0.9970021359776107</v>
       </c>
       <c r="AF3">
-        <v>0.858534411830729</v>
+        <v>0.9899405952677528</v>
       </c>
       <c r="AG3">
-        <v>0.591330098727849</v>
+        <v>0.9806527088482917</v>
       </c>
       <c r="AH3">
-        <v>0.872958364862102</v>
+        <v>0.998119868770839</v>
       </c>
       <c r="AI3">
-        <v>0.9562710631197323</v>
+        <v>0.9881954360193189</v>
       </c>
       <c r="AJ3">
-        <v>0.7144046065185192</v>
+        <v>0.9956270085146922</v>
       </c>
       <c r="AK3">
-        <v>0.6300918551940439</v>
+        <v>0.9771066650832769</v>
       </c>
       <c r="AL3">
-        <v>0.7231944393956987</v>
+        <v>0.9845443254303503</v>
       </c>
       <c r="AM3">
-        <v>0.5834624784325144</v>
+        <v>0.9958614850052654</v>
       </c>
       <c r="AN3">
-        <v>0.6819472939117497</v>
+        <v>0.9941950224893091</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>0.1308181936214473</v>
+        <v>0.8946604616027417</v>
       </c>
       <c r="C4">
-        <v>0.8040755143615785</v>
+        <v>0.9072250263877025</v>
       </c>
       <c r="D4">
-        <v>0.6662756575842554</v>
+        <v>0.9178247269968689</v>
       </c>
       <c r="E4">
-        <v>0.4576470833627282</v>
+        <v>0.9419712932762653</v>
       </c>
       <c r="F4">
-        <v>0.9076625918171151</v>
+        <v>0.8950080914839724</v>
       </c>
       <c r="G4">
-        <v>0.5147994236767683</v>
+        <v>0.9267140699565781</v>
       </c>
       <c r="H4">
-        <v>0.248714968508106</v>
+        <v>0.9560808490500906</v>
       </c>
       <c r="I4">
-        <v>0.2940438516599747</v>
+        <v>0.9570075579318461</v>
       </c>
       <c r="J4">
-        <v>0.7097073191693936</v>
+        <v>0.9125571861198772</v>
       </c>
       <c r="K4">
-        <v>0.5648178055967008</v>
+        <v>0.9677886312808516</v>
       </c>
       <c r="L4">
-        <v>0.4071740586640621</v>
+        <v>0.8990391598354602</v>
       </c>
       <c r="M4">
-        <v>0.3362666856456942</v>
+        <v>0.9830764774463278</v>
       </c>
       <c r="N4">
-        <v>0.6547854231481823</v>
+        <v>0.9778210265893584</v>
       </c>
       <c r="O4">
-        <v>0.6508755268917212</v>
+        <v>0.9734355516968823</v>
       </c>
       <c r="P4">
-        <v>0.6332255633893943</v>
+        <v>0.9710405520393569</v>
       </c>
       <c r="Q4">
-        <v>0.4827946756957509</v>
+        <v>0.9691295838374799</v>
       </c>
       <c r="R4">
-        <v>0.8986106573748384</v>
+        <v>0.9685458650254353</v>
       </c>
       <c r="S4">
-        <v>0.5847229132530658</v>
+        <v>0.9779891782084507</v>
       </c>
       <c r="T4">
-        <v>0.4838694044439413</v>
+        <v>0.9778756344917268</v>
       </c>
       <c r="U4">
-        <v>0.9375648661392534</v>
+        <v>0.965815746895104</v>
       </c>
       <c r="V4">
-        <v>0.6790778055071962</v>
+        <v>0.983102501022075</v>
       </c>
       <c r="W4">
-        <v>0.6824497003903637</v>
+        <v>0.9830030027115397</v>
       </c>
       <c r="X4">
-        <v>0.7494058817221817</v>
+        <v>0.9673991490100223</v>
       </c>
       <c r="Y4">
-        <v>0.6130059386100906</v>
+        <v>0.9937097889764026</v>
       </c>
       <c r="Z4">
-        <v>0.6094459106003445</v>
+        <v>0.9957450280569468</v>
       </c>
       <c r="AA4">
-        <v>0.6378850494755488</v>
+        <v>0.993076093532449</v>
       </c>
       <c r="AB4">
-        <v>0.6350133705984897</v>
+        <v>0.9876725048483039</v>
       </c>
       <c r="AC4">
-        <v>0.5544626527953166</v>
+        <v>0.9912701923336548</v>
       </c>
       <c r="AD4">
-        <v>0.576012949815819</v>
+        <v>0.994666989106911</v>
       </c>
       <c r="AE4">
-        <v>0.6389872239385173</v>
+        <v>0.9963157826157281</v>
       </c>
       <c r="AF4">
-        <v>0.7308628838515251</v>
+        <v>0.992417705908463</v>
       </c>
       <c r="AG4">
-        <v>0.3949527705192859</v>
+        <v>0.9840426212785179</v>
       </c>
       <c r="AH4">
-        <v>0.7463425293015403</v>
+        <v>0.999220659327595</v>
       </c>
       <c r="AI4">
-        <v>0.8988927742548579</v>
+        <v>0.991332734642982</v>
       </c>
       <c r="AJ4">
-        <v>0.5783669950223558</v>
+        <v>0.9970642150600278</v>
       </c>
       <c r="AK4">
-        <v>0.4643813926791679</v>
+        <v>0.9819479365314981</v>
       </c>
       <c r="AL4">
-        <v>0.5578906563604263</v>
+        <v>0.9870883563892404</v>
       </c>
       <c r="AM4">
-        <v>0.3896964092961587</v>
+        <v>0.9957267820029975</v>
       </c>
       <c r="AN4">
-        <v>0.5256597601378701</v>
+        <v>0.9925849948115973</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>0.4861541114840943</v>
+        <v>0.8865299869044032</v>
       </c>
       <c r="C5">
-        <v>0.93328173917109</v>
+        <v>0.9067730503016422</v>
       </c>
       <c r="D5">
-        <v>0.7413192627015822</v>
+        <v>0.9106220409631782</v>
       </c>
       <c r="E5">
-        <v>0.7594731627892706</v>
+        <v>0.9335840142015688</v>
       </c>
       <c r="F5">
-        <v>0.9946672210905266</v>
+        <v>0.8885662543104588</v>
       </c>
       <c r="G5">
-        <v>0.8019573587607133</v>
+        <v>0.9211774394886736</v>
       </c>
       <c r="H5">
-        <v>0.5602961147638599</v>
+        <v>0.9573830295185433</v>
       </c>
       <c r="I5">
-        <v>0.6333602210025946</v>
+        <v>0.9556251693545896</v>
       </c>
       <c r="J5">
-        <v>0.9209767607256768</v>
+        <v>0.9076408342896974</v>
       </c>
       <c r="K5">
-        <v>0.8284015257971591</v>
+        <v>0.9656371559666715</v>
       </c>
       <c r="L5">
-        <v>0.7260664981362469</v>
+        <v>0.8915147180794605</v>
       </c>
       <c r="M5">
-        <v>0.5758685517086907</v>
+        <v>0.9818880823061232</v>
       </c>
       <c r="N5">
-        <v>0.8357140724869583</v>
+        <v>0.974713159708106</v>
       </c>
       <c r="O5">
-        <v>0.8557519750202732</v>
+        <v>0.9707512889923066</v>
       </c>
       <c r="P5">
-        <v>0.8812730009268275</v>
+        <v>0.9731473480380594</v>
       </c>
       <c r="Q5">
-        <v>0.7728430349485385</v>
+        <v>0.9708246744611859</v>
       </c>
       <c r="R5">
-        <v>0.9917502862251477</v>
+        <v>0.9637246342541814</v>
       </c>
       <c r="S5">
-        <v>0.8479484723856675</v>
+        <v>0.9801794336045769</v>
       </c>
       <c r="T5">
-        <v>0.7515810061302456</v>
+        <v>0.9779877679517941</v>
       </c>
       <c r="U5">
-        <v>0.9989253219820237</v>
+        <v>0.964913948734257</v>
       </c>
       <c r="V5">
-        <v>0.8841795223453488</v>
+        <v>0.9830943551589361</v>
       </c>
       <c r="W5">
-        <v>0.910505374256674</v>
+        <v>0.981316509352411</v>
       </c>
       <c r="X5">
-        <v>0.9160283773317084</v>
+        <v>0.9648455322449295</v>
       </c>
       <c r="Y5">
-        <v>0.8130014963313577</v>
+        <v>0.988758939907153</v>
       </c>
       <c r="Z5">
-        <v>0.7700213416667198</v>
+        <v>0.9973507224669981</v>
       </c>
       <c r="AA5">
-        <v>0.8546284146117001</v>
+        <v>0.9921075020693317</v>
       </c>
       <c r="AB5">
-        <v>0.8705197946343189</v>
+        <v>0.9865663286673247</v>
       </c>
       <c r="AC5">
-        <v>0.8297181334941978</v>
+        <v>0.9917855414096742</v>
       </c>
       <c r="AD5">
-        <v>0.8031915351200859</v>
+        <v>0.9935949076465381</v>
       </c>
       <c r="AE5">
-        <v>0.8793153341267226</v>
+        <v>0.997988439025747</v>
       </c>
       <c r="AF5">
-        <v>0.9285182605228615</v>
+        <v>0.9955510730963107</v>
       </c>
       <c r="AG5">
-        <v>0.7121158788801873</v>
+        <v>0.9822322298526625</v>
       </c>
       <c r="AH5">
-        <v>0.9311981030698779</v>
+        <v>0.9983418856112003</v>
       </c>
       <c r="AI5">
-        <v>0.9598961889567089</v>
+        <v>0.9923887246882764</v>
       </c>
       <c r="AJ5">
-        <v>0.7778263117331007</v>
+        <v>0.9950021330088316</v>
       </c>
       <c r="AK5">
-        <v>0.7218318806260826</v>
+        <v>0.9818437091489466</v>
       </c>
       <c r="AL5">
-        <v>0.818713309473294</v>
+        <v>0.9914840962042705</v>
       </c>
       <c r="AM5">
-        <v>0.7007786049404774</v>
+        <v>0.9984893139993776</v>
       </c>
       <c r="AN5">
-        <v>0.7696165988265011</v>
+        <v>0.9959837433218593</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.008081018327729202</v>
+        <v>0.8430175294268563</v>
       </c>
       <c r="C6">
-        <v>0.7022351785075622</v>
+        <v>0.8661267873470183</v>
       </c>
       <c r="D6">
-        <v>0.6720104594447037</v>
+        <v>0.8707304734504523</v>
       </c>
       <c r="E6">
-        <v>0.3274990407479145</v>
+        <v>0.9003904473142116</v>
       </c>
       <c r="F6">
-        <v>0.8362017211202363</v>
+        <v>0.8444483773747237</v>
       </c>
       <c r="G6">
-        <v>0.4103374300766964</v>
+        <v>0.8828131415267252</v>
       </c>
       <c r="H6">
-        <v>0.1001402144629197</v>
+        <v>0.9284568154071381</v>
       </c>
       <c r="I6">
-        <v>0.1769908561089118</v>
+        <v>0.9254269519547947</v>
       </c>
       <c r="J6">
-        <v>0.6013685289491285</v>
+        <v>0.8680167839486144</v>
       </c>
       <c r="K6">
-        <v>0.4546923344279905</v>
+        <v>0.9386811422956679</v>
       </c>
       <c r="L6">
-        <v>0.2919910712308857</v>
+        <v>0.8487726906558278</v>
       </c>
       <c r="M6">
-        <v>0.1871349867846712</v>
+        <v>0.9613012042452291</v>
       </c>
       <c r="N6">
-        <v>0.5306672113096724</v>
+        <v>0.9510036523579842</v>
       </c>
       <c r="O6">
-        <v>0.5257182513649735</v>
+        <v>0.9453618084242531</v>
       </c>
       <c r="P6">
-        <v>0.5221173847108299</v>
+        <v>0.9505559324367983</v>
       </c>
       <c r="Q6">
-        <v>0.3535298424450954</v>
+        <v>0.946387329914315</v>
       </c>
       <c r="R6">
-        <v>0.8451814111012603</v>
+        <v>0.937618016752909</v>
       </c>
       <c r="S6">
-        <v>0.4647211618836237</v>
+        <v>0.9596261826303309</v>
       </c>
       <c r="T6">
-        <v>0.4081923224563164</v>
+        <v>0.9554734899048901</v>
       </c>
       <c r="U6">
-        <v>0.881391330553534</v>
+        <v>0.93791178954545</v>
       </c>
       <c r="V6">
-        <v>0.5590201567858475</v>
+        <v>0.9627634102538735</v>
       </c>
       <c r="W6">
-        <v>0.5776085225518636</v>
+        <v>0.960097586765739</v>
       </c>
       <c r="X6">
-        <v>0.6384337999525198</v>
+        <v>0.9373666128328714</v>
       </c>
       <c r="Y6">
-        <v>0.4827997490962821</v>
+        <v>0.9876923260937448</v>
       </c>
       <c r="Z6">
-        <v>0.4814037463388202</v>
+        <v>0.9873717098198794</v>
       </c>
       <c r="AA6">
-        <v>0.5122647135310003</v>
+        <v>0.9769921651906968</v>
       </c>
       <c r="AB6">
-        <v>0.5243358852582454</v>
+        <v>0.9682180635999054</v>
       </c>
       <c r="AC6">
-        <v>0.4345777607685775</v>
+        <v>0.9780019258483482</v>
       </c>
       <c r="AD6">
-        <v>0.4496039118623598</v>
+        <v>0.9801676206210707</v>
       </c>
       <c r="AE6">
-        <v>0.5216358174269431</v>
+        <v>0.9926750594452397</v>
       </c>
       <c r="AF6">
-        <v>0.6481131878115138</v>
+        <v>0.9853733278790145</v>
       </c>
       <c r="AG6">
-        <v>0.2711395661283373</v>
+        <v>0.9615134109731478</v>
       </c>
       <c r="AH6">
-        <v>0.6419888581495964</v>
+        <v>0.9900888994306978</v>
       </c>
       <c r="AI6">
-        <v>0.8206144554550376</v>
+        <v>0.9776288665057757</v>
       </c>
       <c r="AJ6">
-        <v>0.4453147663157691</v>
+        <v>0.9832874043800505</v>
       </c>
       <c r="AK6">
-        <v>0.3222931544686541</v>
+        <v>0.9609952667144933</v>
       </c>
       <c r="AL6">
-        <v>0.4338625184996906</v>
+        <v>0.9798652799320572</v>
       </c>
       <c r="AM6">
-        <v>0.2503277451519501</v>
+        <v>0.9948065867035504</v>
       </c>
       <c r="AN6">
-        <v>0.3942510335141247</v>
+        <v>0.9968229984078472</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0.6750703721225291</v>
+        <v>0.8153459354116414</v>
       </c>
       <c r="C7">
-        <v>0.8774051433256784</v>
+        <v>0.8503539441819639</v>
       </c>
       <c r="D7">
-        <v>0.801573559201478</v>
+        <v>0.8454553926385292</v>
       </c>
       <c r="E7">
-        <v>0.8700048450958929</v>
+        <v>0.874853831569978</v>
       </c>
       <c r="F7">
-        <v>0.9375295433217126</v>
+        <v>0.8190229923532507</v>
       </c>
       <c r="G7">
-        <v>0.9340625902863309</v>
+        <v>0.8602216717203783</v>
       </c>
       <c r="H7">
-        <v>0.6542461665904989</v>
+        <v>0.9172673857333166</v>
       </c>
       <c r="I7">
-        <v>0.8197852995489575</v>
+        <v>0.9100558054741257</v>
       </c>
       <c r="J7">
-        <v>0.9529509126466249</v>
+        <v>0.8451811579070043</v>
       </c>
       <c r="K7">
-        <v>0.9175988347133119</v>
+        <v>0.9235477818471228</v>
       </c>
       <c r="L7">
-        <v>0.8812155019246232</v>
+        <v>0.8220259476386755</v>
       </c>
       <c r="M7">
-        <v>0.5872590913926872</v>
+        <v>0.9489362099204841</v>
       </c>
       <c r="N7">
-        <v>0.8125982987686703</v>
+        <v>0.9350418022299076</v>
       </c>
       <c r="O7">
-        <v>0.8553370774418412</v>
+        <v>0.929549742021167</v>
       </c>
       <c r="P7">
-        <v>0.9542503725607506</v>
+        <v>0.9422984639453592</v>
       </c>
       <c r="Q7">
-        <v>0.8666337840874272</v>
+        <v>0.936502439788106</v>
       </c>
       <c r="R7">
-        <v>0.9728184816367655</v>
+        <v>0.9183240980487021</v>
       </c>
       <c r="S7">
-        <v>0.9259063658537747</v>
+        <v>0.9515291138097772</v>
       </c>
       <c r="T7">
-        <v>0.9078016753806889</v>
+        <v>0.9440084828509867</v>
       </c>
       <c r="U7">
-        <v>0.9365200486075291</v>
+        <v>0.9237437051963181</v>
       </c>
       <c r="V7">
-        <v>0.8905520656867508</v>
+        <v>0.9516825844806794</v>
       </c>
       <c r="W7">
-        <v>0.9696609322008443</v>
+        <v>0.9465835685292651</v>
       </c>
       <c r="X7">
-        <v>0.8901867883742374</v>
+        <v>0.921311939150119</v>
       </c>
       <c r="Y7">
-        <v>0.7999642244911935</v>
+        <v>0.9746543794818376</v>
       </c>
       <c r="Z7">
-        <v>0.7152752120819675</v>
+        <v>0.9809038106249314</v>
       </c>
       <c r="AA7">
-        <v>0.8687116475792023</v>
+        <v>0.9657942875816624</v>
       </c>
       <c r="AB7">
-        <v>0.935766286174871</v>
+        <v>0.9564304940252348</v>
       </c>
       <c r="AC7">
-        <v>0.9217538621719191</v>
+        <v>0.9687405727887579</v>
       </c>
       <c r="AD7">
-        <v>0.8221048220672726</v>
+        <v>0.9696338735883097</v>
       </c>
       <c r="AE7">
-        <v>0.9325834000939096</v>
+        <v>0.9870776308056305</v>
       </c>
       <c r="AF7">
-        <v>0.991194152425635</v>
+        <v>0.980931819429981</v>
       </c>
       <c r="AG7">
-        <v>0.8483323404001709</v>
+        <v>0.9478756636072987</v>
       </c>
       <c r="AH7">
-        <v>0.934716237180561</v>
+        <v>0.980726990776898</v>
       </c>
       <c r="AI7">
-        <v>0.8607178835604407</v>
+        <v>0.9693239329638528</v>
       </c>
       <c r="AJ7">
-        <v>0.7587520511741114</v>
+        <v>0.9714744052291502</v>
       </c>
       <c r="AK7">
-        <v>0.7634448633565101</v>
+        <v>0.9498378566284538</v>
       </c>
       <c r="AL7">
-        <v>0.8930079276735654</v>
+        <v>0.976664746975044</v>
       </c>
       <c r="AM7">
-        <v>0.8095868817196954</v>
+        <v>0.9912118417317681</v>
       </c>
       <c r="AN7">
-        <v>0.8155706339392081</v>
+        <v>0.995072842889695</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.8280740943462978</v>
+        <v>0.7789229281157083</v>
       </c>
       <c r="C8">
-        <v>0.8156715458207472</v>
+        <v>0.8202208084944468</v>
       </c>
       <c r="D8">
-        <v>0.3113972527841027</v>
+        <v>0.8114975874711785</v>
       </c>
       <c r="E8">
-        <v>0.9751516197258685</v>
+        <v>0.843550260981729</v>
       </c>
       <c r="F8">
-        <v>0.7162363819543927</v>
+        <v>0.7833002968593868</v>
       </c>
       <c r="G8">
-        <v>0.8883670938636457</v>
+        <v>0.8280280530922017</v>
       </c>
       <c r="H8">
-        <v>0.9250102014058691</v>
+        <v>0.8939042610212492</v>
       </c>
       <c r="I8">
-        <v>0.9336588067236433</v>
+        <v>0.8843339538777418</v>
       </c>
       <c r="J8">
-        <v>0.8994514646323956</v>
+        <v>0.8124179860058472</v>
       </c>
       <c r="K8">
-        <v>0.8745617772719366</v>
+        <v>0.8992758983048801</v>
       </c>
       <c r="L8">
-        <v>0.9156478382294161</v>
+        <v>0.7863086333466072</v>
       </c>
       <c r="M8">
-        <v>0.9022119778636423</v>
+        <v>0.9285337564099829</v>
       </c>
       <c r="N8">
-        <v>0.9105852961408687</v>
+        <v>0.9117642455086274</v>
       </c>
       <c r="O8">
-        <v>0.9233157789390338</v>
+        <v>0.9056318959664187</v>
       </c>
       <c r="P8">
-        <v>0.9219253070820648</v>
+        <v>0.9228639553718725</v>
       </c>
       <c r="Q8">
-        <v>0.9481690827549158</v>
+        <v>0.9155731728792679</v>
       </c>
       <c r="R8">
-        <v>0.6666080558468068</v>
+        <v>0.8926253452687587</v>
       </c>
       <c r="S8">
-        <v>0.9502317139916269</v>
+        <v>0.9330062613610478</v>
       </c>
       <c r="T8">
-        <v>0.7441618172302332</v>
+        <v>0.9231838103707628</v>
       </c>
       <c r="U8">
-        <v>0.6486446466383079</v>
+        <v>0.899875651205301</v>
       </c>
       <c r="V8">
-        <v>0.9148082906867731</v>
+        <v>0.93194181646913</v>
       </c>
       <c r="W8">
-        <v>0.9025531122040399</v>
+        <v>0.9254107879163336</v>
       </c>
       <c r="X8">
-        <v>0.8673295312915839</v>
+        <v>0.8964174527449474</v>
       </c>
       <c r="Y8">
-        <v>0.9164226782314561</v>
+        <v>0.962398200372559</v>
       </c>
       <c r="Z8">
-        <v>0.8588553381105077</v>
+        <v>0.9675767571359293</v>
       </c>
       <c r="AA8">
-        <v>0.9399558439608806</v>
+        <v>0.9482129041554592</v>
       </c>
       <c r="AB8">
-        <v>0.9398417202694195</v>
+        <v>0.9372225799812681</v>
       </c>
       <c r="AC8">
-        <v>0.9450574391056292</v>
+        <v>0.9525812068299645</v>
       </c>
       <c r="AD8">
-        <v>0.8818195820287582</v>
+        <v>0.9530652757817607</v>
       </c>
       <c r="AE8">
-        <v>0.9336958172580879</v>
+        <v>0.9761519832434623</v>
       </c>
       <c r="AF8">
-        <v>0.8359818186015809</v>
+        <v>0.9684100367613268</v>
       </c>
       <c r="AG8">
-        <v>0.9186012784290225</v>
+        <v>0.9268607337923244</v>
       </c>
       <c r="AH8">
-        <v>0.8518499828652026</v>
+        <v>0.9668862849181785</v>
       </c>
       <c r="AI8">
-        <v>0.6958669027435123</v>
+        <v>0.9531522382658553</v>
       </c>
       <c r="AJ8">
-        <v>0.8982904213393693</v>
+        <v>0.9550853267979683</v>
       </c>
       <c r="AK8">
-        <v>0.9743418057611308</v>
+        <v>0.9298467221886133</v>
       </c>
       <c r="AL8">
-        <v>0.9750963225281618</v>
+        <v>0.9640812450156692</v>
       </c>
       <c r="AM8">
-        <v>0.9881147482034852</v>
+        <v>0.9818617495795555</v>
       </c>
       <c r="AN8">
-        <v>0.9755440649887505</v>
+        <v>0.9885044805738328</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.8475871059918149</v>
+        <v>0.7820152795289279</v>
       </c>
       <c r="C9">
-        <v>0.8144462327389247</v>
+        <v>0.8071072207921776</v>
       </c>
       <c r="D9">
-        <v>0.5335159405723066</v>
+        <v>0.8147801995819818</v>
       </c>
       <c r="E9">
-        <v>0.984337777828402</v>
+        <v>0.8527358758619044</v>
       </c>
       <c r="F9">
-        <v>0.7799767354339381</v>
+        <v>0.7820920217992117</v>
       </c>
       <c r="G9">
-        <v>0.9674891057429075</v>
+        <v>0.8280906281080092</v>
       </c>
       <c r="H9">
-        <v>0.8547607530751143</v>
+        <v>0.8813916350307637</v>
       </c>
       <c r="I9">
-        <v>0.9777453098130644</v>
+        <v>0.8775271218423991</v>
       </c>
       <c r="J9">
-        <v>0.9362525706792478</v>
+        <v>0.8086945084728485</v>
       </c>
       <c r="K9">
-        <v>0.929412862650392</v>
+        <v>0.8969603383893474</v>
       </c>
       <c r="L9">
-        <v>0.9728974219133524</v>
+        <v>0.7881560343522345</v>
       </c>
       <c r="M9">
-        <v>0.778915619293026</v>
+        <v>0.9268303691671734</v>
       </c>
       <c r="N9">
-        <v>0.8628125791998488</v>
+        <v>0.9129006311098622</v>
       </c>
       <c r="O9">
-        <v>0.8959690776792806</v>
+        <v>0.9048371772374036</v>
       </c>
       <c r="P9">
-        <v>0.969380244485625</v>
+        <v>0.9120504890786112</v>
       </c>
       <c r="Q9">
-        <v>0.9564663498920309</v>
+        <v>0.9037648677004548</v>
       </c>
       <c r="R9">
-        <v>0.7832407456989602</v>
+        <v>0.8960064328678589</v>
       </c>
       <c r="S9">
-        <v>0.9772215444467582</v>
+        <v>0.9222075818524155</v>
       </c>
       <c r="T9">
-        <v>0.8803875414818488</v>
+        <v>0.916534875289616</v>
       </c>
       <c r="U9">
-        <v>0.736959512080789</v>
+        <v>0.8930645889702185</v>
       </c>
       <c r="V9">
-        <v>0.9078342776784792</v>
+        <v>0.9267121484102773</v>
       </c>
       <c r="W9">
-        <v>0.9582600917392744</v>
+        <v>0.9240699057743428</v>
       </c>
       <c r="X9">
-        <v>0.864315291671</v>
+        <v>0.8944009206600935</v>
       </c>
       <c r="Y9">
-        <v>0.8633190853568224</v>
+        <v>0.9786754118553513</v>
       </c>
       <c r="Z9">
-        <v>0.7750908178191517</v>
+        <v>0.9631173408613921</v>
       </c>
       <c r="AA9">
-        <v>0.9188590823350661</v>
+        <v>0.9477908008261187</v>
       </c>
       <c r="AB9">
-        <v>0.9733241981236307</v>
+        <v>0.9362737813075261</v>
       </c>
       <c r="AC9">
-        <v>0.9781451057209823</v>
+        <v>0.9483029348325179</v>
       </c>
       <c r="AD9">
-        <v>0.8614360865933933</v>
+        <v>0.9544303642020446</v>
       </c>
       <c r="AE9">
-        <v>0.9582096444701215</v>
+        <v>0.9730324467086361</v>
       </c>
       <c r="AF9">
-        <v>0.9318339078902281</v>
+        <v>0.9599970696996071</v>
       </c>
       <c r="AG9">
-        <v>0.9501740252359173</v>
+        <v>0.9259338431452073</v>
       </c>
       <c r="AH9">
-        <v>0.8849279847654475</v>
+        <v>0.9695843476003191</v>
       </c>
       <c r="AI9">
-        <v>0.7161467330715191</v>
+        <v>0.9479225916860469</v>
       </c>
       <c r="AJ9">
-        <v>0.8314043474743015</v>
+        <v>0.9591000598305452</v>
       </c>
       <c r="AK9">
-        <v>0.9099838649275016</v>
+        <v>0.9249308538402478</v>
       </c>
       <c r="AL9">
-        <v>0.9803311353630785</v>
+        <v>0.9515455991799097</v>
       </c>
       <c r="AM9">
-        <v>0.9667670006806739</v>
+        <v>0.9769989663394462</v>
       </c>
       <c r="AN9">
-        <v>0.9373230136762205</v>
+        <v>0.983871937127428</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.9248018257024603</v>
+        <v>0.6196113686954239</v>
       </c>
       <c r="C10">
-        <v>0.7107699004803409</v>
+        <v>0.6893987343928316</v>
       </c>
       <c r="D10">
-        <v>0.5547876711719202</v>
+        <v>0.6612277715886727</v>
       </c>
       <c r="E10">
-        <v>0.9662769452121867</v>
+        <v>0.6994481413646764</v>
       </c>
       <c r="F10">
-        <v>0.6758541905760168</v>
+        <v>0.627881132712872</v>
       </c>
       <c r="G10">
-        <v>0.9726339061516976</v>
+        <v>0.6847072974943387</v>
       </c>
       <c r="H10">
-        <v>0.858850156338489</v>
+        <v>0.7830260410889213</v>
       </c>
       <c r="I10">
-        <v>0.992293268244223</v>
+        <v>0.7630357623473473</v>
       </c>
       <c r="J10">
-        <v>0.8751265590768016</v>
+        <v>0.6654061838387413</v>
       </c>
       <c r="K10">
-        <v>0.9270909832900469</v>
+        <v>0.7834663890351151</v>
       </c>
       <c r="L10">
-        <v>0.9918322936903698</v>
+        <v>0.6293611253463358</v>
       </c>
       <c r="M10">
-        <v>0.7200366847195766</v>
+        <v>0.8252691438680408</v>
       </c>
       <c r="N10">
-        <v>0.7588278788776237</v>
+        <v>0.7971287651016051</v>
       </c>
       <c r="O10">
-        <v>0.8155711875858584</v>
+        <v>0.7893059559383226</v>
       </c>
       <c r="P10">
-        <v>0.9303146470898045</v>
+        <v>0.8258992612494568</v>
       </c>
       <c r="Q10">
-        <v>0.9440890140680196</v>
+        <v>0.8114675426893567</v>
       </c>
       <c r="R10">
-        <v>0.7004745628800877</v>
+        <v>0.7676620174514156</v>
       </c>
       <c r="S10">
-        <v>0.9390602097787046</v>
+        <v>0.8373896892989503</v>
       </c>
       <c r="T10">
-        <v>0.9194946643896779</v>
+        <v>0.8183528140213363</v>
       </c>
       <c r="U10">
-        <v>0.6337937857849247</v>
+        <v>0.7839571867326262</v>
       </c>
       <c r="V10">
-        <v>0.8338060316250032</v>
+        <v>0.8304402030368921</v>
       </c>
       <c r="W10">
-        <v>0.9088237955524037</v>
+        <v>0.8182262262607607</v>
       </c>
       <c r="X10">
-        <v>0.7749392202242767</v>
+        <v>0.777478599929482</v>
       </c>
       <c r="Y10">
-        <v>0.7783705090452236</v>
+        <v>0.8809759001206952</v>
       </c>
       <c r="Z10">
-        <v>0.6723524761447334</v>
+        <v>0.8872823608098626</v>
       </c>
       <c r="AA10">
-        <v>0.8414124928219392</v>
+        <v>0.852403991092874</v>
       </c>
       <c r="AB10">
-        <v>0.9062815986987589</v>
+        <v>0.8374920795836469</v>
       </c>
       <c r="AC10">
-        <v>0.9532491445490373</v>
+        <v>0.8611636589726909</v>
       </c>
       <c r="AD10">
-        <v>0.8237734733539153</v>
+        <v>0.8617037018872176</v>
       </c>
       <c r="AE10">
-        <v>0.9083437547393887</v>
+        <v>0.9023823429769557</v>
       </c>
       <c r="AF10">
-        <v>0.8736824572689247</v>
+        <v>0.8919482779685055</v>
       </c>
       <c r="AG10">
-        <v>0.9705982826819316</v>
+        <v>0.8198059599292915</v>
       </c>
       <c r="AH10">
-        <v>0.8227090396605827</v>
+        <v>0.8831397535423814</v>
       </c>
       <c r="AI10">
-        <v>0.5954556696801796</v>
+        <v>0.8636592799707643</v>
       </c>
       <c r="AJ10">
-        <v>0.7533666560427073</v>
+        <v>0.8622992493732293</v>
       </c>
       <c r="AK10">
-        <v>0.8463904817442366</v>
+        <v>0.8280933344238034</v>
       </c>
       <c r="AL10">
-        <v>0.9217724950384305</v>
+        <v>0.888097750988916</v>
       </c>
       <c r="AM10">
-        <v>0.9482191873596766</v>
+        <v>0.9144148698823182</v>
       </c>
       <c r="AN10">
-        <v>0.8569951530031619</v>
+        <v>0.9301029533155609</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0.8065018580258053</v>
+        <v>0.579427658812859</v>
       </c>
       <c r="C11">
-        <v>0.7570592382499314</v>
+        <v>0.6444852629319892</v>
       </c>
       <c r="D11">
-        <v>0.4912758084720137</v>
+        <v>0.6212971082943423</v>
       </c>
       <c r="E11">
-        <v>0.9561613719123389</v>
+        <v>0.6647021520548081</v>
       </c>
       <c r="F11">
-        <v>0.7287430569144021</v>
+        <v>0.5861499052260618</v>
       </c>
       <c r="G11">
-        <v>0.9377260559074203</v>
+        <v>0.6445478166039276</v>
       </c>
       <c r="H11">
-        <v>0.8053788185662051</v>
+        <v>0.7457449867433104</v>
       </c>
       <c r="I11">
-        <v>0.9828446251609871</v>
+        <v>0.726857495753798</v>
       </c>
       <c r="J11">
-        <v>0.8932798971923605</v>
+        <v>0.6274135595469346</v>
       </c>
       <c r="K11">
-        <v>0.8751472392929888</v>
+        <v>0.7476966690646993</v>
       </c>
       <c r="L11">
-        <v>0.9471455853301047</v>
+        <v>0.5895626008076885</v>
       </c>
       <c r="M11">
-        <v>0.7343475604846199</v>
+        <v>0.7931538014471533</v>
       </c>
       <c r="N11">
-        <v>0.8259716211273646</v>
+        <v>0.7647558693641818</v>
       </c>
       <c r="O11">
-        <v>0.8494825497241246</v>
+        <v>0.7558188856674531</v>
       </c>
       <c r="P11">
-        <v>0.9340711578537638</v>
+        <v>0.7909662854664614</v>
       </c>
       <c r="Q11">
-        <v>0.9117086072841525</v>
+        <v>0.777714025692797</v>
       </c>
       <c r="R11">
-        <v>0.7434795038114154</v>
+        <v>0.7362724565775234</v>
       </c>
       <c r="S11">
-        <v>0.9435939156979536</v>
+        <v>0.8051309905474089</v>
       </c>
       <c r="T11">
-        <v>0.8497268082467915</v>
+        <v>0.7859326690265773</v>
       </c>
       <c r="U11">
-        <v>0.6870656868086028</v>
+        <v>0.7502134866709153</v>
       </c>
       <c r="V11">
-        <v>0.8592867001907066</v>
+        <v>0.7993114147529641</v>
       </c>
       <c r="W11">
-        <v>0.9238019302797426</v>
+        <v>0.7870304709390449</v>
       </c>
       <c r="X11">
-        <v>0.8105215377875832</v>
+        <v>0.7424223688685118</v>
       </c>
       <c r="Y11">
-        <v>0.8147697780219778</v>
+        <v>0.8646646071479922</v>
       </c>
       <c r="Z11">
-        <v>0.7212375196779717</v>
+        <v>0.8623848081426773</v>
       </c>
       <c r="AA11">
-        <v>0.8786776980724385</v>
+        <v>0.8251896764226423</v>
       </c>
       <c r="AB11">
-        <v>0.9601217988886105</v>
+        <v>0.8069756587592609</v>
       </c>
       <c r="AC11">
-        <v>0.9426817324293574</v>
+        <v>0.8356873589350432</v>
       </c>
       <c r="AD11">
-        <v>0.7915141839591803</v>
+        <v>0.8342423924488762</v>
       </c>
       <c r="AE11">
-        <v>0.9182546016084268</v>
+        <v>0.8818950339428392</v>
       </c>
       <c r="AF11">
-        <v>0.9146588749941362</v>
+        <v>0.8663542781648801</v>
       </c>
       <c r="AG11">
-        <v>0.9089826219280299</v>
+        <v>0.7892414348943176</v>
       </c>
       <c r="AH11">
-        <v>0.8257394807274984</v>
+        <v>0.8602028088789859</v>
       </c>
       <c r="AI11">
-        <v>0.6541101920808188</v>
+        <v>0.8356413908341135</v>
       </c>
       <c r="AJ11">
-        <v>0.774536129821655</v>
+        <v>0.8376094349217427</v>
       </c>
       <c r="AK11">
-        <v>0.8791703182337759</v>
+        <v>0.7960627978372251</v>
       </c>
       <c r="AL11">
-        <v>0.9641959710392445</v>
+        <v>0.861586188067249</v>
       </c>
       <c r="AM11">
-        <v>0.9393609576560138</v>
+        <v>0.894134437665846</v>
       </c>
       <c r="AN11">
-        <v>0.9248108079757825</v>
+        <v>0.9131896156407903</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.81126112222654</v>
+        <v>0.6838538849770711</v>
       </c>
       <c r="C12">
-        <v>0.7766726969244518</v>
+        <v>0.6877430735997382</v>
       </c>
       <c r="D12">
-        <v>0.6222242744755673</v>
+        <v>0.7129922903384756</v>
       </c>
       <c r="E12">
-        <v>0.9509388539004234</v>
+        <v>0.7662381953811765</v>
       </c>
       <c r="F12">
-        <v>0.7812814894097178</v>
+        <v>0.6788682554793177</v>
       </c>
       <c r="G12">
-        <v>0.9705363448182894</v>
+        <v>0.7247701867936713</v>
       </c>
       <c r="H12">
-        <v>0.771850266154956</v>
+        <v>0.7867976872445708</v>
       </c>
       <c r="I12">
-        <v>0.9733837051116527</v>
+        <v>0.7880284184493993</v>
       </c>
       <c r="J12">
-        <v>0.917560306216604</v>
+        <v>0.721030627663548</v>
       </c>
       <c r="K12">
-        <v>0.9117763019983408</v>
+        <v>0.8021306894504708</v>
       </c>
       <c r="L12">
-        <v>0.9640998721382374</v>
+        <v>0.6917887119638643</v>
       </c>
       <c r="M12">
-        <v>0.6761219362251872</v>
+        <v>0.8418819797490568</v>
       </c>
       <c r="N12">
-        <v>0.8056487261272401</v>
+        <v>0.829973440005989</v>
       </c>
       <c r="O12">
-        <v>0.8435045207110519</v>
+        <v>0.8194746123123117</v>
       </c>
       <c r="P12">
-        <v>0.9565682367840238</v>
+        <v>0.8194539412433252</v>
       </c>
       <c r="Q12">
-        <v>0.9167850082414258</v>
+        <v>0.8214230741117092</v>
       </c>
       <c r="R12">
-        <v>0.8160195485749763</v>
+        <v>0.8208783748305555</v>
       </c>
       <c r="S12">
-        <v>0.9534703749746528</v>
+        <v>0.8413985890545608</v>
       </c>
       <c r="T12">
-        <v>0.9142921036959855</v>
+        <v>0.835805686062237</v>
       </c>
       <c r="U12">
-        <v>0.7534842352019631</v>
+        <v>0.8121256322886832</v>
       </c>
       <c r="V12">
-        <v>0.8649229448537697</v>
+        <v>0.8488809054479995</v>
       </c>
       <c r="W12">
-        <v>0.9514957726768088</v>
+        <v>0.8451360364190038</v>
       </c>
       <c r="X12">
-        <v>0.824211214046021</v>
+        <v>0.8042644340122085</v>
       </c>
       <c r="Y12">
-        <v>0.7972810330321094</v>
+        <v>0.9382107442215497</v>
       </c>
       <c r="Z12">
-        <v>0.6943430747470614</v>
+        <v>0.902390352829336</v>
       </c>
       <c r="AA12">
-        <v>0.8712417310319326</v>
+        <v>0.8805406986056532</v>
       </c>
       <c r="AB12">
-        <v>0.9632415626891864</v>
+        <v>0.8561941805404037</v>
       </c>
       <c r="AC12">
-        <v>0.9559365743433764</v>
+        <v>0.8905818520512824</v>
       </c>
       <c r="AD12">
-        <v>0.8015857098278543</v>
+        <v>0.881924135106124</v>
       </c>
       <c r="AE12">
-        <v>0.9322887072140957</v>
+        <v>0.9280768074941899</v>
       </c>
       <c r="AF12">
-        <v>0.9550773850322831</v>
+        <v>0.8978348391453629</v>
       </c>
       <c r="AG12">
-        <v>0.9220813402713842</v>
+        <v>0.8494750699901989</v>
       </c>
       <c r="AH12">
-        <v>0.8597956284328822</v>
+        <v>0.9128408469697661</v>
       </c>
       <c r="AI12">
-        <v>0.6928294051419743</v>
+        <v>0.8782673565199981</v>
       </c>
       <c r="AJ12">
-        <v>0.7550809632530542</v>
+        <v>0.8976884028330087</v>
       </c>
       <c r="AK12">
-        <v>0.8411718858279276</v>
+        <v>0.8427142620275072</v>
       </c>
       <c r="AL12">
-        <v>0.9527122851851005</v>
+        <v>0.888851538864705</v>
       </c>
       <c r="AM12">
-        <v>0.9174306536859922</v>
+        <v>0.931348169123892</v>
       </c>
       <c r="AN12">
-        <v>0.8902490160502247</v>
+        <v>0.9488479761997306</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块.xlsx
+++ b/FOF/data/基金公司-板块.xlsx
@@ -16,129 +16,147 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
     <t>上投摩根</t>
   </si>
   <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
     <t>诺德</t>
   </si>
   <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
     <t>创业板综</t>
   </si>
   <si>
+    <t>万得全A</t>
+  </si>
+  <si>
     <t>深证综指</t>
   </si>
   <si>
@@ -148,25 +166,7 @@
     <t>中证500</t>
   </si>
   <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
     <t>中证1000</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>上证50</t>
-  </si>
-  <si>
-    <t>上证综指</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0.9154269708718427</v>
+        <v>0.7908515294567928</v>
       </c>
       <c r="C2">
-        <v>0.8980693229961814</v>
+        <v>0.8893303356718757</v>
       </c>
       <c r="D2">
-        <v>0.9289123574588481</v>
+        <v>0.9089435178606661</v>
       </c>
       <c r="E2">
-        <v>0.9562585464358655</v>
+        <v>0.8130841177899204</v>
       </c>
       <c r="F2">
-        <v>0.9109361151593733</v>
+        <v>0.870320783899188</v>
       </c>
       <c r="G2">
-        <v>0.9325276550133641</v>
+        <v>0.7652294203066349</v>
       </c>
       <c r="H2">
-        <v>0.9474773355793964</v>
+        <v>0.9139493789821507</v>
       </c>
       <c r="I2">
-        <v>0.9574734875046187</v>
+        <v>0.8487852839119049</v>
       </c>
       <c r="J2">
-        <v>0.9330980065567837</v>
+        <v>0.8591465150642982</v>
       </c>
       <c r="K2">
-        <v>0.9590148134546548</v>
+        <v>0.8399566492996268</v>
       </c>
       <c r="L2">
-        <v>0.9195640539351415</v>
+        <v>0.8143932011390477</v>
       </c>
       <c r="M2">
-        <v>0.9712372984570224</v>
+        <v>0.8749934104085537</v>
       </c>
       <c r="N2">
-        <v>0.9747675785326643</v>
+        <v>0.8148390591915536</v>
       </c>
       <c r="O2">
-        <v>0.9707083916748321</v>
+        <v>0.8496465799145618</v>
       </c>
       <c r="P2">
-        <v>0.9527909287062816</v>
+        <v>0.8965057154574039</v>
       </c>
       <c r="Q2">
-        <v>0.9632295534101627</v>
+        <v>0.8243304044695045</v>
       </c>
       <c r="R2">
-        <v>0.9776973063599209</v>
+        <v>0.8809246735417161</v>
       </c>
       <c r="S2">
-        <v>0.966430224878123</v>
+        <v>0.8453647933261557</v>
       </c>
       <c r="T2">
-        <v>0.971689665413344</v>
+        <v>0.8496677639267657</v>
       </c>
       <c r="U2">
-        <v>0.9678699274108529</v>
+        <v>0.8164909119277328</v>
       </c>
       <c r="V2">
-        <v>0.9758571705752054</v>
+        <v>0.8390822040150747</v>
       </c>
       <c r="W2">
-        <v>0.9778856759323958</v>
+        <v>0.7747045092839514</v>
       </c>
       <c r="X2">
-        <v>0.96392612473776</v>
+        <v>0.8239738257554737</v>
       </c>
       <c r="Y2">
-        <v>0.9899327482831368</v>
+        <v>0.7374977903045822</v>
       </c>
       <c r="Z2">
-        <v>0.9840680634889237</v>
+        <v>0.8301139194518138</v>
       </c>
       <c r="AA2">
-        <v>0.986999200884653</v>
+        <v>0.7434785183801117</v>
       </c>
       <c r="AB2">
-        <v>0.9761711717814665</v>
+        <v>0.7966159243968102</v>
       </c>
       <c r="AC2">
-        <v>0.9896694812447936</v>
+        <v>0.7602698439672264</v>
       </c>
       <c r="AD2">
-        <v>0.9812754507142343</v>
+        <v>0.7860211866500928</v>
       </c>
       <c r="AE2">
-        <v>0.9900499750799771</v>
+        <v>0.7772047900747359</v>
       </c>
       <c r="AF2">
-        <v>0.9783706323804582</v>
+        <v>0.7221872692594625</v>
       </c>
       <c r="AG2">
-        <v>0.980324042447583</v>
+        <v>0.748587504376392</v>
       </c>
       <c r="AH2">
-        <v>0.9903328313117682</v>
+        <v>0.7275222985707364</v>
       </c>
       <c r="AI2">
-        <v>0.9806741115179365</v>
+        <v>0.7281851062264335</v>
       </c>
       <c r="AJ2">
-        <v>0.9912030365794932</v>
+        <v>0.7429303484707726</v>
       </c>
       <c r="AK2">
-        <v>0.9718904945168937</v>
+        <v>0.7641102037546124</v>
       </c>
       <c r="AL2">
-        <v>0.9737977854460685</v>
+        <v>0.7209397381634397</v>
       </c>
       <c r="AM2">
-        <v>0.9850200342791144</v>
+        <v>0.7044720076386649</v>
       </c>
       <c r="AN2">
-        <v>0.9825030717900221</v>
+        <v>0.7155208971357127</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0.890134355487266</v>
+        <v>0.8349211687754069</v>
       </c>
       <c r="C3">
-        <v>0.8968411622375831</v>
+        <v>0.9135729795912632</v>
       </c>
       <c r="D3">
-        <v>0.9120223860580727</v>
+        <v>0.948482863076516</v>
       </c>
       <c r="E3">
-        <v>0.9387741398000606</v>
+        <v>0.8427066722327848</v>
       </c>
       <c r="F3">
-        <v>0.8892891886297929</v>
+        <v>0.9159677606359886</v>
       </c>
       <c r="G3">
-        <v>0.9202238408874952</v>
+        <v>0.8251490428555175</v>
       </c>
       <c r="H3">
-        <v>0.9494639695360816</v>
+        <v>0.9557623046583682</v>
       </c>
       <c r="I3">
-        <v>0.9520274528366007</v>
+        <v>0.9036874728766381</v>
       </c>
       <c r="J3">
-        <v>0.9095086604848418</v>
+        <v>0.9062890834017728</v>
       </c>
       <c r="K3">
-        <v>0.9612855702465737</v>
+        <v>0.8970714850521961</v>
       </c>
       <c r="L3">
-        <v>0.894754652461351</v>
+        <v>0.8728407360254901</v>
       </c>
       <c r="M3">
-        <v>0.977721783131885</v>
+        <v>0.9248084815094932</v>
       </c>
       <c r="N3">
-        <v>0.973592701047702</v>
+        <v>0.8741294570561979</v>
       </c>
       <c r="O3">
-        <v>0.9688638427801205</v>
+        <v>0.9079848639579051</v>
       </c>
       <c r="P3">
-        <v>0.9638603379825583</v>
+        <v>0.945533304233322</v>
       </c>
       <c r="Q3">
-        <v>0.964537469855279</v>
+        <v>0.8885424269069599</v>
       </c>
       <c r="R3">
-        <v>0.9665289927024198</v>
+        <v>0.9337405098446694</v>
       </c>
       <c r="S3">
-        <v>0.9731160467115125</v>
+        <v>0.9033654455934068</v>
       </c>
       <c r="T3">
-        <v>0.9735761206095256</v>
+        <v>0.9099910325434644</v>
       </c>
       <c r="U3">
-        <v>0.9622144366561087</v>
+        <v>0.8845319712329834</v>
       </c>
       <c r="V3">
-        <v>0.9791385793319799</v>
+        <v>0.9007403738549341</v>
       </c>
       <c r="W3">
-        <v>0.9791293386515868</v>
+        <v>0.8464524169301633</v>
       </c>
       <c r="X3">
-        <v>0.9620549204924481</v>
+        <v>0.8821381044373388</v>
       </c>
       <c r="Y3">
-        <v>0.9953738060505823</v>
+        <v>0.8145189172989851</v>
       </c>
       <c r="Z3">
-        <v>0.9937508246697497</v>
+        <v>0.8916454012416648</v>
       </c>
       <c r="AA3">
-        <v>0.9907665973239025</v>
+        <v>0.8246535918682213</v>
       </c>
       <c r="AB3">
-        <v>0.9830485073564272</v>
+        <v>0.8676486236807426</v>
       </c>
       <c r="AC3">
-        <v>0.9906494286435321</v>
+        <v>0.8382159300848817</v>
       </c>
       <c r="AD3">
-        <v>0.9909472760707024</v>
+        <v>0.8602881556329937</v>
       </c>
       <c r="AE3">
-        <v>0.9970021359776107</v>
+        <v>0.8463857992743395</v>
       </c>
       <c r="AF3">
-        <v>0.9899405952677528</v>
+        <v>0.8067871020184283</v>
       </c>
       <c r="AG3">
-        <v>0.9806527088482917</v>
+        <v>0.8159058703983241</v>
       </c>
       <c r="AH3">
-        <v>0.998119868770839</v>
+        <v>0.8084001050288471</v>
       </c>
       <c r="AI3">
-        <v>0.9881954360193189</v>
+        <v>0.8103214584036857</v>
       </c>
       <c r="AJ3">
-        <v>0.9956270085146922</v>
+        <v>0.8209895376492097</v>
       </c>
       <c r="AK3">
-        <v>0.9771066650832769</v>
+        <v>0.837157326026296</v>
       </c>
       <c r="AL3">
-        <v>0.9845443254303503</v>
+        <v>0.8042929629908497</v>
       </c>
       <c r="AM3">
-        <v>0.9958614850052654</v>
+        <v>0.7922849639301005</v>
       </c>
       <c r="AN3">
-        <v>0.9941950224893091</v>
+        <v>0.7936692415118097</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>0.8946604616027417</v>
+        <v>0.9082492846831677</v>
       </c>
       <c r="C4">
-        <v>0.9072250263877025</v>
+        <v>0.9409341078662906</v>
       </c>
       <c r="D4">
-        <v>0.9178247269968689</v>
+        <v>0.9889136367492659</v>
       </c>
       <c r="E4">
-        <v>0.9419712932762653</v>
+        <v>0.888919458591672</v>
       </c>
       <c r="F4">
-        <v>0.8950080914839724</v>
+        <v>0.9745311347837132</v>
       </c>
       <c r="G4">
-        <v>0.9267140699565781</v>
+        <v>0.9221151891325597</v>
       </c>
       <c r="H4">
-        <v>0.9560808490500906</v>
+        <v>0.9963246124298037</v>
       </c>
       <c r="I4">
-        <v>0.9570075579318461</v>
+        <v>0.9759018217879049</v>
       </c>
       <c r="J4">
-        <v>0.9125571861198772</v>
+        <v>0.9687294595256246</v>
       </c>
       <c r="K4">
-        <v>0.9677886312808516</v>
+        <v>0.9735774390006122</v>
       </c>
       <c r="L4">
-        <v>0.8990391598354602</v>
+        <v>0.9577889984154966</v>
       </c>
       <c r="M4">
-        <v>0.9830764774463278</v>
+        <v>0.9850226360402289</v>
       </c>
       <c r="N4">
-        <v>0.9778210265893584</v>
+        <v>0.9595003641795972</v>
       </c>
       <c r="O4">
-        <v>0.9734355516968823</v>
+        <v>0.9821187512471488</v>
       </c>
       <c r="P4">
-        <v>0.9710405520393569</v>
+        <v>0.9962341353136311</v>
       </c>
       <c r="Q4">
-        <v>0.9691295838374799</v>
+        <v>0.9731627179990407</v>
       </c>
       <c r="R4">
-        <v>0.9685458650254353</v>
+        <v>0.9929130273898871</v>
       </c>
       <c r="S4">
-        <v>0.9779891782084507</v>
+        <v>0.9788239255892107</v>
       </c>
       <c r="T4">
-        <v>0.9778756344917268</v>
+        <v>0.9821480070985564</v>
       </c>
       <c r="U4">
-        <v>0.965815746895104</v>
+        <v>0.9692663325504233</v>
       </c>
       <c r="V4">
-        <v>0.983102501022075</v>
+        <v>0.9764578253747233</v>
       </c>
       <c r="W4">
-        <v>0.9830030027115397</v>
+        <v>0.9504923357661261</v>
       </c>
       <c r="X4">
-        <v>0.9673991490100223</v>
+        <v>0.9643594481720463</v>
       </c>
       <c r="Y4">
-        <v>0.9937097889764026</v>
+        <v>0.9281188222873629</v>
       </c>
       <c r="Z4">
-        <v>0.9957450280569468</v>
+        <v>0.9737115766785438</v>
       </c>
       <c r="AA4">
-        <v>0.993076093532449</v>
+        <v>0.9379620393491777</v>
       </c>
       <c r="AB4">
-        <v>0.9876725048483039</v>
+        <v>0.959290994426758</v>
       </c>
       <c r="AC4">
-        <v>0.9912701923336548</v>
+        <v>0.9391019003332014</v>
       </c>
       <c r="AD4">
-        <v>0.994666989106911</v>
+        <v>0.9581239788242311</v>
       </c>
       <c r="AE4">
-        <v>0.9963157826157281</v>
+        <v>0.9484032717268697</v>
       </c>
       <c r="AF4">
-        <v>0.992417705908463</v>
+        <v>0.9253858282496904</v>
       </c>
       <c r="AG4">
-        <v>0.9840426212785179</v>
+        <v>0.923207854682622</v>
       </c>
       <c r="AH4">
-        <v>0.999220659327595</v>
+        <v>0.9286455055666397</v>
       </c>
       <c r="AI4">
-        <v>0.991332734642982</v>
+        <v>0.9184462697307665</v>
       </c>
       <c r="AJ4">
-        <v>0.9970642150600278</v>
+        <v>0.9358698453655001</v>
       </c>
       <c r="AK4">
-        <v>0.9819479365314981</v>
+        <v>0.9442154692774701</v>
       </c>
       <c r="AL4">
-        <v>0.9870883563892404</v>
+        <v>0.9235875255156608</v>
       </c>
       <c r="AM4">
-        <v>0.9957267820029975</v>
+        <v>0.914754290153715</v>
       </c>
       <c r="AN4">
-        <v>0.9925849948115973</v>
+        <v>0.8960869991433457</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>0.8865299869044032</v>
+        <v>0.9084729650954351</v>
       </c>
       <c r="C5">
-        <v>0.9067730503016422</v>
+        <v>0.9182375068254729</v>
       </c>
       <c r="D5">
-        <v>0.9106220409631782</v>
+        <v>0.9798025146151299</v>
       </c>
       <c r="E5">
-        <v>0.9335840142015688</v>
+        <v>0.8763997278670623</v>
       </c>
       <c r="F5">
-        <v>0.8885662543104588</v>
+        <v>0.9715678979657856</v>
       </c>
       <c r="G5">
-        <v>0.9211774394886736</v>
+        <v>0.9379152785664459</v>
       </c>
       <c r="H5">
-        <v>0.9573830295185433</v>
+        <v>0.9883564601703125</v>
       </c>
       <c r="I5">
-        <v>0.9556251693545896</v>
+        <v>0.9841204076938492</v>
       </c>
       <c r="J5">
-        <v>0.9076408342896974</v>
+        <v>0.9691509901721272</v>
       </c>
       <c r="K5">
-        <v>0.9656371559666715</v>
+        <v>0.983000426628567</v>
       </c>
       <c r="L5">
-        <v>0.8915147180794605</v>
+        <v>0.9701266368793292</v>
       </c>
       <c r="M5">
-        <v>0.9818880823061232</v>
+        <v>0.9858247970892178</v>
       </c>
       <c r="N5">
-        <v>0.974713159708106</v>
+        <v>0.9722542956497142</v>
       </c>
       <c r="O5">
-        <v>0.9707512889923066</v>
+        <v>0.9928784734491067</v>
       </c>
       <c r="P5">
-        <v>0.9731473480380594</v>
+        <v>0.9959085211535106</v>
       </c>
       <c r="Q5">
-        <v>0.9708246744611859</v>
+        <v>0.9902905035415397</v>
       </c>
       <c r="R5">
-        <v>0.9637246342541814</v>
+        <v>0.9969984344762516</v>
       </c>
       <c r="S5">
-        <v>0.9801794336045769</v>
+        <v>0.9891660064889136</v>
       </c>
       <c r="T5">
-        <v>0.9779877679517941</v>
+        <v>0.9942113757322801</v>
       </c>
       <c r="U5">
-        <v>0.964913948734257</v>
+        <v>0.9903047437272059</v>
       </c>
       <c r="V5">
-        <v>0.9830943551589361</v>
+        <v>0.9899240538955046</v>
       </c>
       <c r="W5">
-        <v>0.981316509352411</v>
+        <v>0.9776464675135624</v>
       </c>
       <c r="X5">
-        <v>0.9648455322449295</v>
+        <v>0.975883003977169</v>
       </c>
       <c r="Y5">
-        <v>0.988758939907153</v>
+        <v>0.9606173763329828</v>
       </c>
       <c r="Z5">
-        <v>0.9973507224669981</v>
+        <v>0.9880106361126617</v>
       </c>
       <c r="AA5">
-        <v>0.9921075020693317</v>
+        <v>0.975594771327021</v>
       </c>
       <c r="AB5">
-        <v>0.9865663286673247</v>
+        <v>0.9837899539442471</v>
       </c>
       <c r="AC5">
-        <v>0.9917855414096742</v>
+        <v>0.9720231012405697</v>
       </c>
       <c r="AD5">
-        <v>0.9935949076465381</v>
+        <v>0.9869963843430889</v>
       </c>
       <c r="AE5">
-        <v>0.997988439025747</v>
+        <v>0.9733491235292629</v>
       </c>
       <c r="AF5">
-        <v>0.9955510730963107</v>
+        <v>0.9670600174446844</v>
       </c>
       <c r="AG5">
-        <v>0.9822322298526625</v>
+        <v>0.9475449586486384</v>
       </c>
       <c r="AH5">
-        <v>0.9983418856112003</v>
+        <v>0.967096125655395</v>
       </c>
       <c r="AI5">
-        <v>0.9923887246882764</v>
+        <v>0.9566142109311409</v>
       </c>
       <c r="AJ5">
-        <v>0.9950021330088316</v>
+        <v>0.970166344274516</v>
       </c>
       <c r="AK5">
-        <v>0.9818437091489466</v>
+        <v>0.9724342271133947</v>
       </c>
       <c r="AL5">
-        <v>0.9914840962042705</v>
+        <v>0.9635928495433462</v>
       </c>
       <c r="AM5">
-        <v>0.9984893139993776</v>
+        <v>0.9606125311151059</v>
       </c>
       <c r="AN5">
-        <v>0.9959837433218593</v>
+        <v>0.9296341351932929</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.8430175294268563</v>
+        <v>0.7607511358225337</v>
       </c>
       <c r="C6">
-        <v>0.8661267873470183</v>
+        <v>0.7807822762692729</v>
       </c>
       <c r="D6">
-        <v>0.8707304734504523</v>
+        <v>0.8938908443532425</v>
       </c>
       <c r="E6">
-        <v>0.9003904473142116</v>
+        <v>0.7206997547744024</v>
       </c>
       <c r="F6">
-        <v>0.8444483773747237</v>
+        <v>0.8725771230970251</v>
       </c>
       <c r="G6">
-        <v>0.8828131415267252</v>
+        <v>0.8185175181544118</v>
       </c>
       <c r="H6">
-        <v>0.9284568154071381</v>
+        <v>0.918012453595255</v>
       </c>
       <c r="I6">
-        <v>0.9254269519547947</v>
+        <v>0.8999155829447049</v>
       </c>
       <c r="J6">
-        <v>0.8680167839486144</v>
+        <v>0.8655322749074925</v>
       </c>
       <c r="K6">
-        <v>0.9386811422956679</v>
+        <v>0.9029689928760926</v>
       </c>
       <c r="L6">
-        <v>0.8487726906558278</v>
+        <v>0.8730101071906209</v>
       </c>
       <c r="M6">
-        <v>0.9613012042452291</v>
+        <v>0.9080430721898666</v>
       </c>
       <c r="N6">
-        <v>0.9510036523579842</v>
+        <v>0.8800183651374726</v>
       </c>
       <c r="O6">
-        <v>0.9453618084242531</v>
+        <v>0.926328513389348</v>
       </c>
       <c r="P6">
-        <v>0.9505559324367983</v>
+        <v>0.9415134905237469</v>
       </c>
       <c r="Q6">
-        <v>0.946387329914315</v>
+        <v>0.9319070335879702</v>
       </c>
       <c r="R6">
-        <v>0.937618016752909</v>
+        <v>0.9406282177169696</v>
       </c>
       <c r="S6">
-        <v>0.9596261826303309</v>
+        <v>0.9170653879896736</v>
       </c>
       <c r="T6">
-        <v>0.9554734899048901</v>
+        <v>0.9498074745306898</v>
       </c>
       <c r="U6">
-        <v>0.93791178954545</v>
+        <v>0.9597266421739347</v>
       </c>
       <c r="V6">
-        <v>0.9627634102538735</v>
+        <v>0.9447503759670964</v>
       </c>
       <c r="W6">
-        <v>0.960097586765739</v>
+        <v>0.9094149608921486</v>
       </c>
       <c r="X6">
-        <v>0.9373666128328714</v>
+        <v>0.8848697595092663</v>
       </c>
       <c r="Y6">
-        <v>0.9876923260937448</v>
+        <v>0.9048957363941285</v>
       </c>
       <c r="Z6">
-        <v>0.9873717098198794</v>
+        <v>0.9194230904699571</v>
       </c>
       <c r="AA6">
-        <v>0.9769921651906968</v>
+        <v>0.9447249499166938</v>
       </c>
       <c r="AB6">
-        <v>0.9682180635999054</v>
+        <v>0.9534607725435894</v>
       </c>
       <c r="AC6">
-        <v>0.9780019258483482</v>
+        <v>0.9629826061083406</v>
       </c>
       <c r="AD6">
-        <v>0.9801676206210707</v>
+        <v>0.9565895130832308</v>
       </c>
       <c r="AE6">
-        <v>0.9926750594452397</v>
+        <v>0.8937177266408169</v>
       </c>
       <c r="AF6">
-        <v>0.9853733278790145</v>
+        <v>0.9455007931928165</v>
       </c>
       <c r="AG6">
-        <v>0.9615134109731478</v>
+        <v>0.8427846121407101</v>
       </c>
       <c r="AH6">
-        <v>0.9900888994306978</v>
+        <v>0.9115160321902971</v>
       </c>
       <c r="AI6">
-        <v>0.9776288665057757</v>
+        <v>0.9575157959566832</v>
       </c>
       <c r="AJ6">
-        <v>0.9832874043800505</v>
+        <v>0.9131877938031574</v>
       </c>
       <c r="AK6">
-        <v>0.9609952667144933</v>
+        <v>0.9058629293449432</v>
       </c>
       <c r="AL6">
-        <v>0.9798652799320572</v>
+        <v>0.9324160135204659</v>
       </c>
       <c r="AM6">
-        <v>0.9948065867035504</v>
+        <v>0.950215080811227</v>
       </c>
       <c r="AN6">
-        <v>0.9968229984078472</v>
+        <v>0.9305225750912334</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0.8153459354116414</v>
+        <v>0.9087879416518134</v>
       </c>
       <c r="C7">
-        <v>0.8503539441819639</v>
+        <v>0.8727445788929497</v>
       </c>
       <c r="D7">
-        <v>0.8454553926385292</v>
+        <v>0.9342246792494782</v>
       </c>
       <c r="E7">
-        <v>0.874853831569978</v>
+        <v>0.8638559377482875</v>
       </c>
       <c r="F7">
-        <v>0.8190229923532507</v>
+        <v>0.9392936456109022</v>
       </c>
       <c r="G7">
-        <v>0.8602216717203783</v>
+        <v>0.9515875715614114</v>
       </c>
       <c r="H7">
-        <v>0.9172673857333166</v>
+        <v>0.9356892111597356</v>
       </c>
       <c r="I7">
-        <v>0.9100558054741257</v>
+        <v>0.9694119337839029</v>
       </c>
       <c r="J7">
-        <v>0.8451811579070043</v>
+        <v>0.9492033937503183</v>
       </c>
       <c r="K7">
-        <v>0.9235477818471228</v>
+        <v>0.9651972143054519</v>
       </c>
       <c r="L7">
-        <v>0.8220259476386755</v>
+        <v>0.9668807806342227</v>
       </c>
       <c r="M7">
-        <v>0.9489362099204841</v>
+        <v>0.9508465184256013</v>
       </c>
       <c r="N7">
-        <v>0.9350418022299076</v>
+        <v>0.9665968254253462</v>
       </c>
       <c r="O7">
-        <v>0.929549742021167</v>
+        <v>0.9730495370257182</v>
       </c>
       <c r="P7">
-        <v>0.9422984639453592</v>
+        <v>0.9501509372256447</v>
       </c>
       <c r="Q7">
-        <v>0.936502439788106</v>
+        <v>0.9778353863057181</v>
       </c>
       <c r="R7">
-        <v>0.9183240980487021</v>
+        <v>0.960401934722812</v>
       </c>
       <c r="S7">
-        <v>0.9515291138097772</v>
+        <v>0.9702901602613765</v>
       </c>
       <c r="T7">
-        <v>0.9440084828509867</v>
+        <v>0.9657642425600987</v>
       </c>
       <c r="U7">
-        <v>0.9237437051963181</v>
+        <v>0.973081198519328</v>
       </c>
       <c r="V7">
-        <v>0.9516825844806794</v>
+        <v>0.9636342824787534</v>
       </c>
       <c r="W7">
-        <v>0.9465835685292651</v>
+        <v>0.9900879096511095</v>
       </c>
       <c r="X7">
-        <v>0.921311939150119</v>
+        <v>0.9679729258725588</v>
       </c>
       <c r="Y7">
-        <v>0.9746543794818376</v>
+        <v>0.9747062081786795</v>
       </c>
       <c r="Z7">
-        <v>0.9809038106249314</v>
+        <v>0.9747255863414517</v>
       </c>
       <c r="AA7">
-        <v>0.9657942875816624</v>
+        <v>0.991921001136254</v>
       </c>
       <c r="AB7">
-        <v>0.9564304940252348</v>
+        <v>0.9723562668577579</v>
       </c>
       <c r="AC7">
-        <v>0.9687405727887579</v>
+        <v>0.9682436470267491</v>
       </c>
       <c r="AD7">
-        <v>0.9696338735883097</v>
+        <v>0.9857321131864252</v>
       </c>
       <c r="AE7">
-        <v>0.9870776308056305</v>
+        <v>0.9877145774060959</v>
       </c>
       <c r="AF7">
-        <v>0.980931819429981</v>
+        <v>0.9868196955040657</v>
       </c>
       <c r="AG7">
-        <v>0.9478756636072987</v>
+        <v>0.9723128746387358</v>
       </c>
       <c r="AH7">
-        <v>0.980726990776898</v>
+        <v>0.9968098774834064</v>
       </c>
       <c r="AI7">
-        <v>0.9693239329638528</v>
+        <v>0.9585316219229072</v>
       </c>
       <c r="AJ7">
-        <v>0.9714744052291502</v>
+        <v>0.9905336775150101</v>
       </c>
       <c r="AK7">
-        <v>0.9498378566284538</v>
+        <v>0.9845902102516155</v>
       </c>
       <c r="AL7">
-        <v>0.976664746975044</v>
+        <v>0.983016748087982</v>
       </c>
       <c r="AM7">
-        <v>0.9912118417317681</v>
+        <v>0.9845852756891671</v>
       </c>
       <c r="AN7">
-        <v>0.995072842889695</v>
+        <v>0.9205507749450831</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.7789229281157083</v>
+        <v>0.836681128674974</v>
       </c>
       <c r="C8">
-        <v>0.8202208084944468</v>
+        <v>0.8262590827949883</v>
       </c>
       <c r="D8">
-        <v>0.8114975874711785</v>
+        <v>0.920755674250085</v>
       </c>
       <c r="E8">
-        <v>0.843550260981729</v>
+        <v>0.7890674222439721</v>
       </c>
       <c r="F8">
-        <v>0.7833002968593868</v>
+        <v>0.9138533974802736</v>
       </c>
       <c r="G8">
-        <v>0.8280280530922017</v>
+        <v>0.8926833192780536</v>
       </c>
       <c r="H8">
-        <v>0.8939042610212492</v>
+        <v>0.9361800634317419</v>
       </c>
       <c r="I8">
-        <v>0.8843339538777418</v>
+        <v>0.9438179609646384</v>
       </c>
       <c r="J8">
-        <v>0.8124179860058472</v>
+        <v>0.9135084293467141</v>
       </c>
       <c r="K8">
-        <v>0.8992758983048801</v>
+        <v>0.9453460607291087</v>
       </c>
       <c r="L8">
-        <v>0.7863086333466072</v>
+        <v>0.929291048792485</v>
       </c>
       <c r="M8">
-        <v>0.9285337564099829</v>
+        <v>0.939933633863947</v>
       </c>
       <c r="N8">
-        <v>0.9117642455086274</v>
+        <v>0.9336219421786361</v>
       </c>
       <c r="O8">
-        <v>0.9056318959664187</v>
+        <v>0.9617242871336067</v>
       </c>
       <c r="P8">
-        <v>0.9228639553718725</v>
+        <v>0.9577128661344361</v>
       </c>
       <c r="Q8">
-        <v>0.9155731728792679</v>
+        <v>0.9689084197154755</v>
       </c>
       <c r="R8">
-        <v>0.8926253452687587</v>
+        <v>0.9626715263340186</v>
       </c>
       <c r="S8">
-        <v>0.9330062613610478</v>
+        <v>0.9554622455244671</v>
       </c>
       <c r="T8">
-        <v>0.9231838103707628</v>
+        <v>0.9727616855552347</v>
       </c>
       <c r="U8">
-        <v>0.899875651205301</v>
+        <v>0.9836294863170212</v>
       </c>
       <c r="V8">
-        <v>0.93194181646913</v>
+        <v>0.9696588980811148</v>
       </c>
       <c r="W8">
-        <v>0.9254107879163336</v>
+        <v>0.9633193001926702</v>
       </c>
       <c r="X8">
-        <v>0.8964174527449474</v>
+        <v>0.9364144821933099</v>
       </c>
       <c r="Y8">
-        <v>0.962398200372559</v>
+        <v>0.956707607368827</v>
       </c>
       <c r="Z8">
-        <v>0.9675767571359293</v>
+        <v>0.9597987559739164</v>
       </c>
       <c r="AA8">
-        <v>0.9482129041554592</v>
+        <v>0.9865745015771057</v>
       </c>
       <c r="AB8">
-        <v>0.9372225799812681</v>
+        <v>0.9808914113962579</v>
       </c>
       <c r="AC8">
-        <v>0.9525812068299645</v>
+        <v>0.9863089259087261</v>
       </c>
       <c r="AD8">
-        <v>0.9530652757817607</v>
+        <v>0.9887429569741406</v>
       </c>
       <c r="AE8">
-        <v>0.9761519832434623</v>
+        <v>0.9524812991102724</v>
       </c>
       <c r="AF8">
-        <v>0.9684100367613268</v>
+        <v>0.9859381171347035</v>
       </c>
       <c r="AG8">
-        <v>0.9268607337923244</v>
+        <v>0.9168285793280482</v>
       </c>
       <c r="AH8">
-        <v>0.9668862849181785</v>
+        <v>0.9696942129763152</v>
       </c>
       <c r="AI8">
-        <v>0.9531522382658553</v>
+        <v>0.980411047037305</v>
       </c>
       <c r="AJ8">
-        <v>0.9550853267979683</v>
+        <v>0.9676919058894187</v>
       </c>
       <c r="AK8">
-        <v>0.9298467221886133</v>
+        <v>0.9598272163201531</v>
       </c>
       <c r="AL8">
-        <v>0.9640812450156692</v>
+        <v>0.9770087657862282</v>
       </c>
       <c r="AM8">
-        <v>0.9818617495795555</v>
+        <v>0.988300470974478</v>
       </c>
       <c r="AN8">
-        <v>0.9885044805738328</v>
+        <v>0.9487711697454119</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.7820152795289279</v>
+        <v>0.8304911827556003</v>
       </c>
       <c r="C9">
-        <v>0.8071072207921776</v>
+        <v>0.799056152592281</v>
       </c>
       <c r="D9">
-        <v>0.8147801995819818</v>
+        <v>0.8931617108957184</v>
       </c>
       <c r="E9">
-        <v>0.8527358758619044</v>
+        <v>0.7774717403594144</v>
       </c>
       <c r="F9">
-        <v>0.7820920217992117</v>
+        <v>0.8921895318788944</v>
       </c>
       <c r="G9">
-        <v>0.8280906281080092</v>
+        <v>0.8923601145321923</v>
       </c>
       <c r="H9">
-        <v>0.8813916350307637</v>
+        <v>0.9051668193239109</v>
       </c>
       <c r="I9">
-        <v>0.8775271218423991</v>
+        <v>0.9303642143572618</v>
       </c>
       <c r="J9">
-        <v>0.8086945084728485</v>
+        <v>0.8977382739963049</v>
       </c>
       <c r="K9">
-        <v>0.8969603383893474</v>
+        <v>0.9302799363124834</v>
       </c>
       <c r="L9">
-        <v>0.7881560343522345</v>
+        <v>0.9210492352487838</v>
       </c>
       <c r="M9">
-        <v>0.9268303691671734</v>
+        <v>0.916956124305229</v>
       </c>
       <c r="N9">
-        <v>0.9129006311098622</v>
+        <v>0.924206677580958</v>
       </c>
       <c r="O9">
-        <v>0.9048371772374036</v>
+        <v>0.945770709602876</v>
       </c>
       <c r="P9">
-        <v>0.9120504890786112</v>
+        <v>0.9298315271256899</v>
       </c>
       <c r="Q9">
-        <v>0.9037648677004548</v>
+        <v>0.9563012386508891</v>
       </c>
       <c r="R9">
-        <v>0.8960064328678589</v>
+        <v>0.9390026969284221</v>
       </c>
       <c r="S9">
-        <v>0.9222075818524155</v>
+        <v>0.9399206533207174</v>
       </c>
       <c r="T9">
-        <v>0.916534875289616</v>
+        <v>0.9527651377295936</v>
       </c>
       <c r="U9">
-        <v>0.8930645889702185</v>
+        <v>0.9688330254746842</v>
       </c>
       <c r="V9">
-        <v>0.9267121484102773</v>
+        <v>0.950623886058551</v>
       </c>
       <c r="W9">
-        <v>0.9240699057743428</v>
+        <v>0.9623017868641198</v>
       </c>
       <c r="X9">
-        <v>0.8944009206600935</v>
+        <v>0.9259838914068831</v>
       </c>
       <c r="Y9">
-        <v>0.9786754118553513</v>
+        <v>0.9563428165144574</v>
       </c>
       <c r="Z9">
-        <v>0.9631173408613921</v>
+        <v>0.9468169705507747</v>
       </c>
       <c r="AA9">
-        <v>0.9477908008261187</v>
+        <v>0.9873835729826436</v>
       </c>
       <c r="AB9">
-        <v>0.9362737813075261</v>
+        <v>0.9687464925148463</v>
       </c>
       <c r="AC9">
-        <v>0.9483029348325179</v>
+        <v>0.9777864363220917</v>
       </c>
       <c r="AD9">
-        <v>0.9544303642020446</v>
+        <v>0.9813720182220733</v>
       </c>
       <c r="AE9">
-        <v>0.9730324467086361</v>
+        <v>0.952420482171198</v>
       </c>
       <c r="AF9">
-        <v>0.9599970696996071</v>
+        <v>0.988349502767663</v>
       </c>
       <c r="AG9">
-        <v>0.9259338431452073</v>
+        <v>0.92166202913536</v>
       </c>
       <c r="AH9">
-        <v>0.9695843476003191</v>
+        <v>0.9767443536336867</v>
       </c>
       <c r="AI9">
-        <v>0.9479225916860469</v>
+        <v>0.9745686129582963</v>
       </c>
       <c r="AJ9">
-        <v>0.9591000598305452</v>
+        <v>0.9703145190485079</v>
       </c>
       <c r="AK9">
-        <v>0.9249308538402478</v>
+        <v>0.95860973195419</v>
       </c>
       <c r="AL9">
-        <v>0.9515455991799097</v>
+        <v>0.9791989403028448</v>
       </c>
       <c r="AM9">
-        <v>0.9769989663394462</v>
+        <v>0.9927385261741738</v>
       </c>
       <c r="AN9">
-        <v>0.983871937127428</v>
+        <v>0.9378233959142313</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.6196113686954239</v>
+        <v>0.758879747714631</v>
       </c>
       <c r="C10">
-        <v>0.6893987343928316</v>
+        <v>0.7169490867907314</v>
       </c>
       <c r="D10">
-        <v>0.6612277715886727</v>
+        <v>0.8294332191185977</v>
       </c>
       <c r="E10">
-        <v>0.6994481413646764</v>
+        <v>0.6980158913822415</v>
       </c>
       <c r="F10">
-        <v>0.627881132712872</v>
+        <v>0.8288042264105799</v>
       </c>
       <c r="G10">
-        <v>0.6847072974943387</v>
+        <v>0.8355016514622148</v>
       </c>
       <c r="H10">
-        <v>0.7830260410889213</v>
+        <v>0.8456838307080918</v>
       </c>
       <c r="I10">
-        <v>0.7630357623473473</v>
+        <v>0.8765564644825458</v>
       </c>
       <c r="J10">
-        <v>0.6654061838387413</v>
+        <v>0.835210459213333</v>
       </c>
       <c r="K10">
-        <v>0.7834663890351151</v>
+        <v>0.8781924091506659</v>
       </c>
       <c r="L10">
-        <v>0.6293611253463358</v>
+        <v>0.8667376336158807</v>
       </c>
       <c r="M10">
-        <v>0.8252691438680408</v>
+        <v>0.860532470204953</v>
       </c>
       <c r="N10">
-        <v>0.7971287651016051</v>
+        <v>0.8712741738412084</v>
       </c>
       <c r="O10">
-        <v>0.7893059559383226</v>
+        <v>0.8975147040478567</v>
       </c>
       <c r="P10">
-        <v>0.8258992612494568</v>
+        <v>0.8783794831058251</v>
       </c>
       <c r="Q10">
-        <v>0.8114675426893567</v>
+        <v>0.9137499235794688</v>
       </c>
       <c r="R10">
-        <v>0.7676620174514156</v>
+        <v>0.8894673375502805</v>
       </c>
       <c r="S10">
-        <v>0.8373896892989503</v>
+        <v>0.8901461741743441</v>
       </c>
       <c r="T10">
-        <v>0.8183528140213363</v>
+        <v>0.9107962154438658</v>
       </c>
       <c r="U10">
-        <v>0.7839571867326262</v>
+        <v>0.935530110165095</v>
       </c>
       <c r="V10">
-        <v>0.8304402030368921</v>
+        <v>0.9093856854018668</v>
       </c>
       <c r="W10">
-        <v>0.8182262262607607</v>
+        <v>0.923323682754256</v>
       </c>
       <c r="X10">
-        <v>0.777478599929482</v>
+        <v>0.8725527003845903</v>
       </c>
       <c r="Y10">
-        <v>0.8809759001206952</v>
+        <v>0.9241024422207764</v>
       </c>
       <c r="Z10">
-        <v>0.8872823608098626</v>
+        <v>0.9001786608613496</v>
       </c>
       <c r="AA10">
-        <v>0.852403991092874</v>
+        <v>0.9638268776703108</v>
       </c>
       <c r="AB10">
-        <v>0.8374920795836469</v>
+        <v>0.9376647479899956</v>
       </c>
       <c r="AC10">
-        <v>0.8611636589726909</v>
+        <v>0.9572581424052943</v>
       </c>
       <c r="AD10">
-        <v>0.8617037018872176</v>
+        <v>0.9526196332564506</v>
       </c>
       <c r="AE10">
-        <v>0.9023823429769557</v>
+        <v>0.9094869211228173</v>
       </c>
       <c r="AF10">
-        <v>0.8919482779685055</v>
+        <v>0.9697229677583066</v>
       </c>
       <c r="AG10">
-        <v>0.8198059599292915</v>
+        <v>0.8729526362938151</v>
       </c>
       <c r="AH10">
-        <v>0.8831397535423814</v>
+        <v>0.9476880566495409</v>
       </c>
       <c r="AI10">
-        <v>0.8636592799707643</v>
+        <v>0.9600582185604426</v>
       </c>
       <c r="AJ10">
-        <v>0.8622992493732293</v>
+        <v>0.9384428584215719</v>
       </c>
       <c r="AK10">
-        <v>0.8280933344238034</v>
+        <v>0.9208142303594191</v>
       </c>
       <c r="AL10">
-        <v>0.888097750988916</v>
+        <v>0.9573029468551818</v>
       </c>
       <c r="AM10">
-        <v>0.9144148698823182</v>
+        <v>0.9795357320356403</v>
       </c>
       <c r="AN10">
-        <v>0.9301029533155609</v>
+        <v>0.9216857190956672</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0.579427658812859</v>
+        <v>0.8322970108521993</v>
       </c>
       <c r="C11">
-        <v>0.6444852629319892</v>
+        <v>0.784903790340007</v>
       </c>
       <c r="D11">
-        <v>0.6212971082943423</v>
+        <v>0.8746598265010328</v>
       </c>
       <c r="E11">
-        <v>0.6647021520548081</v>
+        <v>0.77161135306825</v>
       </c>
       <c r="F11">
-        <v>0.5861499052260618</v>
+        <v>0.8822311663094088</v>
       </c>
       <c r="G11">
-        <v>0.6445478166039276</v>
+        <v>0.8975365814528495</v>
       </c>
       <c r="H11">
-        <v>0.7457449867433104</v>
+        <v>0.8853008813614756</v>
       </c>
       <c r="I11">
-        <v>0.726857495753798</v>
+        <v>0.9212056988579516</v>
       </c>
       <c r="J11">
-        <v>0.6274135595469346</v>
+        <v>0.8883369099082563</v>
       </c>
       <c r="K11">
-        <v>0.7476966690646993</v>
+        <v>0.9231409022330025</v>
       </c>
       <c r="L11">
-        <v>0.5895626008076885</v>
+        <v>0.9185176688164393</v>
       </c>
       <c r="M11">
-        <v>0.7931538014471533</v>
+        <v>0.9045386748426567</v>
       </c>
       <c r="N11">
-        <v>0.7647558693641818</v>
+        <v>0.9214889441255046</v>
       </c>
       <c r="O11">
-        <v>0.7558188856674531</v>
+        <v>0.9354700068280183</v>
       </c>
       <c r="P11">
-        <v>0.7909662854664614</v>
+        <v>0.9109989455567303</v>
       </c>
       <c r="Q11">
-        <v>0.777714025692797</v>
+        <v>0.948752096598783</v>
       </c>
       <c r="R11">
-        <v>0.7362724565775234</v>
+        <v>0.9228380874041254</v>
       </c>
       <c r="S11">
-        <v>0.8051309905474089</v>
+        <v>0.9310446550993433</v>
       </c>
       <c r="T11">
-        <v>0.7859326690265773</v>
+        <v>0.9398947781790549</v>
       </c>
       <c r="U11">
-        <v>0.7502134866709153</v>
+        <v>0.9583768524397254</v>
       </c>
       <c r="V11">
-        <v>0.7993114147529641</v>
+        <v>0.93941757251278</v>
       </c>
       <c r="W11">
-        <v>0.7870304709390449</v>
+        <v>0.9618182278308512</v>
       </c>
       <c r="X11">
-        <v>0.7424223688685118</v>
+        <v>0.9217871211951343</v>
       </c>
       <c r="Y11">
-        <v>0.8646646071479922</v>
+        <v>0.9593632987905054</v>
       </c>
       <c r="Z11">
-        <v>0.8623848081426773</v>
+        <v>0.9397123093695049</v>
       </c>
       <c r="AA11">
-        <v>0.8251896764226423</v>
+        <v>0.9856941966008914</v>
       </c>
       <c r="AB11">
-        <v>0.8069756587592609</v>
+        <v>0.9609176407171723</v>
       </c>
       <c r="AC11">
-        <v>0.8356873589350432</v>
+        <v>0.9708447152957035</v>
       </c>
       <c r="AD11">
-        <v>0.8342423924488762</v>
+        <v>0.9746019876485382</v>
       </c>
       <c r="AE11">
-        <v>0.8818950339428392</v>
+        <v>0.9524561510031265</v>
       </c>
       <c r="AF11">
-        <v>0.8663542781648801</v>
+        <v>0.9878134084131428</v>
       </c>
       <c r="AG11">
-        <v>0.7892414348943176</v>
+        <v>0.9273349784374255</v>
       </c>
       <c r="AH11">
-        <v>0.8602028088789859</v>
+        <v>0.9799231858612704</v>
       </c>
       <c r="AI11">
-        <v>0.8356413908341135</v>
+        <v>0.9696326865935576</v>
       </c>
       <c r="AJ11">
-        <v>0.8376094349217427</v>
+        <v>0.9725244123018704</v>
       </c>
       <c r="AK11">
-        <v>0.7960627978372251</v>
+        <v>0.9596630287698767</v>
       </c>
       <c r="AL11">
-        <v>0.861586188067249</v>
+        <v>0.9805374479346745</v>
       </c>
       <c r="AM11">
-        <v>0.894134437665846</v>
+        <v>0.992193928820401</v>
       </c>
       <c r="AN11">
-        <v>0.9131896156407903</v>
+        <v>0.9335747562066741</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.6838538849770711</v>
+        <v>0.6600869899981118</v>
       </c>
       <c r="C12">
-        <v>0.6877430735997382</v>
+        <v>0.6119888570020385</v>
       </c>
       <c r="D12">
-        <v>0.7129922903384756</v>
+        <v>0.7471689901940719</v>
       </c>
       <c r="E12">
-        <v>0.7662381953811765</v>
+        <v>0.5861911653365588</v>
       </c>
       <c r="F12">
-        <v>0.6788682554793177</v>
+        <v>0.7488922462681394</v>
       </c>
       <c r="G12">
-        <v>0.7247701867936713</v>
+        <v>0.7546253306125251</v>
       </c>
       <c r="H12">
-        <v>0.7867976872445708</v>
+        <v>0.7725675841594242</v>
       </c>
       <c r="I12">
-        <v>0.7880284184493993</v>
+        <v>0.8010940155363011</v>
       </c>
       <c r="J12">
-        <v>0.721030627663548</v>
+        <v>0.7496042616086599</v>
       </c>
       <c r="K12">
-        <v>0.8021306894504708</v>
+        <v>0.809588736049088</v>
       </c>
       <c r="L12">
-        <v>0.6917887119638643</v>
+        <v>0.7911957535389832</v>
       </c>
       <c r="M12">
-        <v>0.8418819797490568</v>
+        <v>0.7898479001471974</v>
       </c>
       <c r="N12">
-        <v>0.829973440005989</v>
+        <v>0.7990709375566123</v>
       </c>
       <c r="O12">
-        <v>0.8194746123123117</v>
+        <v>0.8321943397009897</v>
       </c>
       <c r="P12">
-        <v>0.8194539412433252</v>
+        <v>0.8142350076257064</v>
       </c>
       <c r="Q12">
-        <v>0.8214230741117092</v>
+        <v>0.8556153579889109</v>
       </c>
       <c r="R12">
-        <v>0.8208783748305555</v>
+        <v>0.8256848815419834</v>
       </c>
       <c r="S12">
-        <v>0.8413985890545608</v>
+        <v>0.823636355201842</v>
       </c>
       <c r="T12">
-        <v>0.835805686062237</v>
+        <v>0.8571359121493625</v>
       </c>
       <c r="U12">
-        <v>0.8121256322886832</v>
+        <v>0.8906820222857132</v>
       </c>
       <c r="V12">
-        <v>0.8488809054479995</v>
+        <v>0.8574231957698749</v>
       </c>
       <c r="W12">
-        <v>0.8451360364190038</v>
+        <v>0.8634138007898409</v>
       </c>
       <c r="X12">
-        <v>0.8042644340122085</v>
+        <v>0.7992709551994952</v>
       </c>
       <c r="Y12">
-        <v>0.9382107442215497</v>
+        <v>0.8772514049982978</v>
       </c>
       <c r="Z12">
-        <v>0.902390352829336</v>
+        <v>0.8369776379827486</v>
       </c>
       <c r="AA12">
-        <v>0.8805406986056532</v>
+        <v>0.9230567285268755</v>
       </c>
       <c r="AB12">
-        <v>0.8561941805404037</v>
+        <v>0.8956170293265737</v>
       </c>
       <c r="AC12">
-        <v>0.8905818520512824</v>
+        <v>0.9271809585040875</v>
       </c>
       <c r="AD12">
-        <v>0.881924135106124</v>
+        <v>0.9090348991898041</v>
       </c>
       <c r="AE12">
-        <v>0.9280768074941899</v>
+        <v>0.8430803947571628</v>
       </c>
       <c r="AF12">
-        <v>0.8978348391453629</v>
+        <v>0.9354875908299682</v>
       </c>
       <c r="AG12">
-        <v>0.8494750699901989</v>
+        <v>0.7980160913595443</v>
       </c>
       <c r="AH12">
-        <v>0.9128408469697661</v>
+        <v>0.8961587535998042</v>
       </c>
       <c r="AI12">
-        <v>0.8782673565199981</v>
+        <v>0.9377023769059901</v>
       </c>
       <c r="AJ12">
-        <v>0.8976884028330087</v>
+        <v>0.8873655888132028</v>
       </c>
       <c r="AK12">
-        <v>0.8427142620275072</v>
+        <v>0.8646280894199027</v>
       </c>
       <c r="AL12">
-        <v>0.888851538864705</v>
+        <v>0.9205993154225603</v>
       </c>
       <c r="AM12">
-        <v>0.931348169123892</v>
+        <v>0.9507273731545874</v>
       </c>
       <c r="AN12">
-        <v>0.9488479761997306</v>
+        <v>0.9043373924990388</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块.xlsx
+++ b/FOF/data/基金公司-板块.xlsx
@@ -16,157 +16,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
     <t>中邮创业</t>
   </si>
   <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
     <t>汇丰晋信</t>
   </si>
   <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>中银</t>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>中欧</t>
   </si>
   <si>
     <t>上投摩根</t>
   </si>
   <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>中欧</t>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>兴业</t>
   </si>
   <si>
     <t>嘉实</t>
   </si>
   <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>兴全</t>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>融通</t>
   </si>
   <si>
     <t>易方达</t>
   </si>
   <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
     <t>诺德</t>
   </si>
   <si>
     <t>名称</t>
   </si>
   <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
     <t>上证50</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>创业板综</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中证1000</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0.7908515294567928</v>
+        <v>0.9764480297537985</v>
       </c>
       <c r="C2">
-        <v>0.8893303356718757</v>
+        <v>0.9886648704699743</v>
       </c>
       <c r="D2">
-        <v>0.9089435178606661</v>
+        <v>0.9845556374718178</v>
       </c>
       <c r="E2">
-        <v>0.8130841177899204</v>
+        <v>0.981686120596403</v>
       </c>
       <c r="F2">
-        <v>0.870320783899188</v>
+        <v>0.9790569244056346</v>
       </c>
       <c r="G2">
-        <v>0.7652294203066349</v>
+        <v>0.9930764947180021</v>
       </c>
       <c r="H2">
-        <v>0.9139493789821507</v>
+        <v>0.9873636514080399</v>
       </c>
       <c r="I2">
-        <v>0.8487852839119049</v>
+        <v>0.9909957302549255</v>
       </c>
       <c r="J2">
-        <v>0.8591465150642982</v>
+        <v>0.9960283058685528</v>
       </c>
       <c r="K2">
-        <v>0.8399566492996268</v>
+        <v>0.962798270538862</v>
       </c>
       <c r="L2">
-        <v>0.8143932011390477</v>
+        <v>0.9948141833197267</v>
       </c>
       <c r="M2">
-        <v>0.8749934104085537</v>
+        <v>0.9779968264825146</v>
       </c>
       <c r="N2">
-        <v>0.8148390591915536</v>
+        <v>0.9859729253771691</v>
       </c>
       <c r="O2">
-        <v>0.8496465799145618</v>
+        <v>0.9906256325681801</v>
       </c>
       <c r="P2">
-        <v>0.8965057154574039</v>
+        <v>0.9928720296437827</v>
       </c>
       <c r="Q2">
-        <v>0.8243304044695045</v>
+        <v>0.9610939480698275</v>
       </c>
       <c r="R2">
-        <v>0.8809246735417161</v>
+        <v>0.964122760133186</v>
       </c>
       <c r="S2">
-        <v>0.8453647933261557</v>
+        <v>0.9832628295289395</v>
       </c>
       <c r="T2">
-        <v>0.8496677639267657</v>
+        <v>0.9725956486652286</v>
       </c>
       <c r="U2">
-        <v>0.8164909119277328</v>
+        <v>0.9800606609909388</v>
       </c>
       <c r="V2">
-        <v>0.8390822040150747</v>
+        <v>0.9914836775368007</v>
       </c>
       <c r="W2">
-        <v>0.7747045092839514</v>
+        <v>0.9832807139500457</v>
       </c>
       <c r="X2">
-        <v>0.8239738257554737</v>
+        <v>0.9878942977434317</v>
       </c>
       <c r="Y2">
-        <v>0.7374977903045822</v>
+        <v>0.9732426337491402</v>
       </c>
       <c r="Z2">
-        <v>0.8301139194518138</v>
+        <v>0.9680936547863235</v>
       </c>
       <c r="AA2">
-        <v>0.7434785183801117</v>
+        <v>0.9700462656737122</v>
       </c>
       <c r="AB2">
-        <v>0.7966159243968102</v>
+        <v>0.9886958643045046</v>
       </c>
       <c r="AC2">
-        <v>0.7602698439672264</v>
+        <v>0.9891166452706039</v>
       </c>
       <c r="AD2">
-        <v>0.7860211866500928</v>
+        <v>0.9931004377211078</v>
       </c>
       <c r="AE2">
-        <v>0.7772047900747359</v>
+        <v>0.9760326688446632</v>
       </c>
       <c r="AF2">
-        <v>0.7221872692594625</v>
+        <v>0.9692924971191389</v>
       </c>
       <c r="AG2">
-        <v>0.748587504376392</v>
+        <v>0.9629722544881846</v>
       </c>
       <c r="AH2">
-        <v>0.7275222985707364</v>
+        <v>0.9701040558384554</v>
       </c>
       <c r="AI2">
-        <v>0.7281851062264335</v>
+        <v>0.9753090017093308</v>
       </c>
       <c r="AJ2">
-        <v>0.7429303484707726</v>
+        <v>0.9774526183998898</v>
       </c>
       <c r="AK2">
-        <v>0.7641102037546124</v>
+        <v>0.983781720756961</v>
       </c>
       <c r="AL2">
-        <v>0.7209397381634397</v>
+        <v>0.9796836837022364</v>
       </c>
       <c r="AM2">
-        <v>0.7044720076386649</v>
+        <v>0.9781448819968857</v>
       </c>
       <c r="AN2">
-        <v>0.7155208971357127</v>
+        <v>0.9950680492321042</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0.8349211687754069</v>
+        <v>0.9140619910611031</v>
       </c>
       <c r="C3">
-        <v>0.9135729795912632</v>
+        <v>0.9391361535860359</v>
       </c>
       <c r="D3">
-        <v>0.948482863076516</v>
+        <v>0.9362447852629097</v>
       </c>
       <c r="E3">
-        <v>0.8427066722327848</v>
+        <v>0.9255073701199592</v>
       </c>
       <c r="F3">
-        <v>0.9159677606359886</v>
+        <v>0.9218289922163636</v>
       </c>
       <c r="G3">
-        <v>0.8251490428555175</v>
+        <v>0.9608951193558334</v>
       </c>
       <c r="H3">
-        <v>0.9557623046583682</v>
+        <v>0.9369699542758688</v>
       </c>
       <c r="I3">
-        <v>0.9036874728766381</v>
+        <v>0.9467017704632341</v>
       </c>
       <c r="J3">
-        <v>0.9062890834017728</v>
+        <v>0.9586261978422042</v>
       </c>
       <c r="K3">
-        <v>0.8970714850521961</v>
+        <v>0.8923752396547341</v>
       </c>
       <c r="L3">
-        <v>0.8728407360254901</v>
+        <v>0.9558045217428508</v>
       </c>
       <c r="M3">
-        <v>0.9248084815094932</v>
+        <v>0.9201379255836243</v>
       </c>
       <c r="N3">
-        <v>0.8741294570561979</v>
+        <v>0.933510464437263</v>
       </c>
       <c r="O3">
-        <v>0.9079848639579051</v>
+        <v>0.9443678563823703</v>
       </c>
       <c r="P3">
-        <v>0.945533304233322</v>
+        <v>0.9503830089672345</v>
       </c>
       <c r="Q3">
-        <v>0.8885424269069599</v>
+        <v>0.8870816200791751</v>
       </c>
       <c r="R3">
-        <v>0.9337405098446694</v>
+        <v>0.8928230991534374</v>
       </c>
       <c r="S3">
-        <v>0.9033654455934068</v>
+        <v>0.9352172724897907</v>
       </c>
       <c r="T3">
-        <v>0.9099910325434644</v>
+        <v>0.9067839479078714</v>
       </c>
       <c r="U3">
-        <v>0.8845319712329834</v>
+        <v>0.9208722012160074</v>
       </c>
       <c r="V3">
-        <v>0.9007403738549341</v>
+        <v>0.9495810645288524</v>
       </c>
       <c r="W3">
-        <v>0.8464524169301633</v>
+        <v>0.9280822148850542</v>
       </c>
       <c r="X3">
-        <v>0.8821381044373388</v>
+        <v>0.9389165882259823</v>
       </c>
       <c r="Y3">
-        <v>0.8145189172989851</v>
+        <v>0.9089994678401797</v>
       </c>
       <c r="Z3">
-        <v>0.8916454012416648</v>
+        <v>0.8989963527392566</v>
       </c>
       <c r="AA3">
-        <v>0.8246535918682213</v>
+        <v>0.9027684423672636</v>
       </c>
       <c r="AB3">
-        <v>0.8676486236807426</v>
+        <v>0.9390416407585328</v>
       </c>
       <c r="AC3">
-        <v>0.8382159300848817</v>
+        <v>0.9406984735244067</v>
       </c>
       <c r="AD3">
-        <v>0.8602881556329937</v>
+        <v>0.950622604358229</v>
       </c>
       <c r="AE3">
-        <v>0.8463857992743395</v>
+        <v>0.9141676596384544</v>
       </c>
       <c r="AF3">
-        <v>0.8067871020184283</v>
+        <v>0.9020486608892586</v>
       </c>
       <c r="AG3">
-        <v>0.8159058703983241</v>
+        <v>0.8907738719519195</v>
       </c>
       <c r="AH3">
-        <v>0.8084001050288471</v>
+        <v>0.9026100770107643</v>
       </c>
       <c r="AI3">
-        <v>0.8103214584036857</v>
+        <v>0.9167052388448728</v>
       </c>
       <c r="AJ3">
-        <v>0.8209895376492097</v>
+        <v>0.9159605735096886</v>
       </c>
       <c r="AK3">
-        <v>0.837157326026296</v>
+        <v>0.9306435567737807</v>
       </c>
       <c r="AL3">
-        <v>0.8042929629908497</v>
+        <v>0.9210859997055535</v>
       </c>
       <c r="AM3">
-        <v>0.7922849639301005</v>
+        <v>0.9171916351308063</v>
       </c>
       <c r="AN3">
-        <v>0.7936692415118097</v>
+        <v>0.9698444174774432</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>0.9082492846831677</v>
+        <v>0.9694357013338307</v>
       </c>
       <c r="C4">
-        <v>0.9409341078662906</v>
+        <v>0.982847708179039</v>
       </c>
       <c r="D4">
-        <v>0.9889136367492659</v>
+        <v>0.9831687302413002</v>
       </c>
       <c r="E4">
-        <v>0.888919458591672</v>
+        <v>0.9767078488257094</v>
       </c>
       <c r="F4">
-        <v>0.9745311347837132</v>
+        <v>0.9745580308801994</v>
       </c>
       <c r="G4">
-        <v>0.9221151891325597</v>
+        <v>0.9909343981637849</v>
       </c>
       <c r="H4">
-        <v>0.9963246124298037</v>
+        <v>0.9812304029267513</v>
       </c>
       <c r="I4">
-        <v>0.9759018217879049</v>
+        <v>0.9874170876865574</v>
       </c>
       <c r="J4">
-        <v>0.9687294595256246</v>
+        <v>0.9921078656919314</v>
       </c>
       <c r="K4">
-        <v>0.9735774390006122</v>
+        <v>0.9572742842842396</v>
       </c>
       <c r="L4">
-        <v>0.9577889984154966</v>
+        <v>0.9901486769838211</v>
       </c>
       <c r="M4">
-        <v>0.9850226360402289</v>
+        <v>0.9695428633817157</v>
       </c>
       <c r="N4">
-        <v>0.9595003641795972</v>
+        <v>0.9809071057149418</v>
       </c>
       <c r="O4">
-        <v>0.9821187512471488</v>
+        <v>0.9860062751500402</v>
       </c>
       <c r="P4">
-        <v>0.9962341353136311</v>
+        <v>0.9877611488923532</v>
       </c>
       <c r="Q4">
-        <v>0.9731627179990407</v>
+        <v>0.9518796844841384</v>
       </c>
       <c r="R4">
-        <v>0.9929130273898871</v>
+        <v>0.9556156987731559</v>
       </c>
       <c r="S4">
-        <v>0.9788239255892107</v>
+        <v>0.9804316375748328</v>
       </c>
       <c r="T4">
-        <v>0.9821480070985564</v>
+        <v>0.9641352944180737</v>
       </c>
       <c r="U4">
-        <v>0.9692663325504233</v>
+        <v>0.9728572464252846</v>
       </c>
       <c r="V4">
-        <v>0.9764578253747233</v>
+        <v>0.9897723733144796</v>
       </c>
       <c r="W4">
-        <v>0.9504923357661261</v>
+        <v>0.9780922143394751</v>
       </c>
       <c r="X4">
-        <v>0.9643594481720463</v>
+        <v>0.9820889563111398</v>
       </c>
       <c r="Y4">
-        <v>0.9281188222873629</v>
+        <v>0.96712917415511</v>
       </c>
       <c r="Z4">
-        <v>0.9737115766785438</v>
+        <v>0.9602179524667397</v>
       </c>
       <c r="AA4">
-        <v>0.9379620393491777</v>
+        <v>0.9627744363849894</v>
       </c>
       <c r="AB4">
-        <v>0.959290994426758</v>
+        <v>0.9826128786094747</v>
       </c>
       <c r="AC4">
-        <v>0.9391019003332014</v>
+        <v>0.982162822128007</v>
       </c>
       <c r="AD4">
-        <v>0.9581239788242311</v>
+        <v>0.9869299417493368</v>
       </c>
       <c r="AE4">
-        <v>0.9484032717268697</v>
+        <v>0.9694622293945538</v>
       </c>
       <c r="AF4">
-        <v>0.9253858282496904</v>
+        <v>0.9628905453795268</v>
       </c>
       <c r="AG4">
-        <v>0.923207854682622</v>
+        <v>0.9554132946505159</v>
       </c>
       <c r="AH4">
-        <v>0.9286455055666397</v>
+        <v>0.9602033645619307</v>
       </c>
       <c r="AI4">
-        <v>0.9184462697307665</v>
+        <v>0.9720241134857965</v>
       </c>
       <c r="AJ4">
-        <v>0.9358698453655001</v>
+        <v>0.9700404149237561</v>
       </c>
       <c r="AK4">
-        <v>0.9442154692774701</v>
+        <v>0.9800763567400114</v>
       </c>
       <c r="AL4">
-        <v>0.9235875255156608</v>
+        <v>0.9738975423246449</v>
       </c>
       <c r="AM4">
-        <v>0.914754290153715</v>
+        <v>0.9709489812713541</v>
       </c>
       <c r="AN4">
-        <v>0.8960869991433457</v>
+        <v>0.9938975391457859</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>0.9084729650954351</v>
+        <v>0.9966467177812941</v>
       </c>
       <c r="C5">
-        <v>0.9182375068254729</v>
+        <v>0.9914379157102857</v>
       </c>
       <c r="D5">
-        <v>0.9798025146151299</v>
+        <v>0.9892540185328589</v>
       </c>
       <c r="E5">
-        <v>0.8763997278670623</v>
+        <v>0.9957256213135929</v>
       </c>
       <c r="F5">
-        <v>0.9715678979657856</v>
+        <v>0.996379229950403</v>
       </c>
       <c r="G5">
-        <v>0.9379152785664459</v>
+        <v>0.9778899191088483</v>
       </c>
       <c r="H5">
-        <v>0.9883564601703125</v>
+        <v>0.9925652478497549</v>
       </c>
       <c r="I5">
-        <v>0.9841204076938492</v>
+        <v>0.9890336871270371</v>
       </c>
       <c r="J5">
-        <v>0.9691509901721272</v>
+        <v>0.9801069105309312</v>
       </c>
       <c r="K5">
-        <v>0.983000426628567</v>
+        <v>0.9981146801978653</v>
       </c>
       <c r="L5">
-        <v>0.9701266368793292</v>
+        <v>0.9838049563991312</v>
       </c>
       <c r="M5">
-        <v>0.9858247970892178</v>
+        <v>0.9952778389608823</v>
       </c>
       <c r="N5">
-        <v>0.9722542956497142</v>
+        <v>0.993114676203396</v>
       </c>
       <c r="O5">
-        <v>0.9928784734491067</v>
+        <v>0.990007169882076</v>
       </c>
       <c r="P5">
-        <v>0.9959085211535106</v>
+        <v>0.9868648508351058</v>
       </c>
       <c r="Q5">
-        <v>0.9902905035415397</v>
+        <v>0.9991771548382474</v>
       </c>
       <c r="R5">
-        <v>0.9969984344762516</v>
+        <v>0.9997865457320354</v>
       </c>
       <c r="S5">
-        <v>0.9891660064889136</v>
+        <v>0.9909280778360782</v>
       </c>
       <c r="T5">
-        <v>0.9942113757322801</v>
+        <v>0.9966861496775642</v>
       </c>
       <c r="U5">
-        <v>0.9903047437272059</v>
+        <v>0.9958508345278182</v>
       </c>
       <c r="V5">
-        <v>0.9899240538955046</v>
+        <v>0.9853114292775178</v>
       </c>
       <c r="W5">
-        <v>0.9776464675135624</v>
+        <v>0.9946882862859807</v>
       </c>
       <c r="X5">
-        <v>0.975883003977169</v>
+        <v>0.9919856239444114</v>
       </c>
       <c r="Y5">
-        <v>0.9606173763329828</v>
+        <v>0.9959464009019587</v>
       </c>
       <c r="Z5">
-        <v>0.9880106361126617</v>
+        <v>0.998407775558818</v>
       </c>
       <c r="AA5">
-        <v>0.975594771327021</v>
+        <v>0.9988369822583377</v>
       </c>
       <c r="AB5">
-        <v>0.9837899539442471</v>
+        <v>0.9899575006347283</v>
       </c>
       <c r="AC5">
-        <v>0.9720231012405697</v>
+        <v>0.9895699613377207</v>
       </c>
       <c r="AD5">
-        <v>0.9869963843430889</v>
+        <v>0.9836517572340381</v>
       </c>
       <c r="AE5">
-        <v>0.9733491235292629</v>
+        <v>0.9934519799679636</v>
       </c>
       <c r="AF5">
-        <v>0.9670600174446844</v>
+        <v>0.9986004103325394</v>
       </c>
       <c r="AG5">
-        <v>0.9475449586486384</v>
+        <v>0.9992314972391723</v>
       </c>
       <c r="AH5">
-        <v>0.967096125655395</v>
+        <v>0.996217588947069</v>
       </c>
       <c r="AI5">
-        <v>0.9566142109311409</v>
+        <v>0.9898118509781988</v>
       </c>
       <c r="AJ5">
-        <v>0.970166344274516</v>
+        <v>0.997120437774846</v>
       </c>
       <c r="AK5">
-        <v>0.9724342271133947</v>
+        <v>0.9933034664371451</v>
       </c>
       <c r="AL5">
-        <v>0.9635928495433462</v>
+        <v>0.9968102545925498</v>
       </c>
       <c r="AM5">
-        <v>0.9606125311151059</v>
+        <v>0.9955700532617699</v>
       </c>
       <c r="AN5">
-        <v>0.9296341351932929</v>
+        <v>0.9701463891597149</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.7607511358225337</v>
+        <v>0.988898844880432</v>
       </c>
       <c r="C6">
-        <v>0.7807822762692729</v>
+        <v>0.9946734524046136</v>
       </c>
       <c r="D6">
-        <v>0.8938908443532425</v>
+        <v>0.9964906222730023</v>
       </c>
       <c r="E6">
-        <v>0.7206997547744024</v>
+        <v>0.992962155795229</v>
       </c>
       <c r="F6">
-        <v>0.8725771230970251</v>
+        <v>0.9914472288524033</v>
       </c>
       <c r="G6">
-        <v>0.8185175181544118</v>
+        <v>0.9929354269798346</v>
       </c>
       <c r="H6">
-        <v>0.918012453595255</v>
+        <v>0.9931434391815167</v>
       </c>
       <c r="I6">
-        <v>0.8999155829447049</v>
+        <v>0.9968437307256106</v>
       </c>
       <c r="J6">
-        <v>0.8655322749074925</v>
+        <v>0.9978790490984674</v>
       </c>
       <c r="K6">
-        <v>0.9029689928760926</v>
+        <v>0.9822230407946443</v>
       </c>
       <c r="L6">
-        <v>0.8730101071906209</v>
+        <v>0.9958506000967855</v>
       </c>
       <c r="M6">
-        <v>0.9080430721898666</v>
+        <v>0.9844337324440685</v>
       </c>
       <c r="N6">
-        <v>0.8800183651374726</v>
+        <v>0.9950644676470057</v>
       </c>
       <c r="O6">
-        <v>0.926328513389348</v>
+        <v>0.9962820747058031</v>
       </c>
       <c r="P6">
-        <v>0.9415134905237469</v>
+        <v>0.9953426614038898</v>
       </c>
       <c r="Q6">
-        <v>0.9319070335879702</v>
+        <v>0.9771525458176382</v>
       </c>
       <c r="R6">
-        <v>0.9406282177169696</v>
+        <v>0.9792814568518703</v>
       </c>
       <c r="S6">
-        <v>0.9170653879896736</v>
+        <v>0.9919132993724205</v>
       </c>
       <c r="T6">
-        <v>0.9498074745306898</v>
+        <v>0.9850705567712861</v>
       </c>
       <c r="U6">
-        <v>0.9597266421739347</v>
+        <v>0.9900959437501533</v>
       </c>
       <c r="V6">
-        <v>0.9447503759670964</v>
+        <v>0.9991454218712243</v>
       </c>
       <c r="W6">
-        <v>0.9094149608921486</v>
+        <v>0.993838893641777</v>
       </c>
       <c r="X6">
-        <v>0.8848697595092663</v>
+        <v>0.9931329278891132</v>
       </c>
       <c r="Y6">
-        <v>0.9048957363941285</v>
+        <v>0.9884540258853216</v>
       </c>
       <c r="Z6">
-        <v>0.9194230904699571</v>
+        <v>0.9833375163338325</v>
       </c>
       <c r="AA6">
-        <v>0.9447249499166938</v>
+        <v>0.98488205216641</v>
       </c>
       <c r="AB6">
-        <v>0.9534607725435894</v>
+        <v>0.9947203194867544</v>
       </c>
       <c r="AC6">
-        <v>0.9629826061083406</v>
+        <v>0.9927073816680835</v>
       </c>
       <c r="AD6">
-        <v>0.9565895130832308</v>
+        <v>0.9945687865459811</v>
       </c>
       <c r="AE6">
-        <v>0.8937177266408169</v>
+        <v>0.9893742775158749</v>
       </c>
       <c r="AF6">
-        <v>0.9455007931928165</v>
+        <v>0.9854503868312077</v>
       </c>
       <c r="AG6">
-        <v>0.8427846121407101</v>
+        <v>0.9804485604482033</v>
       </c>
       <c r="AH6">
-        <v>0.9115160321902971</v>
+        <v>0.9813696637052184</v>
       </c>
       <c r="AI6">
-        <v>0.9575157959566832</v>
+        <v>0.9917567577067931</v>
       </c>
       <c r="AJ6">
-        <v>0.9131877938031574</v>
+        <v>0.9884926759580855</v>
       </c>
       <c r="AK6">
-        <v>0.9058629293449432</v>
+        <v>0.9952966126705919</v>
       </c>
       <c r="AL6">
-        <v>0.9324160135204659</v>
+        <v>0.9912355359631214</v>
       </c>
       <c r="AM6">
-        <v>0.950215080811227</v>
+        <v>0.989528575024026</v>
       </c>
       <c r="AN6">
-        <v>0.9305225750912334</v>
+        <v>0.9921904400965533</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0.9087879416518134</v>
+        <v>0.9992885565284612</v>
       </c>
       <c r="C7">
-        <v>0.8727445788929497</v>
+        <v>0.9978230171008052</v>
       </c>
       <c r="D7">
-        <v>0.9342246792494782</v>
+        <v>0.9974472165528049</v>
       </c>
       <c r="E7">
-        <v>0.8638559377482875</v>
+        <v>0.9997156206573043</v>
       </c>
       <c r="F7">
-        <v>0.9392936456109022</v>
+        <v>0.9990824648509934</v>
       </c>
       <c r="G7">
-        <v>0.9515875715614114</v>
+        <v>0.9869829196295894</v>
       </c>
       <c r="H7">
-        <v>0.9356892111597356</v>
+        <v>0.9973785746980703</v>
       </c>
       <c r="I7">
-        <v>0.9694119337839029</v>
+        <v>0.9967570575346023</v>
       </c>
       <c r="J7">
-        <v>0.9492033937503183</v>
+        <v>0.9929136669636695</v>
       </c>
       <c r="K7">
-        <v>0.9651972143054519</v>
+        <v>0.9972075263317721</v>
       </c>
       <c r="L7">
-        <v>0.9668807806342227</v>
+        <v>0.9931426118721938</v>
       </c>
       <c r="M7">
-        <v>0.9508465184256013</v>
+        <v>0.9946241130227181</v>
       </c>
       <c r="N7">
-        <v>0.9665968254253462</v>
+        <v>0.9993435833203288</v>
       </c>
       <c r="O7">
-        <v>0.9730495370257182</v>
+        <v>0.9973845882485672</v>
       </c>
       <c r="P7">
-        <v>0.9501509372256447</v>
+        <v>0.9947705848054272</v>
       </c>
       <c r="Q7">
-        <v>0.9778353863057181</v>
+        <v>0.9955781818882514</v>
       </c>
       <c r="R7">
-        <v>0.960401934722812</v>
+        <v>0.99632983688859</v>
       </c>
       <c r="S7">
-        <v>0.9702901602613765</v>
+        <v>0.9948515803766106</v>
       </c>
       <c r="T7">
-        <v>0.9657642425600987</v>
+        <v>0.997854286514463</v>
       </c>
       <c r="U7">
-        <v>0.973081198519328</v>
+        <v>0.9989723826110618</v>
       </c>
       <c r="V7">
-        <v>0.9636342824787534</v>
+        <v>0.9963111744704927</v>
       </c>
       <c r="W7">
-        <v>0.9900879096511095</v>
+        <v>0.999771488449496</v>
       </c>
       <c r="X7">
-        <v>0.9679729258725588</v>
+        <v>0.9967326245955301</v>
       </c>
       <c r="Y7">
-        <v>0.9747062081786795</v>
+        <v>0.9991971446931034</v>
       </c>
       <c r="Z7">
-        <v>0.9747255863414517</v>
+        <v>0.9980275198108505</v>
       </c>
       <c r="AA7">
-        <v>0.991921001136254</v>
+        <v>0.9986000524252624</v>
       </c>
       <c r="AB7">
-        <v>0.9723562668577579</v>
+        <v>0.9975086051586585</v>
       </c>
       <c r="AC7">
-        <v>0.9682436470267491</v>
+        <v>0.9957452824542808</v>
       </c>
       <c r="AD7">
-        <v>0.9857321131864252</v>
+        <v>0.9934609755556697</v>
       </c>
       <c r="AE7">
-        <v>0.9877145774060959</v>
+        <v>0.9984844514920284</v>
       </c>
       <c r="AF7">
-        <v>0.9868196955040657</v>
+        <v>0.9987911535855738</v>
       </c>
       <c r="AG7">
-        <v>0.9723128746387358</v>
+        <v>0.9971170421262537</v>
       </c>
       <c r="AH7">
-        <v>0.9968098774834064</v>
+        <v>0.9958411702779876</v>
       </c>
       <c r="AI7">
-        <v>0.9585316219229072</v>
+        <v>0.9976472251443891</v>
       </c>
       <c r="AJ7">
-        <v>0.9905336775150101</v>
+        <v>0.9989316182987127</v>
       </c>
       <c r="AK7">
-        <v>0.9845902102516155</v>
+        <v>0.9995599043091741</v>
       </c>
       <c r="AL7">
-        <v>0.983016748087982</v>
+        <v>0.9996590729589058</v>
       </c>
       <c r="AM7">
-        <v>0.9845852756891671</v>
+        <v>0.9990205173653891</v>
       </c>
       <c r="AN7">
-        <v>0.9205507749450831</v>
+        <v>0.9820142084952936</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.836681128674974</v>
+        <v>0.9915317413194876</v>
       </c>
       <c r="C8">
-        <v>0.8262590827949883</v>
+        <v>0.996617771935545</v>
       </c>
       <c r="D8">
-        <v>0.920755674250085</v>
+        <v>0.996961845268953</v>
       </c>
       <c r="E8">
-        <v>0.7890674222439721</v>
+        <v>0.9948424391815721</v>
       </c>
       <c r="F8">
-        <v>0.9138533974802736</v>
+        <v>0.9932633665438196</v>
       </c>
       <c r="G8">
-        <v>0.8926833192780536</v>
+        <v>0.9934524086877652</v>
       </c>
       <c r="H8">
-        <v>0.9361800634317419</v>
+        <v>0.9952825254059666</v>
       </c>
       <c r="I8">
-        <v>0.9438179609646384</v>
+        <v>0.997981118076091</v>
       </c>
       <c r="J8">
-        <v>0.9135084293467141</v>
+        <v>0.9987705427464398</v>
       </c>
       <c r="K8">
-        <v>0.9453460607291087</v>
+        <v>0.9846702933928358</v>
       </c>
       <c r="L8">
-        <v>0.929291048792485</v>
+        <v>0.9971841806541626</v>
       </c>
       <c r="M8">
-        <v>0.939933633863947</v>
+        <v>0.9876612818766806</v>
       </c>
       <c r="N8">
-        <v>0.9336219421786361</v>
+        <v>0.9968116976367313</v>
       </c>
       <c r="O8">
-        <v>0.9617242871336067</v>
+        <v>0.997774814860687</v>
       </c>
       <c r="P8">
-        <v>0.9577128661344361</v>
+        <v>0.9969243236962191</v>
       </c>
       <c r="Q8">
-        <v>0.9689084197154755</v>
+        <v>0.9809162555330456</v>
       </c>
       <c r="R8">
-        <v>0.9626715263340186</v>
+        <v>0.9827978681387965</v>
       </c>
       <c r="S8">
-        <v>0.9554622455244671</v>
+        <v>0.9930715344473331</v>
       </c>
       <c r="T8">
-        <v>0.9727616855552347</v>
+        <v>0.9882606122306639</v>
       </c>
       <c r="U8">
-        <v>0.9836294863170212</v>
+        <v>0.9927334115078706</v>
       </c>
       <c r="V8">
-        <v>0.9696588980811148</v>
+        <v>0.9995012199250007</v>
       </c>
       <c r="W8">
-        <v>0.9633193001926702</v>
+        <v>0.9957124582993552</v>
       </c>
       <c r="X8">
-        <v>0.9364144821933099</v>
+        <v>0.9951635679867081</v>
       </c>
       <c r="Y8">
-        <v>0.956707607368827</v>
+        <v>0.9907913561539564</v>
       </c>
       <c r="Z8">
-        <v>0.9597987559739164</v>
+        <v>0.986464734547699</v>
       </c>
       <c r="AA8">
-        <v>0.9865745015771057</v>
+        <v>0.987800918441803</v>
       </c>
       <c r="AB8">
-        <v>0.9808914113962579</v>
+        <v>0.9966798091576549</v>
       </c>
       <c r="AC8">
-        <v>0.9863089259087261</v>
+        <v>0.9950030106218863</v>
       </c>
       <c r="AD8">
-        <v>0.9887429569741406</v>
+        <v>0.9963652103021908</v>
       </c>
       <c r="AE8">
-        <v>0.9524812991102724</v>
+        <v>0.991729209245454</v>
       </c>
       <c r="AF8">
-        <v>0.9859381171347035</v>
+        <v>0.9880775341121705</v>
       </c>
       <c r="AG8">
-        <v>0.9168285793280482</v>
+        <v>0.983604182358822</v>
       </c>
       <c r="AH8">
-        <v>0.9696942129763152</v>
+        <v>0.9851042109138651</v>
       </c>
       <c r="AI8">
-        <v>0.980411047037305</v>
+        <v>0.9929153278110165</v>
       </c>
       <c r="AJ8">
-        <v>0.9676919058894187</v>
+        <v>0.9912887831274513</v>
       </c>
       <c r="AK8">
-        <v>0.9598272163201531</v>
+        <v>0.9966306264746592</v>
       </c>
       <c r="AL8">
-        <v>0.9770087657862282</v>
+        <v>0.9934493519645259</v>
       </c>
       <c r="AM8">
-        <v>0.988300470974478</v>
+        <v>0.9921592545735241</v>
       </c>
       <c r="AN8">
-        <v>0.9487711697454119</v>
+        <v>0.9921914082231371</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.8304911827556003</v>
+        <v>0.9980756766300731</v>
       </c>
       <c r="C9">
-        <v>0.799056152592281</v>
+        <v>0.9917927572909577</v>
       </c>
       <c r="D9">
-        <v>0.8931617108957184</v>
+        <v>0.9901334364824649</v>
       </c>
       <c r="E9">
-        <v>0.7774717403594144</v>
+        <v>0.9960605924693978</v>
       </c>
       <c r="F9">
-        <v>0.8921895318788944</v>
+        <v>0.9959577610599528</v>
       </c>
       <c r="G9">
-        <v>0.8923601145321923</v>
+        <v>0.9748409673766066</v>
       </c>
       <c r="H9">
-        <v>0.9051668193239109</v>
+        <v>0.9919747747121168</v>
       </c>
       <c r="I9">
-        <v>0.9303642143572618</v>
+        <v>0.9885910861414756</v>
       </c>
       <c r="J9">
-        <v>0.8977382739963049</v>
+        <v>0.9817436133686031</v>
       </c>
       <c r="K9">
-        <v>0.9302799363124834</v>
+        <v>0.9990258018212599</v>
       </c>
       <c r="L9">
-        <v>0.9210492352487838</v>
+        <v>0.9832432812758178</v>
       </c>
       <c r="M9">
-        <v>0.916956124305229</v>
+        <v>0.992949606602143</v>
       </c>
       <c r="N9">
-        <v>0.924206677580958</v>
+        <v>0.9941205675025561</v>
       </c>
       <c r="O9">
-        <v>0.945770709602876</v>
+        <v>0.9900095222475346</v>
       </c>
       <c r="P9">
-        <v>0.9298315271256899</v>
+        <v>0.9862476402532629</v>
       </c>
       <c r="Q9">
-        <v>0.9563012386508891</v>
+        <v>0.9995329802592523</v>
       </c>
       <c r="R9">
-        <v>0.9390026969284221</v>
+        <v>0.9993170438532091</v>
       </c>
       <c r="S9">
-        <v>0.9399206533207174</v>
+        <v>0.9885376816554559</v>
       </c>
       <c r="T9">
-        <v>0.9527651377295936</v>
+        <v>0.9981996086827203</v>
       </c>
       <c r="U9">
-        <v>0.9688330254746842</v>
+        <v>0.996711350001741</v>
       </c>
       <c r="V9">
-        <v>0.950623886058551</v>
+        <v>0.9865344918832791</v>
       </c>
       <c r="W9">
-        <v>0.9623017868641198</v>
+        <v>0.9956237341646789</v>
       </c>
       <c r="X9">
-        <v>0.9259838914068831</v>
+        <v>0.9908783690094829</v>
       </c>
       <c r="Y9">
-        <v>0.9563428165144574</v>
+        <v>0.9983236580836333</v>
       </c>
       <c r="Z9">
-        <v>0.9468169705507747</v>
+        <v>0.9996130387186339</v>
       </c>
       <c r="AA9">
-        <v>0.9873835729826436</v>
+        <v>0.9995093362053279</v>
       </c>
       <c r="AB9">
-        <v>0.9687464925148463</v>
+        <v>0.9913261280445917</v>
       </c>
       <c r="AC9">
-        <v>0.9777864363220917</v>
+        <v>0.9896013698484627</v>
       </c>
       <c r="AD9">
-        <v>0.9813720182220733</v>
+        <v>0.9847184942379693</v>
       </c>
       <c r="AE9">
-        <v>0.952420482171198</v>
+        <v>0.9965988807085756</v>
       </c>
       <c r="AF9">
-        <v>0.988349502767663</v>
+        <v>0.9994916443590753</v>
       </c>
       <c r="AG9">
-        <v>0.92166202913536</v>
+        <v>0.999979079754148</v>
       </c>
       <c r="AH9">
-        <v>0.9767443536336867</v>
+        <v>0.9972333826521402</v>
       </c>
       <c r="AI9">
-        <v>0.9745686129582963</v>
+        <v>0.9938063641815859</v>
       </c>
       <c r="AJ9">
-        <v>0.9703145190485079</v>
+        <v>0.9976659935961204</v>
       </c>
       <c r="AK9">
-        <v>0.95860973195419</v>
+        <v>0.994363306813406</v>
       </c>
       <c r="AL9">
-        <v>0.9791989403028448</v>
+        <v>0.9970773053192051</v>
       </c>
       <c r="AM9">
-        <v>0.9927385261741738</v>
+        <v>0.9972353953399145</v>
       </c>
       <c r="AN9">
-        <v>0.9378233959142313</v>
+        <v>0.9671628169253544</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.758879747714631</v>
+        <v>0.9937141923075571</v>
       </c>
       <c r="C10">
-        <v>0.7169490867907314</v>
+        <v>0.9839937770897705</v>
       </c>
       <c r="D10">
-        <v>0.8294332191185977</v>
+        <v>0.9828097661356829</v>
       </c>
       <c r="E10">
-        <v>0.6980158913822415</v>
+        <v>0.9903472189903417</v>
       </c>
       <c r="F10">
-        <v>0.8288042264105799</v>
+        <v>0.9907217796214612</v>
       </c>
       <c r="G10">
-        <v>0.8355016514622148</v>
+        <v>0.9631538488016015</v>
       </c>
       <c r="H10">
-        <v>0.8456838307080918</v>
+        <v>0.9844541377958276</v>
       </c>
       <c r="I10">
-        <v>0.8765564644825458</v>
+        <v>0.979774853711734</v>
       </c>
       <c r="J10">
-        <v>0.835210459213333</v>
+        <v>0.9707440354520509</v>
       </c>
       <c r="K10">
-        <v>0.8781924091506659</v>
+        <v>0.9974105021766596</v>
       </c>
       <c r="L10">
-        <v>0.8667376336158807</v>
+        <v>0.972743124366916</v>
       </c>
       <c r="M10">
-        <v>0.860532470204953</v>
+        <v>0.9873723408084535</v>
       </c>
       <c r="N10">
-        <v>0.8712741738412084</v>
+        <v>0.9872488282526974</v>
       </c>
       <c r="O10">
-        <v>0.8975147040478567</v>
+        <v>0.981518974339063</v>
       </c>
       <c r="P10">
-        <v>0.8783794831058251</v>
+        <v>0.9766554224929688</v>
       </c>
       <c r="Q10">
-        <v>0.9137499235794688</v>
+        <v>0.998331424863836</v>
       </c>
       <c r="R10">
-        <v>0.8894673375502805</v>
+        <v>0.9975049480417028</v>
       </c>
       <c r="S10">
-        <v>0.8901461741743441</v>
+        <v>0.981170571009472</v>
       </c>
       <c r="T10">
-        <v>0.9107962154438658</v>
+        <v>0.9945876072376907</v>
       </c>
       <c r="U10">
-        <v>0.935530110165095</v>
+        <v>0.9914224283601328</v>
       </c>
       <c r="V10">
-        <v>0.9093856854018668</v>
+        <v>0.97725522054981</v>
       </c>
       <c r="W10">
-        <v>0.923323682754256</v>
+        <v>0.9895308461123544</v>
       </c>
       <c r="X10">
-        <v>0.8725527003845903</v>
+        <v>0.9830599438088087</v>
       </c>
       <c r="Y10">
-        <v>0.9241024422207764</v>
+        <v>0.9946114575470417</v>
       </c>
       <c r="Z10">
-        <v>0.9001786608613496</v>
+        <v>0.9971050071711957</v>
       </c>
       <c r="AA10">
-        <v>0.9638268776703108</v>
+        <v>0.9966140685617779</v>
       </c>
       <c r="AB10">
-        <v>0.9376647479899956</v>
+        <v>0.9834372976256067</v>
       </c>
       <c r="AC10">
-        <v>0.9572581424052943</v>
+        <v>0.9813224812011888</v>
       </c>
       <c r="AD10">
-        <v>0.9526196332564506</v>
+        <v>0.9748078974167366</v>
       </c>
       <c r="AE10">
-        <v>0.9094869211228173</v>
+        <v>0.9920495839759974</v>
       </c>
       <c r="AF10">
-        <v>0.9697229677583066</v>
+        <v>0.9967352184969831</v>
       </c>
       <c r="AG10">
-        <v>0.8729526362938151</v>
+        <v>0.9985031853424567</v>
       </c>
       <c r="AH10">
-        <v>0.9476880566495409</v>
+        <v>0.993917646671849</v>
       </c>
       <c r="AI10">
-        <v>0.9600582185604426</v>
+        <v>0.9888896682673439</v>
       </c>
       <c r="AJ10">
-        <v>0.9384428584215719</v>
+        <v>0.9930412048599689</v>
       </c>
       <c r="AK10">
-        <v>0.9208142303594191</v>
+        <v>0.9879484308626063</v>
       </c>
       <c r="AL10">
-        <v>0.9573029468551818</v>
+        <v>0.9919251290273633</v>
       </c>
       <c r="AM10">
-        <v>0.9795357320356403</v>
+        <v>0.9924023853545009</v>
       </c>
       <c r="AN10">
-        <v>0.9216857190956672</v>
+        <v>0.9537160580132867</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0.8322970108521993</v>
+        <v>0.9850806469800599</v>
       </c>
       <c r="C11">
-        <v>0.784903790340007</v>
+        <v>0.9714982214565178</v>
       </c>
       <c r="D11">
-        <v>0.8746598265010328</v>
+        <v>0.970517049263107</v>
       </c>
       <c r="E11">
-        <v>0.77161135306825</v>
+        <v>0.9801982293684139</v>
       </c>
       <c r="F11">
-        <v>0.8822311663094088</v>
+        <v>0.9812101918881752</v>
       </c>
       <c r="G11">
-        <v>0.8975365814528495</v>
+        <v>0.9465156456463065</v>
       </c>
       <c r="H11">
-        <v>0.8853008813614756</v>
+        <v>0.9724424769061266</v>
       </c>
       <c r="I11">
-        <v>0.9212056988579516</v>
+        <v>0.966097776737097</v>
       </c>
       <c r="J11">
-        <v>0.8883369099082563</v>
+        <v>0.9542745189962263</v>
       </c>
       <c r="K11">
-        <v>0.9231409022330025</v>
+        <v>0.9919353485180861</v>
       </c>
       <c r="L11">
-        <v>0.9185176688164393</v>
+        <v>0.9572244429141439</v>
       </c>
       <c r="M11">
-        <v>0.9045386748426567</v>
+        <v>0.9780107377281719</v>
       </c>
       <c r="N11">
-        <v>0.9214889441255046</v>
+        <v>0.9756715530357807</v>
       </c>
       <c r="O11">
-        <v>0.9354700068280183</v>
+        <v>0.9682099577982203</v>
       </c>
       <c r="P11">
-        <v>0.9109989455567303</v>
+        <v>0.9622110803271788</v>
       </c>
       <c r="Q11">
-        <v>0.948752096598783</v>
+        <v>0.9936448154389763</v>
       </c>
       <c r="R11">
-        <v>0.9228380874041254</v>
+        <v>0.9921945281107462</v>
       </c>
       <c r="S11">
-        <v>0.9310446550993433</v>
+        <v>0.9694182725646825</v>
       </c>
       <c r="T11">
-        <v>0.9398947781790549</v>
+        <v>0.9868968743736204</v>
       </c>
       <c r="U11">
-        <v>0.9583768524397254</v>
+        <v>0.9818195820024839</v>
       </c>
       <c r="V11">
-        <v>0.93941757251278</v>
+        <v>0.962682888294719</v>
       </c>
       <c r="W11">
-        <v>0.9618182278308512</v>
+        <v>0.9788666950883689</v>
       </c>
       <c r="X11">
-        <v>0.9217871211951343</v>
+        <v>0.9707661596015962</v>
       </c>
       <c r="Y11">
-        <v>0.9593632987905054</v>
+        <v>0.9865285721985527</v>
       </c>
       <c r="Z11">
-        <v>0.9397123093695049</v>
+        <v>0.9906960147356616</v>
       </c>
       <c r="AA11">
-        <v>0.9856941966008914</v>
+        <v>0.9898011334546463</v>
       </c>
       <c r="AB11">
-        <v>0.9609176407171723</v>
+        <v>0.9707024615978903</v>
       </c>
       <c r="AC11">
-        <v>0.9708447152957035</v>
+        <v>0.9683995557882915</v>
       </c>
       <c r="AD11">
-        <v>0.9746019876485382</v>
+        <v>0.9598115760733636</v>
       </c>
       <c r="AE11">
-        <v>0.9524561510031265</v>
+        <v>0.9829169474589114</v>
       </c>
       <c r="AF11">
-        <v>0.9878134084131428</v>
+        <v>0.9899960106851461</v>
       </c>
       <c r="AG11">
-        <v>0.9273349784374255</v>
+        <v>0.9933360594373328</v>
       </c>
       <c r="AH11">
-        <v>0.9799231858612704</v>
+        <v>0.9867375353760893</v>
       </c>
       <c r="AI11">
-        <v>0.9696326865935576</v>
+        <v>0.9790115082337864</v>
       </c>
       <c r="AJ11">
-        <v>0.9725244123018704</v>
+        <v>0.9842632839879721</v>
       </c>
       <c r="AK11">
-        <v>0.9596630287698767</v>
+        <v>0.9768063126863854</v>
       </c>
       <c r="AL11">
-        <v>0.9805374479346745</v>
+        <v>0.982481377858938</v>
       </c>
       <c r="AM11">
-        <v>0.992193928820401</v>
+        <v>0.983202333802177</v>
       </c>
       <c r="AN11">
-        <v>0.9335747562066741</v>
+        <v>0.9350025024877333</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.6600869899981118</v>
+        <v>0.9805176337611343</v>
       </c>
       <c r="C12">
-        <v>0.6119888570020385</v>
+        <v>0.9668494385551766</v>
       </c>
       <c r="D12">
-        <v>0.7471689901940719</v>
+        <v>0.9626681442912957</v>
       </c>
       <c r="E12">
-        <v>0.5861911653365588</v>
+        <v>0.9751112799576462</v>
       </c>
       <c r="F12">
-        <v>0.7488922462681394</v>
+        <v>0.976423837793517</v>
       </c>
       <c r="G12">
-        <v>0.7546253306125251</v>
+        <v>0.9420365695221291</v>
       </c>
       <c r="H12">
-        <v>0.7725675841594242</v>
+        <v>0.9687352198757819</v>
       </c>
       <c r="I12">
-        <v>0.8010940155363011</v>
+        <v>0.9605946264907642</v>
       </c>
       <c r="J12">
-        <v>0.7496042616086599</v>
+        <v>0.9473263827994236</v>
       </c>
       <c r="K12">
-        <v>0.809588736049088</v>
+        <v>0.9869627440800086</v>
       </c>
       <c r="L12">
-        <v>0.7911957535389832</v>
+        <v>0.9524556689028201</v>
       </c>
       <c r="M12">
-        <v>0.7898479001471974</v>
+        <v>0.9772236772708065</v>
       </c>
       <c r="N12">
-        <v>0.7990709375566123</v>
+        <v>0.9700762844178072</v>
       </c>
       <c r="O12">
-        <v>0.8321943397009897</v>
+        <v>0.9630393963497434</v>
       </c>
       <c r="P12">
-        <v>0.8142350076257064</v>
+        <v>0.9577977726362239</v>
       </c>
       <c r="Q12">
-        <v>0.8556153579889109</v>
+        <v>0.9914806906204848</v>
       </c>
       <c r="R12">
-        <v>0.8256848815419834</v>
+        <v>0.9901778431597109</v>
       </c>
       <c r="S12">
-        <v>0.823636355201842</v>
+        <v>0.9650116687707262</v>
       </c>
       <c r="T12">
-        <v>0.8571359121493625</v>
+        <v>0.9832374645836124</v>
       </c>
       <c r="U12">
-        <v>0.8906820222857132</v>
+        <v>0.9777734410480693</v>
       </c>
       <c r="V12">
-        <v>0.8574231957698749</v>
+        <v>0.9546964784576469</v>
       </c>
       <c r="W12">
-        <v>0.8634138007898409</v>
+        <v>0.9734360293094496</v>
       </c>
       <c r="X12">
-        <v>0.7992709551994952</v>
+        <v>0.9672369785007418</v>
       </c>
       <c r="Y12">
-        <v>0.8772514049982978</v>
+        <v>0.9806971523265752</v>
       </c>
       <c r="Z12">
-        <v>0.8369776379827486</v>
+        <v>0.9869494303065514</v>
       </c>
       <c r="AA12">
-        <v>0.9230567285268755</v>
+        <v>0.9860555693953326</v>
       </c>
       <c r="AB12">
-        <v>0.8956170293265737</v>
+        <v>0.9654450833595544</v>
       </c>
       <c r="AC12">
-        <v>0.9271809585040875</v>
+        <v>0.9647168076635846</v>
       </c>
       <c r="AD12">
-        <v>0.9090348991898041</v>
+        <v>0.9547795504918818</v>
       </c>
       <c r="AE12">
-        <v>0.8430803947571628</v>
+        <v>0.9767544363592059</v>
       </c>
       <c r="AF12">
-        <v>0.9354875908299682</v>
+        <v>0.9855334119784428</v>
       </c>
       <c r="AG12">
-        <v>0.7980160913595443</v>
+        <v>0.9897925817858253</v>
       </c>
       <c r="AH12">
-        <v>0.8961587535998042</v>
+        <v>0.9844062683246498</v>
       </c>
       <c r="AI12">
-        <v>0.9377023769059901</v>
+        <v>0.9700958190597606</v>
       </c>
       <c r="AJ12">
-        <v>0.8873655888132028</v>
+        <v>0.9806222109987667</v>
       </c>
       <c r="AK12">
-        <v>0.8646280894199027</v>
+        <v>0.970322103147865</v>
       </c>
       <c r="AL12">
-        <v>0.9205993154225603</v>
+        <v>0.9779874850232766</v>
       </c>
       <c r="AM12">
-        <v>0.9507273731545874</v>
+        <v>0.978555697892635</v>
       </c>
       <c r="AN12">
-        <v>0.9043373924990388</v>
+        <v>0.9298118133191356</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块.xlsx
+++ b/FOF/data/基金公司-板块.xlsx
@@ -14,159 +14,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>泓德</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
+  </si>
   <si>
     <t>中金</t>
   </si>
   <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
     <t>中证500</t>
   </si>
   <si>
-    <t>创业板综</t>
-  </si>
-  <si>
     <t>中证1000</t>
   </si>
   <si>
-    <t>上证综指</t>
-  </si>
-  <si>
     <t>深证综指</t>
   </si>
   <si>
-    <t>万得全A</t>
-  </si>
-  <si>
     <t>中小板综</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>上证50</t>
   </si>
 </sst>
 </file>
@@ -524,15 +527,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN12"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -651,1347 +654,1383 @@
       <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:41">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>0.9764480297537985</v>
+        <v>0.965394807728854</v>
       </c>
       <c r="C2">
-        <v>0.9886648704699743</v>
+        <v>0.6728177784128163</v>
       </c>
       <c r="D2">
-        <v>0.9845556374718178</v>
+        <v>0.9755364156095802</v>
       </c>
       <c r="E2">
-        <v>0.981686120596403</v>
+        <v>0.9198859306517111</v>
       </c>
       <c r="F2">
-        <v>0.9790569244056346</v>
+        <v>0.8947020492008236</v>
       </c>
       <c r="G2">
-        <v>0.9930764947180021</v>
+        <v>0.8506414024085331</v>
       </c>
       <c r="H2">
-        <v>0.9873636514080399</v>
+        <v>0.9108432620263178</v>
       </c>
       <c r="I2">
-        <v>0.9909957302549255</v>
+        <v>0.8101137586004673</v>
       </c>
       <c r="J2">
-        <v>0.9960283058685528</v>
+        <v>0.9066948763905904</v>
       </c>
       <c r="K2">
-        <v>0.962798270538862</v>
+        <v>0.8328851107511522</v>
       </c>
       <c r="L2">
-        <v>0.9948141833197267</v>
+        <v>0.8794719239693329</v>
       </c>
       <c r="M2">
-        <v>0.9779968264825146</v>
+        <v>0.9602030909681591</v>
       </c>
       <c r="N2">
-        <v>0.9859729253771691</v>
+        <v>0.8698534343607723</v>
       </c>
       <c r="O2">
-        <v>0.9906256325681801</v>
+        <v>0.8128141941072263</v>
       </c>
       <c r="P2">
-        <v>0.9928720296437827</v>
+        <v>0.6512952629462746</v>
       </c>
       <c r="Q2">
-        <v>0.9610939480698275</v>
+        <v>0.8986452321258046</v>
       </c>
       <c r="R2">
-        <v>0.964122760133186</v>
+        <v>0.8257638099213985</v>
       </c>
       <c r="S2">
-        <v>0.9832628295289395</v>
+        <v>0.8471763205263411</v>
       </c>
       <c r="T2">
-        <v>0.9725956486652286</v>
+        <v>0.7742137825168008</v>
       </c>
       <c r="U2">
-        <v>0.9800606609909388</v>
+        <v>0.9062947240650878</v>
       </c>
       <c r="V2">
-        <v>0.9914836775368007</v>
+        <v>0.6612160459663987</v>
       </c>
       <c r="W2">
-        <v>0.9832807139500457</v>
+        <v>0.9727243049780326</v>
       </c>
       <c r="X2">
-        <v>0.9878942977434317</v>
+        <v>0.7176357416408831</v>
       </c>
       <c r="Y2">
-        <v>0.9732426337491402</v>
+        <v>0.5809549130646324</v>
       </c>
       <c r="Z2">
-        <v>0.9680936547863235</v>
+        <v>0.8690195220122021</v>
       </c>
       <c r="AA2">
-        <v>0.9700462656737122</v>
+        <v>0.9196219432462061</v>
       </c>
       <c r="AB2">
-        <v>0.9886958643045046</v>
+        <v>0.8254027329254483</v>
       </c>
       <c r="AC2">
-        <v>0.9891166452706039</v>
+        <v>0.7633335368945939</v>
       </c>
       <c r="AD2">
-        <v>0.9931004377211078</v>
+        <v>0.9246798813574058</v>
       </c>
       <c r="AE2">
-        <v>0.9760326688446632</v>
+        <v>0.8414802960004492</v>
       </c>
       <c r="AF2">
-        <v>0.9692924971191389</v>
+        <v>0.5787043896104698</v>
       </c>
       <c r="AG2">
-        <v>0.9629722544881846</v>
+        <v>0.735941390526807</v>
       </c>
       <c r="AH2">
-        <v>0.9701040558384554</v>
+        <v>0.714325030727528</v>
       </c>
       <c r="AI2">
-        <v>0.9753090017093308</v>
+        <v>0.7855457229804543</v>
       </c>
       <c r="AJ2">
-        <v>0.9774526183998898</v>
+        <v>0.691859813887824</v>
       </c>
       <c r="AK2">
-        <v>0.983781720756961</v>
+        <v>0.6361795077554171</v>
       </c>
       <c r="AL2">
-        <v>0.9796836837022364</v>
+        <v>0.4960070672604096</v>
       </c>
       <c r="AM2">
-        <v>0.9781448819968857</v>
+        <v>0.8656798466193077</v>
       </c>
       <c r="AN2">
-        <v>0.9950680492321042</v>
+        <v>0.4577032788310514</v>
+      </c>
+      <c r="AO2">
+        <v>0.8618678771356094</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>0.9140619910611031</v>
+        <v>0.9809202823308365</v>
       </c>
       <c r="C3">
-        <v>0.9391361535860359</v>
+        <v>0.7547705748461838</v>
       </c>
       <c r="D3">
-        <v>0.9362447852629097</v>
+        <v>0.986816801431362</v>
       </c>
       <c r="E3">
-        <v>0.9255073701199592</v>
+        <v>0.9639657400545473</v>
       </c>
       <c r="F3">
-        <v>0.9218289922163636</v>
+        <v>0.9299268017755491</v>
       </c>
       <c r="G3">
-        <v>0.9608951193558334</v>
+        <v>0.9169469162122421</v>
       </c>
       <c r="H3">
-        <v>0.9369699542758688</v>
+        <v>0.9501671810595004</v>
       </c>
       <c r="I3">
-        <v>0.9467017704632341</v>
+        <v>0.8798720437362838</v>
       </c>
       <c r="J3">
-        <v>0.9586261978422042</v>
+        <v>0.9321248641114798</v>
       </c>
       <c r="K3">
-        <v>0.8923752396547341</v>
+        <v>0.8821845948552074</v>
       </c>
       <c r="L3">
-        <v>0.9558045217428508</v>
+        <v>0.9288698517159538</v>
       </c>
       <c r="M3">
-        <v>0.9201379255836243</v>
+        <v>0.985525635313253</v>
       </c>
       <c r="N3">
-        <v>0.933510464437263</v>
+        <v>0.9267487885307732</v>
       </c>
       <c r="O3">
-        <v>0.9443678563823703</v>
+        <v>0.8845866277920622</v>
       </c>
       <c r="P3">
-        <v>0.9503830089672345</v>
+        <v>0.7500664992196958</v>
       </c>
       <c r="Q3">
-        <v>0.8870816200791751</v>
+        <v>0.9245133579977425</v>
       </c>
       <c r="R3">
-        <v>0.8928230991534374</v>
+        <v>0.8910258887778324</v>
       </c>
       <c r="S3">
-        <v>0.9352172724897907</v>
+        <v>0.9074297531904965</v>
       </c>
       <c r="T3">
-        <v>0.9067839479078714</v>
+        <v>0.838435994977303</v>
       </c>
       <c r="U3">
-        <v>0.9208722012160074</v>
+        <v>0.9477443367682393</v>
       </c>
       <c r="V3">
-        <v>0.9495810645288524</v>
+        <v>0.7594248314277783</v>
       </c>
       <c r="W3">
-        <v>0.9280822148850542</v>
+        <v>0.994947033481041</v>
       </c>
       <c r="X3">
-        <v>0.9389165882259823</v>
+        <v>0.7963161865031854</v>
       </c>
       <c r="Y3">
-        <v>0.9089994678401797</v>
+        <v>0.6847413823229331</v>
       </c>
       <c r="Z3">
-        <v>0.8989963527392566</v>
+        <v>0.9246571023190399</v>
       </c>
       <c r="AA3">
-        <v>0.9027684423672636</v>
+        <v>0.9495523316551751</v>
       </c>
       <c r="AB3">
-        <v>0.9390416407585328</v>
+        <v>0.8902192776035769</v>
       </c>
       <c r="AC3">
-        <v>0.9406984735244067</v>
+        <v>0.8386885676269925</v>
       </c>
       <c r="AD3">
-        <v>0.950622604358229</v>
+        <v>0.9686526523881653</v>
       </c>
       <c r="AE3">
-        <v>0.9141676596384544</v>
+        <v>0.900915801378422</v>
       </c>
       <c r="AF3">
-        <v>0.9020486608892586</v>
+        <v>0.6863358945610636</v>
       </c>
       <c r="AG3">
-        <v>0.8907738719519195</v>
+        <v>0.760663974205862</v>
       </c>
       <c r="AH3">
-        <v>0.9026100770107643</v>
+        <v>0.799990205609469</v>
       </c>
       <c r="AI3">
-        <v>0.9167052388448728</v>
+        <v>0.8654526083717178</v>
       </c>
       <c r="AJ3">
-        <v>0.9159605735096886</v>
+        <v>0.7778157178258149</v>
       </c>
       <c r="AK3">
-        <v>0.9306435567737807</v>
+        <v>0.7285964472310353</v>
       </c>
       <c r="AL3">
-        <v>0.9210859997055535</v>
+        <v>0.6069831796453272</v>
       </c>
       <c r="AM3">
-        <v>0.9171916351308063</v>
+        <v>0.9275783522959996</v>
       </c>
       <c r="AN3">
-        <v>0.9698444174774432</v>
+        <v>0.5771471672915192</v>
+      </c>
+      <c r="AO3">
+        <v>0.8375099062258378</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>0.9694357013338307</v>
+        <v>0.9489739446580108</v>
       </c>
       <c r="C4">
-        <v>0.982847708179039</v>
+        <v>0.627273297854224</v>
       </c>
       <c r="D4">
-        <v>0.9831687302413002</v>
+        <v>0.8946601482788108</v>
       </c>
       <c r="E4">
-        <v>0.9767078488257094</v>
+        <v>0.8278574377662914</v>
       </c>
       <c r="F4">
-        <v>0.9745580308801994</v>
+        <v>0.854078247350436</v>
       </c>
       <c r="G4">
-        <v>0.9909343981637849</v>
+        <v>0.7603970927105203</v>
       </c>
       <c r="H4">
-        <v>0.9812304029267513</v>
+        <v>0.8273537610237426</v>
       </c>
       <c r="I4">
-        <v>0.9874170876865574</v>
+        <v>0.717836388716091</v>
       </c>
       <c r="J4">
-        <v>0.9921078656919314</v>
+        <v>0.805151098385823</v>
       </c>
       <c r="K4">
-        <v>0.9572742842842396</v>
+        <v>0.765456763358649</v>
       </c>
       <c r="L4">
-        <v>0.9901486769838211</v>
+        <v>0.77815021095548</v>
       </c>
       <c r="M4">
-        <v>0.9695428633817157</v>
+        <v>0.8688499839852093</v>
       </c>
       <c r="N4">
-        <v>0.9809071057149418</v>
+        <v>0.7982108715435964</v>
       </c>
       <c r="O4">
-        <v>0.9860062751500402</v>
+        <v>0.6950354156983111</v>
       </c>
       <c r="P4">
-        <v>0.9877611488923532</v>
+        <v>0.504671875280883</v>
       </c>
       <c r="Q4">
-        <v>0.9518796844841384</v>
+        <v>0.7982909630326608</v>
       </c>
       <c r="R4">
-        <v>0.9556156987731559</v>
+        <v>0.7564074328244401</v>
       </c>
       <c r="S4">
-        <v>0.9804316375748328</v>
+        <v>0.7492405675852867</v>
       </c>
       <c r="T4">
-        <v>0.9641352944180737</v>
+        <v>0.6405064040832942</v>
       </c>
       <c r="U4">
-        <v>0.9728572464252846</v>
+        <v>0.8266592276753022</v>
       </c>
       <c r="V4">
-        <v>0.9897723733144796</v>
+        <v>0.5190647554375039</v>
       </c>
       <c r="W4">
-        <v>0.9780922143394751</v>
+        <v>0.8933368088952989</v>
       </c>
       <c r="X4">
-        <v>0.9820889563111398</v>
+        <v>0.6067131453673247</v>
       </c>
       <c r="Y4">
-        <v>0.96712917415511</v>
+        <v>0.4914448391318039</v>
       </c>
       <c r="Z4">
-        <v>0.9602179524667397</v>
+        <v>0.8000740958051618</v>
       </c>
       <c r="AA4">
-        <v>0.9627744363849894</v>
+        <v>0.8302646940070337</v>
       </c>
       <c r="AB4">
-        <v>0.9826128786094747</v>
+        <v>0.7192777639126788</v>
       </c>
       <c r="AC4">
-        <v>0.982162822128007</v>
+        <v>0.6037045068497477</v>
       </c>
       <c r="AD4">
-        <v>0.9869299417493368</v>
+        <v>0.8639672085914353</v>
       </c>
       <c r="AE4">
-        <v>0.9694622293945538</v>
+        <v>0.7097390117962087</v>
       </c>
       <c r="AF4">
-        <v>0.9628905453795268</v>
+        <v>0.454622166101494</v>
       </c>
       <c r="AG4">
-        <v>0.9554132946505159</v>
+        <v>0.7389024435213735</v>
       </c>
       <c r="AH4">
-        <v>0.9602033645619307</v>
+        <v>0.5662146297425545</v>
       </c>
       <c r="AI4">
-        <v>0.9720241134857965</v>
+        <v>0.6962899330853267</v>
       </c>
       <c r="AJ4">
-        <v>0.9700404149237561</v>
+        <v>0.513334509697712</v>
       </c>
       <c r="AK4">
-        <v>0.9800763567400114</v>
+        <v>0.4544754980705141</v>
       </c>
       <c r="AL4">
-        <v>0.9738975423246449</v>
+        <v>0.3222689483749357</v>
       </c>
       <c r="AM4">
-        <v>0.9709489812713541</v>
+        <v>0.7617558992833566</v>
       </c>
       <c r="AN4">
-        <v>0.9938975391457859</v>
+        <v>0.3623009262774112</v>
+      </c>
+      <c r="AO4">
+        <v>0.8590927350258938</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:41">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>0.9966467177812941</v>
+        <v>0.8140724920099723</v>
       </c>
       <c r="C5">
-        <v>0.9914379157102857</v>
+        <v>0.8984304822408316</v>
       </c>
       <c r="D5">
-        <v>0.9892540185328589</v>
+        <v>0.7956996635751407</v>
       </c>
       <c r="E5">
-        <v>0.9957256213135929</v>
+        <v>0.8044777100184906</v>
       </c>
       <c r="F5">
-        <v>0.996379229950403</v>
+        <v>0.920999759977545</v>
       </c>
       <c r="G5">
-        <v>0.9778899191088483</v>
+        <v>0.741140206547962</v>
       </c>
       <c r="H5">
-        <v>0.9925652478497549</v>
+        <v>0.8724840532559192</v>
       </c>
       <c r="I5">
-        <v>0.9890336871270371</v>
+        <v>0.8513298230268407</v>
       </c>
       <c r="J5">
-        <v>0.9801069105309312</v>
+        <v>0.8803344163717545</v>
       </c>
       <c r="K5">
-        <v>0.9981146801978653</v>
+        <v>0.9398013421540989</v>
       </c>
       <c r="L5">
-        <v>0.9838049563991312</v>
+        <v>0.8622175694739966</v>
       </c>
       <c r="M5">
-        <v>0.9952778389608823</v>
+        <v>0.7852422127866618</v>
       </c>
       <c r="N5">
-        <v>0.993114676203396</v>
+        <v>0.8499868662755236</v>
       </c>
       <c r="O5">
-        <v>0.990007169882076</v>
+        <v>0.7896505125588796</v>
       </c>
       <c r="P5">
-        <v>0.9868648508351058</v>
+        <v>0.6854683744840343</v>
       </c>
       <c r="Q5">
-        <v>0.9991771548382474</v>
+        <v>0.8902020374183097</v>
       </c>
       <c r="R5">
-        <v>0.9997865457320354</v>
+        <v>0.8676864711329754</v>
       </c>
       <c r="S5">
-        <v>0.9909280778360782</v>
+        <v>0.8574317638861547</v>
       </c>
       <c r="T5">
-        <v>0.9966861496775642</v>
+        <v>0.867694892360221</v>
       </c>
       <c r="U5">
-        <v>0.9958508345278182</v>
+        <v>0.8749989114765283</v>
       </c>
       <c r="V5">
-        <v>0.9853114292775178</v>
+        <v>0.6058739926759943</v>
       </c>
       <c r="W5">
-        <v>0.9946882862859807</v>
+        <v>0.7235175011360466</v>
       </c>
       <c r="X5">
-        <v>0.9919856239444114</v>
+        <v>0.876605380962899</v>
       </c>
       <c r="Y5">
-        <v>0.9959464009019587</v>
+        <v>0.7930734288068834</v>
       </c>
       <c r="Z5">
-        <v>0.998407775558818</v>
+        <v>0.8637790621338944</v>
       </c>
       <c r="AA5">
-        <v>0.9988369822583377</v>
+        <v>0.8778133623998353</v>
       </c>
       <c r="AB5">
-        <v>0.9899575006347283</v>
+        <v>0.8525784225639524</v>
       </c>
       <c r="AC5">
-        <v>0.9895699613377207</v>
+        <v>0.7405443707755353</v>
       </c>
       <c r="AD5">
-        <v>0.9836517572340381</v>
+        <v>0.767283274945383</v>
       </c>
       <c r="AE5">
-        <v>0.9934519799679636</v>
+        <v>0.8129393864456946</v>
       </c>
       <c r="AF5">
-        <v>0.9986004103325394</v>
+        <v>0.7214345976675365</v>
       </c>
       <c r="AG5">
-        <v>0.9992314972391723</v>
+        <v>0.9958356933390806</v>
       </c>
       <c r="AH5">
-        <v>0.996217588947069</v>
+        <v>0.7634176766042062</v>
       </c>
       <c r="AI5">
-        <v>0.9898118509781988</v>
+        <v>0.751045449146467</v>
       </c>
       <c r="AJ5">
-        <v>0.997120437774846</v>
+        <v>0.6690945503595254</v>
       </c>
       <c r="AK5">
-        <v>0.9933034664371451</v>
+        <v>0.6831829229391559</v>
       </c>
       <c r="AL5">
-        <v>0.9968102545925498</v>
+        <v>0.4174708719467363</v>
       </c>
       <c r="AM5">
-        <v>0.9955700532617699</v>
+        <v>0.7058474570867243</v>
       </c>
       <c r="AN5">
-        <v>0.9701463891597149</v>
+        <v>0.679454509411488</v>
+      </c>
+      <c r="AO5">
+        <v>0.8985926497024264</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:41">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>0.988898844880432</v>
+        <v>0.9823603415671543</v>
       </c>
       <c r="C6">
-        <v>0.9946734524046136</v>
+        <v>0.8323328648792961</v>
       </c>
       <c r="D6">
-        <v>0.9964906222730023</v>
+        <v>0.9684425139238126</v>
       </c>
       <c r="E6">
-        <v>0.992962155795229</v>
+        <v>0.983859480916041</v>
       </c>
       <c r="F6">
-        <v>0.9914472288524033</v>
+        <v>0.9493687114023108</v>
       </c>
       <c r="G6">
-        <v>0.9929354269798346</v>
+        <v>0.9658537218108084</v>
       </c>
       <c r="H6">
-        <v>0.9931434391815167</v>
+        <v>0.9653804604710907</v>
       </c>
       <c r="I6">
-        <v>0.9968437307256106</v>
+        <v>0.9315257355530117</v>
       </c>
       <c r="J6">
-        <v>0.9978790490984674</v>
+        <v>0.9259295412596649</v>
       </c>
       <c r="K6">
-        <v>0.9822230407946443</v>
+        <v>0.9130331080342484</v>
       </c>
       <c r="L6">
-        <v>0.9958506000967855</v>
+        <v>0.9527659768223163</v>
       </c>
       <c r="M6">
-        <v>0.9844337324440685</v>
+        <v>0.9823546819344671</v>
       </c>
       <c r="N6">
-        <v>0.9950644676470057</v>
+        <v>0.9668986065590558</v>
       </c>
       <c r="O6">
-        <v>0.9962820747058031</v>
+        <v>0.9336089849857112</v>
       </c>
       <c r="P6">
-        <v>0.9953426614038898</v>
+        <v>0.8279423570253853</v>
       </c>
       <c r="Q6">
-        <v>0.9771525458176382</v>
+        <v>0.9190584730291876</v>
       </c>
       <c r="R6">
-        <v>0.9792814568518703</v>
+        <v>0.9420770112187601</v>
       </c>
       <c r="S6">
-        <v>0.9919132993724205</v>
+        <v>0.9457629277402532</v>
       </c>
       <c r="T6">
-        <v>0.9850705567712861</v>
+        <v>0.8737579767494699</v>
       </c>
       <c r="U6">
-        <v>0.9900959437501533</v>
+        <v>0.9664648737849572</v>
       </c>
       <c r="V6">
-        <v>0.9991454218712243</v>
+        <v>0.8384901234459304</v>
       </c>
       <c r="W6">
-        <v>0.993838893641777</v>
+        <v>0.9913143065821597</v>
       </c>
       <c r="X6">
-        <v>0.9931329278891132</v>
+        <v>0.8549295137151761</v>
       </c>
       <c r="Y6">
-        <v>0.9884540258853216</v>
+        <v>0.780978628444872</v>
       </c>
       <c r="Z6">
-        <v>0.9833375163338325</v>
+        <v>0.9637098369464486</v>
       </c>
       <c r="AA6">
-        <v>0.98488205216641</v>
+        <v>0.9516819273047257</v>
       </c>
       <c r="AB6">
-        <v>0.9947203194867544</v>
+        <v>0.9324990501553685</v>
       </c>
       <c r="AC6">
-        <v>0.9927073816680835</v>
+        <v>0.8834005443647571</v>
       </c>
       <c r="AD6">
-        <v>0.9945687865459811</v>
+        <v>0.9959669503786658</v>
       </c>
       <c r="AE6">
-        <v>0.9893742775158749</v>
+        <v>0.9310559789057746</v>
       </c>
       <c r="AF6">
-        <v>0.9854503868312077</v>
+        <v>0.7802781304915996</v>
       </c>
       <c r="AG6">
-        <v>0.9804485604482033</v>
+        <v>0.7769571334237656</v>
       </c>
       <c r="AH6">
-        <v>0.9813696637052184</v>
+        <v>0.8600840840846889</v>
       </c>
       <c r="AI6">
-        <v>0.9917567577067931</v>
+        <v>0.9316428553006937</v>
       </c>
       <c r="AJ6">
-        <v>0.9884926759580855</v>
+        <v>0.8325182643817112</v>
       </c>
       <c r="AK6">
-        <v>0.9952966126705919</v>
+        <v>0.7906891146773316</v>
       </c>
       <c r="AL6">
-        <v>0.9912355359631214</v>
+        <v>0.6976256605888601</v>
       </c>
       <c r="AM6">
-        <v>0.989528575024026</v>
+        <v>0.9682329173164447</v>
       </c>
       <c r="AN6">
-        <v>0.9921904400965533</v>
+        <v>0.6933461282013906</v>
+      </c>
+      <c r="AO6">
+        <v>0.7921775332604346</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:41">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>0.9992885565284612</v>
+        <v>0.9865235378216725</v>
       </c>
       <c r="C7">
-        <v>0.9978230171008052</v>
+        <v>0.8530037052160759</v>
       </c>
       <c r="D7">
-        <v>0.9974472165528049</v>
+        <v>0.9690511245435697</v>
       </c>
       <c r="E7">
-        <v>0.9997156206573043</v>
+        <v>0.9862677644881256</v>
       </c>
       <c r="F7">
-        <v>0.9990824648509934</v>
+        <v>0.9624225802427891</v>
       </c>
       <c r="G7">
-        <v>0.9869829196295894</v>
+        <v>0.9668580940217771</v>
       </c>
       <c r="H7">
-        <v>0.9973785746980703</v>
+        <v>0.9730374551045358</v>
       </c>
       <c r="I7">
-        <v>0.9967570575346023</v>
+        <v>0.9414146291559924</v>
       </c>
       <c r="J7">
-        <v>0.9929136669636695</v>
+        <v>0.9342070970324322</v>
       </c>
       <c r="K7">
-        <v>0.9972075263317721</v>
+        <v>0.9289878481881786</v>
       </c>
       <c r="L7">
-        <v>0.9931426118721938</v>
+        <v>0.9603868861587948</v>
       </c>
       <c r="M7">
-        <v>0.9946241130227181</v>
+        <v>0.9822255076500236</v>
       </c>
       <c r="N7">
-        <v>0.9993435833203288</v>
+        <v>0.9748755531875664</v>
       </c>
       <c r="O7">
-        <v>0.9973845882485672</v>
+        <v>0.9385279849271601</v>
       </c>
       <c r="P7">
-        <v>0.9947705848054272</v>
+        <v>0.832210241632925</v>
       </c>
       <c r="Q7">
-        <v>0.9955781818882514</v>
+        <v>0.9283861633562027</v>
       </c>
       <c r="R7">
-        <v>0.99632983688859</v>
+        <v>0.9531287524812662</v>
       </c>
       <c r="S7">
-        <v>0.9948515803766106</v>
+        <v>0.9543847426720231</v>
       </c>
       <c r="T7">
-        <v>0.997854286514463</v>
+        <v>0.8853432559244897</v>
       </c>
       <c r="U7">
-        <v>0.9989723826110618</v>
+        <v>0.9745534029476951</v>
       </c>
       <c r="V7">
-        <v>0.9963111744704927</v>
+        <v>0.8373132458078176</v>
       </c>
       <c r="W7">
-        <v>0.999771488449496</v>
+        <v>0.9870858100940194</v>
       </c>
       <c r="X7">
-        <v>0.9967326245955301</v>
+        <v>0.870067460229597</v>
       </c>
       <c r="Y7">
-        <v>0.9991971446931034</v>
+        <v>0.7972242130276255</v>
       </c>
       <c r="Z7">
-        <v>0.9980275198108505</v>
+        <v>0.9727428616012015</v>
       </c>
       <c r="AA7">
-        <v>0.9986000524252624</v>
+        <v>0.9593931630841063</v>
       </c>
       <c r="AB7">
-        <v>0.9975086051586585</v>
+        <v>0.9414573670044128</v>
       </c>
       <c r="AC7">
-        <v>0.9957452824542808</v>
+        <v>0.8861395189545024</v>
       </c>
       <c r="AD7">
-        <v>0.9934609755556697</v>
+        <v>0.9967355448823647</v>
       </c>
       <c r="AE7">
-        <v>0.9984844514920284</v>
+        <v>0.9360606395160792</v>
       </c>
       <c r="AF7">
-        <v>0.9987911535855738</v>
+        <v>0.7908068960116348</v>
       </c>
       <c r="AG7">
-        <v>0.9971170421262537</v>
+        <v>0.8043105310209239</v>
       </c>
       <c r="AH7">
-        <v>0.9958411702779876</v>
+        <v>0.8666936988568698</v>
       </c>
       <c r="AI7">
-        <v>0.9976472251443891</v>
+        <v>0.9360250604523541</v>
       </c>
       <c r="AJ7">
-        <v>0.9989316182987127</v>
+        <v>0.8331924802988753</v>
       </c>
       <c r="AK7">
-        <v>0.9995599043091741</v>
+        <v>0.7946661521619814</v>
       </c>
       <c r="AL7">
-        <v>0.9996590729589058</v>
+        <v>0.6909656490314788</v>
       </c>
       <c r="AM7">
-        <v>0.9990205173653891</v>
+        <v>0.9659551579293674</v>
       </c>
       <c r="AN7">
-        <v>0.9820142084952936</v>
+        <v>0.7075769725829651</v>
+      </c>
+      <c r="AO7">
+        <v>0.8086401678177327</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:41">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>0.9915317413194876</v>
+        <v>0.9982311109227633</v>
       </c>
       <c r="C8">
-        <v>0.996617771935545</v>
+        <v>0.8495217033441061</v>
       </c>
       <c r="D8">
-        <v>0.996961845268953</v>
+        <v>0.9744696074949353</v>
       </c>
       <c r="E8">
-        <v>0.9948424391815721</v>
+        <v>0.9703383506125854</v>
       </c>
       <c r="F8">
-        <v>0.9932633665438196</v>
+        <v>0.9791210499709379</v>
       </c>
       <c r="G8">
-        <v>0.9934524086877652</v>
+        <v>0.9299140041678911</v>
       </c>
       <c r="H8">
-        <v>0.9952825254059666</v>
+        <v>0.9732399304484424</v>
       </c>
       <c r="I8">
-        <v>0.997981118076091</v>
+        <v>0.9224801333027545</v>
       </c>
       <c r="J8">
-        <v>0.9987705427464398</v>
+        <v>0.9459595935846744</v>
       </c>
       <c r="K8">
-        <v>0.9846702933928358</v>
+        <v>0.9406815704777483</v>
       </c>
       <c r="L8">
-        <v>0.9971841806541626</v>
+        <v>0.9521694484090925</v>
       </c>
       <c r="M8">
-        <v>0.9876612818766806</v>
+        <v>0.9749228061135919</v>
       </c>
       <c r="N8">
-        <v>0.9968116976367313</v>
+        <v>0.9622582161284924</v>
       </c>
       <c r="O8">
-        <v>0.997774814860687</v>
+        <v>0.9057995457255297</v>
       </c>
       <c r="P8">
-        <v>0.9969243236962191</v>
+        <v>0.7748248301175906</v>
       </c>
       <c r="Q8">
-        <v>0.9809162555330456</v>
+        <v>0.942223641828574</v>
       </c>
       <c r="R8">
-        <v>0.9827978681387965</v>
+        <v>0.9409778860929373</v>
       </c>
       <c r="S8">
-        <v>0.9930715344473331</v>
+        <v>0.9399971179165555</v>
       </c>
       <c r="T8">
-        <v>0.9882606122306639</v>
+        <v>0.8733813241161839</v>
       </c>
       <c r="U8">
-        <v>0.9927334115078706</v>
+        <v>0.9741916273525042</v>
       </c>
       <c r="V8">
-        <v>0.9995012199250007</v>
+        <v>0.7675677434219474</v>
       </c>
       <c r="W8">
-        <v>0.9957124582993552</v>
+        <v>0.9727126703735468</v>
       </c>
       <c r="X8">
-        <v>0.9951635679867081</v>
+        <v>0.8553174120705599</v>
       </c>
       <c r="Y8">
-        <v>0.9907913561539564</v>
+        <v>0.7646790816066558</v>
       </c>
       <c r="Z8">
-        <v>0.986464734547699</v>
+        <v>0.9636288177875623</v>
       </c>
       <c r="AA8">
-        <v>0.987800918441803</v>
+        <v>0.9668084597166904</v>
       </c>
       <c r="AB8">
-        <v>0.9966798091576549</v>
+        <v>0.9239889954565268</v>
       </c>
       <c r="AC8">
-        <v>0.9950030106218863</v>
+        <v>0.8440705353680517</v>
       </c>
       <c r="AD8">
-        <v>0.9963652103021908</v>
+        <v>0.9775908293609694</v>
       </c>
       <c r="AE8">
-        <v>0.991729209245454</v>
+        <v>0.9129729641497408</v>
       </c>
       <c r="AF8">
-        <v>0.9880775341121705</v>
+        <v>0.7410773998181727</v>
       </c>
       <c r="AG8">
-        <v>0.983604182358822</v>
+        <v>0.8615641797279967</v>
       </c>
       <c r="AH8">
-        <v>0.9851042109138651</v>
+        <v>0.8256235016490522</v>
       </c>
       <c r="AI8">
-        <v>0.9929153278110165</v>
+        <v>0.8960142903966617</v>
       </c>
       <c r="AJ8">
-        <v>0.9912887831274513</v>
+        <v>0.7768738168565841</v>
       </c>
       <c r="AK8">
-        <v>0.9966306264746592</v>
+        <v>0.7405300709281122</v>
       </c>
       <c r="AL8">
-        <v>0.9934493519645259</v>
+        <v>0.5956218386239654</v>
       </c>
       <c r="AM8">
-        <v>0.9921592545735241</v>
+        <v>0.9244587715094612</v>
       </c>
       <c r="AN8">
-        <v>0.9921914082231371</v>
+        <v>0.6565931581650016</v>
+      </c>
+      <c r="AO8">
+        <v>0.8784724495674069</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:41">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>0.9980756766300731</v>
+        <v>0.9410725272673843</v>
       </c>
       <c r="C9">
-        <v>0.9917927572909577</v>
+        <v>0.9495378340850691</v>
       </c>
       <c r="D9">
-        <v>0.9901334364824649</v>
+        <v>0.8967063502346798</v>
       </c>
       <c r="E9">
-        <v>0.9960605924693978</v>
+        <v>0.9268702032384285</v>
       </c>
       <c r="F9">
-        <v>0.9959577610599528</v>
+        <v>0.9896342887021595</v>
       </c>
       <c r="G9">
-        <v>0.9748409673766066</v>
+        <v>0.8978343828994061</v>
       </c>
       <c r="H9">
-        <v>0.9919747747121168</v>
+        <v>0.9564588899003187</v>
       </c>
       <c r="I9">
-        <v>0.9885910861414756</v>
+        <v>0.9451128140882052</v>
       </c>
       <c r="J9">
-        <v>0.9817436133686031</v>
+        <v>0.9256595872781693</v>
       </c>
       <c r="K9">
-        <v>0.9990258018212599</v>
+        <v>0.9819441526062713</v>
       </c>
       <c r="L9">
-        <v>0.9832432812758178</v>
+        <v>0.9445279908454678</v>
       </c>
       <c r="M9">
-        <v>0.992949606602143</v>
+        <v>0.9029598578034003</v>
       </c>
       <c r="N9">
-        <v>0.9941205675025561</v>
+        <v>0.9606959025305682</v>
       </c>
       <c r="O9">
-        <v>0.9900095222475346</v>
+        <v>0.9029092872651717</v>
       </c>
       <c r="P9">
-        <v>0.9862476402532629</v>
+        <v>0.7998769637649947</v>
       </c>
       <c r="Q9">
-        <v>0.9995329802592523</v>
+        <v>0.9286583801553165</v>
       </c>
       <c r="R9">
-        <v>0.9993170438532091</v>
+        <v>0.9651475178255369</v>
       </c>
       <c r="S9">
-        <v>0.9885376816554559</v>
+        <v>0.9469678421986309</v>
       </c>
       <c r="T9">
-        <v>0.9981996086827203</v>
+        <v>0.9070054069807205</v>
       </c>
       <c r="U9">
-        <v>0.996711350001741</v>
+        <v>0.9612878549405224</v>
       </c>
       <c r="V9">
-        <v>0.9865344918832791</v>
+        <v>0.7612488095035626</v>
       </c>
       <c r="W9">
-        <v>0.9956237341646789</v>
+        <v>0.8748144725966099</v>
       </c>
       <c r="X9">
-        <v>0.9908783690094829</v>
+        <v>0.9212152323326024</v>
       </c>
       <c r="Y9">
-        <v>0.9983236580836333</v>
+        <v>0.8629868871673979</v>
       </c>
       <c r="Z9">
-        <v>0.9996130387186339</v>
+        <v>0.9671365686334611</v>
       </c>
       <c r="AA9">
-        <v>0.9995093362053279</v>
+        <v>0.9443333018179533</v>
       </c>
       <c r="AB9">
-        <v>0.9913261280445917</v>
+        <v>0.9377473640535905</v>
       </c>
       <c r="AC9">
-        <v>0.9896013698484627</v>
+        <v>0.8373458072750316</v>
       </c>
       <c r="AD9">
-        <v>0.9847184942379693</v>
+        <v>0.9234575776038303</v>
       </c>
       <c r="AE9">
-        <v>0.9965988807085756</v>
+        <v>0.9013203844030446</v>
       </c>
       <c r="AF9">
-        <v>0.9994916443590753</v>
+        <v>0.8115902437993737</v>
       </c>
       <c r="AG9">
-        <v>0.999979079754148</v>
+        <v>0.9579008584234344</v>
       </c>
       <c r="AH9">
-        <v>0.9972333826521402</v>
+        <v>0.8502478849713894</v>
       </c>
       <c r="AI9">
-        <v>0.9938063641815859</v>
+        <v>0.896334542126081</v>
       </c>
       <c r="AJ9">
-        <v>0.9976659935961204</v>
+        <v>0.7721855621544748</v>
       </c>
       <c r="AK9">
-        <v>0.994363306813406</v>
+        <v>0.7630085763674347</v>
       </c>
       <c r="AL9">
-        <v>0.9970773053192051</v>
+        <v>0.5829265240578173</v>
       </c>
       <c r="AM9">
-        <v>0.9972353953399145</v>
+        <v>0.870886875267874</v>
       </c>
       <c r="AN9">
-        <v>0.9671628169253544</v>
+        <v>0.7644476557439074</v>
+      </c>
+      <c r="AO9">
+        <v>0.8752283280366476</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:41">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>0.9937141923075571</v>
+        <v>0.819468891754712</v>
       </c>
       <c r="C10">
-        <v>0.9839937770897705</v>
+        <v>0.722077884851081</v>
       </c>
       <c r="D10">
-        <v>0.9828097661356829</v>
+        <v>0.8013589716197733</v>
       </c>
       <c r="E10">
-        <v>0.9903472189903417</v>
+        <v>0.7304279809958311</v>
       </c>
       <c r="F10">
-        <v>0.9907217796214612</v>
+        <v>0.8670236314604427</v>
       </c>
       <c r="G10">
-        <v>0.9631538488016015</v>
+        <v>0.6154856153218901</v>
       </c>
       <c r="H10">
-        <v>0.9844541377958276</v>
+        <v>0.8060860656177814</v>
       </c>
       <c r="I10">
-        <v>0.979774853711734</v>
+        <v>0.7084488548288793</v>
       </c>
       <c r="J10">
-        <v>0.9707440354520509</v>
+        <v>0.8408014485413601</v>
       </c>
       <c r="K10">
-        <v>0.9974105021766596</v>
+        <v>0.8437756089174755</v>
       </c>
       <c r="L10">
-        <v>0.972743124366916</v>
+        <v>0.7683077622667671</v>
       </c>
       <c r="M10">
-        <v>0.9873723408084535</v>
+        <v>0.7572863492010748</v>
       </c>
       <c r="N10">
-        <v>0.9872488282526974</v>
+        <v>0.744343754499101</v>
       </c>
       <c r="O10">
-        <v>0.981518974339063</v>
+        <v>0.6414101159834545</v>
       </c>
       <c r="P10">
-        <v>0.9766554224929688</v>
+        <v>0.4638945839417671</v>
       </c>
       <c r="Q10">
-        <v>0.998331424863836</v>
+        <v>0.8486872809084911</v>
       </c>
       <c r="R10">
-        <v>0.9975049480417028</v>
+        <v>0.7391634990182271</v>
       </c>
       <c r="S10">
-        <v>0.981170571009472</v>
+        <v>0.737525681450117</v>
       </c>
       <c r="T10">
-        <v>0.9945876072376907</v>
+        <v>0.7260125230101168</v>
       </c>
       <c r="U10">
-        <v>0.9914224283601328</v>
+        <v>0.8040299164142821</v>
       </c>
       <c r="V10">
-        <v>0.97725522054981</v>
+        <v>0.3912894051745494</v>
       </c>
       <c r="W10">
-        <v>0.9895308461123544</v>
+        <v>0.7087356102113885</v>
       </c>
       <c r="X10">
-        <v>0.9830599438088087</v>
+        <v>0.7014265807339942</v>
       </c>
       <c r="Y10">
-        <v>0.9946114575470417</v>
+        <v>0.5583961562809233</v>
       </c>
       <c r="Z10">
-        <v>0.9971050071711957</v>
+        <v>0.7605875527729199</v>
       </c>
       <c r="AA10">
-        <v>0.9966140685617779</v>
+        <v>0.831670005292901</v>
       </c>
       <c r="AB10">
-        <v>0.9834372976256067</v>
+        <v>0.719539254903604</v>
       </c>
       <c r="AC10">
-        <v>0.9813224812011888</v>
+        <v>0.5754761435611517</v>
       </c>
       <c r="AD10">
-        <v>0.9748078974167366</v>
+        <v>0.7011374618772834</v>
       </c>
       <c r="AE10">
-        <v>0.9920495839759974</v>
+        <v>0.6908959957768069</v>
       </c>
       <c r="AF10">
-        <v>0.9967352184969831</v>
+        <v>0.4758911277397524</v>
       </c>
       <c r="AG10">
-        <v>0.9985031853424567</v>
+        <v>0.9546939191348222</v>
       </c>
       <c r="AH10">
-        <v>0.993917646671849</v>
+        <v>0.5720457262629817</v>
       </c>
       <c r="AI10">
-        <v>0.9888896682673439</v>
+        <v>0.5892848174205099</v>
       </c>
       <c r="AJ10">
-        <v>0.9930412048599689</v>
+        <v>0.4748194090516178</v>
       </c>
       <c r="AK10">
-        <v>0.9879484308626063</v>
+        <v>0.4684812705219179</v>
       </c>
       <c r="AL10">
-        <v>0.9919251290273633</v>
+        <v>0.1645689318735137</v>
       </c>
       <c r="AM10">
-        <v>0.9924023853545009</v>
+        <v>0.5907494993833606</v>
       </c>
       <c r="AN10">
-        <v>0.9537160580132867</v>
+        <v>0.4042501636197605</v>
+      </c>
+      <c r="AO10">
+        <v>0.9810020326077493</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:41">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>0.9850806469800599</v>
+        <v>0.9475147445003508</v>
       </c>
       <c r="C11">
-        <v>0.9714982214565178</v>
+        <v>0.9327191667574102</v>
       </c>
       <c r="D11">
-        <v>0.970517049263107</v>
+        <v>0.9493107209722003</v>
       </c>
       <c r="E11">
-        <v>0.9801982293684139</v>
+        <v>0.9727377401361559</v>
       </c>
       <c r="F11">
-        <v>0.9812101918881752</v>
+        <v>0.995236622150081</v>
       </c>
       <c r="G11">
-        <v>0.9465156456463065</v>
+        <v>0.9355966697041552</v>
       </c>
       <c r="H11">
-        <v>0.9724424769061266</v>
+        <v>0.9933406710375542</v>
       </c>
       <c r="I11">
-        <v>0.966097776737097</v>
+        <v>0.9739057972133844</v>
       </c>
       <c r="J11">
-        <v>0.9542745189962263</v>
+        <v>0.9783770100949299</v>
       </c>
       <c r="K11">
-        <v>0.9919353485180861</v>
+        <v>0.9963558998337188</v>
       </c>
       <c r="L11">
-        <v>0.9572244429141439</v>
+        <v>0.9890187405573532</v>
       </c>
       <c r="M11">
-        <v>0.9780107377281719</v>
+        <v>0.9578554304009237</v>
       </c>
       <c r="N11">
-        <v>0.9756715530357807</v>
+        <v>0.9831860377756012</v>
       </c>
       <c r="O11">
-        <v>0.9682099577982203</v>
+        <v>0.952163180039226</v>
       </c>
       <c r="P11">
-        <v>0.9622110803271788</v>
+        <v>0.8575468774150253</v>
       </c>
       <c r="Q11">
-        <v>0.9936448154389763</v>
+        <v>0.9793748380804161</v>
       </c>
       <c r="R11">
-        <v>0.9921945281107462</v>
+        <v>0.9798865360201949</v>
       </c>
       <c r="S11">
-        <v>0.9694182725646825</v>
+        <v>0.9842376547238804</v>
       </c>
       <c r="T11">
-        <v>0.9868968743736204</v>
+        <v>0.9622864182740586</v>
       </c>
       <c r="U11">
-        <v>0.9818195820024839</v>
+        <v>0.9944999074164861</v>
       </c>
       <c r="V11">
-        <v>0.962682888294719</v>
+        <v>0.8217167517207903</v>
       </c>
       <c r="W11">
-        <v>0.9788666950883689</v>
+        <v>0.9273254138870202</v>
       </c>
       <c r="X11">
-        <v>0.9707661596015962</v>
+        <v>0.9529593559980567</v>
       </c>
       <c r="Y11">
-        <v>0.9865285721985527</v>
+        <v>0.8702090743326882</v>
       </c>
       <c r="Z11">
-        <v>0.9906960147356616</v>
+        <v>0.9873083535547156</v>
       </c>
       <c r="AA11">
-        <v>0.9898011334546463</v>
+        <v>0.9883122655824904</v>
       </c>
       <c r="AB11">
-        <v>0.9707024615978903</v>
+        <v>0.9781415870529798</v>
       </c>
       <c r="AC11">
-        <v>0.9683995557882915</v>
+        <v>0.9138493287571378</v>
       </c>
       <c r="AD11">
-        <v>0.9598115760733636</v>
+        <v>0.9510618782380947</v>
       </c>
       <c r="AE11">
-        <v>0.9829169474589114</v>
+        <v>0.9639673806680612</v>
       </c>
       <c r="AF11">
-        <v>0.9899960106851461</v>
+        <v>0.8451076282859089</v>
       </c>
       <c r="AG11">
-        <v>0.9933360594373328</v>
+        <v>0.9244113058652029</v>
       </c>
       <c r="AH11">
-        <v>0.9867375353760893</v>
+        <v>0.9116063392890567</v>
       </c>
       <c r="AI11">
-        <v>0.9790115082337864</v>
+        <v>0.9248766597838578</v>
       </c>
       <c r="AJ11">
-        <v>0.9842632839879721</v>
+        <v>0.8585601103944484</v>
       </c>
       <c r="AK11">
-        <v>0.9768063126863854</v>
+        <v>0.8455021457641756</v>
       </c>
       <c r="AL11">
-        <v>0.982481377858938</v>
+        <v>0.6634095502299808</v>
       </c>
       <c r="AM11">
-        <v>0.983202333802177</v>
+        <v>0.9222776292359247</v>
       </c>
       <c r="AN11">
-        <v>0.9350025024877333</v>
+        <v>0.7710936827237324</v>
+      </c>
+      <c r="AO11">
+        <v>0.8744688720118846</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:41">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12">
-        <v>0.9805176337611343</v>
+        <v>0.7488308366743737</v>
       </c>
       <c r="C12">
-        <v>0.9668494385551766</v>
+        <v>0.9539510202273871</v>
       </c>
       <c r="D12">
-        <v>0.9626681442912957</v>
+        <v>0.7636925853848214</v>
       </c>
       <c r="E12">
-        <v>0.9751112799576462</v>
+        <v>0.8820515125679358</v>
       </c>
       <c r="F12">
-        <v>0.976423837793517</v>
+        <v>0.8571468422568622</v>
       </c>
       <c r="G12">
-        <v>0.9420365695221291</v>
+        <v>0.9176884411214433</v>
       </c>
       <c r="H12">
-        <v>0.9687352198757819</v>
+        <v>0.8829372991251531</v>
       </c>
       <c r="I12">
-        <v>0.9605946264907642</v>
+        <v>0.9622817872578986</v>
       </c>
       <c r="J12">
-        <v>0.9473263827994236</v>
+        <v>0.8399217489355679</v>
       </c>
       <c r="K12">
-        <v>0.9869627440800086</v>
+        <v>0.9123473058403025</v>
       </c>
       <c r="L12">
-        <v>0.9524556689028201</v>
+        <v>0.9167666738125204</v>
       </c>
       <c r="M12">
-        <v>0.9772236772708065</v>
+        <v>0.8148094206052685</v>
       </c>
       <c r="N12">
-        <v>0.9700762844178072</v>
+        <v>0.9215330161931579</v>
       </c>
       <c r="O12">
-        <v>0.9630393963497434</v>
+        <v>0.9601801705222492</v>
       </c>
       <c r="P12">
-        <v>0.9577977726362239</v>
+        <v>0.9814134142586818</v>
       </c>
       <c r="Q12">
-        <v>0.9914806906204848</v>
+        <v>0.8420704115170958</v>
       </c>
       <c r="R12">
-        <v>0.9901778431597109</v>
+        <v>0.9443498254896487</v>
       </c>
       <c r="S12">
-        <v>0.9650116687707262</v>
+        <v>0.9439283683219765</v>
       </c>
       <c r="T12">
-        <v>0.9832374645836124</v>
+        <v>0.9568521449625862</v>
       </c>
       <c r="U12">
-        <v>0.9777734410480693</v>
+        <v>0.8885478868692556</v>
       </c>
       <c r="V12">
-        <v>0.9546964784576469</v>
+        <v>0.9481390977785968</v>
       </c>
       <c r="W12">
-        <v>0.9734360293094496</v>
+        <v>0.7756357543370831</v>
       </c>
       <c r="X12">
-        <v>0.9672369785007418</v>
+        <v>0.9842942608316178</v>
       </c>
       <c r="Y12">
-        <v>0.9806971523265752</v>
+        <v>0.9879141777109599</v>
       </c>
       <c r="Z12">
-        <v>0.9869494303065514</v>
+        <v>0.920394005481628</v>
       </c>
       <c r="AA12">
-        <v>0.9860555693953326</v>
+        <v>0.8545851814352624</v>
       </c>
       <c r="AB12">
-        <v>0.9654450833595544</v>
+        <v>0.9564929941349657</v>
       </c>
       <c r="AC12">
-        <v>0.9647168076635846</v>
+        <v>0.9593929827147114</v>
       </c>
       <c r="AD12">
-        <v>0.9547795504918818</v>
+        <v>0.851165227366235</v>
       </c>
       <c r="AE12">
-        <v>0.9767544363592059</v>
+        <v>0.9391648526546383</v>
       </c>
       <c r="AF12">
-        <v>0.9855334119784428</v>
+        <v>0.9921504177187483</v>
       </c>
       <c r="AG12">
-        <v>0.9897925817858253</v>
+        <v>0.7648357224278357</v>
       </c>
       <c r="AH12">
-        <v>0.9844062683246498</v>
+        <v>0.9851005325228948</v>
       </c>
       <c r="AI12">
-        <v>0.9700958190597606</v>
+        <v>0.9510212605144013</v>
       </c>
       <c r="AJ12">
-        <v>0.9806222109987667</v>
+        <v>0.9566018072172753</v>
       </c>
       <c r="AK12">
-        <v>0.970322103147865</v>
+        <v>0.9692688908357669</v>
       </c>
       <c r="AL12">
-        <v>0.9779874850232766</v>
+        <v>0.8795553935192779</v>
       </c>
       <c r="AM12">
-        <v>0.978555697892635</v>
+        <v>0.899031600868863</v>
       </c>
       <c r="AN12">
-        <v>0.9298118133191356</v>
+        <v>0.9620588803421625</v>
+      </c>
+      <c r="AO12">
+        <v>0.5814123895288742</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块.xlsx
+++ b/FOF/data/基金公司-板块.xlsx
@@ -16,160 +16,160 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
     <t>招商</t>
   </si>
   <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>平安</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>泓德</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
     <t>海富通</t>
   </si>
   <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>平安大华</t>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>前海开源</t>
   </si>
   <si>
     <t>易方达</t>
   </si>
   <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>长信</t>
   </si>
   <si>
     <t>安信</t>
   </si>
   <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>泓德</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
     <t>上证50</t>
   </si>
   <si>
     <t>中证100</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>创业板综</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中证1000</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中小板综</t>
   </si>
 </sst>
 </file>
@@ -663,124 +663,124 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>0.965394807728854</v>
+        <v>0.3278473157853763</v>
       </c>
       <c r="C2">
-        <v>0.6728177784128163</v>
+        <v>0.0179174894603545</v>
       </c>
       <c r="D2">
-        <v>0.9755364156095802</v>
+        <v>0.4407321026401694</v>
       </c>
       <c r="E2">
-        <v>0.9198859306517111</v>
+        <v>0.8156049820565294</v>
       </c>
       <c r="F2">
-        <v>0.8947020492008236</v>
+        <v>0.5388011448517462</v>
       </c>
       <c r="G2">
-        <v>0.8506414024085331</v>
+        <v>0.5237392283200175</v>
       </c>
       <c r="H2">
-        <v>0.9108432620263178</v>
+        <v>0.4594219864418455</v>
       </c>
       <c r="I2">
-        <v>0.8101137586004673</v>
+        <v>0.6512401363254539</v>
       </c>
       <c r="J2">
-        <v>0.9066948763905904</v>
+        <v>0.5965522060707983</v>
       </c>
       <c r="K2">
-        <v>0.8328851107511522</v>
+        <v>0.5749871331710853</v>
       </c>
       <c r="L2">
-        <v>0.8794719239693329</v>
+        <v>0.4122905307749947</v>
       </c>
       <c r="M2">
-        <v>0.9602030909681591</v>
+        <v>0.3760213198709804</v>
       </c>
       <c r="N2">
-        <v>0.8698534343607723</v>
+        <v>0.3106935777591563</v>
       </c>
       <c r="O2">
-        <v>0.8128141941072263</v>
+        <v>0.5545288416935564</v>
       </c>
       <c r="P2">
-        <v>0.6512952629462746</v>
+        <v>-0.03706709806573962</v>
       </c>
       <c r="Q2">
-        <v>0.8986452321258046</v>
+        <v>0.6615028805892468</v>
       </c>
       <c r="R2">
-        <v>0.8257638099213985</v>
+        <v>0.5431969540474787</v>
       </c>
       <c r="S2">
-        <v>0.8471763205263411</v>
+        <v>0.2865185103000175</v>
       </c>
       <c r="T2">
-        <v>0.7742137825168008</v>
+        <v>0.9206057940781799</v>
       </c>
       <c r="U2">
-        <v>0.9062947240650878</v>
+        <v>0.6952704482422903</v>
       </c>
       <c r="V2">
-        <v>0.6612160459663987</v>
+        <v>0.1984754603812293</v>
       </c>
       <c r="W2">
-        <v>0.9727243049780326</v>
+        <v>0.6101596101051867</v>
       </c>
       <c r="X2">
-        <v>0.7176357416408831</v>
+        <v>0.9390975795469273</v>
       </c>
       <c r="Y2">
-        <v>0.5809549130646324</v>
+        <v>0.9380293432038587</v>
       </c>
       <c r="Z2">
-        <v>0.8690195220122021</v>
+        <v>0.9566701471377942</v>
       </c>
       <c r="AA2">
-        <v>0.9196219432462061</v>
+        <v>0.8995676965872054</v>
       </c>
       <c r="AB2">
-        <v>0.8254027329254483</v>
+        <v>0.8421543662235378</v>
       </c>
       <c r="AC2">
-        <v>0.7633335368945939</v>
+        <v>0.9386204169408459</v>
       </c>
       <c r="AD2">
-        <v>0.9246798813574058</v>
+        <v>0.9720339232171191</v>
       </c>
       <c r="AE2">
-        <v>0.8414802960004492</v>
+        <v>0.8107472199150323</v>
       </c>
       <c r="AF2">
-        <v>0.5787043896104698</v>
+        <v>0.7692943528026194</v>
       </c>
       <c r="AG2">
-        <v>0.735941390526807</v>
+        <v>0.8815915489351575</v>
       </c>
       <c r="AH2">
-        <v>0.714325030727528</v>
+        <v>0.9355730185999717</v>
       </c>
       <c r="AI2">
-        <v>0.7855457229804543</v>
+        <v>0.9037417340822086</v>
       </c>
       <c r="AJ2">
-        <v>0.691859813887824</v>
+        <v>0.6909772407232592</v>
       </c>
       <c r="AK2">
-        <v>0.6361795077554171</v>
+        <v>0.8987767426248131</v>
       </c>
       <c r="AL2">
-        <v>0.4960070672604096</v>
+        <v>0.8592229344710828</v>
       </c>
       <c r="AM2">
-        <v>0.8656798466193077</v>
+        <v>0.9062091260349104</v>
       </c>
       <c r="AN2">
-        <v>0.4577032788310514</v>
+        <v>0.876726993290013</v>
       </c>
       <c r="AO2">
-        <v>0.8618678771356094</v>
+        <v>0.8347918469681912</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -788,124 +788,124 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>0.9809202823308365</v>
+        <v>0.05729772559824771</v>
       </c>
       <c r="C3">
-        <v>0.7547705748461838</v>
+        <v>-0.3072452193313613</v>
       </c>
       <c r="D3">
-        <v>0.986816801431362</v>
+        <v>0.2875641537325718</v>
       </c>
       <c r="E3">
-        <v>0.9639657400545473</v>
+        <v>0.5615250986406835</v>
       </c>
       <c r="F3">
-        <v>0.9299268017755491</v>
+        <v>0.2682258483043624</v>
       </c>
       <c r="G3">
-        <v>0.9169469162122421</v>
+        <v>0.3207273142523216</v>
       </c>
       <c r="H3">
-        <v>0.9501671810595004</v>
+        <v>0.07804142088455229</v>
       </c>
       <c r="I3">
-        <v>0.8798720437362838</v>
+        <v>0.4184132629856195</v>
       </c>
       <c r="J3">
-        <v>0.9321248641114798</v>
+        <v>0.776275128586566</v>
       </c>
       <c r="K3">
-        <v>0.8821845948552074</v>
+        <v>0.3533704997866208</v>
       </c>
       <c r="L3">
-        <v>0.9288698517159538</v>
+        <v>0.3304116500038364</v>
       </c>
       <c r="M3">
-        <v>0.985525635313253</v>
+        <v>0.1141292541252384</v>
       </c>
       <c r="N3">
-        <v>0.9267487885307732</v>
+        <v>0.07033855901599563</v>
       </c>
       <c r="O3">
-        <v>0.8845866277920622</v>
+        <v>0.3862331678457923</v>
       </c>
       <c r="P3">
-        <v>0.7500664992196958</v>
+        <v>-0.2589160831705565</v>
       </c>
       <c r="Q3">
-        <v>0.9245133579977425</v>
+        <v>0.4546288998459374</v>
       </c>
       <c r="R3">
-        <v>0.8910258887778324</v>
+        <v>0.3529929115702421</v>
       </c>
       <c r="S3">
-        <v>0.9074297531904965</v>
+        <v>0.06524808206059153</v>
       </c>
       <c r="T3">
-        <v>0.838435994977303</v>
+        <v>0.7651526225777677</v>
       </c>
       <c r="U3">
-        <v>0.9477443367682393</v>
+        <v>0.3347797866201839</v>
       </c>
       <c r="V3">
-        <v>0.7594248314277783</v>
+        <v>0.1178296587200939</v>
       </c>
       <c r="W3">
-        <v>0.994947033481041</v>
+        <v>0.3225512595648257</v>
       </c>
       <c r="X3">
-        <v>0.7963161865031854</v>
+        <v>0.7975265434330792</v>
       </c>
       <c r="Y3">
-        <v>0.6847413823229331</v>
+        <v>0.7101111988705315</v>
       </c>
       <c r="Z3">
-        <v>0.9246571023190399</v>
+        <v>0.7532896533194237</v>
       </c>
       <c r="AA3">
-        <v>0.9495523316551751</v>
+        <v>0.7378104802875908</v>
       </c>
       <c r="AB3">
-        <v>0.8902192776035769</v>
+        <v>0.7848255410897315</v>
       </c>
       <c r="AC3">
-        <v>0.8386885676269925</v>
+        <v>0.7666521033859479</v>
       </c>
       <c r="AD3">
-        <v>0.9686526523881653</v>
+        <v>0.8407434584373169</v>
       </c>
       <c r="AE3">
-        <v>0.900915801378422</v>
+        <v>0.5843094138679183</v>
       </c>
       <c r="AF3">
-        <v>0.6863358945610636</v>
+        <v>0.5754153510322566</v>
       </c>
       <c r="AG3">
-        <v>0.760663974205862</v>
+        <v>0.789188997108626</v>
       </c>
       <c r="AH3">
-        <v>0.799990205609469</v>
+        <v>0.7253000923728824</v>
       </c>
       <c r="AI3">
-        <v>0.8654526083717178</v>
+        <v>0.6617733632928825</v>
       </c>
       <c r="AJ3">
-        <v>0.7778157178258149</v>
+        <v>0.478784786604535</v>
       </c>
       <c r="AK3">
-        <v>0.7285964472310353</v>
+        <v>0.6277309579417888</v>
       </c>
       <c r="AL3">
-        <v>0.6069831796453272</v>
+        <v>0.6867113953216767</v>
       </c>
       <c r="AM3">
-        <v>0.9275783522959996</v>
+        <v>0.6871292704848418</v>
       </c>
       <c r="AN3">
-        <v>0.5771471672915192</v>
+        <v>0.7985237627504329</v>
       </c>
       <c r="AO3">
-        <v>0.8375099062258378</v>
+        <v>0.6140083689138187</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -913,124 +913,124 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <v>0.9489739446580108</v>
+        <v>0.5410664123869707</v>
       </c>
       <c r="C4">
-        <v>0.627273297854224</v>
+        <v>0.1649698240315044</v>
       </c>
       <c r="D4">
-        <v>0.8946601482788108</v>
+        <v>0.651326098984336</v>
       </c>
       <c r="E4">
-        <v>0.8278574377662914</v>
+        <v>0.8838705886627594</v>
       </c>
       <c r="F4">
-        <v>0.854078247350436</v>
+        <v>0.7245680481021936</v>
       </c>
       <c r="G4">
-        <v>0.7603970927105203</v>
+        <v>0.70001742342004</v>
       </c>
       <c r="H4">
-        <v>0.8273537610237426</v>
+        <v>0.6420144310709743</v>
       </c>
       <c r="I4">
-        <v>0.717836388716091</v>
+        <v>0.821746634066951</v>
       </c>
       <c r="J4">
-        <v>0.805151098385823</v>
+        <v>0.5842169847001107</v>
       </c>
       <c r="K4">
-        <v>0.765456763358649</v>
+        <v>0.7402479089431405</v>
       </c>
       <c r="L4">
-        <v>0.77815021095548</v>
+        <v>0.6388151178504959</v>
       </c>
       <c r="M4">
-        <v>0.8688499839852093</v>
+        <v>0.5825928279795041</v>
       </c>
       <c r="N4">
-        <v>0.7982108715435964</v>
+        <v>0.5428529627499702</v>
       </c>
       <c r="O4">
-        <v>0.6950354156983111</v>
+        <v>0.7387196180475923</v>
       </c>
       <c r="P4">
-        <v>0.504671875280883</v>
+        <v>0.2008849237963606</v>
       </c>
       <c r="Q4">
-        <v>0.7982909630326608</v>
+        <v>0.8336355294377595</v>
       </c>
       <c r="R4">
-        <v>0.7564074328244401</v>
+        <v>0.7614864771686154</v>
       </c>
       <c r="S4">
-        <v>0.7492405675852867</v>
+        <v>0.516365133873781</v>
       </c>
       <c r="T4">
-        <v>0.6405064040832942</v>
+        <v>0.9861269839010507</v>
       </c>
       <c r="U4">
-        <v>0.8266592276753022</v>
+        <v>0.8257044801895335</v>
       </c>
       <c r="V4">
-        <v>0.5190647554375039</v>
+        <v>0.4600555588123255</v>
       </c>
       <c r="W4">
-        <v>0.8933368088952989</v>
+        <v>0.7973877796490935</v>
       </c>
       <c r="X4">
-        <v>0.6067131453673247</v>
+        <v>0.9971266296871383</v>
       </c>
       <c r="Y4">
-        <v>0.4914448391318039</v>
+        <v>0.9764769340329377</v>
       </c>
       <c r="Z4">
-        <v>0.8000740958051618</v>
+        <v>0.9157856316547768</v>
       </c>
       <c r="AA4">
-        <v>0.8302646940070337</v>
+        <v>0.980453676103436</v>
       </c>
       <c r="AB4">
-        <v>0.7192777639126788</v>
+        <v>0.7247612944572563</v>
       </c>
       <c r="AC4">
-        <v>0.6037045068497477</v>
+        <v>0.8534408902777205</v>
       </c>
       <c r="AD4">
-        <v>0.8639672085914353</v>
+        <v>0.8999340987275579</v>
       </c>
       <c r="AE4">
-        <v>0.7097390117962087</v>
+        <v>0.9382517669478579</v>
       </c>
       <c r="AF4">
-        <v>0.454622166101494</v>
+        <v>0.9213235507645826</v>
       </c>
       <c r="AG4">
-        <v>0.7389024435213735</v>
+        <v>0.9690685291181342</v>
       </c>
       <c r="AH4">
-        <v>0.5662146297425545</v>
+        <v>0.9238714082244061</v>
       </c>
       <c r="AI4">
-        <v>0.6962899330853267</v>
+        <v>0.9609667982828738</v>
       </c>
       <c r="AJ4">
-        <v>0.513334509697712</v>
+        <v>0.8689025640651115</v>
       </c>
       <c r="AK4">
-        <v>0.4544754980705141</v>
+        <v>0.952934735715418</v>
       </c>
       <c r="AL4">
-        <v>0.3222689483749357</v>
+        <v>0.963210071034737</v>
       </c>
       <c r="AM4">
-        <v>0.7617558992833566</v>
+        <v>0.9565004808894619</v>
       </c>
       <c r="AN4">
-        <v>0.3623009262774112</v>
+        <v>0.8670363935755725</v>
       </c>
       <c r="AO4">
-        <v>0.8590927350258938</v>
+        <v>0.8538869587779487</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1038,124 +1038,124 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>0.8140724920099723</v>
+        <v>0.4502969754872898</v>
       </c>
       <c r="C5">
-        <v>0.8984304822408316</v>
+        <v>0.04703088579021145</v>
       </c>
       <c r="D5">
-        <v>0.7956996635751407</v>
+        <v>0.5653910612491756</v>
       </c>
       <c r="E5">
-        <v>0.8044777100184906</v>
+        <v>0.8106741313428101</v>
       </c>
       <c r="F5">
-        <v>0.920999759977545</v>
+        <v>0.6470603212718188</v>
       </c>
       <c r="G5">
-        <v>0.741140206547962</v>
+        <v>0.6065585590342838</v>
       </c>
       <c r="H5">
-        <v>0.8724840532559192</v>
+        <v>0.5811019358918308</v>
       </c>
       <c r="I5">
-        <v>0.8513298230268407</v>
+        <v>0.7557109880236249</v>
       </c>
       <c r="J5">
-        <v>0.8803344163717545</v>
+        <v>0.6756199568603417</v>
       </c>
       <c r="K5">
-        <v>0.9398013421540989</v>
+        <v>0.6507464568010815</v>
       </c>
       <c r="L5">
-        <v>0.8622175694739966</v>
+        <v>0.5659725840502237</v>
       </c>
       <c r="M5">
-        <v>0.7852422127866618</v>
+        <v>0.4915814297570404</v>
       </c>
       <c r="N5">
-        <v>0.8499868662755236</v>
+        <v>0.460553065552822</v>
       </c>
       <c r="O5">
-        <v>0.7896505125588796</v>
+        <v>0.6551678805816423</v>
       </c>
       <c r="P5">
-        <v>0.6854683744840343</v>
+        <v>0.1011789198603234</v>
       </c>
       <c r="Q5">
-        <v>0.8902020374183097</v>
+        <v>0.7702892471303129</v>
       </c>
       <c r="R5">
-        <v>0.8676864711329754</v>
+        <v>0.7163636140294989</v>
       </c>
       <c r="S5">
-        <v>0.8574317638861547</v>
+        <v>0.426725529270343</v>
       </c>
       <c r="T5">
-        <v>0.867694892360221</v>
+        <v>0.9949780823422567</v>
       </c>
       <c r="U5">
-        <v>0.8749989114765283</v>
+        <v>0.8264787636727082</v>
       </c>
       <c r="V5">
-        <v>0.6058739926759943</v>
+        <v>0.3880188783771926</v>
       </c>
       <c r="W5">
-        <v>0.7235175011360466</v>
+        <v>0.750190448133441</v>
       </c>
       <c r="X5">
-        <v>0.876605380962899</v>
+        <v>0.9792933758568542</v>
       </c>
       <c r="Y5">
-        <v>0.7930734288068834</v>
+        <v>0.9860706789068332</v>
       </c>
       <c r="Z5">
-        <v>0.8637790621338944</v>
+        <v>0.946644291658019</v>
       </c>
       <c r="AA5">
-        <v>0.8778133623998353</v>
+        <v>0.945209090978701</v>
       </c>
       <c r="AB5">
-        <v>0.8525784225639524</v>
+        <v>0.7967938974799793</v>
       </c>
       <c r="AC5">
-        <v>0.7405443707755353</v>
+        <v>0.8942296484523555</v>
       </c>
       <c r="AD5">
-        <v>0.767283274945383</v>
+        <v>0.9299416840596972</v>
       </c>
       <c r="AE5">
-        <v>0.8129393864456946</v>
+        <v>0.8996474437540808</v>
       </c>
       <c r="AF5">
-        <v>0.7214345976675365</v>
+        <v>0.8917045863183034</v>
       </c>
       <c r="AG5">
-        <v>0.9958356933390806</v>
+        <v>0.9767661215941241</v>
       </c>
       <c r="AH5">
-        <v>0.7634176766042062</v>
+        <v>0.9596965613498099</v>
       </c>
       <c r="AI5">
-        <v>0.751045449146467</v>
+        <v>0.9761750078370678</v>
       </c>
       <c r="AJ5">
-        <v>0.6690945503595254</v>
+        <v>0.8324397708264281</v>
       </c>
       <c r="AK5">
-        <v>0.6831829229391559</v>
+        <v>0.9639652148748797</v>
       </c>
       <c r="AL5">
-        <v>0.4174708719467363</v>
+        <v>0.9713085563037095</v>
       </c>
       <c r="AM5">
-        <v>0.7058474570867243</v>
+        <v>0.9802658632287168</v>
       </c>
       <c r="AN5">
-        <v>0.679454509411488</v>
+        <v>0.9293736450890819</v>
       </c>
       <c r="AO5">
-        <v>0.8985926497024264</v>
+        <v>0.9128092120920176</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -1163,124 +1163,124 @@
         <v>45</v>
       </c>
       <c r="B6">
-        <v>0.9823603415671543</v>
+        <v>0.5763002690001873</v>
       </c>
       <c r="C6">
-        <v>0.8323328648792961</v>
+        <v>0.1509040302627476</v>
       </c>
       <c r="D6">
-        <v>0.9684425139238126</v>
+        <v>0.7094320214154125</v>
       </c>
       <c r="E6">
-        <v>0.983859480916041</v>
+        <v>0.8494942872920824</v>
       </c>
       <c r="F6">
-        <v>0.9493687114023108</v>
+        <v>0.747518764833685</v>
       </c>
       <c r="G6">
-        <v>0.9658537218108084</v>
+        <v>0.728553381410982</v>
       </c>
       <c r="H6">
-        <v>0.9653804604710907</v>
+        <v>0.6446538586077919</v>
       </c>
       <c r="I6">
-        <v>0.9315257355530117</v>
+        <v>0.8463454078398613</v>
       </c>
       <c r="J6">
-        <v>0.9259295412596649</v>
+        <v>0.630293903235066</v>
       </c>
       <c r="K6">
-        <v>0.9130331080342484</v>
+        <v>0.7599587884689654</v>
       </c>
       <c r="L6">
-        <v>0.9527659768223163</v>
+        <v>0.7222776206378457</v>
       </c>
       <c r="M6">
-        <v>0.9823546819344671</v>
+        <v>0.6159121842928418</v>
       </c>
       <c r="N6">
-        <v>0.9668986065590558</v>
+        <v>0.5957094803653631</v>
       </c>
       <c r="O6">
-        <v>0.9336089849857112</v>
+        <v>0.7802188139453018</v>
       </c>
       <c r="P6">
-        <v>0.8279423570253853</v>
+        <v>0.2583348069012583</v>
       </c>
       <c r="Q6">
-        <v>0.9190584730291876</v>
+        <v>0.8648143905326588</v>
       </c>
       <c r="R6">
-        <v>0.9420770112187601</v>
+        <v>0.8239408870185977</v>
       </c>
       <c r="S6">
-        <v>0.9457629277402532</v>
+        <v>0.5704938129950627</v>
       </c>
       <c r="T6">
-        <v>0.8737579767494699</v>
+        <v>0.9864831218306703</v>
       </c>
       <c r="U6">
-        <v>0.9664648737849572</v>
+        <v>0.8173122958085203</v>
       </c>
       <c r="V6">
-        <v>0.8384901234459304</v>
+        <v>0.5628215627825075</v>
       </c>
       <c r="W6">
-        <v>0.9913143065821597</v>
+        <v>0.8235146947682388</v>
       </c>
       <c r="X6">
-        <v>0.8549295137151761</v>
+        <v>0.9909410306802056</v>
       </c>
       <c r="Y6">
-        <v>0.780978628444872</v>
+        <v>0.9483640541706445</v>
       </c>
       <c r="Z6">
-        <v>0.9637098369464486</v>
+        <v>0.8560833212576253</v>
       </c>
       <c r="AA6">
-        <v>0.9516819273047257</v>
+        <v>0.9785691190742035</v>
       </c>
       <c r="AB6">
-        <v>0.9324990501553685</v>
+        <v>0.6640372915263519</v>
       </c>
       <c r="AC6">
-        <v>0.8834005443647571</v>
+        <v>0.7793976518951666</v>
       </c>
       <c r="AD6">
-        <v>0.9959669503786658</v>
+        <v>0.8385032555619233</v>
       </c>
       <c r="AE6">
-        <v>0.9310559789057746</v>
+        <v>0.9469541173830998</v>
       </c>
       <c r="AF6">
-        <v>0.7802781304915996</v>
+        <v>0.9512002893158846</v>
       </c>
       <c r="AG6">
-        <v>0.7769571334237656</v>
+        <v>0.9933661885032593</v>
       </c>
       <c r="AH6">
-        <v>0.8600840840846889</v>
+        <v>0.8788746687318554</v>
       </c>
       <c r="AI6">
-        <v>0.9316428553006937</v>
+        <v>0.9409500269951113</v>
       </c>
       <c r="AJ6">
-        <v>0.8325182643817112</v>
+        <v>0.9073239652864425</v>
       </c>
       <c r="AK6">
-        <v>0.7906891146773316</v>
+        <v>0.9246425666286677</v>
       </c>
       <c r="AL6">
-        <v>0.6976256605888601</v>
+        <v>0.9799943427949713</v>
       </c>
       <c r="AM6">
-        <v>0.9682329173164447</v>
+        <v>0.9392674312139152</v>
       </c>
       <c r="AN6">
-        <v>0.6933461282013906</v>
+        <v>0.8553594697065056</v>
       </c>
       <c r="AO6">
-        <v>0.7921775332604346</v>
+        <v>0.8276997035773639</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1288,124 +1288,124 @@
         <v>46</v>
       </c>
       <c r="B7">
-        <v>0.9865235378216725</v>
+        <v>0.7768653484218555</v>
       </c>
       <c r="C7">
-        <v>0.8530037052160759</v>
+        <v>0.3863688769798311</v>
       </c>
       <c r="D7">
-        <v>0.9690511245435697</v>
+        <v>0.9209567804087381</v>
       </c>
       <c r="E7">
-        <v>0.9862677644881256</v>
+        <v>0.7643131165454163</v>
       </c>
       <c r="F7">
-        <v>0.9624225802427891</v>
+        <v>0.8460043773303547</v>
       </c>
       <c r="G7">
-        <v>0.9668580940217771</v>
+        <v>0.8800413191184598</v>
       </c>
       <c r="H7">
-        <v>0.9730374551045358</v>
+        <v>0.6799571873549169</v>
       </c>
       <c r="I7">
-        <v>0.9414146291559924</v>
+        <v>0.8970768818436706</v>
       </c>
       <c r="J7">
-        <v>0.9342070970324322</v>
+        <v>0.3783625008631828</v>
       </c>
       <c r="K7">
-        <v>0.9289878481881786</v>
+        <v>0.8730794793533013</v>
       </c>
       <c r="L7">
-        <v>0.9603868861587948</v>
+        <v>0.9609313657888421</v>
       </c>
       <c r="M7">
-        <v>0.9822255076500236</v>
+        <v>0.802723356567317</v>
       </c>
       <c r="N7">
-        <v>0.9748755531875664</v>
+        <v>0.8155588268484929</v>
       </c>
       <c r="O7">
-        <v>0.9385279849271601</v>
+        <v>0.9279146004978868</v>
       </c>
       <c r="P7">
-        <v>0.832210241632925</v>
+        <v>0.6059073377649059</v>
       </c>
       <c r="Q7">
-        <v>0.9283861633562027</v>
+        <v>0.9204620099942803</v>
       </c>
       <c r="R7">
-        <v>0.9531287524812662</v>
+        <v>0.9251728473704866</v>
       </c>
       <c r="S7">
-        <v>0.9543847426720231</v>
+        <v>0.8157707969826583</v>
       </c>
       <c r="T7">
-        <v>0.8853432559244897</v>
+        <v>0.7570245132157829</v>
       </c>
       <c r="U7">
-        <v>0.9745534029476951</v>
+        <v>0.6351677758288929</v>
       </c>
       <c r="V7">
-        <v>0.8373132458078176</v>
+        <v>0.885201023851101</v>
       </c>
       <c r="W7">
-        <v>0.9870858100940194</v>
+        <v>0.8412884300329367</v>
       </c>
       <c r="X7">
-        <v>0.870067460229597</v>
+        <v>0.8070003750495237</v>
       </c>
       <c r="Y7">
-        <v>0.7972242130276255</v>
+        <v>0.655918602092082</v>
       </c>
       <c r="Z7">
-        <v>0.9727428616012015</v>
+        <v>0.4487642710239996</v>
       </c>
       <c r="AA7">
-        <v>0.9593931630841063</v>
+        <v>0.8519440499326193</v>
       </c>
       <c r="AB7">
-        <v>0.9414573670044128</v>
+        <v>0.1878894548751243</v>
       </c>
       <c r="AC7">
-        <v>0.8861395189545024</v>
+        <v>0.3256886475533938</v>
       </c>
       <c r="AD7">
-        <v>0.9967355448823647</v>
+        <v>0.4280314078603328</v>
       </c>
       <c r="AE7">
-        <v>0.9360606395160792</v>
+        <v>0.8672105123893161</v>
       </c>
       <c r="AF7">
-        <v>0.7908068960116348</v>
+        <v>0.9019756991951601</v>
       </c>
       <c r="AG7">
-        <v>0.8043105310209239</v>
+        <v>0.823607373909657</v>
       </c>
       <c r="AH7">
-        <v>0.8666936988568698</v>
+        <v>0.4933074198548305</v>
       </c>
       <c r="AI7">
-        <v>0.9360250604523541</v>
+        <v>0.6586068760489682</v>
       </c>
       <c r="AJ7">
-        <v>0.8331924802988753</v>
+        <v>0.9078311989443399</v>
       </c>
       <c r="AK7">
-        <v>0.7946661521619814</v>
+        <v>0.6362752446207752</v>
       </c>
       <c r="AL7">
-        <v>0.6909656490314788</v>
+        <v>0.7977440550794045</v>
       </c>
       <c r="AM7">
-        <v>0.9659551579293674</v>
+        <v>0.6424285360497544</v>
       </c>
       <c r="AN7">
-        <v>0.7075769725829651</v>
+        <v>0.489470910190157</v>
       </c>
       <c r="AO7">
-        <v>0.8086401678177327</v>
+        <v>0.4474397718087122</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1413,124 +1413,124 @@
         <v>47</v>
       </c>
       <c r="B8">
-        <v>0.9982311109227633</v>
+        <v>-0.2723866729165059</v>
       </c>
       <c r="C8">
-        <v>0.8495217033441061</v>
+        <v>-0.598692955228356</v>
       </c>
       <c r="D8">
-        <v>0.9744696074949353</v>
+        <v>-0.1269429678653538</v>
       </c>
       <c r="E8">
-        <v>0.9703383506125854</v>
+        <v>0.268329722216997</v>
       </c>
       <c r="F8">
-        <v>0.9791210499709379</v>
+        <v>-0.03994511512205248</v>
       </c>
       <c r="G8">
-        <v>0.9299140041678911</v>
+        <v>-0.08402361992018981</v>
       </c>
       <c r="H8">
-        <v>0.9732399304484424</v>
+        <v>-0.07516619883590155</v>
       </c>
       <c r="I8">
-        <v>0.9224801333027545</v>
+        <v>0.1119757337234492</v>
       </c>
       <c r="J8">
-        <v>0.9459595935846744</v>
+        <v>0.8723813495281799</v>
       </c>
       <c r="K8">
-        <v>0.9406815704777483</v>
+        <v>-0.02814251490655877</v>
       </c>
       <c r="L8">
-        <v>0.9521694484090925</v>
+        <v>-0.08898097407470279</v>
       </c>
       <c r="M8">
-        <v>0.9749228061135919</v>
+        <v>-0.2283541542652338</v>
       </c>
       <c r="N8">
-        <v>0.9622582161284924</v>
+        <v>-0.256598884592212</v>
       </c>
       <c r="O8">
-        <v>0.9057995457255297</v>
+        <v>-0.01706584743709503</v>
       </c>
       <c r="P8">
-        <v>0.7748248301175906</v>
+        <v>-0.5956081222766951</v>
       </c>
       <c r="Q8">
-        <v>0.942223641828574</v>
+        <v>0.1370527342976097</v>
       </c>
       <c r="R8">
-        <v>0.9409778860929373</v>
+        <v>0.08806015392814474</v>
       </c>
       <c r="S8">
-        <v>0.9399971179165555</v>
+        <v>-0.2955141314148143</v>
       </c>
       <c r="T8">
-        <v>0.8733813241161839</v>
+        <v>0.6833529046791706</v>
       </c>
       <c r="U8">
-        <v>0.9741916273525042</v>
+        <v>0.3741311085819672</v>
       </c>
       <c r="V8">
-        <v>0.7675677434219474</v>
+        <v>-0.2763220209429898</v>
       </c>
       <c r="W8">
-        <v>0.9727126703735468</v>
+        <v>0.1215641491521818</v>
       </c>
       <c r="X8">
-        <v>0.8553174120705599</v>
+        <v>0.6093133139818947</v>
       </c>
       <c r="Y8">
-        <v>0.7646790816066558</v>
+        <v>0.6929581620888012</v>
       </c>
       <c r="Z8">
-        <v>0.9636288177875623</v>
+        <v>0.8376728781793472</v>
       </c>
       <c r="AA8">
-        <v>0.9668084597166904</v>
+        <v>0.4951282780702645</v>
       </c>
       <c r="AB8">
-        <v>0.9239889954565268</v>
+        <v>0.9843487298018585</v>
       </c>
       <c r="AC8">
-        <v>0.8440705353680517</v>
+        <v>0.8940901442622513</v>
       </c>
       <c r="AD8">
-        <v>0.9775908293609694</v>
+        <v>0.8866197415666393</v>
       </c>
       <c r="AE8">
-        <v>0.9129729641497408</v>
+        <v>0.3657091587896851</v>
       </c>
       <c r="AF8">
-        <v>0.7410773998181727</v>
+        <v>0.3615355755762415</v>
       </c>
       <c r="AG8">
-        <v>0.8615641797279967</v>
+        <v>0.6549811731021727</v>
       </c>
       <c r="AH8">
-        <v>0.8256235016490522</v>
+        <v>0.8203521663737161</v>
       </c>
       <c r="AI8">
-        <v>0.8960142903966617</v>
+        <v>0.6711211705269593</v>
       </c>
       <c r="AJ8">
-        <v>0.7768738168565841</v>
+        <v>0.2537492655458232</v>
       </c>
       <c r="AK8">
-        <v>0.7405300709281122</v>
+        <v>0.6447018817750396</v>
       </c>
       <c r="AL8">
-        <v>0.5956218386239654</v>
+        <v>0.6046161275384715</v>
       </c>
       <c r="AM8">
-        <v>0.9244587715094612</v>
+        <v>0.7152487833717733</v>
       </c>
       <c r="AN8">
-        <v>0.6565931581650016</v>
+        <v>0.9094937294461418</v>
       </c>
       <c r="AO8">
-        <v>0.8784724495674069</v>
+        <v>0.8034377974678802</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1538,124 +1538,124 @@
         <v>48</v>
       </c>
       <c r="B9">
-        <v>0.9410725272673843</v>
+        <v>0.4225292875653101</v>
       </c>
       <c r="C9">
-        <v>0.9495378340850691</v>
+        <v>-0.02107326030434053</v>
       </c>
       <c r="D9">
-        <v>0.8967063502346798</v>
+        <v>0.543118430052982</v>
       </c>
       <c r="E9">
-        <v>0.9268702032384285</v>
+        <v>0.734178835502341</v>
       </c>
       <c r="F9">
-        <v>0.9896342887021595</v>
+        <v>0.6151410442516472</v>
       </c>
       <c r="G9">
-        <v>0.8978343828994061</v>
+        <v>0.5609279741735892</v>
       </c>
       <c r="H9">
-        <v>0.9564588899003187</v>
+        <v>0.5598098271589129</v>
       </c>
       <c r="I9">
-        <v>0.9451128140882052</v>
+        <v>0.7269968895447968</v>
       </c>
       <c r="J9">
-        <v>0.9256595872781693</v>
+        <v>0.7424127275165943</v>
       </c>
       <c r="K9">
-        <v>0.9819441526062713</v>
+        <v>0.6023667552442853</v>
       </c>
       <c r="L9">
-        <v>0.9445279908454678</v>
+        <v>0.5649336237238588</v>
       </c>
       <c r="M9">
-        <v>0.9029598578034003</v>
+        <v>0.4602664388895392</v>
       </c>
       <c r="N9">
-        <v>0.9606959025305682</v>
+        <v>0.4487489636705413</v>
       </c>
       <c r="O9">
-        <v>0.9029092872651717</v>
+        <v>0.6217152732591634</v>
       </c>
       <c r="P9">
-        <v>0.7998769637649947</v>
+        <v>0.08724167975851835</v>
       </c>
       <c r="Q9">
-        <v>0.9286583801553165</v>
+        <v>0.7454169271659734</v>
       </c>
       <c r="R9">
-        <v>0.9651475178255369</v>
+        <v>0.7278652927214659</v>
       </c>
       <c r="S9">
-        <v>0.9469678421986309</v>
+        <v>0.4092752884593702</v>
       </c>
       <c r="T9">
-        <v>0.9070054069807205</v>
+        <v>0.9911211716587642</v>
       </c>
       <c r="U9">
-        <v>0.9612878549405224</v>
+        <v>0.8352075281759166</v>
       </c>
       <c r="V9">
-        <v>0.7612488095035626</v>
+        <v>0.4062811311995067</v>
       </c>
       <c r="W9">
-        <v>0.8748144725966099</v>
+        <v>0.7425022609277118</v>
       </c>
       <c r="X9">
-        <v>0.9212152323326024</v>
+        <v>0.9494869923885042</v>
       </c>
       <c r="Y9">
-        <v>0.8629868871673979</v>
+        <v>0.9695200472057242</v>
       </c>
       <c r="Z9">
-        <v>0.9671365686334611</v>
+        <v>0.9217186269150727</v>
       </c>
       <c r="AA9">
-        <v>0.9443333018179533</v>
+        <v>0.9082970771942249</v>
       </c>
       <c r="AB9">
-        <v>0.9377473640535905</v>
+        <v>0.7915912984639422</v>
       </c>
       <c r="AC9">
-        <v>0.8373458072750316</v>
+        <v>0.8645908425794969</v>
       </c>
       <c r="AD9">
-        <v>0.9234575776038303</v>
+        <v>0.8963094620115599</v>
       </c>
       <c r="AE9">
-        <v>0.9013203844030446</v>
+        <v>0.8756290220138143</v>
       </c>
       <c r="AF9">
-        <v>0.8115902437993737</v>
+        <v>0.886878003878766</v>
       </c>
       <c r="AG9">
-        <v>0.9579008584234344</v>
+        <v>0.9836547849767838</v>
       </c>
       <c r="AH9">
-        <v>0.8502478849713894</v>
+        <v>0.949607135670543</v>
       </c>
       <c r="AI9">
-        <v>0.896334542126081</v>
+        <v>0.9714569787092864</v>
       </c>
       <c r="AJ9">
-        <v>0.7721855621544748</v>
+        <v>0.8320837355118634</v>
       </c>
       <c r="AK9">
-        <v>0.7630085763674347</v>
+        <v>0.9532927948511077</v>
       </c>
       <c r="AL9">
-        <v>0.5829265240578173</v>
+        <v>0.9812135470372205</v>
       </c>
       <c r="AM9">
-        <v>0.870886875267874</v>
+        <v>0.9816472202344536</v>
       </c>
       <c r="AN9">
-        <v>0.7644476557439074</v>
+        <v>0.951199207443825</v>
       </c>
       <c r="AO9">
-        <v>0.8752283280366476</v>
+        <v>0.9362301977433565</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1663,124 +1663,124 @@
         <v>49</v>
       </c>
       <c r="B10">
-        <v>0.819468891754712</v>
+        <v>0.5811052861881995</v>
       </c>
       <c r="C10">
-        <v>0.722077884851081</v>
+        <v>0.1441445403492324</v>
       </c>
       <c r="D10">
-        <v>0.8013589716197733</v>
+        <v>0.6838454207070389</v>
       </c>
       <c r="E10">
-        <v>0.7304279809958311</v>
+        <v>0.800019711597778</v>
       </c>
       <c r="F10">
-        <v>0.8670236314604427</v>
+        <v>0.7451707958602865</v>
       </c>
       <c r="G10">
-        <v>0.6154856153218901</v>
+        <v>0.6929573510379791</v>
       </c>
       <c r="H10">
-        <v>0.8060860656177814</v>
+        <v>0.6891181928674085</v>
       </c>
       <c r="I10">
-        <v>0.7084488548288793</v>
+        <v>0.8356604700079919</v>
       </c>
       <c r="J10">
-        <v>0.8408014485413601</v>
+        <v>0.6390407198374474</v>
       </c>
       <c r="K10">
-        <v>0.8437756089174755</v>
+        <v>0.7265939717573798</v>
       </c>
       <c r="L10">
-        <v>0.7683077622667671</v>
+        <v>0.6991369701174989</v>
       </c>
       <c r="M10">
-        <v>0.7572863492010748</v>
+        <v>0.6136760880582524</v>
       </c>
       <c r="N10">
-        <v>0.744343754499101</v>
+        <v>0.6079214500616333</v>
       </c>
       <c r="O10">
-        <v>0.6414101159834545</v>
+        <v>0.7465448466701218</v>
       </c>
       <c r="P10">
-        <v>0.4638945839417671</v>
+        <v>0.2724930172992485</v>
       </c>
       <c r="Q10">
-        <v>0.8486872809084911</v>
+        <v>0.850545201780942</v>
       </c>
       <c r="R10">
-        <v>0.7391634990182271</v>
+        <v>0.8434578825950211</v>
       </c>
       <c r="S10">
-        <v>0.737525681450117</v>
+        <v>0.5718322327918869</v>
       </c>
       <c r="T10">
-        <v>0.7260125230101168</v>
+        <v>0.9892051507556617</v>
       </c>
       <c r="U10">
-        <v>0.8040299164142821</v>
+        <v>0.8906309464898498</v>
       </c>
       <c r="V10">
-        <v>0.3912894051745494</v>
+        <v>0.5628327531886642</v>
       </c>
       <c r="W10">
-        <v>0.7087356102113885</v>
+        <v>0.8514469817226876</v>
       </c>
       <c r="X10">
-        <v>0.7014265807339942</v>
+        <v>0.9604704897842304</v>
       </c>
       <c r="Y10">
-        <v>0.5583961562809233</v>
+        <v>0.9607188655712474</v>
       </c>
       <c r="Z10">
-        <v>0.7605875527729199</v>
+        <v>0.8627720634889701</v>
       </c>
       <c r="AA10">
-        <v>0.831670005292901</v>
+        <v>0.9436167553666478</v>
       </c>
       <c r="AB10">
-        <v>0.719539254903604</v>
+        <v>0.666053739256907</v>
       </c>
       <c r="AC10">
-        <v>0.5754761435611517</v>
+        <v>0.7786652837837892</v>
       </c>
       <c r="AD10">
-        <v>0.7011374618772834</v>
+        <v>0.8186186555696776</v>
       </c>
       <c r="AE10">
-        <v>0.6908959957768069</v>
+        <v>0.9412368076518964</v>
       </c>
       <c r="AF10">
-        <v>0.4758911277397524</v>
+        <v>0.9558367610976313</v>
       </c>
       <c r="AG10">
-        <v>0.9546939191348222</v>
+        <v>0.9883196857362606</v>
       </c>
       <c r="AH10">
-        <v>0.5720457262629817</v>
+        <v>0.9009408036096864</v>
       </c>
       <c r="AI10">
-        <v>0.5892848174205099</v>
+        <v>0.9692039239105227</v>
       </c>
       <c r="AJ10">
-        <v>0.4748194090516178</v>
+        <v>0.9209432200357118</v>
       </c>
       <c r="AK10">
-        <v>0.4684812705219179</v>
+        <v>0.9550040166948603</v>
       </c>
       <c r="AL10">
-        <v>0.1645689318735137</v>
+        <v>0.9996481298177777</v>
       </c>
       <c r="AM10">
-        <v>0.5907494993833606</v>
+        <v>0.968883614403068</v>
       </c>
       <c r="AN10">
-        <v>0.4042501636197605</v>
+        <v>0.8776342351071879</v>
       </c>
       <c r="AO10">
-        <v>0.9810020326077493</v>
+        <v>0.8897637159611068</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1788,124 +1788,124 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>0.9475147445003508</v>
+        <v>0.7291308422005877</v>
       </c>
       <c r="C11">
-        <v>0.9327191667574102</v>
+        <v>0.3080311942673502</v>
       </c>
       <c r="D11">
-        <v>0.9493107209722003</v>
+        <v>0.8863084579634608</v>
       </c>
       <c r="E11">
-        <v>0.9727377401361559</v>
+        <v>0.7300132848882424</v>
       </c>
       <c r="F11">
-        <v>0.995236622150081</v>
+        <v>0.8090444578558212</v>
       </c>
       <c r="G11">
-        <v>0.9355966697041552</v>
+        <v>0.8376274377013584</v>
       </c>
       <c r="H11">
-        <v>0.9933406710375542</v>
+        <v>0.6428611291643694</v>
       </c>
       <c r="I11">
-        <v>0.9739057972133844</v>
+        <v>0.8708190853998987</v>
       </c>
       <c r="J11">
-        <v>0.9783770100949299</v>
+        <v>0.4553669306366573</v>
       </c>
       <c r="K11">
-        <v>0.9963558998337188</v>
+        <v>0.8321804701564369</v>
       </c>
       <c r="L11">
-        <v>0.9890187405573532</v>
+        <v>0.9387505510238484</v>
       </c>
       <c r="M11">
-        <v>0.9578554304009237</v>
+        <v>0.7561592471047238</v>
       </c>
       <c r="N11">
-        <v>0.9831860377756012</v>
+        <v>0.7754091952032568</v>
       </c>
       <c r="O11">
-        <v>0.952163180039226</v>
+        <v>0.8946418855515713</v>
       </c>
       <c r="P11">
-        <v>0.8575468774150253</v>
+        <v>0.5492190960350445</v>
       </c>
       <c r="Q11">
-        <v>0.9793748380804161</v>
+        <v>0.8977997760622379</v>
       </c>
       <c r="R11">
-        <v>0.9798865360201949</v>
+        <v>0.9140061231860688</v>
       </c>
       <c r="S11">
-        <v>0.9842376547238804</v>
+        <v>0.7720294068815857</v>
       </c>
       <c r="T11">
-        <v>0.9622864182740586</v>
+        <v>0.7778869411729624</v>
       </c>
       <c r="U11">
-        <v>0.9944999074164861</v>
+        <v>0.6365555579542251</v>
       </c>
       <c r="V11">
-        <v>0.8217167517207903</v>
+        <v>0.860672372904095</v>
       </c>
       <c r="W11">
-        <v>0.9273254138870202</v>
+        <v>0.8220808447560709</v>
       </c>
       <c r="X11">
-        <v>0.9529593559980567</v>
+        <v>0.8137117310675551</v>
       </c>
       <c r="Y11">
-        <v>0.8702090743326882</v>
+        <v>0.6710583627605312</v>
       </c>
       <c r="Z11">
-        <v>0.9873083535547156</v>
+        <v>0.4729085965107237</v>
       </c>
       <c r="AA11">
-        <v>0.9883122655824904</v>
+        <v>0.848007653884335</v>
       </c>
       <c r="AB11">
-        <v>0.9781415870529798</v>
+        <v>0.2373509462862011</v>
       </c>
       <c r="AC11">
-        <v>0.9138493287571378</v>
+        <v>0.3542642994554932</v>
       </c>
       <c r="AD11">
-        <v>0.9510618782380947</v>
+        <v>0.4548769382183493</v>
       </c>
       <c r="AE11">
-        <v>0.9639673806680612</v>
+        <v>0.8579168832532054</v>
       </c>
       <c r="AF11">
-        <v>0.8451076282859089</v>
+        <v>0.9004896729459979</v>
       </c>
       <c r="AG11">
-        <v>0.9244113058652029</v>
+        <v>0.848489430247982</v>
       </c>
       <c r="AH11">
-        <v>0.9116063392890567</v>
+        <v>0.521149222121452</v>
       </c>
       <c r="AI11">
-        <v>0.9248766597838578</v>
+        <v>0.6763520283612033</v>
       </c>
       <c r="AJ11">
-        <v>0.8585601103944484</v>
+        <v>0.9010436868207596</v>
       </c>
       <c r="AK11">
-        <v>0.8455021457641756</v>
+        <v>0.6494125383578957</v>
       </c>
       <c r="AL11">
-        <v>0.6634095502299808</v>
+        <v>0.8180301331649058</v>
       </c>
       <c r="AM11">
-        <v>0.9222776292359247</v>
+        <v>0.6661393461545012</v>
       </c>
       <c r="AN11">
-        <v>0.7710936827237324</v>
+        <v>0.5397791560164354</v>
       </c>
       <c r="AO11">
-        <v>0.8744688720118846</v>
+        <v>0.4871517194248827</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1913,124 +1913,124 @@
         <v>51</v>
       </c>
       <c r="B12">
-        <v>0.7488308366743737</v>
+        <v>0.6312722021390789</v>
       </c>
       <c r="C12">
-        <v>0.9539510202273871</v>
+        <v>0.1676757452444942</v>
       </c>
       <c r="D12">
-        <v>0.7636925853848214</v>
+        <v>0.7642000480573783</v>
       </c>
       <c r="E12">
-        <v>0.8820515125679358</v>
+        <v>0.7738953834615256</v>
       </c>
       <c r="F12">
-        <v>0.8571468422568622</v>
+        <v>0.7728500331308763</v>
       </c>
       <c r="G12">
-        <v>0.9176884411214433</v>
+        <v>0.7452380834716262</v>
       </c>
       <c r="H12">
-        <v>0.8829372991251531</v>
+        <v>0.6748479566254678</v>
       </c>
       <c r="I12">
-        <v>0.9622817872578986</v>
+        <v>0.8604130870992287</v>
       </c>
       <c r="J12">
-        <v>0.8399217489355679</v>
+        <v>0.6322986632129276</v>
       </c>
       <c r="K12">
-        <v>0.9123473058403025</v>
+        <v>0.7654648076267253</v>
       </c>
       <c r="L12">
-        <v>0.9167666738125204</v>
+        <v>0.8022716468417374</v>
       </c>
       <c r="M12">
-        <v>0.8148094206052685</v>
+        <v>0.6628017562683839</v>
       </c>
       <c r="N12">
-        <v>0.9215330161931579</v>
+        <v>0.6717422887531321</v>
       </c>
       <c r="O12">
-        <v>0.9601801705222492</v>
+        <v>0.8074246573035072</v>
       </c>
       <c r="P12">
-        <v>0.9814134142586818</v>
+        <v>0.3594635257355155</v>
       </c>
       <c r="Q12">
-        <v>0.8420704115170958</v>
+        <v>0.8824082782825976</v>
       </c>
       <c r="R12">
-        <v>0.9443498254896487</v>
+        <v>0.8938320785279499</v>
       </c>
       <c r="S12">
-        <v>0.9439283683219765</v>
+        <v>0.644529929841264</v>
       </c>
       <c r="T12">
-        <v>0.9568521449625862</v>
+        <v>0.9494244288504436</v>
       </c>
       <c r="U12">
-        <v>0.8885478868692556</v>
+        <v>0.8249689602164993</v>
       </c>
       <c r="V12">
-        <v>0.9481390977785968</v>
+        <v>0.6852549290093543</v>
       </c>
       <c r="W12">
-        <v>0.7756357543370831</v>
+        <v>0.8582704926677643</v>
       </c>
       <c r="X12">
-        <v>0.9842942608316178</v>
+        <v>0.9344996244454212</v>
       </c>
       <c r="Y12">
-        <v>0.9879141777109599</v>
+        <v>0.8862548210072432</v>
       </c>
       <c r="Z12">
-        <v>0.920394005481628</v>
+        <v>0.7500538381379783</v>
       </c>
       <c r="AA12">
-        <v>0.8545851814352624</v>
+        <v>0.930876383087589</v>
       </c>
       <c r="AB12">
-        <v>0.9564929941349657</v>
+        <v>0.5459522543111122</v>
       </c>
       <c r="AC12">
-        <v>0.9593929827147114</v>
+        <v>0.651469790424305</v>
       </c>
       <c r="AD12">
-        <v>0.851165227366235</v>
+        <v>0.7143031749048611</v>
       </c>
       <c r="AE12">
-        <v>0.9391648526546383</v>
+        <v>0.9325482190752434</v>
       </c>
       <c r="AF12">
-        <v>0.9921504177187483</v>
+        <v>0.9641657732302615</v>
       </c>
       <c r="AG12">
-        <v>0.7648357224278357</v>
+        <v>0.9786991883089696</v>
       </c>
       <c r="AH12">
-        <v>0.9851005325228948</v>
+        <v>0.7968753415385629</v>
       </c>
       <c r="AI12">
-        <v>0.9510212605144013</v>
+        <v>0.8965560735542182</v>
       </c>
       <c r="AJ12">
-        <v>0.9566018072172753</v>
+        <v>0.9398870571106972</v>
       </c>
       <c r="AK12">
-        <v>0.9692688908357669</v>
+        <v>0.8742995489661685</v>
       </c>
       <c r="AL12">
-        <v>0.8795553935192779</v>
+        <v>0.9730663829887602</v>
       </c>
       <c r="AM12">
-        <v>0.899031600868863</v>
+        <v>0.8958871544161587</v>
       </c>
       <c r="AN12">
-        <v>0.9620588803421625</v>
+        <v>0.8026773296125791</v>
       </c>
       <c r="AO12">
-        <v>0.5814123895288742</v>
+        <v>0.7864372962090106</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块.xlsx
+++ b/FOF/data/基金公司-板块.xlsx
@@ -16,160 +16,160 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
+    <t>前海开源</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>泓德</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>平安</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
     <t>上投摩根</t>
   </si>
   <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
     <t>招商</t>
   </si>
   <si>
-    <t>融通</t>
-  </si>
-  <si>
     <t>天弘</t>
   </si>
   <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>平安</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>泓德</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>前海开源</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
     <t>创业板综</t>
   </si>
   <si>
     <t>中证1000</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>上证50</t>
-  </si>
-  <si>
-    <t>中证100</t>
   </si>
 </sst>
 </file>
@@ -663,124 +663,124 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>0.3278473157853763</v>
+        <v>0.8022285969146157</v>
       </c>
       <c r="C2">
-        <v>0.0179174894603545</v>
+        <v>0.9672541144507015</v>
       </c>
       <c r="D2">
-        <v>0.4407321026401694</v>
+        <v>0.91463441540664</v>
       </c>
       <c r="E2">
-        <v>0.8156049820565294</v>
+        <v>0.9897042622272069</v>
       </c>
       <c r="F2">
-        <v>0.5388011448517462</v>
+        <v>0.9776778323334971</v>
       </c>
       <c r="G2">
-        <v>0.5237392283200175</v>
+        <v>0.9514230065986762</v>
       </c>
       <c r="H2">
-        <v>0.4594219864418455</v>
+        <v>0.9738666864483201</v>
       </c>
       <c r="I2">
-        <v>0.6512401363254539</v>
+        <v>0.9947493995959338</v>
       </c>
       <c r="J2">
-        <v>0.5965522060707983</v>
+        <v>0.9075099987766552</v>
       </c>
       <c r="K2">
-        <v>0.5749871331710853</v>
+        <v>0.9431082332809575</v>
       </c>
       <c r="L2">
-        <v>0.4122905307749947</v>
+        <v>0.9343225848117985</v>
       </c>
       <c r="M2">
-        <v>0.3760213198709804</v>
+        <v>0.9843008253729763</v>
       </c>
       <c r="N2">
-        <v>0.3106935777591563</v>
+        <v>0.9945042225845024</v>
       </c>
       <c r="O2">
-        <v>0.5545288416935564</v>
+        <v>0.9915951306249009</v>
       </c>
       <c r="P2">
-        <v>-0.03706709806573962</v>
+        <v>0.9810084245366707</v>
       </c>
       <c r="Q2">
-        <v>0.6615028805892468</v>
+        <v>0.974214775583497</v>
       </c>
       <c r="R2">
-        <v>0.5431969540474787</v>
+        <v>0.9675155718514336</v>
       </c>
       <c r="S2">
-        <v>0.2865185103000175</v>
+        <v>0.9706247174848307</v>
       </c>
       <c r="T2">
-        <v>0.9206057940781799</v>
+        <v>0.997771686991648</v>
       </c>
       <c r="U2">
-        <v>0.6952704482422903</v>
+        <v>0.9491332588950746</v>
       </c>
       <c r="V2">
-        <v>0.1984754603812293</v>
+        <v>0.9932346106504673</v>
       </c>
       <c r="W2">
-        <v>0.6101596101051867</v>
+        <v>0.9633778303153536</v>
       </c>
       <c r="X2">
-        <v>0.9390975795469273</v>
+        <v>0.9715429283092505</v>
       </c>
       <c r="Y2">
-        <v>0.9380293432038587</v>
+        <v>0.991041172182254</v>
       </c>
       <c r="Z2">
-        <v>0.9566701471377942</v>
+        <v>0.9934524134288936</v>
       </c>
       <c r="AA2">
-        <v>0.8995676965872054</v>
+        <v>0.9958042280825407</v>
       </c>
       <c r="AB2">
-        <v>0.8421543662235378</v>
+        <v>0.9806893768707324</v>
       </c>
       <c r="AC2">
-        <v>0.9386204169408459</v>
+        <v>0.9780018345628263</v>
       </c>
       <c r="AD2">
-        <v>0.9720339232171191</v>
+        <v>0.9918878324261595</v>
       </c>
       <c r="AE2">
-        <v>0.8107472199150323</v>
+        <v>0.977958314089186</v>
       </c>
       <c r="AF2">
-        <v>0.7692943528026194</v>
+        <v>0.9955902693892188</v>
       </c>
       <c r="AG2">
-        <v>0.8815915489351575</v>
+        <v>0.9701214984840906</v>
       </c>
       <c r="AH2">
-        <v>0.9355730185999717</v>
+        <v>0.9471669765104006</v>
       </c>
       <c r="AI2">
-        <v>0.9037417340822086</v>
+        <v>0.9146035939979071</v>
       </c>
       <c r="AJ2">
-        <v>0.6909772407232592</v>
+        <v>0.9919143167380735</v>
       </c>
       <c r="AK2">
-        <v>0.8987767426248131</v>
+        <v>0.980011900995516</v>
       </c>
       <c r="AL2">
-        <v>0.8592229344710828</v>
+        <v>0.9824998832049768</v>
       </c>
       <c r="AM2">
-        <v>0.9062091260349104</v>
+        <v>0.9578640567737025</v>
       </c>
       <c r="AN2">
-        <v>0.876726993290013</v>
+        <v>0.958363095451732</v>
       </c>
       <c r="AO2">
-        <v>0.8347918469681912</v>
+        <v>0.9584932259201376</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -788,124 +788,124 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>0.05729772559824771</v>
+        <v>0.8767656252113214</v>
       </c>
       <c r="C3">
-        <v>-0.3072452193313613</v>
+        <v>0.9740194658675199</v>
       </c>
       <c r="D3">
-        <v>0.2875641537325718</v>
+        <v>0.9537385177208679</v>
       </c>
       <c r="E3">
-        <v>0.5615250986406835</v>
+        <v>0.9963315507013148</v>
       </c>
       <c r="F3">
-        <v>0.2682258483043624</v>
+        <v>0.9777834555779447</v>
       </c>
       <c r="G3">
-        <v>0.3207273142523216</v>
+        <v>0.9269241466368113</v>
       </c>
       <c r="H3">
-        <v>0.07804142088455229</v>
+        <v>0.9804718680225389</v>
       </c>
       <c r="I3">
-        <v>0.4184132629856195</v>
+        <v>0.9853863874204243</v>
       </c>
       <c r="J3">
-        <v>0.776275128586566</v>
+        <v>0.9554161217316149</v>
       </c>
       <c r="K3">
-        <v>0.3533704997866208</v>
+        <v>0.9639155591705562</v>
       </c>
       <c r="L3">
-        <v>0.3304116500038364</v>
+        <v>0.9677743000082039</v>
       </c>
       <c r="M3">
-        <v>0.1141292541252384</v>
+        <v>0.9810474314184261</v>
       </c>
       <c r="N3">
-        <v>0.07033855901599563</v>
+        <v>0.9973632053800044</v>
       </c>
       <c r="O3">
-        <v>0.3862331678457923</v>
+        <v>0.995748396432375</v>
       </c>
       <c r="P3">
-        <v>-0.2589160831705565</v>
+        <v>0.9849761141537798</v>
       </c>
       <c r="Q3">
-        <v>0.4546288998459374</v>
+        <v>0.9769797952062912</v>
       </c>
       <c r="R3">
-        <v>0.3529929115702421</v>
+        <v>0.9857147174279509</v>
       </c>
       <c r="S3">
-        <v>0.06524808206059153</v>
+        <v>0.9829351977666838</v>
       </c>
       <c r="T3">
-        <v>0.7651526225777677</v>
+        <v>0.980890667077809</v>
       </c>
       <c r="U3">
-        <v>0.3347797866201839</v>
+        <v>0.9526470332957346</v>
       </c>
       <c r="V3">
-        <v>0.1178296587200939</v>
+        <v>0.9900090665071458</v>
       </c>
       <c r="W3">
-        <v>0.3225512595648257</v>
+        <v>0.9669134450557961</v>
       </c>
       <c r="X3">
-        <v>0.7975265434330792</v>
+        <v>0.9739719658933459</v>
       </c>
       <c r="Y3">
-        <v>0.7101111988705315</v>
+        <v>0.9816780147948901</v>
       </c>
       <c r="Z3">
-        <v>0.7532896533194237</v>
+        <v>0.9712158503743061</v>
       </c>
       <c r="AA3">
-        <v>0.7378104802875908</v>
+        <v>0.9988656486777341</v>
       </c>
       <c r="AB3">
-        <v>0.7848255410897315</v>
+        <v>0.9767422306897958</v>
       </c>
       <c r="AC3">
-        <v>0.7666521033859479</v>
+        <v>0.9794049072153487</v>
       </c>
       <c r="AD3">
-        <v>0.8407434584373169</v>
+        <v>0.9924793121019859</v>
       </c>
       <c r="AE3">
-        <v>0.5843094138679183</v>
+        <v>0.9817407145467246</v>
       </c>
       <c r="AF3">
-        <v>0.5754153510322566</v>
+        <v>0.9863832969741372</v>
       </c>
       <c r="AG3">
-        <v>0.789188997108626</v>
+        <v>0.9611522798548764</v>
       </c>
       <c r="AH3">
-        <v>0.7253000923728824</v>
+        <v>0.9569563845495291</v>
       </c>
       <c r="AI3">
-        <v>0.6617733632928825</v>
+        <v>0.9303083346681453</v>
       </c>
       <c r="AJ3">
-        <v>0.478784786604535</v>
+        <v>0.9862080177990205</v>
       </c>
       <c r="AK3">
-        <v>0.6277309579417888</v>
+        <v>0.9785833542256799</v>
       </c>
       <c r="AL3">
-        <v>0.6867113953216767</v>
+        <v>0.9657465222164135</v>
       </c>
       <c r="AM3">
-        <v>0.6871292704848418</v>
+        <v>0.9548426272616828</v>
       </c>
       <c r="AN3">
-        <v>0.7985237627504329</v>
+        <v>0.9442673067279069</v>
       </c>
       <c r="AO3">
-        <v>0.6140083689138187</v>
+        <v>0.9571352628333172</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -913,124 +913,124 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <v>0.5410664123869707</v>
+        <v>0.8539035402657127</v>
       </c>
       <c r="C4">
-        <v>0.1649698240315044</v>
+        <v>0.9409333054301566</v>
       </c>
       <c r="D4">
-        <v>0.651326098984336</v>
+        <v>0.9655058460362586</v>
       </c>
       <c r="E4">
-        <v>0.8838705886627594</v>
+        <v>0.9799078410057631</v>
       </c>
       <c r="F4">
-        <v>0.7245680481021936</v>
+        <v>0.9957538694394025</v>
       </c>
       <c r="G4">
-        <v>0.70001742342004</v>
+        <v>0.9601940973357208</v>
       </c>
       <c r="H4">
-        <v>0.6420144310709743</v>
+        <v>0.9968454981085855</v>
       </c>
       <c r="I4">
-        <v>0.821746634066951</v>
+        <v>0.99380419709158</v>
       </c>
       <c r="J4">
-        <v>0.5842169847001107</v>
+        <v>0.9517169880999964</v>
       </c>
       <c r="K4">
-        <v>0.7402479089431405</v>
+        <v>0.9843746003473597</v>
       </c>
       <c r="L4">
-        <v>0.6388151178504959</v>
+        <v>0.9773656557581831</v>
       </c>
       <c r="M4">
-        <v>0.5825928279795041</v>
+        <v>0.9963656528328469</v>
       </c>
       <c r="N4">
-        <v>0.5428529627499702</v>
+        <v>0.9977384391307399</v>
       </c>
       <c r="O4">
-        <v>0.7387196180475923</v>
+        <v>0.9993399413210001</v>
       </c>
       <c r="P4">
-        <v>0.2008849237963606</v>
+        <v>0.9985942439678658</v>
       </c>
       <c r="Q4">
-        <v>0.8336355294377595</v>
+        <v>0.9955446321167201</v>
       </c>
       <c r="R4">
-        <v>0.7614864771686154</v>
+        <v>0.9952023778303755</v>
       </c>
       <c r="S4">
-        <v>0.516365133873781</v>
+        <v>0.9966999724851713</v>
       </c>
       <c r="T4">
-        <v>0.9861269839010507</v>
+        <v>0.9834585575162474</v>
       </c>
       <c r="U4">
-        <v>0.8257044801895335</v>
+        <v>0.9821699511654418</v>
       </c>
       <c r="V4">
-        <v>0.4600555588123255</v>
+        <v>0.9977717419606814</v>
       </c>
       <c r="W4">
-        <v>0.7973877796490935</v>
+        <v>0.9905274860361587</v>
       </c>
       <c r="X4">
-        <v>0.9971266296871383</v>
+        <v>0.9941629737346052</v>
       </c>
       <c r="Y4">
-        <v>0.9764769340329377</v>
+        <v>0.9937810264485296</v>
       </c>
       <c r="Z4">
-        <v>0.9157856316547768</v>
+        <v>0.9780217715131679</v>
       </c>
       <c r="AA4">
-        <v>0.980453676103436</v>
+        <v>0.9937342220772326</v>
       </c>
       <c r="AB4">
-        <v>0.7247612944572563</v>
+        <v>0.99465806325878</v>
       </c>
       <c r="AC4">
-        <v>0.8534408902777205</v>
+        <v>0.9965176171821318</v>
       </c>
       <c r="AD4">
-        <v>0.8999340987275579</v>
+        <v>0.9991752832616314</v>
       </c>
       <c r="AE4">
-        <v>0.9382517669478579</v>
+        <v>0.9974922508589691</v>
       </c>
       <c r="AF4">
-        <v>0.9213235507645826</v>
+        <v>0.9937619849396738</v>
       </c>
       <c r="AG4">
-        <v>0.9690685291181342</v>
+        <v>0.9860951707687819</v>
       </c>
       <c r="AH4">
-        <v>0.9238714082244061</v>
+        <v>0.9839558577620656</v>
       </c>
       <c r="AI4">
-        <v>0.9609667982828738</v>
+        <v>0.9649308192075615</v>
       </c>
       <c r="AJ4">
-        <v>0.8689025640651115</v>
+        <v>0.9964636527864356</v>
       </c>
       <c r="AK4">
-        <v>0.952934735715418</v>
+        <v>0.9958781347244654</v>
       </c>
       <c r="AL4">
-        <v>0.963210071034737</v>
+        <v>0.9846055366387689</v>
       </c>
       <c r="AM4">
-        <v>0.9565004808894619</v>
+        <v>0.9835244193759409</v>
       </c>
       <c r="AN4">
-        <v>0.8670363935755725</v>
+        <v>0.9750497102483537</v>
       </c>
       <c r="AO4">
-        <v>0.8538869587779487</v>
+        <v>0.9849833123875814</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1038,124 +1038,124 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>0.4502969754872898</v>
+        <v>0.867751340753992</v>
       </c>
       <c r="C5">
-        <v>0.04703088579021145</v>
+        <v>0.917921837257022</v>
       </c>
       <c r="D5">
-        <v>0.5653910612491756</v>
+        <v>0.9801965839238623</v>
       </c>
       <c r="E5">
-        <v>0.8106741313428101</v>
+        <v>0.9651095546809246</v>
       </c>
       <c r="F5">
-        <v>0.6470603212718188</v>
+        <v>0.9956929957099874</v>
       </c>
       <c r="G5">
-        <v>0.6065585590342838</v>
+        <v>0.9572512887135314</v>
       </c>
       <c r="H5">
-        <v>0.5811019358918308</v>
+        <v>0.9988929780117725</v>
       </c>
       <c r="I5">
-        <v>0.7557109880236249</v>
+        <v>0.9845121688956967</v>
       </c>
       <c r="J5">
-        <v>0.6756199568603417</v>
+        <v>0.9625050614510056</v>
       </c>
       <c r="K5">
-        <v>0.6507464568010815</v>
+        <v>0.9950996499051182</v>
       </c>
       <c r="L5">
-        <v>0.5659725840502237</v>
+        <v>0.9882520790041647</v>
       </c>
       <c r="M5">
-        <v>0.4915814297570404</v>
+        <v>0.9933998384837005</v>
       </c>
       <c r="N5">
-        <v>0.460553065552822</v>
+        <v>0.9897783451175357</v>
       </c>
       <c r="O5">
-        <v>0.6551678805816423</v>
+        <v>0.9936202730116884</v>
       </c>
       <c r="P5">
-        <v>0.1011789198603234</v>
+        <v>0.997999581782235</v>
       </c>
       <c r="Q5">
-        <v>0.7702892471303129</v>
+        <v>0.9970000186657121</v>
       </c>
       <c r="R5">
-        <v>0.7163636140294989</v>
+        <v>0.998949931831418</v>
       </c>
       <c r="S5">
-        <v>0.426725529270343</v>
+        <v>0.9999822840077885</v>
       </c>
       <c r="T5">
-        <v>0.9949780823422567</v>
+        <v>0.9678204597446465</v>
       </c>
       <c r="U5">
-        <v>0.8264787636727082</v>
+        <v>0.9897769226747434</v>
       </c>
       <c r="V5">
-        <v>0.3880188783771926</v>
+        <v>0.9908851949668285</v>
       </c>
       <c r="W5">
-        <v>0.750190448133441</v>
+        <v>0.9949994926923063</v>
       </c>
       <c r="X5">
-        <v>0.9792933758568542</v>
+        <v>0.996322806552934</v>
       </c>
       <c r="Y5">
-        <v>0.9860706789068332</v>
+        <v>0.9864011440874586</v>
       </c>
       <c r="Z5">
-        <v>0.946644291658019</v>
+        <v>0.9622055783098935</v>
       </c>
       <c r="AA5">
-        <v>0.945209090978701</v>
+        <v>0.9830468326195072</v>
       </c>
       <c r="AB5">
-        <v>0.7967938974799793</v>
+        <v>0.9927415676709606</v>
       </c>
       <c r="AC5">
-        <v>0.8942296484523555</v>
+        <v>0.9965928206672106</v>
       </c>
       <c r="AD5">
-        <v>0.9299416840596972</v>
+        <v>0.9934527905886315</v>
       </c>
       <c r="AE5">
-        <v>0.8996474437540808</v>
+        <v>0.9979308846867946</v>
       </c>
       <c r="AF5">
-        <v>0.8917045863183034</v>
+        <v>0.9840019839186765</v>
       </c>
       <c r="AG5">
-        <v>0.9767661215941241</v>
+        <v>0.9856284309696423</v>
       </c>
       <c r="AH5">
-        <v>0.9596965613498099</v>
+        <v>0.9930822909494342</v>
       </c>
       <c r="AI5">
-        <v>0.9761750078370678</v>
+        <v>0.9808747553536032</v>
       </c>
       <c r="AJ5">
-        <v>0.8324397708264281</v>
+        <v>0.9897580472963554</v>
       </c>
       <c r="AK5">
-        <v>0.9639652148748797</v>
+        <v>0.9947698927751485</v>
       </c>
       <c r="AL5">
-        <v>0.9713085563037095</v>
+        <v>0.9774667783238382</v>
       </c>
       <c r="AM5">
-        <v>0.9802658632287168</v>
+        <v>0.9877188434834984</v>
       </c>
       <c r="AN5">
-        <v>0.9293736450890819</v>
+        <v>0.9753927252567345</v>
       </c>
       <c r="AO5">
-        <v>0.9128092120920176</v>
+        <v>0.9894856271237324</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -1163,124 +1163,124 @@
         <v>45</v>
       </c>
       <c r="B6">
-        <v>0.5763002690001873</v>
+        <v>0.8557705885576893</v>
       </c>
       <c r="C6">
-        <v>0.1509040302627476</v>
+        <v>0.9140739691146486</v>
       </c>
       <c r="D6">
-        <v>0.7094320214154125</v>
+        <v>0.9762363167759852</v>
       </c>
       <c r="E6">
-        <v>0.8494942872920824</v>
+        <v>0.9628529666260908</v>
       </c>
       <c r="F6">
-        <v>0.747518764833685</v>
+        <v>0.997544989481974</v>
       </c>
       <c r="G6">
-        <v>0.728553381410982</v>
+        <v>0.9638305427554695</v>
       </c>
       <c r="H6">
-        <v>0.6446538586077919</v>
+        <v>0.9997244777945095</v>
       </c>
       <c r="I6">
-        <v>0.8463454078398613</v>
+        <v>0.9867344622399385</v>
       </c>
       <c r="J6">
-        <v>0.630293903235066</v>
+        <v>0.955909834807722</v>
       </c>
       <c r="K6">
-        <v>0.7599587884689654</v>
+        <v>0.9944104401398159</v>
       </c>
       <c r="L6">
-        <v>0.7222776206378457</v>
+        <v>0.9848465899742488</v>
       </c>
       <c r="M6">
-        <v>0.6159121842928418</v>
+        <v>0.9954526516838951</v>
       </c>
       <c r="N6">
-        <v>0.5957094803653631</v>
+        <v>0.989608377253985</v>
       </c>
       <c r="O6">
-        <v>0.7802188139453018</v>
+        <v>0.9935794688781155</v>
       </c>
       <c r="P6">
-        <v>0.2583348069012583</v>
+        <v>0.9989257451768847</v>
       </c>
       <c r="Q6">
-        <v>0.8648143905326588</v>
+        <v>0.9985516030571258</v>
       </c>
       <c r="R6">
-        <v>0.8239408870185977</v>
+        <v>0.9975809944747372</v>
       </c>
       <c r="S6">
-        <v>0.5704938129950627</v>
+        <v>0.9998043536411765</v>
       </c>
       <c r="T6">
-        <v>0.9864831218306703</v>
+        <v>0.970498223139627</v>
       </c>
       <c r="U6">
-        <v>0.8173122958085203</v>
+        <v>0.9922556056994163</v>
       </c>
       <c r="V6">
-        <v>0.5628215627825075</v>
+        <v>0.9922245004402158</v>
       </c>
       <c r="W6">
-        <v>0.8235146947682388</v>
+        <v>0.9969214559923296</v>
       </c>
       <c r="X6">
-        <v>0.9909410306802056</v>
+        <v>0.9980719688152924</v>
       </c>
       <c r="Y6">
-        <v>0.9483640541706445</v>
+        <v>0.9889697672834399</v>
       </c>
       <c r="Z6">
-        <v>0.8560833212576253</v>
+        <v>0.9659980275295783</v>
       </c>
       <c r="AA6">
-        <v>0.9785691190742035</v>
+        <v>0.9823315494784718</v>
       </c>
       <c r="AB6">
-        <v>0.6640372915263519</v>
+        <v>0.995131115351918</v>
       </c>
       <c r="AC6">
-        <v>0.7793976518951666</v>
+        <v>0.9981905517961867</v>
       </c>
       <c r="AD6">
-        <v>0.8385032555619233</v>
+        <v>0.9941808035680768</v>
       </c>
       <c r="AE6">
-        <v>0.9469541173830998</v>
+        <v>0.9990821572349666</v>
       </c>
       <c r="AF6">
-        <v>0.9512002893158846</v>
+        <v>0.986105717030634</v>
       </c>
       <c r="AG6">
-        <v>0.9933661885032593</v>
+        <v>0.9893495354868241</v>
       </c>
       <c r="AH6">
-        <v>0.8788746687318554</v>
+        <v>0.9944835165520011</v>
       </c>
       <c r="AI6">
-        <v>0.9409500269951113</v>
+        <v>0.9821965862541658</v>
       </c>
       <c r="AJ6">
-        <v>0.9073239652864425</v>
+        <v>0.9916636972045982</v>
       </c>
       <c r="AK6">
-        <v>0.9246425666286677</v>
+        <v>0.9967639222842943</v>
       </c>
       <c r="AL6">
-        <v>0.9799943427949713</v>
+        <v>0.9816585939005915</v>
       </c>
       <c r="AM6">
-        <v>0.9392674312139152</v>
+        <v>0.9909941300510887</v>
       </c>
       <c r="AN6">
-        <v>0.8553594697065056</v>
+        <v>0.9803473432189267</v>
       </c>
       <c r="AO6">
-        <v>0.8276997035773639</v>
+        <v>0.9924599977600228</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1288,124 +1288,124 @@
         <v>46</v>
       </c>
       <c r="B7">
-        <v>0.7768653484218555</v>
+        <v>0.8748828868438789</v>
       </c>
       <c r="C7">
-        <v>0.3863688769798311</v>
+        <v>0.9092266710230463</v>
       </c>
       <c r="D7">
-        <v>0.9209567804087381</v>
+        <v>0.9850742586840775</v>
       </c>
       <c r="E7">
-        <v>0.7643131165454163</v>
+        <v>0.9588376278298757</v>
       </c>
       <c r="F7">
-        <v>0.8460043773303547</v>
+        <v>0.9934871102407364</v>
       </c>
       <c r="G7">
-        <v>0.8800413191184598</v>
+        <v>0.9526664516801328</v>
       </c>
       <c r="H7">
-        <v>0.6799571873549169</v>
+        <v>0.997746784036889</v>
       </c>
       <c r="I7">
-        <v>0.8970768818436706</v>
+        <v>0.9788749091151181</v>
       </c>
       <c r="J7">
-        <v>0.3783625008631828</v>
+        <v>0.9667796676714979</v>
       </c>
       <c r="K7">
-        <v>0.8730794793533013</v>
+        <v>0.997549658577557</v>
       </c>
       <c r="L7">
-        <v>0.9609313657888421</v>
+        <v>0.9915757767558975</v>
       </c>
       <c r="M7">
-        <v>0.802723356567317</v>
+        <v>0.9900871742834135</v>
       </c>
       <c r="N7">
-        <v>0.8155588268484929</v>
+        <v>0.9853225081790454</v>
       </c>
       <c r="O7">
-        <v>0.9279146004978868</v>
+        <v>0.989930548902056</v>
       </c>
       <c r="P7">
-        <v>0.6059073377649059</v>
+        <v>0.9958708219658878</v>
       </c>
       <c r="Q7">
-        <v>0.9204620099942803</v>
+        <v>0.9954295424826253</v>
       </c>
       <c r="R7">
-        <v>0.9251728473704866</v>
+        <v>0.9990701407057914</v>
       </c>
       <c r="S7">
-        <v>0.8157707969826583</v>
+        <v>0.9995799054229055</v>
       </c>
       <c r="T7">
-        <v>0.7570245132157829</v>
+        <v>0.9597795834815098</v>
       </c>
       <c r="U7">
-        <v>0.6351677758288929</v>
+        <v>0.9901697211904218</v>
       </c>
       <c r="V7">
-        <v>0.885201023851101</v>
+        <v>0.9863692211426921</v>
       </c>
       <c r="W7">
-        <v>0.8412884300329367</v>
+        <v>0.9944141764533044</v>
       </c>
       <c r="X7">
-        <v>0.8070003750495237</v>
+        <v>0.994949848793704</v>
       </c>
       <c r="Y7">
-        <v>0.655918602092082</v>
+        <v>0.981350139393839</v>
       </c>
       <c r="Z7">
-        <v>0.4487642710239996</v>
+        <v>0.9537795251317138</v>
       </c>
       <c r="AA7">
-        <v>0.8519440499326193</v>
+        <v>0.9777766502156627</v>
       </c>
       <c r="AB7">
-        <v>0.1878894548751243</v>
+        <v>0.9897099847557128</v>
       </c>
       <c r="AC7">
-        <v>0.3256886475533938</v>
+        <v>0.9945099588414045</v>
       </c>
       <c r="AD7">
-        <v>0.4280314078603328</v>
+        <v>0.9895347408599175</v>
       </c>
       <c r="AE7">
-        <v>0.8672105123893161</v>
+        <v>0.9961094824983285</v>
       </c>
       <c r="AF7">
-        <v>0.9019756991951601</v>
+        <v>0.9782313298306143</v>
       </c>
       <c r="AG7">
-        <v>0.823607373909657</v>
+        <v>0.982738944901258</v>
       </c>
       <c r="AH7">
-        <v>0.4933074198548305</v>
+        <v>0.9943383896441276</v>
       </c>
       <c r="AI7">
-        <v>0.6586068760489682</v>
+        <v>0.9846412010566451</v>
       </c>
       <c r="AJ7">
-        <v>0.9078311989443399</v>
+        <v>0.9851417509794265</v>
       </c>
       <c r="AK7">
-        <v>0.6362752446207752</v>
+        <v>0.9921445079995074</v>
       </c>
       <c r="AL7">
-        <v>0.7977440550794045</v>
+        <v>0.9720372129366261</v>
       </c>
       <c r="AM7">
-        <v>0.6424285360497544</v>
+        <v>0.9866444496318288</v>
       </c>
       <c r="AN7">
-        <v>0.489470910190157</v>
+        <v>0.9724479146123945</v>
       </c>
       <c r="AO7">
-        <v>0.4474397718087122</v>
+        <v>0.9886088102726961</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1413,124 +1413,124 @@
         <v>47</v>
       </c>
       <c r="B8">
-        <v>-0.2723866729165059</v>
+        <v>0.8845603854813811</v>
       </c>
       <c r="C8">
-        <v>-0.598692955228356</v>
+        <v>0.8999966726543601</v>
       </c>
       <c r="D8">
-        <v>-0.1269429678653538</v>
+        <v>0.9900495432761387</v>
       </c>
       <c r="E8">
-        <v>0.268329722216997</v>
+        <v>0.9516576649804394</v>
       </c>
       <c r="F8">
-        <v>-0.03994511512205248</v>
+        <v>0.9894144017791585</v>
       </c>
       <c r="G8">
-        <v>-0.08402361992018981</v>
+        <v>0.9448505479117679</v>
       </c>
       <c r="H8">
-        <v>-0.07516619883590155</v>
+        <v>0.9950620266291561</v>
       </c>
       <c r="I8">
-        <v>0.1119757337234492</v>
+        <v>0.9711116748282478</v>
       </c>
       <c r="J8">
-        <v>0.8723813495281799</v>
+        <v>0.9718647789282019</v>
       </c>
       <c r="K8">
-        <v>-0.02814251490655877</v>
+        <v>0.9990620453594425</v>
       </c>
       <c r="L8">
-        <v>-0.08898097407470279</v>
+        <v>0.9947573555496909</v>
       </c>
       <c r="M8">
-        <v>-0.2283541542652338</v>
+        <v>0.9848001856069238</v>
       </c>
       <c r="N8">
-        <v>-0.256598884592212</v>
+        <v>0.9794477622514315</v>
       </c>
       <c r="O8">
-        <v>-0.01706584743709503</v>
+        <v>0.9848201298380574</v>
       </c>
       <c r="P8">
-        <v>-0.5956081222766951</v>
+        <v>0.9921295053147304</v>
       </c>
       <c r="Q8">
-        <v>0.1370527342976097</v>
+        <v>0.992104618873187</v>
       </c>
       <c r="R8">
-        <v>0.08806015392814474</v>
+        <v>0.9983171649203048</v>
       </c>
       <c r="S8">
-        <v>-0.2955141314148143</v>
+        <v>0.9979510231282085</v>
       </c>
       <c r="T8">
-        <v>0.6833529046791706</v>
+        <v>0.9493886751119638</v>
       </c>
       <c r="U8">
-        <v>0.3741311085819672</v>
+        <v>0.9886618310280768</v>
       </c>
       <c r="V8">
-        <v>-0.2763220209429898</v>
+        <v>0.9800170149440977</v>
       </c>
       <c r="W8">
-        <v>0.1215641491521818</v>
+        <v>0.9920249371786836</v>
       </c>
       <c r="X8">
-        <v>0.6093133139818947</v>
+        <v>0.991779131702205</v>
       </c>
       <c r="Y8">
-        <v>0.6929581620888012</v>
+        <v>0.9741054019353157</v>
       </c>
       <c r="Z8">
-        <v>0.8376728781793472</v>
+        <v>0.9426862268642726</v>
       </c>
       <c r="AA8">
-        <v>0.4951282780702645</v>
+        <v>0.9712044103325749</v>
       </c>
       <c r="AB8">
-        <v>0.9843487298018585</v>
+        <v>0.9846268554059364</v>
       </c>
       <c r="AC8">
-        <v>0.8940901442622513</v>
+        <v>0.9906348705242152</v>
       </c>
       <c r="AD8">
-        <v>0.8866197415666393</v>
+        <v>0.9839744291478965</v>
       </c>
       <c r="AE8">
-        <v>0.3657091587896851</v>
+        <v>0.9926294172942431</v>
       </c>
       <c r="AF8">
-        <v>0.3615355755762415</v>
+        <v>0.9703610968598994</v>
       </c>
       <c r="AG8">
-        <v>0.6549811731021727</v>
+        <v>0.9774496566343893</v>
       </c>
       <c r="AH8">
-        <v>0.8203521663737161</v>
+        <v>0.9940276745535248</v>
       </c>
       <c r="AI8">
-        <v>0.6711211705269593</v>
+        <v>0.9870036161794623</v>
       </c>
       <c r="AJ8">
-        <v>0.2537492655458232</v>
+        <v>0.978530665717561</v>
       </c>
       <c r="AK8">
-        <v>0.6447018817750396</v>
+        <v>0.9875935869601822</v>
       </c>
       <c r="AL8">
-        <v>0.6046161275384715</v>
+        <v>0.9639620770321892</v>
       </c>
       <c r="AM8">
-        <v>0.7152487833717733</v>
+        <v>0.9833805173035691</v>
       </c>
       <c r="AN8">
-        <v>0.9094937294461418</v>
+        <v>0.966775900055128</v>
       </c>
       <c r="AO8">
-        <v>0.8034377974678802</v>
+        <v>0.9856324615359565</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1538,124 +1538,124 @@
         <v>48</v>
       </c>
       <c r="B9">
-        <v>0.4225292875653101</v>
+        <v>0.847919874446826</v>
       </c>
       <c r="C9">
-        <v>-0.02107326030434053</v>
+        <v>0.8586796892490889</v>
       </c>
       <c r="D9">
-        <v>0.543118430052982</v>
+        <v>0.9812934394602914</v>
       </c>
       <c r="E9">
-        <v>0.734178835502341</v>
+        <v>0.9228117062566997</v>
       </c>
       <c r="F9">
-        <v>0.6151410442516472</v>
+        <v>0.987766962349991</v>
       </c>
       <c r="G9">
-        <v>0.5609279741735892</v>
+        <v>0.9574883678922766</v>
       </c>
       <c r="H9">
-        <v>0.5598098271589129</v>
+        <v>0.9916910275079042</v>
       </c>
       <c r="I9">
-        <v>0.7269968895447968</v>
+        <v>0.9626576447510921</v>
       </c>
       <c r="J9">
-        <v>0.7424127275165943</v>
+        <v>0.9505741874582229</v>
       </c>
       <c r="K9">
-        <v>0.6023667552442853</v>
+        <v>0.998104731271527</v>
       </c>
       <c r="L9">
-        <v>0.5649336237238588</v>
+        <v>0.984499903774449</v>
       </c>
       <c r="M9">
-        <v>0.4602664388895392</v>
+        <v>0.9812956213689858</v>
       </c>
       <c r="N9">
-        <v>0.4487489636705413</v>
+        <v>0.9637673176119729</v>
       </c>
       <c r="O9">
-        <v>0.6217152732591634</v>
+        <v>0.9715484898943648</v>
       </c>
       <c r="P9">
-        <v>0.08724167975851835</v>
+        <v>0.9867520285218297</v>
       </c>
       <c r="Q9">
-        <v>0.7454169271659734</v>
+        <v>0.9907416515057321</v>
       </c>
       <c r="R9">
-        <v>0.7278652927214659</v>
+        <v>0.9887594849148269</v>
       </c>
       <c r="S9">
-        <v>0.4092752884593702</v>
+        <v>0.9921370577835049</v>
       </c>
       <c r="T9">
-        <v>0.9911211716587642</v>
+        <v>0.9370309167061343</v>
       </c>
       <c r="U9">
-        <v>0.8352075281759166</v>
+        <v>0.9960586727155627</v>
       </c>
       <c r="V9">
-        <v>0.4062811311995067</v>
+        <v>0.9705582527876929</v>
       </c>
       <c r="W9">
-        <v>0.7425022609277118</v>
+        <v>0.9946504876113226</v>
       </c>
       <c r="X9">
-        <v>0.9494869923885042</v>
+        <v>0.9917377418826143</v>
       </c>
       <c r="Y9">
-        <v>0.9695200472057242</v>
+        <v>0.9685441055179302</v>
       </c>
       <c r="Z9">
-        <v>0.9217186269150727</v>
+        <v>0.9341139891567493</v>
       </c>
       <c r="AA9">
-        <v>0.9082970771942249</v>
+        <v>0.9512512252883077</v>
       </c>
       <c r="AB9">
-        <v>0.7915912984639422</v>
+        <v>0.9832364023741249</v>
       </c>
       <c r="AC9">
-        <v>0.8645908425794969</v>
+        <v>0.9882117412815276</v>
       </c>
       <c r="AD9">
-        <v>0.8963094620115599</v>
+        <v>0.9733901985076844</v>
       </c>
       <c r="AE9">
-        <v>0.8756290220138143</v>
+        <v>0.988956699551483</v>
       </c>
       <c r="AF9">
-        <v>0.886878003878766</v>
+        <v>0.9610812953362339</v>
       </c>
       <c r="AG9">
-        <v>0.9836547849767838</v>
+        <v>0.9820598962135199</v>
       </c>
       <c r="AH9">
-        <v>0.949607135670543</v>
+        <v>0.9989782912866458</v>
       </c>
       <c r="AI9">
-        <v>0.9714569787092864</v>
+        <v>0.997825692085367</v>
       </c>
       <c r="AJ9">
-        <v>0.8320837355118634</v>
+        <v>0.9712221247001308</v>
       </c>
       <c r="AK9">
-        <v>0.9532927948511077</v>
+        <v>0.9855208464955232</v>
       </c>
       <c r="AL9">
-        <v>0.9812135470372205</v>
+        <v>0.9643634901472793</v>
       </c>
       <c r="AM9">
-        <v>0.9816472202344536</v>
+        <v>0.9905513163301898</v>
       </c>
       <c r="AN9">
-        <v>0.951199207443825</v>
+        <v>0.976501315414437</v>
       </c>
       <c r="AO9">
-        <v>0.9362301977433565</v>
+        <v>0.9920098724893132</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1663,124 +1663,124 @@
         <v>49</v>
       </c>
       <c r="B10">
-        <v>0.5811052861881995</v>
+        <v>0.8536581307121022</v>
       </c>
       <c r="C10">
-        <v>0.1441445403492324</v>
+        <v>0.8839773469331993</v>
       </c>
       <c r="D10">
-        <v>0.6838454207070389</v>
+        <v>0.9813354878973249</v>
       </c>
       <c r="E10">
-        <v>0.800019711597778</v>
+        <v>0.9416563567969064</v>
       </c>
       <c r="F10">
-        <v>0.7451707958602865</v>
+        <v>0.9937092466431376</v>
       </c>
       <c r="G10">
-        <v>0.6929573510379791</v>
+        <v>0.9616200354471864</v>
       </c>
       <c r="H10">
-        <v>0.6891181928674085</v>
+        <v>0.9969701519070535</v>
       </c>
       <c r="I10">
-        <v>0.8356604700079919</v>
+        <v>0.9745594155902932</v>
       </c>
       <c r="J10">
-        <v>0.6390407198374474</v>
+        <v>0.9551087254512209</v>
       </c>
       <c r="K10">
-        <v>0.7265939717573798</v>
+        <v>0.9985458441508342</v>
       </c>
       <c r="L10">
-        <v>0.6991369701174989</v>
+        <v>0.9867925585325532</v>
       </c>
       <c r="M10">
-        <v>0.6136760880582524</v>
+        <v>0.9890598045898539</v>
       </c>
       <c r="N10">
-        <v>0.6079214500616333</v>
+        <v>0.976568275125686</v>
       </c>
       <c r="O10">
-        <v>0.7465448466701218</v>
+        <v>0.9827490641323539</v>
       </c>
       <c r="P10">
-        <v>0.2724930172992485</v>
+        <v>0.993762113698678</v>
       </c>
       <c r="Q10">
-        <v>0.850545201780942</v>
+        <v>0.9958786572376634</v>
       </c>
       <c r="R10">
-        <v>0.8434578825950211</v>
+        <v>0.9945058032173815</v>
       </c>
       <c r="S10">
-        <v>0.5718322327918869</v>
+        <v>0.9973270253521636</v>
       </c>
       <c r="T10">
-        <v>0.9892051507556617</v>
+        <v>0.9528150257871019</v>
       </c>
       <c r="U10">
-        <v>0.8906309464898498</v>
+        <v>0.9962476509165706</v>
       </c>
       <c r="V10">
-        <v>0.5628327531886642</v>
+        <v>0.9815149101137771</v>
       </c>
       <c r="W10">
-        <v>0.8514469817226876</v>
+        <v>0.9974347403376284</v>
       </c>
       <c r="X10">
-        <v>0.9604704897842304</v>
+        <v>0.9962415124857836</v>
       </c>
       <c r="Y10">
-        <v>0.9607188655712474</v>
+        <v>0.9788949636492014</v>
       </c>
       <c r="Z10">
-        <v>0.8627720634889701</v>
+        <v>0.9491532786013713</v>
       </c>
       <c r="AA10">
-        <v>0.9436167553666478</v>
+        <v>0.9662727946076546</v>
       </c>
       <c r="AB10">
-        <v>0.666053739256907</v>
+        <v>0.990028472785432</v>
       </c>
       <c r="AC10">
-        <v>0.7786652837837892</v>
+        <v>0.9942558347812285</v>
       </c>
       <c r="AD10">
-        <v>0.8186186555696776</v>
+        <v>0.9840220159795191</v>
       </c>
       <c r="AE10">
-        <v>0.9412368076518964</v>
+        <v>0.9950926212516019</v>
       </c>
       <c r="AF10">
-        <v>0.9558367610976313</v>
+        <v>0.973387318323205</v>
       </c>
       <c r="AG10">
-        <v>0.9883196857362606</v>
+        <v>0.9868218832775643</v>
       </c>
       <c r="AH10">
-        <v>0.9009408036096864</v>
+        <v>0.9989499588190903</v>
       </c>
       <c r="AI10">
-        <v>0.9692039239105227</v>
+        <v>0.9931028564961192</v>
       </c>
       <c r="AJ10">
-        <v>0.9209432200357118</v>
+        <v>0.9816272660880351</v>
       </c>
       <c r="AK10">
-        <v>0.9550040166948603</v>
+        <v>0.992067732068269</v>
       </c>
       <c r="AL10">
-        <v>0.9996481298177777</v>
+        <v>0.9732818246167273</v>
       </c>
       <c r="AM10">
-        <v>0.968883614403068</v>
+        <v>0.992469886639568</v>
       </c>
       <c r="AN10">
-        <v>0.8776342351071879</v>
+        <v>0.9797208857565244</v>
       </c>
       <c r="AO10">
-        <v>0.8897637159611068</v>
+        <v>0.9939535954401092</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1788,124 +1788,124 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>0.7291308422005877</v>
+        <v>0.8759325460436735</v>
       </c>
       <c r="C11">
-        <v>0.3080311942673502</v>
+        <v>0.8520979345316243</v>
       </c>
       <c r="D11">
-        <v>0.8863084579634608</v>
+        <v>0.9906226163122115</v>
       </c>
       <c r="E11">
-        <v>0.7300132848882424</v>
+        <v>0.9157930067968788</v>
       </c>
       <c r="F11">
-        <v>0.8090444578558212</v>
+        <v>0.977426113910828</v>
       </c>
       <c r="G11">
-        <v>0.8376274377013584</v>
+        <v>0.9353376634345798</v>
       </c>
       <c r="H11">
-        <v>0.6428611291643694</v>
+        <v>0.9845627877512664</v>
       </c>
       <c r="I11">
-        <v>0.8708190853998987</v>
+        <v>0.9476117959510173</v>
       </c>
       <c r="J11">
-        <v>0.4553669306366573</v>
+        <v>0.9643820221123698</v>
       </c>
       <c r="K11">
-        <v>0.8321804701564369</v>
+        <v>0.9981702883173678</v>
       </c>
       <c r="L11">
-        <v>0.9387505510238484</v>
+        <v>0.9908923766929196</v>
       </c>
       <c r="M11">
-        <v>0.7561592471047238</v>
+        <v>0.9692737768188079</v>
       </c>
       <c r="N11">
-        <v>0.7754091952032568</v>
+        <v>0.9547307151957248</v>
       </c>
       <c r="O11">
-        <v>0.8946418855515713</v>
+        <v>0.9631456292124457</v>
       </c>
       <c r="P11">
-        <v>0.5492190960350445</v>
+        <v>0.9782889605212028</v>
       </c>
       <c r="Q11">
-        <v>0.8977997760622379</v>
+        <v>0.9817251710088637</v>
       </c>
       <c r="R11">
-        <v>0.9140061231860688</v>
+        <v>0.9873898321124125</v>
       </c>
       <c r="S11">
-        <v>0.7720294068815857</v>
+        <v>0.9878375012625521</v>
       </c>
       <c r="T11">
-        <v>0.7778869411729624</v>
+        <v>0.9183457268677006</v>
       </c>
       <c r="U11">
-        <v>0.6365555579542251</v>
+        <v>0.9875806124142892</v>
       </c>
       <c r="V11">
-        <v>0.860672372904095</v>
+        <v>0.9585173111551775</v>
       </c>
       <c r="W11">
-        <v>0.8220808447560709</v>
+        <v>0.9860814516614703</v>
       </c>
       <c r="X11">
-        <v>0.8137117310675551</v>
+        <v>0.982572798115205</v>
       </c>
       <c r="Y11">
-        <v>0.6710583627605312</v>
+        <v>0.9535073000234503</v>
       </c>
       <c r="Z11">
-        <v>0.4729085965107237</v>
+        <v>0.9128362472678924</v>
       </c>
       <c r="AA11">
-        <v>0.848007653884335</v>
+        <v>0.9423438706919662</v>
       </c>
       <c r="AB11">
-        <v>0.2373509462862011</v>
+        <v>0.9708941690724691</v>
       </c>
       <c r="AC11">
-        <v>0.3542642994554932</v>
+        <v>0.9785051789961017</v>
       </c>
       <c r="AD11">
-        <v>0.4548769382183493</v>
+        <v>0.963227637685665</v>
       </c>
       <c r="AE11">
-        <v>0.8579168832532054</v>
+        <v>0.9804182973619803</v>
       </c>
       <c r="AF11">
-        <v>0.9004896729459979</v>
+        <v>0.9461108816341763</v>
       </c>
       <c r="AG11">
-        <v>0.848489430247982</v>
+        <v>0.9673302032580503</v>
       </c>
       <c r="AH11">
-        <v>0.521149222121452</v>
+        <v>0.9935921234698942</v>
       </c>
       <c r="AI11">
-        <v>0.6763520283612033</v>
+        <v>0.9955950292984823</v>
       </c>
       <c r="AJ11">
-        <v>0.9010436868207596</v>
+        <v>0.9579688708732517</v>
       </c>
       <c r="AK11">
-        <v>0.6494125383578957</v>
+        <v>0.9744151496334285</v>
       </c>
       <c r="AL11">
-        <v>0.8180301331649058</v>
+        <v>0.9457689012097775</v>
       </c>
       <c r="AM11">
-        <v>0.6661393461545012</v>
+        <v>0.9788114372915051</v>
       </c>
       <c r="AN11">
-        <v>0.5397791560164354</v>
+        <v>0.9593554266550702</v>
       </c>
       <c r="AO11">
-        <v>0.4871517194248827</v>
+        <v>0.9810788275216175</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1913,124 +1913,124 @@
         <v>51</v>
       </c>
       <c r="B12">
-        <v>0.6312722021390789</v>
+        <v>0.8724731961791831</v>
       </c>
       <c r="C12">
-        <v>0.1676757452444942</v>
+        <v>0.9039747289563891</v>
       </c>
       <c r="D12">
-        <v>0.7642000480573783</v>
+        <v>0.9852962667592964</v>
       </c>
       <c r="E12">
-        <v>0.7738953834615256</v>
+        <v>0.9552758610990919</v>
       </c>
       <c r="F12">
-        <v>0.7728500331308763</v>
+        <v>0.9933986134699592</v>
       </c>
       <c r="G12">
-        <v>0.7452380834716262</v>
+        <v>0.9537025928560071</v>
       </c>
       <c r="H12">
-        <v>0.6748479566254678</v>
+        <v>0.9976378465430538</v>
       </c>
       <c r="I12">
-        <v>0.8604130870992287</v>
+        <v>0.9775538189344373</v>
       </c>
       <c r="J12">
-        <v>0.6322986632129276</v>
+        <v>0.9655900477486292</v>
       </c>
       <c r="K12">
-        <v>0.7654648076267253</v>
+        <v>0.9982313344237157</v>
       </c>
       <c r="L12">
-        <v>0.8022716468417374</v>
+        <v>0.9914107781579268</v>
       </c>
       <c r="M12">
-        <v>0.6628017562683839</v>
+        <v>0.9896371174858635</v>
       </c>
       <c r="N12">
-        <v>0.6717422887531321</v>
+        <v>0.9834232943079378</v>
       </c>
       <c r="O12">
-        <v>0.8074246573035072</v>
+        <v>0.9884002883726239</v>
       </c>
       <c r="P12">
-        <v>0.3594635257355155</v>
+        <v>0.9954038768392401</v>
       </c>
       <c r="Q12">
-        <v>0.8824082782825976</v>
+        <v>0.9954666782854789</v>
       </c>
       <c r="R12">
-        <v>0.8938320785279499</v>
+        <v>0.9985026325846188</v>
       </c>
       <c r="S12">
-        <v>0.644529929841264</v>
+        <v>0.9993268802516616</v>
       </c>
       <c r="T12">
-        <v>0.9494244288504436</v>
+        <v>0.9576819714629846</v>
       </c>
       <c r="U12">
-        <v>0.8249689602164993</v>
+        <v>0.9914163928564874</v>
       </c>
       <c r="V12">
-        <v>0.6852549290093543</v>
+        <v>0.9851135934407668</v>
       </c>
       <c r="W12">
-        <v>0.8582704926677643</v>
+        <v>0.9950162554907919</v>
       </c>
       <c r="X12">
-        <v>0.9344996244454212</v>
+        <v>0.995154841893602</v>
       </c>
       <c r="Y12">
-        <v>0.8862548210072432</v>
+        <v>0.9804209459609128</v>
       </c>
       <c r="Z12">
-        <v>0.7500538381379783</v>
+        <v>0.9520186107274695</v>
       </c>
       <c r="AA12">
-        <v>0.930876383087589</v>
+        <v>0.975304673898357</v>
       </c>
       <c r="AB12">
-        <v>0.5459522543111122</v>
+        <v>0.9895233936088295</v>
       </c>
       <c r="AC12">
-        <v>0.651469790424305</v>
+        <v>0.9943589767125527</v>
       </c>
       <c r="AD12">
-        <v>0.7143031749048611</v>
+        <v>0.9882518641599501</v>
       </c>
       <c r="AE12">
-        <v>0.9325482190752434</v>
+        <v>0.9958672811652974</v>
       </c>
       <c r="AF12">
-        <v>0.9641657732302615</v>
+        <v>0.97680347119211</v>
       </c>
       <c r="AG12">
-        <v>0.9786991883089696</v>
+        <v>0.9831996728476181</v>
       </c>
       <c r="AH12">
-        <v>0.7968753415385629</v>
+        <v>0.9954594705158674</v>
       </c>
       <c r="AI12">
-        <v>0.8965560735542182</v>
+        <v>0.9867490163224301</v>
       </c>
       <c r="AJ12">
-        <v>0.9398870571106972</v>
+        <v>0.9840959926250923</v>
       </c>
       <c r="AK12">
-        <v>0.8742995489661685</v>
+        <v>0.9919481498080356</v>
       </c>
       <c r="AL12">
-        <v>0.9730663829887602</v>
+        <v>0.9716725334482487</v>
       </c>
       <c r="AM12">
-        <v>0.8958871544161587</v>
+        <v>0.9876465865733557</v>
       </c>
       <c r="AN12">
-        <v>0.8026773296125791</v>
+        <v>0.9734322422787824</v>
       </c>
       <c r="AO12">
-        <v>0.7864372962090106</v>
+        <v>0.9895581462213582</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块.xlsx
+++ b/FOF/data/基金公司-板块.xlsx
@@ -16,129 +16,132 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>泓德</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
     <t>前海开源</t>
   </si>
   <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
     <t>东方</t>
   </si>
   <si>
-    <t>中金</t>
-  </si>
-  <si>
     <t>诺德</t>
   </si>
   <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>泓德</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
     <t>平安</t>
   </si>
   <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>创业板综</t>
+  </si>
+  <si>
     <t>上证50</t>
   </si>
   <si>
@@ -148,28 +151,25 @@
     <t>沪深300</t>
   </si>
   <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
     <t>上证综指</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>创业板综</t>
-  </si>
-  <si>
-    <t>中证1000</t>
   </si>
 </sst>
 </file>
@@ -663,124 +663,124 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>0.8022285969146157</v>
+        <v>0.9659686167024971</v>
       </c>
       <c r="C2">
-        <v>0.9672541144507015</v>
+        <v>0.9416745918604662</v>
       </c>
       <c r="D2">
-        <v>0.91463441540664</v>
+        <v>0.9914429552482905</v>
       </c>
       <c r="E2">
-        <v>0.9897042622272069</v>
+        <v>0.9534650067317569</v>
       </c>
       <c r="F2">
-        <v>0.9776778323334971</v>
+        <v>0.9378561523206028</v>
       </c>
       <c r="G2">
-        <v>0.9514230065986762</v>
+        <v>0.9818999038958617</v>
       </c>
       <c r="H2">
-        <v>0.9738666864483201</v>
+        <v>0.9755034952030591</v>
       </c>
       <c r="I2">
-        <v>0.9947493995959338</v>
+        <v>0.9428281210003849</v>
       </c>
       <c r="J2">
-        <v>0.9075099987766552</v>
+        <v>0.9234125776966976</v>
       </c>
       <c r="K2">
-        <v>0.9431082332809575</v>
+        <v>0.9259233277305495</v>
       </c>
       <c r="L2">
-        <v>0.9343225848117985</v>
+        <v>0.9566263023077867</v>
       </c>
       <c r="M2">
-        <v>0.9843008253729763</v>
+        <v>0.9834244587301277</v>
       </c>
       <c r="N2">
-        <v>0.9945042225845024</v>
+        <v>0.9817533956825214</v>
       </c>
       <c r="O2">
-        <v>0.9915951306249009</v>
+        <v>0.9414347344271485</v>
       </c>
       <c r="P2">
-        <v>0.9810084245366707</v>
+        <v>0.9430712133310805</v>
       </c>
       <c r="Q2">
-        <v>0.974214775583497</v>
+        <v>0.948984878563912</v>
       </c>
       <c r="R2">
-        <v>0.9675155718514336</v>
+        <v>0.9605887100971704</v>
       </c>
       <c r="S2">
-        <v>0.9706247174848307</v>
+        <v>0.9373956554839562</v>
       </c>
       <c r="T2">
-        <v>0.997771686991648</v>
+        <v>0.952612679839266</v>
       </c>
       <c r="U2">
-        <v>0.9491332588950746</v>
+        <v>0.9722326357881697</v>
       </c>
       <c r="V2">
-        <v>0.9932346106504673</v>
+        <v>0.9708334713118398</v>
       </c>
       <c r="W2">
-        <v>0.9633778303153536</v>
+        <v>0.994774486812535</v>
       </c>
       <c r="X2">
-        <v>0.9715429283092505</v>
+        <v>0.9527257760781428</v>
       </c>
       <c r="Y2">
-        <v>0.991041172182254</v>
+        <v>0.933608468299427</v>
       </c>
       <c r="Z2">
-        <v>0.9934524134288936</v>
+        <v>0.9671115484944321</v>
       </c>
       <c r="AA2">
-        <v>0.9958042280825407</v>
+        <v>0.9483954607494262</v>
       </c>
       <c r="AB2">
-        <v>0.9806893768707324</v>
+        <v>0.9772867231187563</v>
       </c>
       <c r="AC2">
-        <v>0.9780018345628263</v>
+        <v>0.9267636143893935</v>
       </c>
       <c r="AD2">
-        <v>0.9918878324261595</v>
+        <v>0.9632104760777737</v>
       </c>
       <c r="AE2">
-        <v>0.977958314089186</v>
+        <v>0.9110608603697364</v>
       </c>
       <c r="AF2">
-        <v>0.9955902693892188</v>
+        <v>0.9432782490985803</v>
       </c>
       <c r="AG2">
-        <v>0.9701214984840906</v>
+        <v>0.9497515315582574</v>
       </c>
       <c r="AH2">
-        <v>0.9471669765104006</v>
+        <v>0.9477702420209819</v>
       </c>
       <c r="AI2">
-        <v>0.9146035939979071</v>
+        <v>0.9436232143810483</v>
       </c>
       <c r="AJ2">
-        <v>0.9919143167380735</v>
+        <v>0.9539506671990277</v>
       </c>
       <c r="AK2">
-        <v>0.980011900995516</v>
+        <v>0.9641063958334564</v>
       </c>
       <c r="AL2">
-        <v>0.9824998832049768</v>
+        <v>0.9736891566741327</v>
       </c>
       <c r="AM2">
-        <v>0.9578640567737025</v>
+        <v>0.9266136835397165</v>
       </c>
       <c r="AN2">
-        <v>0.958363095451732</v>
+        <v>0.9284047386462596</v>
       </c>
       <c r="AO2">
-        <v>0.9584932259201376</v>
+        <v>0.9422756961862797</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -788,124 +788,124 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>0.8767656252113214</v>
+        <v>0.9898327936577476</v>
       </c>
       <c r="C3">
-        <v>0.9740194658675199</v>
+        <v>0.9922993220686019</v>
       </c>
       <c r="D3">
-        <v>0.9537385177208679</v>
+        <v>0.9604376423927568</v>
       </c>
       <c r="E3">
-        <v>0.9963315507013148</v>
+        <v>0.994118485825209</v>
       </c>
       <c r="F3">
-        <v>0.9777834555779447</v>
+        <v>0.9958309362136036</v>
       </c>
       <c r="G3">
-        <v>0.9269241466368113</v>
+        <v>0.9765095297427066</v>
       </c>
       <c r="H3">
-        <v>0.9804718680225389</v>
+        <v>0.9798900742393696</v>
       </c>
       <c r="I3">
-        <v>0.9853863874204243</v>
+        <v>0.9952507609037848</v>
       </c>
       <c r="J3">
-        <v>0.9554161217316149</v>
+        <v>0.9988035531884881</v>
       </c>
       <c r="K3">
-        <v>0.9639155591705562</v>
+        <v>0.9952417492782605</v>
       </c>
       <c r="L3">
-        <v>0.9677743000082039</v>
+        <v>0.9893428743304334</v>
       </c>
       <c r="M3">
-        <v>0.9810474314184261</v>
+        <v>0.9740917989585332</v>
       </c>
       <c r="N3">
-        <v>0.9973632053800044</v>
+        <v>0.9756492762176017</v>
       </c>
       <c r="O3">
-        <v>0.995748396432375</v>
+        <v>0.9864121269941206</v>
       </c>
       <c r="P3">
-        <v>0.9849761141537798</v>
+        <v>0.9923929559424906</v>
       </c>
       <c r="Q3">
-        <v>0.9769797952062912</v>
+        <v>0.9923622559627243</v>
       </c>
       <c r="R3">
-        <v>0.9857147174279509</v>
+        <v>0.9907750719105684</v>
       </c>
       <c r="S3">
-        <v>0.9829351977666838</v>
+        <v>0.991737125612782</v>
       </c>
       <c r="T3">
-        <v>0.980890667077809</v>
+        <v>0.9933370327596143</v>
       </c>
       <c r="U3">
-        <v>0.9526470332957346</v>
+        <v>0.9844265483848029</v>
       </c>
       <c r="V3">
-        <v>0.9900090665071458</v>
+        <v>0.9861747506352475</v>
       </c>
       <c r="W3">
-        <v>0.9669134450557961</v>
+        <v>0.9439965816445781</v>
       </c>
       <c r="X3">
-        <v>0.9739719658933459</v>
+        <v>0.9935627801094787</v>
       </c>
       <c r="Y3">
-        <v>0.9816780147948901</v>
+        <v>0.9933599441027767</v>
       </c>
       <c r="Z3">
-        <v>0.9712158503743061</v>
+        <v>0.9880996198261506</v>
       </c>
       <c r="AA3">
-        <v>0.9988656486777341</v>
+        <v>0.9928726477731644</v>
       </c>
       <c r="AB3">
-        <v>0.9767422306897958</v>
+        <v>0.9782979259210146</v>
       </c>
       <c r="AC3">
-        <v>0.9794049072153487</v>
+        <v>0.9968473752589631</v>
       </c>
       <c r="AD3">
-        <v>0.9924793121019859</v>
+        <v>0.9906596834498644</v>
       </c>
       <c r="AE3">
-        <v>0.9817407145467246</v>
+        <v>0.9991746498117281</v>
       </c>
       <c r="AF3">
-        <v>0.9863832969741372</v>
+        <v>0.9957413087054761</v>
       </c>
       <c r="AG3">
-        <v>0.9611522798548764</v>
+        <v>0.9913006757061668</v>
       </c>
       <c r="AH3">
-        <v>0.9569563845495291</v>
+        <v>0.9934757357593609</v>
       </c>
       <c r="AI3">
-        <v>0.9303083346681453</v>
+        <v>0.9885722806959995</v>
       </c>
       <c r="AJ3">
-        <v>0.9862080177990205</v>
+        <v>0.9939126419813499</v>
       </c>
       <c r="AK3">
-        <v>0.9785833542256799</v>
+        <v>0.982838945140604</v>
       </c>
       <c r="AL3">
-        <v>0.9657465222164135</v>
+        <v>0.9847040185783872</v>
       </c>
       <c r="AM3">
-        <v>0.9548426272616828</v>
+        <v>0.9995038455010899</v>
       </c>
       <c r="AN3">
-        <v>0.9442673067279069</v>
+        <v>0.9938920943045517</v>
       </c>
       <c r="AO3">
-        <v>0.9571352628333172</v>
+        <v>0.9978503149848866</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -913,124 +913,124 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <v>0.8539035402657127</v>
+        <v>0.9900354804179166</v>
       </c>
       <c r="C4">
-        <v>0.9409333054301566</v>
+        <v>0.9933901394675031</v>
       </c>
       <c r="D4">
-        <v>0.9655058460362586</v>
+        <v>0.9610080115816848</v>
       </c>
       <c r="E4">
-        <v>0.9799078410057631</v>
+        <v>0.994734155454165</v>
       </c>
       <c r="F4">
-        <v>0.9957538694394025</v>
+        <v>0.9966655476271427</v>
       </c>
       <c r="G4">
-        <v>0.9601940973357208</v>
+        <v>0.9771059699367034</v>
       </c>
       <c r="H4">
-        <v>0.9968454981085855</v>
+        <v>0.9809852919140986</v>
       </c>
       <c r="I4">
-        <v>0.99380419709158</v>
+        <v>0.9959174956148504</v>
       </c>
       <c r="J4">
-        <v>0.9517169880999964</v>
+        <v>0.9992423085168541</v>
       </c>
       <c r="K4">
-        <v>0.9843746003473597</v>
+        <v>0.9961149335153561</v>
       </c>
       <c r="L4">
-        <v>0.9773656557581831</v>
+        <v>0.9904449651468578</v>
       </c>
       <c r="M4">
-        <v>0.9963656528328469</v>
+        <v>0.9749796270121156</v>
       </c>
       <c r="N4">
-        <v>0.9977384391307399</v>
+        <v>0.9764155994860035</v>
       </c>
       <c r="O4">
-        <v>0.9993399413210001</v>
+        <v>0.9878182394955133</v>
       </c>
       <c r="P4">
-        <v>0.9985942439678658</v>
+        <v>0.9934425834235985</v>
       </c>
       <c r="Q4">
-        <v>0.9955446321167201</v>
+        <v>0.9933258004626975</v>
       </c>
       <c r="R4">
-        <v>0.9952023778303755</v>
+        <v>0.9915635581859314</v>
       </c>
       <c r="S4">
-        <v>0.9966999724851713</v>
+        <v>0.9923623305485968</v>
       </c>
       <c r="T4">
-        <v>0.9834585575162474</v>
+        <v>0.9931554209019123</v>
       </c>
       <c r="U4">
-        <v>0.9821699511654418</v>
+        <v>0.9846324616963529</v>
       </c>
       <c r="V4">
-        <v>0.9977717419606814</v>
+        <v>0.9866736008230645</v>
       </c>
       <c r="W4">
-        <v>0.9905274860361587</v>
+        <v>0.9455418627486262</v>
       </c>
       <c r="X4">
-        <v>0.9941629737346052</v>
+        <v>0.9943474728384892</v>
       </c>
       <c r="Y4">
-        <v>0.9937810264485296</v>
+        <v>0.9940156621365883</v>
       </c>
       <c r="Z4">
-        <v>0.9780217715131679</v>
+        <v>0.9887683188225325</v>
       </c>
       <c r="AA4">
-        <v>0.9937342220772326</v>
+        <v>0.9932530319058737</v>
       </c>
       <c r="AB4">
-        <v>0.99465806325878</v>
+        <v>0.9791262638250331</v>
       </c>
       <c r="AC4">
-        <v>0.9965176171821318</v>
+        <v>0.9972454069914093</v>
       </c>
       <c r="AD4">
-        <v>0.9991752832616314</v>
+        <v>0.9910986066819116</v>
       </c>
       <c r="AE4">
-        <v>0.9974922508589691</v>
+        <v>0.9995044631423409</v>
       </c>
       <c r="AF4">
-        <v>0.9937619849396738</v>
+        <v>0.9963391878939759</v>
       </c>
       <c r="AG4">
-        <v>0.9860951707687819</v>
+        <v>0.9925832805411942</v>
       </c>
       <c r="AH4">
-        <v>0.9839558577620656</v>
+        <v>0.993877937384668</v>
       </c>
       <c r="AI4">
-        <v>0.9649308192075615</v>
+        <v>0.9895308134059957</v>
       </c>
       <c r="AJ4">
-        <v>0.9964636527864356</v>
+        <v>0.99453399126173</v>
       </c>
       <c r="AK4">
-        <v>0.9958781347244654</v>
+        <v>0.983814343639927</v>
       </c>
       <c r="AL4">
-        <v>0.9846055366387689</v>
+        <v>0.9848697733138313</v>
       </c>
       <c r="AM4">
-        <v>0.9835244193759409</v>
+        <v>0.9997703705434456</v>
       </c>
       <c r="AN4">
-        <v>0.9750497102483537</v>
+        <v>0.9944303070998917</v>
       </c>
       <c r="AO4">
-        <v>0.9849833123875814</v>
+        <v>0.9977125224666323</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1038,124 +1038,124 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>0.867751340753992</v>
+        <v>0.9948311693260958</v>
       </c>
       <c r="C5">
-        <v>0.917921837257022</v>
+        <v>0.9954361874033784</v>
       </c>
       <c r="D5">
-        <v>0.9801965839238623</v>
+        <v>0.9714258150211016</v>
       </c>
       <c r="E5">
-        <v>0.9651095546809246</v>
+        <v>0.9978722879541581</v>
       </c>
       <c r="F5">
-        <v>0.9956929957099874</v>
+        <v>0.9980167503221923</v>
       </c>
       <c r="G5">
-        <v>0.9572512887135314</v>
+        <v>0.9848233452442181</v>
       </c>
       <c r="H5">
-        <v>0.9988929780117725</v>
+        <v>0.987940890393789</v>
       </c>
       <c r="I5">
-        <v>0.9845121688956967</v>
+        <v>0.9977728036409311</v>
       </c>
       <c r="J5">
-        <v>0.9625050614510056</v>
+        <v>0.9987975442655793</v>
       </c>
       <c r="K5">
-        <v>0.9950996499051182</v>
+        <v>0.9962265715045747</v>
       </c>
       <c r="L5">
-        <v>0.9882520790041647</v>
+        <v>0.9943607658418953</v>
       </c>
       <c r="M5">
-        <v>0.9933998384837005</v>
+        <v>0.9831851186932854</v>
       </c>
       <c r="N5">
-        <v>0.9897783451175357</v>
+        <v>0.9843906469796742</v>
       </c>
       <c r="O5">
-        <v>0.9936202730116884</v>
+        <v>0.9903411644496936</v>
       </c>
       <c r="P5">
-        <v>0.997999581782235</v>
+        <v>0.995619810282125</v>
       </c>
       <c r="Q5">
-        <v>0.9970000186657121</v>
+        <v>0.9961337178019277</v>
       </c>
       <c r="R5">
-        <v>0.998949931831418</v>
+        <v>0.9957741651893909</v>
       </c>
       <c r="S5">
-        <v>0.9999822840077885</v>
+        <v>0.9938297979596489</v>
       </c>
       <c r="T5">
-        <v>0.9678204597446465</v>
+        <v>0.996059261128581</v>
       </c>
       <c r="U5">
-        <v>0.9897769226747434</v>
+        <v>0.9904875387801048</v>
       </c>
       <c r="V5">
-        <v>0.9908851949668285</v>
+        <v>0.9924682175854322</v>
       </c>
       <c r="W5">
-        <v>0.9949994926923063</v>
+        <v>0.9579074774785761</v>
       </c>
       <c r="X5">
-        <v>0.996322806552934</v>
+        <v>0.9974822173921393</v>
       </c>
       <c r="Y5">
-        <v>0.9864011440874586</v>
+        <v>0.9949773481109224</v>
       </c>
       <c r="Z5">
-        <v>0.9622055783098935</v>
+        <v>0.9940097565917503</v>
       </c>
       <c r="AA5">
-        <v>0.9830468326195072</v>
+        <v>0.9957838560508478</v>
       </c>
       <c r="AB5">
-        <v>0.9927415676709606</v>
+        <v>0.9861538293060819</v>
       </c>
       <c r="AC5">
-        <v>0.9965928206672106</v>
+        <v>0.9976121983725305</v>
       </c>
       <c r="AD5">
-        <v>0.9934527905886315</v>
+        <v>0.9955222129572925</v>
       </c>
       <c r="AE5">
-        <v>0.9979308846867946</v>
+        <v>0.9978207134555125</v>
       </c>
       <c r="AF5">
-        <v>0.9840019839186765</v>
+        <v>0.9982003464550488</v>
       </c>
       <c r="AG5">
-        <v>0.9856284309696423</v>
+        <v>0.9957726282703968</v>
       </c>
       <c r="AH5">
-        <v>0.9930822909494342</v>
+        <v>0.9963062592169494</v>
       </c>
       <c r="AI5">
-        <v>0.9808747553536032</v>
+        <v>0.9919841372413679</v>
       </c>
       <c r="AJ5">
-        <v>0.9897580472963554</v>
+        <v>0.9978615463426305</v>
       </c>
       <c r="AK5">
-        <v>0.9947698927751485</v>
+        <v>0.9889711583383636</v>
       </c>
       <c r="AL5">
-        <v>0.9774667783238382</v>
+        <v>0.9910035758145066</v>
       </c>
       <c r="AM5">
-        <v>0.9877188434834984</v>
+        <v>0.9996224986913692</v>
       </c>
       <c r="AN5">
-        <v>0.9753927252567345</v>
+        <v>0.9947763893037066</v>
       </c>
       <c r="AO5">
-        <v>0.9894856271237324</v>
+        <v>0.9992563840562685</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -1163,124 +1163,124 @@
         <v>45</v>
       </c>
       <c r="B6">
-        <v>0.8557705885576893</v>
+        <v>0.9986992158712366</v>
       </c>
       <c r="C6">
-        <v>0.9140739691146486</v>
+        <v>0.9917110207933176</v>
       </c>
       <c r="D6">
-        <v>0.9762363167759852</v>
+        <v>0.9925431926437088</v>
       </c>
       <c r="E6">
-        <v>0.9628529666260908</v>
+        <v>0.9972397767977298</v>
       </c>
       <c r="F6">
-        <v>0.997544989481974</v>
+        <v>0.9922685369105071</v>
       </c>
       <c r="G6">
-        <v>0.9638305427554695</v>
+        <v>0.9974202398373768</v>
       </c>
       <c r="H6">
-        <v>0.9997244777945095</v>
+        <v>0.9992613527925301</v>
       </c>
       <c r="I6">
-        <v>0.9867344622399385</v>
+        <v>0.9931968737318194</v>
       </c>
       <c r="J6">
-        <v>0.955909834807722</v>
+        <v>0.9876034750730576</v>
       </c>
       <c r="K6">
-        <v>0.9944104401398159</v>
+        <v>0.9867116693920723</v>
       </c>
       <c r="L6">
-        <v>0.9848465899742488</v>
+        <v>0.9962057674209158</v>
       </c>
       <c r="M6">
-        <v>0.9954526516838951</v>
+        <v>0.9976684033869687</v>
       </c>
       <c r="N6">
-        <v>0.989608377253985</v>
+        <v>0.9984459048168083</v>
       </c>
       <c r="O6">
-        <v>0.9935794688781155</v>
+        <v>0.9879765700843866</v>
       </c>
       <c r="P6">
-        <v>0.9989257451768847</v>
+        <v>0.9922410539507619</v>
       </c>
       <c r="Q6">
-        <v>0.9985516030571258</v>
+        <v>0.9945950673533551</v>
       </c>
       <c r="R6">
-        <v>0.9975809944747372</v>
+        <v>0.9983977101970265</v>
       </c>
       <c r="S6">
-        <v>0.9998043536411765</v>
+        <v>0.9876070086579802</v>
       </c>
       <c r="T6">
-        <v>0.970498223139627</v>
+        <v>0.9936810096789679</v>
       </c>
       <c r="U6">
-        <v>0.9922556056994163</v>
+        <v>0.997115466132703</v>
       </c>
       <c r="V6">
-        <v>0.9922245004402158</v>
+        <v>0.9998673011988314</v>
       </c>
       <c r="W6">
-        <v>0.9969214559923296</v>
+        <v>0.9853177115276678</v>
       </c>
       <c r="X6">
-        <v>0.9980719688152924</v>
+        <v>0.9969832748226389</v>
       </c>
       <c r="Y6">
-        <v>0.9889697672834399</v>
+        <v>0.987428172570014</v>
       </c>
       <c r="Z6">
-        <v>0.9659980275295783</v>
+        <v>0.9999184743074681</v>
       </c>
       <c r="AA6">
-        <v>0.9823315494784718</v>
+        <v>0.9926341494384925</v>
       </c>
       <c r="AB6">
-        <v>0.995131115351918</v>
+        <v>0.9967020111586145</v>
       </c>
       <c r="AC6">
-        <v>0.9981905517961867</v>
+        <v>0.9896872472126884</v>
       </c>
       <c r="AD6">
-        <v>0.9941808035680768</v>
+        <v>0.998382893854285</v>
       </c>
       <c r="AE6">
-        <v>0.9990821572349666</v>
+        <v>0.9832413716226102</v>
       </c>
       <c r="AF6">
-        <v>0.986105717030634</v>
+        <v>0.9936282488887566</v>
       </c>
       <c r="AG6">
-        <v>0.9893495354868241</v>
+        <v>0.9961490846345813</v>
       </c>
       <c r="AH6">
-        <v>0.9944835165520011</v>
+        <v>0.9929303004605518</v>
       </c>
       <c r="AI6">
-        <v>0.9821965862541658</v>
+        <v>0.9889110806052641</v>
       </c>
       <c r="AJ6">
-        <v>0.9916636972045982</v>
+        <v>0.9981780251943666</v>
       </c>
       <c r="AK6">
-        <v>0.9967639222842943</v>
+        <v>0.993891700419549</v>
       </c>
       <c r="AL6">
-        <v>0.9816585939005915</v>
+        <v>0.9989315341147661</v>
       </c>
       <c r="AM6">
-        <v>0.9909941300510887</v>
+        <v>0.9893158366806554</v>
       </c>
       <c r="AN6">
-        <v>0.9803473432189267</v>
+        <v>0.9853047478649323</v>
       </c>
       <c r="AO6">
-        <v>0.9924599977600228</v>
+        <v>0.993394456728094</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1288,124 +1288,124 @@
         <v>46</v>
       </c>
       <c r="B7">
-        <v>0.8748828868438789</v>
+        <v>0.9980362823730637</v>
       </c>
       <c r="C7">
-        <v>0.9092266710230463</v>
+        <v>0.9947720818424225</v>
       </c>
       <c r="D7">
-        <v>0.9850742586840775</v>
+        <v>0.9817419188512</v>
       </c>
       <c r="E7">
-        <v>0.9588376278298757</v>
+        <v>0.9990144556711532</v>
       </c>
       <c r="F7">
-        <v>0.9934871102407364</v>
+        <v>0.9968601697170129</v>
       </c>
       <c r="G7">
-        <v>0.9526664516801328</v>
+        <v>0.9912125425109869</v>
       </c>
       <c r="H7">
-        <v>0.997746784036889</v>
+        <v>0.9939818337439109</v>
       </c>
       <c r="I7">
-        <v>0.9788749091151181</v>
+        <v>0.9970639006315313</v>
       </c>
       <c r="J7">
-        <v>0.9667796676714979</v>
+        <v>0.9957206646572212</v>
       </c>
       <c r="K7">
-        <v>0.997549658577557</v>
+        <v>0.9933305984283543</v>
       </c>
       <c r="L7">
-        <v>0.9915757767558975</v>
+        <v>0.9960625182455572</v>
       </c>
       <c r="M7">
-        <v>0.9900871742834135</v>
+        <v>0.9903499683810524</v>
       </c>
       <c r="N7">
-        <v>0.9853225081790454</v>
+        <v>0.991734843213335</v>
       </c>
       <c r="O7">
-        <v>0.989930548902056</v>
+        <v>0.9897775866205313</v>
       </c>
       <c r="P7">
-        <v>0.9958708219658878</v>
+        <v>0.9951217685268275</v>
       </c>
       <c r="Q7">
-        <v>0.9954295424826253</v>
+        <v>0.9965053032649781</v>
       </c>
       <c r="R7">
-        <v>0.9990701407057914</v>
+        <v>0.9981292905416074</v>
       </c>
       <c r="S7">
-        <v>0.9995799054229055</v>
+        <v>0.9920404809287622</v>
       </c>
       <c r="T7">
-        <v>0.9597795834815098</v>
+        <v>0.9965876547268268</v>
       </c>
       <c r="U7">
-        <v>0.9901697211904218</v>
+        <v>0.9945193157751021</v>
       </c>
       <c r="V7">
-        <v>0.9863692211426921</v>
+        <v>0.9972379503084527</v>
       </c>
       <c r="W7">
-        <v>0.9944141764533044</v>
+        <v>0.9699814306332311</v>
       </c>
       <c r="X7">
-        <v>0.994949848793704</v>
+        <v>0.9985837879895243</v>
       </c>
       <c r="Y7">
-        <v>0.981350139393839</v>
+        <v>0.9927343206084353</v>
       </c>
       <c r="Z7">
-        <v>0.9537795251317138</v>
+        <v>0.9980712352718487</v>
       </c>
       <c r="AA7">
-        <v>0.9777766502156627</v>
+        <v>0.9955578322390336</v>
       </c>
       <c r="AB7">
-        <v>0.9897099847557128</v>
+        <v>0.9913986958067993</v>
       </c>
       <c r="AC7">
-        <v>0.9945099588414045</v>
+        <v>0.9966430973448774</v>
       </c>
       <c r="AD7">
-        <v>0.9895347408599175</v>
+        <v>0.9980924487612544</v>
       </c>
       <c r="AE7">
-        <v>0.9961094824983285</v>
+        <v>0.9936539587157035</v>
       </c>
       <c r="AF7">
-        <v>0.9782313298306143</v>
+        <v>0.9975708583646682</v>
       </c>
       <c r="AG7">
-        <v>0.982738944901258</v>
+        <v>0.9971826171446494</v>
       </c>
       <c r="AH7">
-        <v>0.9943383896441276</v>
+        <v>0.9960236787553839</v>
       </c>
       <c r="AI7">
-        <v>0.9846412010566451</v>
+        <v>0.9912873764062332</v>
       </c>
       <c r="AJ7">
-        <v>0.9851417509794265</v>
+        <v>0.9997052580356637</v>
       </c>
       <c r="AK7">
-        <v>0.9921445079995074</v>
+        <v>0.9916067531933209</v>
       </c>
       <c r="AL7">
-        <v>0.9720372129366261</v>
+        <v>0.9960154141145329</v>
       </c>
       <c r="AM7">
-        <v>0.9866444496318288</v>
+        <v>0.9971474686707656</v>
       </c>
       <c r="AN7">
-        <v>0.9724479146123945</v>
+        <v>0.9917805884615106</v>
       </c>
       <c r="AO7">
-        <v>0.9886088102726961</v>
+        <v>0.9987130337283248</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1413,124 +1413,124 @@
         <v>47</v>
       </c>
       <c r="B8">
-        <v>0.8845603854813811</v>
+        <v>0.993027802306555</v>
       </c>
       <c r="C8">
-        <v>0.8999966726543601</v>
+        <v>0.9812679361434445</v>
       </c>
       <c r="D8">
-        <v>0.9900495432761387</v>
+        <v>0.9984850197122525</v>
       </c>
       <c r="E8">
-        <v>0.9516576649804394</v>
+        <v>0.9882814608643112</v>
       </c>
       <c r="F8">
-        <v>0.9894144017791585</v>
+        <v>0.9798727541833695</v>
       </c>
       <c r="G8">
-        <v>0.9448505479117679</v>
+        <v>0.9984203691682716</v>
       </c>
       <c r="H8">
-        <v>0.9950620266291561</v>
+        <v>0.9980355636577121</v>
       </c>
       <c r="I8">
-        <v>0.9711116748282478</v>
+        <v>0.9820027466398463</v>
       </c>
       <c r="J8">
-        <v>0.9718647789282019</v>
+        <v>0.9711305839972644</v>
       </c>
       <c r="K8">
-        <v>0.9990620453594425</v>
+        <v>0.9721239434616502</v>
       </c>
       <c r="L8">
-        <v>0.9947573555496909</v>
+        <v>0.9894748086235203</v>
       </c>
       <c r="M8">
-        <v>0.9848001856069238</v>
+        <v>0.9995253840724418</v>
       </c>
       <c r="N8">
-        <v>0.9794477622514315</v>
+        <v>0.9992151976065593</v>
       </c>
       <c r="O8">
-        <v>0.9848201298380574</v>
+        <v>0.9792598502706741</v>
       </c>
       <c r="P8">
-        <v>0.9921295053147304</v>
+        <v>0.9820448889722064</v>
       </c>
       <c r="Q8">
-        <v>0.992104618873187</v>
+        <v>0.985527236462775</v>
       </c>
       <c r="R8">
-        <v>0.9983171649203048</v>
+        <v>0.9918095139924038</v>
       </c>
       <c r="S8">
-        <v>0.9979510231282085</v>
+        <v>0.9764465229024569</v>
       </c>
       <c r="T8">
-        <v>0.9493886751119638</v>
+        <v>0.9845268541388986</v>
       </c>
       <c r="U8">
-        <v>0.9886618310280768</v>
+        <v>0.9942558458408087</v>
       </c>
       <c r="V8">
-        <v>0.9800170149440977</v>
+        <v>0.9958980159691461</v>
       </c>
       <c r="W8">
-        <v>0.9920249371786836</v>
+        <v>0.9964348299293998</v>
       </c>
       <c r="X8">
-        <v>0.991779131702205</v>
+        <v>0.9881051493783529</v>
       </c>
       <c r="Y8">
-        <v>0.9741054019353157</v>
+        <v>0.9750226267523061</v>
       </c>
       <c r="Z8">
-        <v>0.9426862268642726</v>
+        <v>0.9948734404863386</v>
       </c>
       <c r="AA8">
-        <v>0.9712044103325749</v>
+        <v>0.9832145876766443</v>
       </c>
       <c r="AB8">
-        <v>0.9846268554059364</v>
+        <v>0.9967006143616742</v>
       </c>
       <c r="AC8">
-        <v>0.9906348705242152</v>
+        <v>0.9734859220784663</v>
       </c>
       <c r="AD8">
-        <v>0.9839744291478965</v>
+        <v>0.9922162863677106</v>
       </c>
       <c r="AE8">
-        <v>0.9926294172942431</v>
+        <v>0.9637256952036015</v>
       </c>
       <c r="AF8">
-        <v>0.9703610968598994</v>
+        <v>0.9823340722889256</v>
       </c>
       <c r="AG8">
-        <v>0.9774496566343893</v>
+        <v>0.9872146279333199</v>
       </c>
       <c r="AH8">
-        <v>0.9940276745535248</v>
+        <v>0.9832121296161691</v>
       </c>
       <c r="AI8">
-        <v>0.9870036161794623</v>
+        <v>0.9799911179617395</v>
       </c>
       <c r="AJ8">
-        <v>0.978530665717561</v>
+        <v>0.9890206036089654</v>
       </c>
       <c r="AK8">
-        <v>0.9875935869601822</v>
+        <v>0.9904766879353853</v>
       </c>
       <c r="AL8">
-        <v>0.9639620770321892</v>
+        <v>0.9958239867343116</v>
       </c>
       <c r="AM8">
-        <v>0.9833805173035691</v>
+        <v>0.973097009056198</v>
       </c>
       <c r="AN8">
-        <v>0.966775900055128</v>
+        <v>0.9716317755077194</v>
       </c>
       <c r="AO8">
-        <v>0.9856324615359565</v>
+        <v>0.9806983335465721</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1538,124 +1538,124 @@
         <v>48</v>
       </c>
       <c r="B9">
-        <v>0.847919874446826</v>
+        <v>0.9888299173714442</v>
       </c>
       <c r="C9">
-        <v>0.8586796892490889</v>
+        <v>0.9713873022811179</v>
       </c>
       <c r="D9">
-        <v>0.9812934394602914</v>
+        <v>0.9990638736298533</v>
       </c>
       <c r="E9">
-        <v>0.9228117062566997</v>
+        <v>0.9821906425819129</v>
       </c>
       <c r="F9">
-        <v>0.987766962349991</v>
+        <v>0.9716168748355258</v>
       </c>
       <c r="G9">
-        <v>0.9574883678922766</v>
+        <v>0.9938762605860459</v>
       </c>
       <c r="H9">
-        <v>0.9916910275079042</v>
+        <v>0.9953026975277787</v>
       </c>
       <c r="I9">
-        <v>0.9626576447510921</v>
+        <v>0.9734654990263435</v>
       </c>
       <c r="J9">
-        <v>0.9505741874582229</v>
+        <v>0.9634292116926025</v>
       </c>
       <c r="K9">
-        <v>0.998104731271527</v>
+        <v>0.9617570398565115</v>
       </c>
       <c r="L9">
-        <v>0.984499903774449</v>
+        <v>0.981362539110163</v>
       </c>
       <c r="M9">
-        <v>0.9812956213689858</v>
+        <v>0.9958874688127531</v>
       </c>
       <c r="N9">
-        <v>0.9637673176119729</v>
+        <v>0.9979022134118151</v>
       </c>
       <c r="O9">
-        <v>0.9715484898943648</v>
+        <v>0.9668695583607875</v>
       </c>
       <c r="P9">
-        <v>0.9867520285218297</v>
+        <v>0.9723411542784379</v>
       </c>
       <c r="Q9">
-        <v>0.9907416515057321</v>
+        <v>0.9768976704964992</v>
       </c>
       <c r="R9">
-        <v>0.9887594849148269</v>
+        <v>0.9857910440712012</v>
       </c>
       <c r="S9">
-        <v>0.9921370577835049</v>
+        <v>0.9645712069932365</v>
       </c>
       <c r="T9">
-        <v>0.9370309167061343</v>
+        <v>0.9775561619267645</v>
       </c>
       <c r="U9">
-        <v>0.9960586727155627</v>
+        <v>0.9884326795575591</v>
       </c>
       <c r="V9">
-        <v>0.9705582527876929</v>
+        <v>0.9938088491543797</v>
       </c>
       <c r="W9">
-        <v>0.9946504876113226</v>
+        <v>0.9940258097240876</v>
       </c>
       <c r="X9">
-        <v>0.9917377418826143</v>
+        <v>0.9816195798104913</v>
       </c>
       <c r="Y9">
-        <v>0.9685441055179302</v>
+        <v>0.9635791150280227</v>
       </c>
       <c r="Z9">
-        <v>0.9341139891567493</v>
+        <v>0.992016470653333</v>
       </c>
       <c r="AA9">
-        <v>0.9512512252883077</v>
+        <v>0.973770571713274</v>
       </c>
       <c r="AB9">
-        <v>0.9832364023741249</v>
+        <v>0.9898453579014483</v>
       </c>
       <c r="AC9">
-        <v>0.9882117412815276</v>
+        <v>0.9720905530649364</v>
       </c>
       <c r="AD9">
-        <v>0.9733901985076844</v>
+        <v>0.9865474329261248</v>
       </c>
       <c r="AE9">
-        <v>0.988956699551483</v>
+        <v>0.9573912817424055</v>
       </c>
       <c r="AF9">
-        <v>0.9610812953362339</v>
+        <v>0.9742540286754275</v>
       </c>
       <c r="AG9">
-        <v>0.9820598962135199</v>
+        <v>0.9813826511149899</v>
       </c>
       <c r="AH9">
-        <v>0.9989782912866458</v>
+        <v>0.9740181097902448</v>
       </c>
       <c r="AI9">
-        <v>0.997825692085367</v>
+        <v>0.9678574797496637</v>
       </c>
       <c r="AJ9">
-        <v>0.9712221247001308</v>
+        <v>0.9854488249855122</v>
       </c>
       <c r="AK9">
-        <v>0.9855208464955232</v>
+        <v>0.9804413844598715</v>
       </c>
       <c r="AL9">
-        <v>0.9643634901472793</v>
+        <v>0.9935043188365517</v>
       </c>
       <c r="AM9">
-        <v>0.9905513163301898</v>
+        <v>0.9670415946601038</v>
       </c>
       <c r="AN9">
-        <v>0.976501315414437</v>
+        <v>0.9598734488169175</v>
       </c>
       <c r="AO9">
-        <v>0.9920098724893132</v>
+        <v>0.9756882020215657</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1663,124 +1663,124 @@
         <v>49</v>
       </c>
       <c r="B10">
-        <v>0.8536581307121022</v>
+        <v>0.9812269609802438</v>
       </c>
       <c r="C10">
-        <v>0.8839773469331993</v>
+        <v>0.9634357970020476</v>
       </c>
       <c r="D10">
-        <v>0.9813354878973249</v>
+        <v>0.9981603973462093</v>
       </c>
       <c r="E10">
-        <v>0.9416563567969064</v>
+        <v>0.9732306401937638</v>
       </c>
       <c r="F10">
-        <v>0.9937092466431376</v>
+        <v>0.9612438092186963</v>
       </c>
       <c r="G10">
-        <v>0.9616200354471864</v>
+        <v>0.9917295660652453</v>
       </c>
       <c r="H10">
-        <v>0.9969701519070535</v>
+        <v>0.9907973313876255</v>
       </c>
       <c r="I10">
-        <v>0.9745594155902932</v>
+        <v>0.9640601329195078</v>
       </c>
       <c r="J10">
-        <v>0.9551087254512209</v>
+        <v>0.9495055041391938</v>
       </c>
       <c r="K10">
-        <v>0.9985458441508342</v>
+        <v>0.9508080972435601</v>
       </c>
       <c r="L10">
-        <v>0.9867925585325532</v>
+        <v>0.9753454416718167</v>
       </c>
       <c r="M10">
-        <v>0.9890598045898539</v>
+        <v>0.9940866970923984</v>
       </c>
       <c r="N10">
-        <v>0.976568275125686</v>
+        <v>0.9940573063447172</v>
       </c>
       <c r="O10">
-        <v>0.9827490641323539</v>
+        <v>0.9616516799106715</v>
       </c>
       <c r="P10">
-        <v>0.993762113698678</v>
+        <v>0.9644671249039122</v>
       </c>
       <c r="Q10">
-        <v>0.9958786572376634</v>
+        <v>0.9692965470824212</v>
       </c>
       <c r="R10">
-        <v>0.9945058032173815</v>
+        <v>0.9786800355091771</v>
       </c>
       <c r="S10">
-        <v>0.9973270253521636</v>
+        <v>0.9568546555992369</v>
       </c>
       <c r="T10">
-        <v>0.9528150257871019</v>
+        <v>0.9685108270558892</v>
       </c>
       <c r="U10">
-        <v>0.9962476509165706</v>
+        <v>0.9837877569175772</v>
       </c>
       <c r="V10">
-        <v>0.9815149101137771</v>
+        <v>0.986597857421161</v>
       </c>
       <c r="W10">
-        <v>0.9974347403376284</v>
+        <v>0.9990640778189676</v>
       </c>
       <c r="X10">
-        <v>0.9962415124857836</v>
+        <v>0.9730005173534695</v>
       </c>
       <c r="Y10">
-        <v>0.9788949636492014</v>
+        <v>0.9547157854144032</v>
       </c>
       <c r="Z10">
-        <v>0.9491532786013713</v>
+        <v>0.9844488974481174</v>
       </c>
       <c r="AA10">
-        <v>0.9662727946076546</v>
+        <v>0.9660292473889172</v>
       </c>
       <c r="AB10">
-        <v>0.990028472785432</v>
+        <v>0.988197562808752</v>
       </c>
       <c r="AC10">
-        <v>0.9942558347812285</v>
+        <v>0.9552197279950687</v>
       </c>
       <c r="AD10">
-        <v>0.9840220159795191</v>
+        <v>0.979413146360952</v>
       </c>
       <c r="AE10">
-        <v>0.9950926212516019</v>
+        <v>0.9404420376428771</v>
       </c>
       <c r="AF10">
-        <v>0.973387318323205</v>
+        <v>0.9645098591256239</v>
       </c>
       <c r="AG10">
-        <v>0.9868218832775643</v>
+        <v>0.9726458932242901</v>
       </c>
       <c r="AH10">
-        <v>0.9989499588190903</v>
+        <v>0.9659344958927751</v>
       </c>
       <c r="AI10">
-        <v>0.9931028564961192</v>
+        <v>0.9621328662066077</v>
       </c>
       <c r="AJ10">
-        <v>0.9816272660880351</v>
+        <v>0.9750873157509617</v>
       </c>
       <c r="AK10">
-        <v>0.992067732068269</v>
+        <v>0.9778542369120803</v>
       </c>
       <c r="AL10">
-        <v>0.9732818246167273</v>
+        <v>0.9869058883287758</v>
       </c>
       <c r="AM10">
-        <v>0.992469886639568</v>
+        <v>0.9524025679223099</v>
       </c>
       <c r="AN10">
-        <v>0.9797208857565244</v>
+        <v>0.950154012137762</v>
       </c>
       <c r="AO10">
-        <v>0.9939535954401092</v>
+        <v>0.9629956235585312</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1788,124 +1788,124 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>0.8759325460436735</v>
+        <v>0.9908506776314671</v>
       </c>
       <c r="C11">
-        <v>0.8520979345316243</v>
+        <v>0.9812445723574993</v>
       </c>
       <c r="D11">
-        <v>0.9906226163122115</v>
+        <v>0.9969937028034335</v>
       </c>
       <c r="E11">
-        <v>0.9157930067968788</v>
+        <v>0.9869086215193984</v>
       </c>
       <c r="F11">
-        <v>0.977426113910828</v>
+        <v>0.9790084196097523</v>
       </c>
       <c r="G11">
-        <v>0.9353376634345798</v>
+        <v>0.9974428863826783</v>
       </c>
       <c r="H11">
-        <v>0.9845627877512664</v>
+        <v>0.9974837412043439</v>
       </c>
       <c r="I11">
-        <v>0.9476117959510173</v>
+        <v>0.9809691170034762</v>
       </c>
       <c r="J11">
-        <v>0.9643820221123698</v>
+        <v>0.9692226495345106</v>
       </c>
       <c r="K11">
-        <v>0.9981702883173678</v>
+        <v>0.9715307159594297</v>
       </c>
       <c r="L11">
-        <v>0.9908923766929196</v>
+        <v>0.989428320838765</v>
       </c>
       <c r="M11">
-        <v>0.9692737768188079</v>
+        <v>0.9989696643192666</v>
       </c>
       <c r="N11">
-        <v>0.9547307151957248</v>
+        <v>0.9980001338306504</v>
       </c>
       <c r="O11">
-        <v>0.9631456292124457</v>
+        <v>0.9803154794795537</v>
       </c>
       <c r="P11">
-        <v>0.9782889605212028</v>
+        <v>0.9819366277816588</v>
       </c>
       <c r="Q11">
-        <v>0.9817251710088637</v>
+        <v>0.9851671790708563</v>
       </c>
       <c r="R11">
-        <v>0.9873898321124125</v>
+        <v>0.9908846485896291</v>
       </c>
       <c r="S11">
-        <v>0.9878375012625521</v>
+        <v>0.975891188044724</v>
       </c>
       <c r="T11">
-        <v>0.9183457268677006</v>
+        <v>0.981898739591304</v>
       </c>
       <c r="U11">
-        <v>0.9875806124142892</v>
+        <v>0.9925391881213037</v>
       </c>
       <c r="V11">
-        <v>0.9585173111551775</v>
+        <v>0.9940138751875789</v>
       </c>
       <c r="W11">
-        <v>0.9860814516614703</v>
+        <v>0.9974949195881905</v>
       </c>
       <c r="X11">
-        <v>0.982572798115205</v>
+        <v>0.9870966815540114</v>
       </c>
       <c r="Y11">
-        <v>0.9535073000234503</v>
+        <v>0.9743676111317905</v>
       </c>
       <c r="Z11">
-        <v>0.9128362472678924</v>
+        <v>0.9933352833842147</v>
       </c>
       <c r="AA11">
-        <v>0.9423438706919662</v>
+        <v>0.9819476807135198</v>
       </c>
       <c r="AB11">
-        <v>0.9708941690724691</v>
+        <v>0.9964310222534433</v>
       </c>
       <c r="AC11">
-        <v>0.9785051789961017</v>
+        <v>0.9705129477847803</v>
       </c>
       <c r="AD11">
-        <v>0.963227637685665</v>
+        <v>0.9906537849188857</v>
       </c>
       <c r="AE11">
-        <v>0.9804182973619803</v>
+        <v>0.9612149705863092</v>
       </c>
       <c r="AF11">
-        <v>0.9461108816341763</v>
+        <v>0.9810992030609694</v>
       </c>
       <c r="AG11">
-        <v>0.9673302032580503</v>
+        <v>0.9869699666120285</v>
       </c>
       <c r="AH11">
-        <v>0.9935921234698942</v>
+        <v>0.9819223107629675</v>
       </c>
       <c r="AI11">
-        <v>0.9955950292984823</v>
+        <v>0.9802076520328975</v>
       </c>
       <c r="AJ11">
-        <v>0.9579688708732517</v>
+        <v>0.9872394590915136</v>
       </c>
       <c r="AK11">
-        <v>0.9744151496334285</v>
+        <v>0.9907475868196521</v>
       </c>
       <c r="AL11">
-        <v>0.9457689012097775</v>
+        <v>0.9934560502984726</v>
       </c>
       <c r="AM11">
-        <v>0.9788114372915051</v>
+        <v>0.9706379955178627</v>
       </c>
       <c r="AN11">
-        <v>0.9593554266550702</v>
+        <v>0.970741696549958</v>
       </c>
       <c r="AO11">
-        <v>0.9810788275216175</v>
+        <v>0.9775940888334501</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1913,124 +1913,124 @@
         <v>51</v>
       </c>
       <c r="B12">
-        <v>0.8724731961791831</v>
+        <v>0.9973581063194168</v>
       </c>
       <c r="C12">
-        <v>0.9039747289563891</v>
+        <v>0.9882513463082467</v>
       </c>
       <c r="D12">
-        <v>0.9852962667592964</v>
+        <v>0.9861381062528648</v>
       </c>
       <c r="E12">
-        <v>0.9552758610990919</v>
+        <v>0.9958568705096834</v>
       </c>
       <c r="F12">
-        <v>0.9933986134699592</v>
+        <v>0.9912667593892373</v>
       </c>
       <c r="G12">
-        <v>0.9537025928560071</v>
+        <v>0.9912758657690598</v>
       </c>
       <c r="H12">
-        <v>0.9976378465430538</v>
+        <v>0.9940209518971468</v>
       </c>
       <c r="I12">
-        <v>0.9775538189344373</v>
+        <v>0.9917908795623595</v>
       </c>
       <c r="J12">
-        <v>0.9655900477486292</v>
+        <v>0.990078031228279</v>
       </c>
       <c r="K12">
-        <v>0.9982313344237157</v>
+        <v>0.9858532176346647</v>
       </c>
       <c r="L12">
-        <v>0.9914107781579268</v>
+        <v>0.9914801417859012</v>
       </c>
       <c r="M12">
-        <v>0.9896371174858635</v>
+        <v>0.9907830416524545</v>
       </c>
       <c r="N12">
-        <v>0.9834232943079378</v>
+        <v>0.9935475916819854</v>
       </c>
       <c r="O12">
-        <v>0.9884002883726239</v>
+        <v>0.981634042648774</v>
       </c>
       <c r="P12">
-        <v>0.9954038768392401</v>
+        <v>0.9888241327560688</v>
       </c>
       <c r="Q12">
-        <v>0.9954666782854789</v>
+        <v>0.991256615581369</v>
       </c>
       <c r="R12">
-        <v>0.9985026325846188</v>
+        <v>0.9953190622137853</v>
       </c>
       <c r="S12">
-        <v>0.9993268802516616</v>
+        <v>0.9847189662320366</v>
       </c>
       <c r="T12">
-        <v>0.9576819714629846</v>
+        <v>0.99389094986089</v>
       </c>
       <c r="U12">
-        <v>0.9914163928564874</v>
+        <v>0.9934409024496126</v>
       </c>
       <c r="V12">
-        <v>0.9851135934407668</v>
+        <v>0.9978688878954046</v>
       </c>
       <c r="W12">
-        <v>0.9950162554907919</v>
+        <v>0.9723294717825348</v>
       </c>
       <c r="X12">
-        <v>0.995154841893602</v>
+        <v>0.9949692846654071</v>
       </c>
       <c r="Y12">
-        <v>0.9804209459609128</v>
+        <v>0.9853637228756892</v>
       </c>
       <c r="Z12">
-        <v>0.9520186107274695</v>
+        <v>0.9977531321549149</v>
       </c>
       <c r="AA12">
-        <v>0.975304673898357</v>
+        <v>0.9904948120342058</v>
       </c>
       <c r="AB12">
-        <v>0.9895233936088295</v>
+        <v>0.9894764251471719</v>
       </c>
       <c r="AC12">
-        <v>0.9943589767125527</v>
+        <v>0.9950752791692077</v>
       </c>
       <c r="AD12">
-        <v>0.9882518641599501</v>
+        <v>0.9960639839857428</v>
       </c>
       <c r="AE12">
-        <v>0.9958672811652974</v>
+        <v>0.9883189415405633</v>
       </c>
       <c r="AF12">
-        <v>0.97680347119211</v>
+        <v>0.9926558241653196</v>
       </c>
       <c r="AG12">
-        <v>0.9831996728476181</v>
+        <v>0.9932949320884535</v>
       </c>
       <c r="AH12">
-        <v>0.9954594705158674</v>
+        <v>0.9910224169747825</v>
       </c>
       <c r="AI12">
-        <v>0.9867490163224301</v>
+        <v>0.9838624037746916</v>
       </c>
       <c r="AJ12">
-        <v>0.9840959926250923</v>
+        <v>0.9980776551884435</v>
       </c>
       <c r="AK12">
-        <v>0.9919481498080356</v>
+        <v>0.9867217390473226</v>
       </c>
       <c r="AL12">
-        <v>0.9716725334482487</v>
+        <v>0.997137584408301</v>
       </c>
       <c r="AM12">
-        <v>0.9876465865733557</v>
+        <v>0.9928300180579399</v>
       </c>
       <c r="AN12">
-        <v>0.9734322422787824</v>
+        <v>0.9840795480863331</v>
       </c>
       <c r="AO12">
-        <v>0.9895581462213582</v>
+        <v>0.9963939606153714</v>
       </c>
     </row>
   </sheetData>
